--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R646"/>
+  <dimension ref="A1:R650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E631" t="n">
         <v>9</v>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -45789,32 +45789,32 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="K631" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L631" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M631" t="n">
-        <v>4000</v>
+        <v>8351</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>267</v>
+        <v>835</v>
       </c>
       <c r="Q631" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E632" t="n">
         <v>9</v>
@@ -45852,7 +45852,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
@@ -45861,32 +45861,32 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>65</v>
+        <v>1580</v>
       </c>
       <c r="K632" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L632" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M632" t="n">
-        <v>4000</v>
+        <v>11620</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>333</v>
+        <v>775</v>
       </c>
       <c r="Q632" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E633" t="n">
         <v>9</v>
@@ -45924,7 +45924,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -45933,32 +45933,32 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K633" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L633" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M633" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q633" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E634" t="n">
         <v>9</v>
@@ -45996,7 +45996,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -46005,16 +46005,16 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="K634" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L634" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M634" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="Q634" t="n">
         <v>15</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E635" t="n">
         <v>9</v>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46077,7 +46077,7 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K635" t="n">
         <v>4000</v>
@@ -46090,7 +46090,7 @@
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
@@ -46099,10 +46099,10 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="Q635" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R635" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E636" t="n">
         <v>9</v>
@@ -46140,7 +46140,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -46149,7 +46149,7 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K636" t="n">
         <v>4000</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E637" t="n">
         <v>9</v>
@@ -46212,7 +46212,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -46221,7 +46221,7 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K637" t="n">
         <v>4000</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E638" t="n">
         <v>9</v>
@@ -46284,7 +46284,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -46293,32 +46293,32 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>1100</v>
+        <v>155</v>
       </c>
       <c r="K638" t="n">
         <v>6000</v>
       </c>
       <c r="L638" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M638" t="n">
-        <v>6545</v>
+        <v>6000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>654</v>
+        <v>400</v>
       </c>
       <c r="Q638" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E639" t="n">
         <v>9</v>
@@ -46356,7 +46356,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
@@ -46365,32 +46365,32 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>1700</v>
+        <v>65</v>
       </c>
       <c r="K639" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L639" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M639" t="n">
-        <v>10529</v>
+        <v>4000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>702</v>
+        <v>333</v>
       </c>
       <c r="Q639" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E640" t="n">
         <v>9</v>
@@ -46428,41 +46428,41 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="K640" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L640" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M640" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="Q640" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E641" t="n">
         <v>9</v>
@@ -46500,7 +46500,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -46509,32 +46509,32 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="K641" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L641" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M641" t="n">
-        <v>6400</v>
+        <v>4000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>427</v>
+        <v>333</v>
       </c>
       <c r="Q641" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -46581,7 +46581,7 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K642" t="n">
         <v>6000</v>
@@ -46590,11 +46590,11 @@
         <v>7000</v>
       </c>
       <c r="M642" t="n">
-        <v>6417</v>
+        <v>6545</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -46603,10 +46603,10 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>428</v>
+        <v>654</v>
       </c>
       <c r="Q642" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46644,7 +46644,7 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -46653,16 +46653,16 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K643" t="n">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="L643" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M643" t="n">
-        <v>4091</v>
+        <v>10529</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>273</v>
+        <v>702</v>
       </c>
       <c r="Q643" t="n">
         <v>15</v>
@@ -46716,41 +46716,41 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="K644" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L644" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M644" t="n">
-        <v>6385</v>
+        <v>9000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>355</v>
+        <v>600</v>
       </c>
       <c r="Q644" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E645" t="n">
         <v>9</v>
@@ -46788,7 +46788,7 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -46797,7 +46797,7 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K645" t="n">
         <v>6000</v>
@@ -46806,11 +46806,11 @@
         <v>7000</v>
       </c>
       <c r="M645" t="n">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -46819,10 +46819,10 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>650</v>
+        <v>427</v>
       </c>
       <c r="Q645" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E646" t="n">
         <v>9</v>
@@ -46860,7 +46860,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -46869,16 +46869,16 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="K646" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L646" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M646" t="n">
-        <v>9556</v>
+        <v>6417</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,16 +46887,304 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>637</v>
+        <v>428</v>
       </c>
       <c r="Q646" t="n">
         <v>15</v>
       </c>
       <c r="R646" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>10</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D647" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E647" t="n">
+        <v>9</v>
+      </c>
+      <c r="F647" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J647" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K647" t="n">
+        <v>600</v>
+      </c>
+      <c r="L647" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M647" t="n">
+        <v>4091</v>
+      </c>
+      <c r="N647" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P647" t="n">
+        <v>273</v>
+      </c>
+      <c r="Q647" t="n">
+        <v>15</v>
+      </c>
+      <c r="R647" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>10</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D648" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E648" t="n">
+        <v>9</v>
+      </c>
+      <c r="F648" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J648" t="n">
+        <v>130</v>
+      </c>
+      <c r="K648" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L648" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M648" t="n">
+        <v>6385</v>
+      </c>
+      <c r="N648" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P648" t="n">
+        <v>355</v>
+      </c>
+      <c r="Q648" t="n">
+        <v>18</v>
+      </c>
+      <c r="R648" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>10</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D649" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E649" t="n">
+        <v>9</v>
+      </c>
+      <c r="F649" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J649" t="n">
+        <v>180</v>
+      </c>
+      <c r="K649" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L649" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M649" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N649" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O649" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P649" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q649" t="n">
+        <v>10</v>
+      </c>
+      <c r="R649" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>10</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D650" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E650" t="n">
+        <v>9</v>
+      </c>
+      <c r="F650" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J650" t="n">
+        <v>270</v>
+      </c>
+      <c r="K650" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L650" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M650" t="n">
+        <v>9556</v>
+      </c>
+      <c r="N650" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O650" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P650" t="n">
+        <v>637</v>
+      </c>
+      <c r="Q650" t="n">
+        <v>15</v>
+      </c>
+      <c r="R650" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R650"/>
+  <dimension ref="A1:R652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E589" t="n">
         <v>9</v>
@@ -42765,16 +42765,16 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="K589" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L589" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M589" t="n">
-        <v>4417</v>
+        <v>7864</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42783,11 +42783,11 @@
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>442</v>
+        <v>786</v>
       </c>
       <c r="Q589" t="n">
         <v>10</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E590" t="n">
         <v>9</v>
@@ -42828,7 +42828,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
@@ -42837,32 +42837,32 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>90</v>
+        <v>550</v>
       </c>
       <c r="K590" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L590" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M590" t="n">
-        <v>4444</v>
+        <v>10909</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>370</v>
+        <v>727</v>
       </c>
       <c r="Q590" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R590" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -42909,32 +42909,32 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="K591" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L591" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M591" t="n">
-        <v>3727</v>
+        <v>4417</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>248</v>
+        <v>442</v>
       </c>
       <c r="Q591" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
@@ -42972,7 +42972,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -42981,7 +42981,7 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>1600</v>
+        <v>90</v>
       </c>
       <c r="K592" t="n">
         <v>4000</v>
@@ -42990,23 +42990,23 @@
         <v>5000</v>
       </c>
       <c r="M592" t="n">
-        <v>4500</v>
+        <v>4444</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="Q592" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R592" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
@@ -43053,20 +43053,20 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K593" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L593" t="n">
         <v>4000</v>
       </c>
       <c r="M593" t="n">
-        <v>3400</v>
+        <v>3727</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -43075,10 +43075,10 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="Q593" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -43125,32 +43125,32 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K594" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L594" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M594" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q594" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R594" t="inlineStr">
         <is>
@@ -43188,7 +43188,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
@@ -43197,32 +43197,32 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K595" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L595" t="n">
         <v>4000</v>
       </c>
       <c r="M595" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="Q595" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R595" t="inlineStr">
         <is>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E596" t="n">
         <v>9</v>
@@ -43260,7 +43260,7 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
@@ -43269,32 +43269,32 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K596" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L596" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M596" t="n">
-        <v>7667</v>
+        <v>3500</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>767</v>
+        <v>292</v>
       </c>
       <c r="Q596" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R596" t="inlineStr">
         <is>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E597" t="n">
         <v>9</v>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -43341,16 +43341,16 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="K597" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L597" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M597" t="n">
-        <v>11455</v>
+        <v>4000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>764</v>
+        <v>267</v>
       </c>
       <c r="Q597" t="n">
         <v>15</v>
@@ -43404,7 +43404,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -43419,14 +43419,14 @@
         <v>7000</v>
       </c>
       <c r="L598" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M598" t="n">
-        <v>7000</v>
+        <v>7667</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -43435,10 +43435,10 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>467</v>
+        <v>767</v>
       </c>
       <c r="Q598" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
@@ -43485,16 +43485,16 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K599" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L599" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M599" t="n">
-        <v>7000</v>
+        <v>11455</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>467</v>
+        <v>764</v>
       </c>
       <c r="Q599" t="n">
         <v>15</v>
@@ -43548,7 +43548,7 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
@@ -43557,20 +43557,20 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K600" t="n">
         <v>7000</v>
       </c>
       <c r="L600" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M600" t="n">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
@@ -43579,10 +43579,10 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="Q600" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E601" t="n">
         <v>9</v>
@@ -43620,7 +43620,7 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
@@ -43629,16 +43629,16 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="K601" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L601" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M601" t="n">
-        <v>9361</v>
+        <v>7000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>624</v>
+        <v>467</v>
       </c>
       <c r="Q601" t="n">
         <v>15</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E602" t="n">
         <v>9</v>
@@ -43692,7 +43692,7 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
@@ -43701,32 +43701,32 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K602" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L602" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M602" t="n">
-        <v>14000</v>
+        <v>7400</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>933</v>
+        <v>411</v>
       </c>
       <c r="Q602" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E603" t="n">
         <v>9</v>
@@ -43773,16 +43773,16 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K603" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L603" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M603" t="n">
-        <v>11000</v>
+        <v>9361</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43791,11 +43791,11 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>733</v>
+        <v>624</v>
       </c>
       <c r="Q603" t="n">
         <v>15</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E604" t="n">
         <v>9</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K604" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L604" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M604" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="Q604" t="n">
         <v>15</v>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K605" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L605" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M605" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="Q605" t="n">
         <v>15</v>
@@ -43980,25 +43980,25 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K606" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L606" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M606" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44007,11 +44007,11 @@
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="Q606" t="n">
         <v>15</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E607" t="n">
         <v>9</v>
@@ -44052,7 +44052,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -44061,20 +44061,20 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>870</v>
+        <v>50</v>
       </c>
       <c r="K607" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L607" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M607" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
@@ -44083,10 +44083,10 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>750</v>
+        <v>467</v>
       </c>
       <c r="Q607" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R607" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E608" t="n">
         <v>9</v>
@@ -44124,7 +44124,7 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -44133,16 +44133,16 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>2655</v>
+        <v>100</v>
       </c>
       <c r="K608" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L608" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M608" t="n">
-        <v>11887</v>
+        <v>8000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>792</v>
+        <v>533</v>
       </c>
       <c r="Q608" t="n">
         <v>15</v>
@@ -44196,41 +44196,41 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>85</v>
+        <v>870</v>
       </c>
       <c r="K609" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L609" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M609" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="Q609" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>665</v>
+        <v>2655</v>
       </c>
       <c r="K610" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L610" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M610" t="n">
-        <v>7474</v>
+        <v>11887</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>498</v>
+        <v>792</v>
       </c>
       <c r="Q610" t="n">
         <v>15</v>
@@ -44340,25 +44340,25 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J611" t="n">
         <v>85</v>
       </c>
       <c r="K611" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L611" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M611" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q611" t="n">
         <v>15</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E612" t="n">
         <v>9</v>
@@ -44412,7 +44412,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -44421,32 +44421,32 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>215</v>
+        <v>665</v>
       </c>
       <c r="K612" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L612" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M612" t="n">
-        <v>8000</v>
+        <v>7474</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>800</v>
+        <v>498</v>
       </c>
       <c r="Q612" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R612" t="inlineStr">
         <is>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E613" t="n">
         <v>9</v>
@@ -44484,7 +44484,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>1150</v>
+        <v>85</v>
       </c>
       <c r="K613" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L613" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M613" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="Q613" t="n">
         <v>15</v>
@@ -44556,7 +44556,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -44565,20 +44565,20 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K614" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L614" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M614" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -44587,10 +44587,10 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q614" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E615" t="n">
         <v>9</v>
@@ -44628,7 +44628,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -44637,20 +44637,20 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>300</v>
+        <v>1150</v>
       </c>
       <c r="K615" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L615" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M615" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
@@ -44659,10 +44659,10 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="Q615" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E616" t="n">
         <v>9</v>
@@ -44700,7 +44700,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K616" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L616" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M616" t="n">
-        <v>3750</v>
+        <v>7000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>250</v>
+        <v>467</v>
       </c>
       <c r="Q616" t="n">
         <v>15</v>
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -44781,20 +44781,20 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K617" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L617" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M617" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -44803,10 +44803,10 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q617" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -44853,7 +44853,7 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K618" t="n">
         <v>3500</v>
@@ -44862,11 +44862,11 @@
         <v>4000</v>
       </c>
       <c r="M618" t="n">
-        <v>3722</v>
+        <v>3750</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
@@ -44875,10 +44875,10 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="Q618" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R618" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -44925,32 +44925,32 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K619" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L619" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M619" t="n">
-        <v>3750</v>
+        <v>4500</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Q619" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E620" t="n">
         <v>9</v>
@@ -44988,7 +44988,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -44997,32 +44997,32 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="K620" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="L620" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M620" t="n">
-        <v>11333</v>
+        <v>3722</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>756</v>
+        <v>310</v>
       </c>
       <c r="Q620" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E621" t="n">
         <v>9</v>
@@ -45069,32 +45069,32 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="K621" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L621" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M621" t="n">
-        <v>10000</v>
+        <v>3750</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>667</v>
+        <v>312</v>
       </c>
       <c r="Q621" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E622" t="n">
         <v>9</v>
@@ -45141,16 +45141,16 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>65</v>
+        <v>375</v>
       </c>
       <c r="K622" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L622" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M622" t="n">
-        <v>7462</v>
+        <v>11333</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>497</v>
+        <v>756</v>
       </c>
       <c r="Q622" t="n">
         <v>15</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E623" t="n">
         <v>9</v>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -45213,16 +45213,16 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K623" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L623" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M623" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="Q623" t="n">
         <v>15</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E624" t="n">
         <v>9</v>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,7 +45285,7 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="K624" t="n">
         <v>7000</v>
@@ -45294,23 +45294,23 @@
         <v>8000</v>
       </c>
       <c r="M624" t="n">
-        <v>7500</v>
+        <v>7462</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>750</v>
+        <v>497</v>
       </c>
       <c r="Q624" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E625" t="n">
         <v>9</v>
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>700</v>
+        <v>45</v>
       </c>
       <c r="K625" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L625" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M625" t="n">
-        <v>13571</v>
+        <v>8000</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>905</v>
+        <v>533</v>
       </c>
       <c r="Q625" t="n">
         <v>15</v>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45429,7 +45429,7 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K626" t="n">
         <v>7000</v>
@@ -45438,11 +45438,11 @@
         <v>8000</v>
       </c>
       <c r="M626" t="n">
-        <v>7556</v>
+        <v>7500</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
@@ -45451,10 +45451,10 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>504</v>
+        <v>750</v>
       </c>
       <c r="Q626" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="K627" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L627" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M627" t="n">
-        <v>7556</v>
+        <v>13571</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>504</v>
+        <v>905</v>
       </c>
       <c r="Q627" t="n">
         <v>15</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E628" t="n">
         <v>9</v>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -45573,32 +45573,32 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="K628" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L628" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M628" t="n">
-        <v>6526</v>
+        <v>7556</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="Q628" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E629" t="n">
         <v>9</v>
@@ -45636,7 +45636,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -45645,16 +45645,16 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>145</v>
+        <v>450</v>
       </c>
       <c r="K629" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L629" t="n">
         <v>8000</v>
       </c>
       <c r="M629" t="n">
-        <v>7793</v>
+        <v>7556</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="Q629" t="n">
         <v>15</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E630" t="n">
         <v>9</v>
@@ -45708,7 +45708,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -45717,32 +45717,32 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="K630" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L630" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M630" t="n">
-        <v>8500</v>
+        <v>6526</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="Q630" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E631" t="n">
         <v>9</v>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -45789,32 +45789,32 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="K631" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L631" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M631" t="n">
-        <v>8351</v>
+        <v>7793</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>835</v>
+        <v>520</v>
       </c>
       <c r="Q631" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E632" t="n">
         <v>9</v>
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>1580</v>
+        <v>500</v>
       </c>
       <c r="K632" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L632" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M632" t="n">
-        <v>11620</v>
+        <v>8500</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>775</v>
+        <v>567</v>
       </c>
       <c r="Q632" t="n">
         <v>15</v>
@@ -45924,7 +45924,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -45933,20 +45933,20 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="K633" t="n">
         <v>7000</v>
       </c>
       <c r="L633" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M633" t="n">
-        <v>7000</v>
+        <v>8351</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -45955,10 +45955,10 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>467</v>
+        <v>835</v>
       </c>
       <c r="Q633" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -46005,16 +46005,16 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>75</v>
+        <v>1580</v>
       </c>
       <c r="K634" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L634" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M634" t="n">
-        <v>7000</v>
+        <v>11620</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>467</v>
+        <v>775</v>
       </c>
       <c r="Q634" t="n">
         <v>15</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E635" t="n">
         <v>9</v>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46080,13 +46080,13 @@
         <v>125</v>
       </c>
       <c r="K635" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L635" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M635" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>267</v>
+        <v>467</v>
       </c>
       <c r="Q635" t="n">
         <v>15</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E636" t="n">
         <v>9</v>
@@ -46140,7 +46140,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -46149,32 +46149,32 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K636" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L636" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M636" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q636" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46212,7 +46212,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -46221,7 +46221,7 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K637" t="n">
         <v>4000</v>
@@ -46234,7 +46234,7 @@
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
@@ -46243,10 +46243,10 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="Q637" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E638" t="n">
         <v>9</v>
@@ -46284,7 +46284,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -46293,20 +46293,20 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="K638" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L638" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M638" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -46315,10 +46315,10 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="Q638" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E639" t="n">
         <v>9</v>
@@ -46356,7 +46356,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
@@ -46428,7 +46428,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -46437,20 +46437,20 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="K640" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L640" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M640" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -46459,10 +46459,10 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q640" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -46509,7 +46509,7 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K641" t="n">
         <v>4000</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E642" t="n">
         <v>9</v>
@@ -46572,7 +46572,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -46581,32 +46581,32 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>1100</v>
+        <v>95</v>
       </c>
       <c r="K642" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L642" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M642" t="n">
-        <v>6545</v>
+        <v>4000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>654</v>
+        <v>333</v>
       </c>
       <c r="Q642" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E643" t="n">
         <v>9</v>
@@ -46644,7 +46644,7 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -46653,32 +46653,32 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>1700</v>
+        <v>85</v>
       </c>
       <c r="K643" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L643" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M643" t="n">
-        <v>10529</v>
+        <v>4000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>702</v>
+        <v>333</v>
       </c>
       <c r="Q643" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46716,41 +46716,41 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K644" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L644" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M644" t="n">
-        <v>9000</v>
+        <v>6545</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>600</v>
+        <v>654</v>
       </c>
       <c r="Q644" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46788,7 +46788,7 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>250</v>
+        <v>1700</v>
       </c>
       <c r="K645" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L645" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M645" t="n">
-        <v>6400</v>
+        <v>10529</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>427</v>
+        <v>702</v>
       </c>
       <c r="Q645" t="n">
         <v>15</v>
@@ -46860,38 +46860,38 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J646" t="n">
+        <v>300</v>
+      </c>
+      <c r="K646" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L646" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M646" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N646" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O646" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P646" t="n">
         <v>600</v>
-      </c>
-      <c r="K646" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L646" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M646" t="n">
-        <v>6417</v>
-      </c>
-      <c r="N646" t="inlineStr">
-        <is>
-          <t>$/caja 15 unidades</t>
-        </is>
-      </c>
-      <c r="O646" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P646" t="n">
-        <v>428</v>
       </c>
       <c r="Q646" t="n">
         <v>15</v>
@@ -46932,7 +46932,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -46941,16 +46941,16 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K647" t="n">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="L647" t="n">
         <v>7000</v>
       </c>
       <c r="M647" t="n">
-        <v>4091</v>
+        <v>6400</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>273</v>
+        <v>427</v>
       </c>
       <c r="Q647" t="n">
         <v>15</v>
@@ -47004,7 +47004,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -47013,7 +47013,7 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>130</v>
+        <v>600</v>
       </c>
       <c r="K648" t="n">
         <v>6000</v>
@@ -47022,11 +47022,11 @@
         <v>7000</v>
       </c>
       <c r="M648" t="n">
-        <v>6385</v>
+        <v>6417</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
@@ -47035,10 +47035,10 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>355</v>
+        <v>428</v>
       </c>
       <c r="Q648" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E649" t="n">
         <v>9</v>
@@ -47076,7 +47076,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -47085,20 +47085,20 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>180</v>
+        <v>1100</v>
       </c>
       <c r="K649" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="L649" t="n">
         <v>7000</v>
       </c>
       <c r="M649" t="n">
-        <v>6500</v>
+        <v>4091</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -47107,10 +47107,10 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>650</v>
+        <v>273</v>
       </c>
       <c r="Q649" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47133,58 +47133,202 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E650" t="n">
+        <v>9</v>
+      </c>
+      <c r="F650" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J650" t="n">
+        <v>130</v>
+      </c>
+      <c r="K650" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L650" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M650" t="n">
+        <v>6385</v>
+      </c>
+      <c r="N650" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O650" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P650" t="n">
+        <v>355</v>
+      </c>
+      <c r="Q650" t="n">
+        <v>18</v>
+      </c>
+      <c r="R650" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>10</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D651" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E650" t="n">
-        <v>9</v>
-      </c>
-      <c r="F650" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G650" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H650" t="inlineStr">
+      <c r="E651" t="n">
+        <v>9</v>
+      </c>
+      <c r="F651" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J651" t="n">
+        <v>180</v>
+      </c>
+      <c r="K651" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L651" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M651" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N651" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O651" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P651" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q651" t="n">
+        <v>10</v>
+      </c>
+      <c r="R651" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>10</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D652" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E652" t="n">
+        <v>9</v>
+      </c>
+      <c r="F652" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
         <is>
           <t>Escarola</t>
         </is>
       </c>
-      <c r="I650" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J650" t="n">
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J652" t="n">
         <v>270</v>
       </c>
-      <c r="K650" t="n">
+      <c r="K652" t="n">
         <v>9000</v>
       </c>
-      <c r="L650" t="n">
+      <c r="L652" t="n">
         <v>10000</v>
       </c>
-      <c r="M650" t="n">
+      <c r="M652" t="n">
         <v>9556</v>
       </c>
-      <c r="N650" t="inlineStr">
+      <c r="N652" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O650" t="inlineStr">
+      <c r="O652" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P650" t="n">
+      <c r="P652" t="n">
         <v>637</v>
       </c>
-      <c r="Q650" t="n">
+      <c r="Q652" t="n">
         <v>15</v>
       </c>
-      <c r="R650" t="inlineStr">
+      <c r="R652" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R677"/>
+  <dimension ref="A1:R681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E622" t="n">
         <v>9</v>
@@ -45141,16 +45141,16 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K622" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L622" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M622" t="n">
-        <v>7292</v>
+        <v>8500</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>729</v>
+        <v>850</v>
       </c>
       <c r="Q622" t="n">
         <v>10</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E623" t="n">
         <v>9</v>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -45213,32 +45213,32 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K623" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L623" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M623" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q623" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E624" t="n">
         <v>9</v>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K624" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L624" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M624" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="Q624" t="n">
         <v>15</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E625" t="n">
         <v>9</v>
@@ -45348,7 +45348,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K625" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L625" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M625" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q625" t="n">
         <v>15</v>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45429,32 +45429,32 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K626" t="n">
         <v>7000</v>
       </c>
       <c r="L626" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M626" t="n">
-        <v>7000</v>
+        <v>7292</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>467</v>
+        <v>729</v>
       </c>
       <c r="Q626" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E627" t="n">
         <v>9</v>
@@ -45501,32 +45501,32 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K627" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L627" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M627" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="Q627" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E628" t="n">
         <v>9</v>
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="K628" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L628" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M628" t="n">
-        <v>5444</v>
+        <v>9000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>363</v>
+        <v>600</v>
       </c>
       <c r="Q628" t="n">
         <v>15</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E629" t="n">
         <v>9</v>
@@ -45645,32 +45645,32 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K629" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L629" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M629" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q629" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E630" t="n">
         <v>9</v>
@@ -45717,32 +45717,32 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K630" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L630" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M630" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q630" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E631" t="n">
         <v>9</v>
@@ -45789,7 +45789,7 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K631" t="n">
         <v>4000</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E632" t="n">
         <v>9</v>
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K632" t="n">
         <v>5000</v>
       </c>
       <c r="L632" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M632" t="n">
-        <v>5000</v>
+        <v>5444</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="Q632" t="n">
         <v>15</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E633" t="n">
         <v>9</v>
@@ -45924,7 +45924,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -45933,7 +45933,7 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K633" t="n">
         <v>4000</v>
@@ -45946,19 +45946,19 @@
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="Q633" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E634" t="n">
         <v>9</v>
@@ -45996,7 +45996,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -46005,16 +46005,16 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K634" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L634" t="n">
         <v>4000</v>
       </c>
       <c r="M634" t="n">
-        <v>3444</v>
+        <v>4000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="Q634" t="n">
         <v>12</v>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46077,16 +46077,16 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="K635" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L635" t="n">
         <v>4000</v>
       </c>
       <c r="M635" t="n">
-        <v>3455</v>
+        <v>4000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="Q635" t="n">
         <v>12</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E636" t="n">
         <v>9</v>
@@ -46140,7 +46140,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -46149,32 +46149,32 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K636" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L636" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M636" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>725</v>
+        <v>333</v>
       </c>
       <c r="Q636" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E637" t="n">
         <v>9</v>
@@ -46221,16 +46221,16 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K637" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L637" t="n">
-        <v>11500</v>
+        <v>4000</v>
       </c>
       <c r="M637" t="n">
-        <v>10750</v>
+        <v>4000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>717</v>
+        <v>267</v>
       </c>
       <c r="Q637" t="n">
         <v>15</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E638" t="n">
         <v>9</v>
@@ -46284,7 +46284,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -46293,32 +46293,32 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K638" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L638" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M638" t="n">
-        <v>7250</v>
+        <v>3444</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>483</v>
+        <v>287</v>
       </c>
       <c r="Q638" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E639" t="n">
         <v>9</v>
@@ -46356,7 +46356,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
@@ -46365,32 +46365,32 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="K639" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L639" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M639" t="n">
-        <v>7250</v>
+        <v>3455</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q639" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -46428,7 +46428,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -46437,7 +46437,7 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>650</v>
+        <v>1600</v>
       </c>
       <c r="K640" t="n">
         <v>7000</v>
@@ -46446,11 +46446,11 @@
         <v>7500</v>
       </c>
       <c r="M640" t="n">
-        <v>7269</v>
+        <v>7250</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -46459,10 +46459,10 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>485</v>
+        <v>725</v>
       </c>
       <c r="Q640" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -46509,32 +46509,32 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K641" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L641" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="M641" t="n">
-        <v>7000</v>
+        <v>10750</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>389</v>
+        <v>717</v>
       </c>
       <c r="Q641" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E642" t="n">
         <v>9</v>
@@ -46572,7 +46572,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -46587,14 +46587,14 @@
         <v>7000</v>
       </c>
       <c r="L642" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M642" t="n">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -46603,10 +46603,10 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>700</v>
+        <v>483</v>
       </c>
       <c r="Q642" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E643" t="n">
         <v>9</v>
@@ -46644,29 +46644,29 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K643" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L643" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M643" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -46675,10 +46675,10 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="Q643" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E644" t="n">
         <v>9</v>
@@ -46716,7 +46716,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
@@ -46725,16 +46725,16 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="K644" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L644" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M644" t="n">
-        <v>12000</v>
+        <v>7269</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>800</v>
+        <v>485</v>
       </c>
       <c r="Q644" t="n">
         <v>15</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E645" t="n">
         <v>9</v>
@@ -46788,7 +46788,7 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -46797,7 +46797,7 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K645" t="n">
         <v>7000</v>
@@ -46810,7 +46810,7 @@
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -46819,10 +46819,10 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="Q645" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -46882,7 +46882,7 @@
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
@@ -46891,10 +46891,10 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q646" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R646" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E647" t="n">
         <v>9</v>
@@ -46937,36 +46937,36 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K647" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L647" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M647" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="Q647" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E648" t="n">
         <v>9</v>
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="K648" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L648" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M648" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q648" t="n">
         <v>15</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E649" t="n">
         <v>9</v>
@@ -47085,32 +47085,32 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K649" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L649" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M649" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q649" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E650" t="n">
         <v>9</v>
@@ -47157,32 +47157,32 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K650" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L650" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M650" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q650" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E651" t="n">
         <v>9</v>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -47229,7 +47229,7 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="K651" t="n">
         <v>7000</v>
@@ -47242,7 +47242,7 @@
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -47251,10 +47251,10 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>467</v>
+        <v>583</v>
       </c>
       <c r="Q651" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E652" t="n">
         <v>9</v>
@@ -47292,7 +47292,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -47301,20 +47301,20 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K652" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L652" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M652" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
@@ -47323,10 +47323,10 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q652" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E653" t="n">
         <v>9</v>
@@ -47364,7 +47364,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -47373,20 +47373,20 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K653" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L653" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M653" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
@@ -47395,10 +47395,10 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q653" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E654" t="n">
         <v>9</v>
@@ -47436,29 +47436,29 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J654" t="n">
         <v>50</v>
       </c>
       <c r="K654" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L654" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M654" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -47467,10 +47467,10 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q654" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R654" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E655" t="n">
         <v>9</v>
@@ -47508,7 +47508,7 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
@@ -47517,20 +47517,20 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="K655" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L655" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M655" t="n">
-        <v>3750</v>
+        <v>7000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -47539,10 +47539,10 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="Q655" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="K656" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L656" t="n">
         <v>4000</v>
       </c>
       <c r="M656" t="n">
-        <v>3727</v>
+        <v>4000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="Q656" t="n">
         <v>12</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E657" t="n">
         <v>9</v>
@@ -47661,16 +47661,16 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="K657" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L657" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M657" t="n">
-        <v>7458</v>
+        <v>3750</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="Q657" t="n">
         <v>15</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E658" t="n">
         <v>9</v>
@@ -47724,29 +47724,29 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="K658" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L658" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M658" t="n">
-        <v>5588</v>
+        <v>3000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
@@ -47755,10 +47755,10 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>466</v>
+        <v>200</v>
       </c>
       <c r="Q658" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R658" t="inlineStr">
         <is>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E659" t="n">
         <v>9</v>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -47805,16 +47805,16 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K659" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L659" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M659" t="n">
-        <v>5400</v>
+        <v>3750</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="Q659" t="n">
         <v>12</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E660" t="n">
         <v>9</v>
@@ -47868,7 +47868,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
@@ -47877,32 +47877,32 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K660" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L660" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M660" t="n">
-        <v>10000</v>
+        <v>3727</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>1000</v>
+        <v>311</v>
       </c>
       <c r="Q660" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E661" t="n">
         <v>9</v>
@@ -47949,16 +47949,16 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>375</v>
+        <v>830</v>
       </c>
       <c r="K661" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L661" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M661" t="n">
-        <v>11333</v>
+        <v>7458</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>756</v>
+        <v>497</v>
       </c>
       <c r="Q661" t="n">
         <v>15</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E662" t="n">
         <v>9</v>
@@ -48012,7 +48012,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -48021,32 +48021,32 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K662" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L662" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M662" t="n">
-        <v>10000</v>
+        <v>5588</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>667</v>
+        <v>466</v>
       </c>
       <c r="Q662" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E663" t="n">
         <v>9</v>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -48093,32 +48093,32 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K663" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L663" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M663" t="n">
-        <v>10000</v>
+        <v>5400</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>667</v>
+        <v>450</v>
       </c>
       <c r="Q663" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E664" t="n">
         <v>9</v>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,32 +48165,32 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K664" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L664" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M664" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q664" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E665" t="n">
         <v>9</v>
@@ -48228,7 +48228,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -48237,32 +48237,32 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="K665" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L665" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M665" t="n">
-        <v>7000</v>
+        <v>11333</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>700</v>
+        <v>756</v>
       </c>
       <c r="Q665" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E666" t="n">
         <v>9</v>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48309,16 +48309,16 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="K666" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L666" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M666" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q666" t="n">
         <v>15</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E667" t="n">
         <v>9</v>
@@ -48372,7 +48372,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K667" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L667" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M667" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q667" t="n">
         <v>15</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E668" t="n">
         <v>9</v>
@@ -48444,7 +48444,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -48453,16 +48453,16 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="K668" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L668" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M668" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q668" t="n">
         <v>15</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E669" t="n">
         <v>9</v>
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K669" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L669" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M669" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q669" t="n">
         <v>10</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E670" t="n">
         <v>9</v>
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="K670" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L670" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M670" t="n">
-        <v>5422</v>
+        <v>9000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>361</v>
+        <v>600</v>
       </c>
       <c r="Q670" t="n">
         <v>15</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E671" t="n">
         <v>9</v>
@@ -48669,32 +48669,32 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K671" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L671" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M671" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="Q671" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E672" t="n">
         <v>9</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K672" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L672" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M672" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>933</v>
+        <v>467</v>
       </c>
       <c r="Q672" t="n">
         <v>15</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E673" t="n">
         <v>9</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,32 +48813,32 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K673" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L673" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M673" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P673" t="n">
         <v>600</v>
       </c>
       <c r="Q673" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E674" t="n">
         <v>9</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,16 +48885,16 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="K674" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L674" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M674" t="n">
-        <v>9000</v>
+        <v>5422</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>600</v>
+        <v>361</v>
       </c>
       <c r="Q674" t="n">
         <v>15</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E675" t="n">
         <v>9</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,32 +48957,32 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="K675" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L675" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M675" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>700</v>
+        <v>417</v>
       </c>
       <c r="Q675" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E676" t="n">
         <v>9</v>
@@ -49029,16 +49029,16 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K676" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L676" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M676" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="Q676" t="n">
         <v>15</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E677" t="n">
         <v>9</v>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="K677" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L677" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M677" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,16 +49119,304 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q677" t="n">
         <v>15</v>
       </c>
       <c r="R677" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>10</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D678" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E678" t="n">
+        <v>9</v>
+      </c>
+      <c r="F678" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J678" t="n">
+        <v>300</v>
+      </c>
+      <c r="K678" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L678" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M678" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N678" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O678" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P678" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q678" t="n">
+        <v>15</v>
+      </c>
+      <c r="R678" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>10</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D679" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E679" t="n">
+        <v>9</v>
+      </c>
+      <c r="F679" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J679" t="n">
+        <v>45</v>
+      </c>
+      <c r="K679" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L679" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M679" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N679" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O679" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P679" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q679" t="n">
+        <v>10</v>
+      </c>
+      <c r="R679" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>10</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D680" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E680" t="n">
+        <v>9</v>
+      </c>
+      <c r="F680" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J680" t="n">
+        <v>150</v>
+      </c>
+      <c r="K680" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L680" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M680" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N680" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O680" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P680" t="n">
+        <v>533</v>
+      </c>
+      <c r="Q680" t="n">
+        <v>15</v>
+      </c>
+      <c r="R680" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>10</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D681" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E681" t="n">
+        <v>9</v>
+      </c>
+      <c r="F681" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J681" t="n">
+        <v>55</v>
+      </c>
+      <c r="K681" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L681" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M681" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N681" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O681" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P681" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q681" t="n">
+        <v>15</v>
+      </c>
+      <c r="R681" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R685"/>
+  <dimension ref="A1:R689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E532" t="n">
         <v>9</v>
@@ -38652,7 +38652,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -38661,32 +38661,32 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K532" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L532" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M532" t="n">
-        <v>3556</v>
+        <v>7600</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>237</v>
+        <v>760</v>
       </c>
       <c r="Q532" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E533" t="n">
         <v>9</v>
@@ -38724,7 +38724,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -38733,32 +38733,32 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K533" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L533" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M533" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>333</v>
+        <v>633</v>
       </c>
       <c r="Q533" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R533" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E534" t="n">
         <v>9</v>
@@ -38796,7 +38796,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -38805,32 +38805,32 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K534" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L534" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M534" t="n">
-        <v>4000</v>
+        <v>7385</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>333</v>
+        <v>492</v>
       </c>
       <c r="Q534" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E535" t="n">
         <v>9</v>
@@ -38868,7 +38868,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -38877,32 +38877,32 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="K535" t="n">
         <v>7000</v>
       </c>
       <c r="L535" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M535" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q535" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E536" t="n">
         <v>9</v>
@@ -38940,7 +38940,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -38949,32 +38949,32 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K536" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L536" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M536" t="n">
-        <v>8000</v>
+        <v>3556</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>800</v>
+        <v>237</v>
       </c>
       <c r="Q536" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E537" t="n">
         <v>9</v>
@@ -39012,41 +39012,41 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K537" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L537" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M537" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q537" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E538" t="n">
         <v>9</v>
@@ -39084,7 +39084,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -39093,32 +39093,32 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="K538" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L538" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M538" t="n">
-        <v>8400</v>
+        <v>4000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>560</v>
+        <v>333</v>
       </c>
       <c r="Q538" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39156,7 +39156,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -39165,32 +39165,32 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="K539" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L539" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M539" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q539" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
@@ -39228,7 +39228,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -39237,32 +39237,32 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K540" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L540" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M540" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q540" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R540" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E541" t="n">
         <v>9</v>
@@ -39300,41 +39300,41 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K541" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L541" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M541" t="n">
-        <v>9361</v>
+        <v>5000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>624</v>
+        <v>500</v>
       </c>
       <c r="Q541" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R541" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E542" t="n">
         <v>9</v>
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>95</v>
+        <v>2000</v>
       </c>
       <c r="K542" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L542" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M542" t="n">
-        <v>6737</v>
+        <v>8400</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>449</v>
+        <v>560</v>
       </c>
       <c r="Q542" t="n">
         <v>15</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E543" t="n">
         <v>9</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>325</v>
+        <v>1200</v>
       </c>
       <c r="K543" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L543" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M543" t="n">
-        <v>6615</v>
+        <v>8000</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39471,11 +39471,11 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>441</v>
+        <v>533</v>
       </c>
       <c r="Q543" t="n">
         <v>15</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E544" t="n">
         <v>9</v>
@@ -39516,7 +39516,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
@@ -39525,16 +39525,16 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="K544" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L544" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M544" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q544" t="n">
         <v>15</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E545" t="n">
         <v>9</v>
@@ -39588,7 +39588,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -39597,20 +39597,20 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="K545" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L545" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M545" t="n">
-        <v>6526</v>
+        <v>9361</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
@@ -39619,10 +39619,10 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>544</v>
+        <v>624</v>
       </c>
       <c r="Q545" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R545" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E546" t="n">
         <v>9</v>
@@ -39660,7 +39660,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -39669,32 +39669,32 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="K546" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L546" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M546" t="n">
-        <v>4000</v>
+        <v>6737</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="Q546" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R546" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E547" t="n">
         <v>9</v>
@@ -39732,7 +39732,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -39741,32 +39741,32 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>85</v>
+        <v>325</v>
       </c>
       <c r="K547" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L547" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M547" t="n">
-        <v>4000</v>
+        <v>6615</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="Q547" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R547" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E548" t="n">
         <v>9</v>
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>650</v>
+        <v>185</v>
       </c>
       <c r="K548" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L548" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M548" t="n">
-        <v>3692</v>
+        <v>9000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>246</v>
+        <v>600</v>
       </c>
       <c r="Q548" t="n">
         <v>15</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E549" t="n">
         <v>9</v>
@@ -39876,7 +39876,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -39885,16 +39885,16 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K549" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L549" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M549" t="n">
-        <v>4000</v>
+        <v>6526</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>333</v>
+        <v>544</v>
       </c>
       <c r="Q549" t="n">
         <v>12</v>
@@ -39948,7 +39948,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -39957,7 +39957,7 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="K550" t="n">
         <v>4000</v>
@@ -39970,7 +39970,7 @@
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -39979,10 +39979,10 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q550" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R550" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E551" t="n">
         <v>9</v>
@@ -40029,7 +40029,7 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K551" t="n">
         <v>4000</v>
@@ -40047,7 +40047,7 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P551" t="n">
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E552" t="n">
         <v>9</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40101,32 +40101,32 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>120</v>
+        <v>650</v>
       </c>
       <c r="K552" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L552" t="n">
         <v>4000</v>
       </c>
-      <c r="L552" t="n">
-        <v>4500</v>
-      </c>
       <c r="M552" t="n">
-        <v>4229</v>
+        <v>3692</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>423</v>
+        <v>246</v>
       </c>
       <c r="Q552" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R552" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E553" t="n">
         <v>9</v>
@@ -40164,7 +40164,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -40173,20 +40173,20 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>405</v>
+        <v>65</v>
       </c>
       <c r="K553" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L553" t="n">
         <v>4000</v>
       </c>
       <c r="M553" t="n">
-        <v>3691</v>
+        <v>4000</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
@@ -40195,10 +40195,10 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="Q553" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R553" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E554" t="n">
         <v>9</v>
@@ -40236,7 +40236,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -40308,7 +40308,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -40317,7 +40317,7 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K555" t="n">
         <v>4000</v>
@@ -40330,7 +40330,7 @@
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
@@ -40339,10 +40339,10 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q555" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R555" t="inlineStr">
         <is>
@@ -40380,7 +40380,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -40389,32 +40389,32 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="K556" t="n">
         <v>4000</v>
       </c>
       <c r="L556" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M556" t="n">
-        <v>4000</v>
+        <v>4229</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="Q556" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R556" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E557" t="n">
         <v>9</v>
@@ -40452,7 +40452,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -40461,32 +40461,32 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="K557" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L557" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M557" t="n">
-        <v>10000</v>
+        <v>3691</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>1000</v>
+        <v>246</v>
       </c>
       <c r="Q557" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R557" t="inlineStr">
         <is>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E558" t="n">
         <v>9</v>
@@ -40524,7 +40524,7 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -40533,32 +40533,32 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="K558" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L558" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M558" t="n">
-        <v>10400</v>
+        <v>4000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>693</v>
+        <v>333</v>
       </c>
       <c r="Q558" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R558" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E559" t="n">
         <v>9</v>
@@ -40596,7 +40596,7 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -40605,32 +40605,32 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="K559" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L559" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M559" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="Q559" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R559" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E560" t="n">
         <v>9</v>
@@ -40668,41 +40668,41 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K560" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L560" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M560" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="Q560" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R560" t="inlineStr">
         <is>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E561" t="n">
         <v>9</v>
@@ -40740,7 +40740,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -40749,20 +40749,20 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K561" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L561" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M561" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
@@ -40771,10 +40771,10 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>467</v>
+        <v>1000</v>
       </c>
       <c r="Q561" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E562" t="n">
         <v>9</v>
@@ -40812,7 +40812,7 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
@@ -40821,32 +40821,32 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K562" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L562" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M562" t="n">
-        <v>4450</v>
+        <v>10400</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>371</v>
+        <v>693</v>
       </c>
       <c r="Q562" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R562" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E563" t="n">
         <v>9</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="K563" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L563" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M563" t="n">
-        <v>5444</v>
+        <v>12000</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>363</v>
+        <v>800</v>
       </c>
       <c r="Q563" t="n">
         <v>15</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E564" t="n">
         <v>9</v>
@@ -40956,29 +40956,29 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>530</v>
+        <v>85</v>
       </c>
       <c r="K564" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L564" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M564" t="n">
-        <v>6236</v>
+        <v>10000</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
@@ -40987,10 +40987,10 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="Q564" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R564" t="inlineStr">
         <is>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E565" t="n">
         <v>9</v>
@@ -41028,7 +41028,7 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>1200</v>
+        <v>95</v>
       </c>
       <c r="K565" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L565" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M565" t="n">
-        <v>9417</v>
+        <v>7000</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>628</v>
+        <v>467</v>
       </c>
       <c r="Q565" t="n">
         <v>15</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E566" t="n">
         <v>9</v>
@@ -41100,7 +41100,7 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -41109,32 +41109,32 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K566" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L566" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M566" t="n">
-        <v>9000</v>
+        <v>4450</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>600</v>
+        <v>371</v>
       </c>
       <c r="Q566" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R566" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E567" t="n">
         <v>9</v>
@@ -41172,7 +41172,7 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K567" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L567" t="n">
         <v>6000</v>
       </c>
       <c r="M567" t="n">
-        <v>6000</v>
+        <v>5444</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="Q567" t="n">
         <v>15</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E568" t="n">
         <v>9</v>
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>50</v>
+        <v>530</v>
       </c>
       <c r="K568" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L568" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M568" t="n">
-        <v>7000</v>
+        <v>6236</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>700</v>
+        <v>624</v>
       </c>
       <c r="Q568" t="n">
         <v>10</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E569" t="n">
         <v>9</v>
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K569" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L569" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M569" t="n">
-        <v>7400</v>
+        <v>9417</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>493</v>
+        <v>628</v>
       </c>
       <c r="Q569" t="n">
         <v>15</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E570" t="n">
         <v>9</v>
@@ -41388,7 +41388,7 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K570" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L570" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M570" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q570" t="n">
         <v>15</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E571" t="n">
         <v>9</v>
@@ -41469,16 +41469,16 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K571" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L571" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M571" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q571" t="n">
         <v>15</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E572" t="n">
         <v>9</v>
@@ -41532,7 +41532,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
@@ -41541,32 +41541,32 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K572" t="n">
         <v>7000</v>
       </c>
       <c r="L572" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M572" t="n">
-        <v>7462</v>
+        <v>7000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>497</v>
+        <v>700</v>
       </c>
       <c r="Q572" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E573" t="n">
         <v>9</v>
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="K573" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L573" t="n">
         <v>8000</v>
       </c>
       <c r="M573" t="n">
-        <v>8000</v>
+        <v>7400</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="Q573" t="n">
         <v>15</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E574" t="n">
         <v>9</v>
@@ -41676,7 +41676,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -41685,7 +41685,7 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K574" t="n">
         <v>7000</v>
@@ -41698,19 +41698,19 @@
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q574" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R574" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E575" t="n">
         <v>9</v>
@@ -41748,7 +41748,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="K575" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L575" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M575" t="n">
-        <v>10769</v>
+        <v>7000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>718</v>
+        <v>467</v>
       </c>
       <c r="Q575" t="n">
         <v>15</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E576" t="n">
         <v>9</v>
@@ -41820,7 +41820,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K576" t="n">
         <v>7000</v>
       </c>
       <c r="L576" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M576" t="n">
-        <v>7000</v>
+        <v>7462</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="Q576" t="n">
         <v>15</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E577" t="n">
         <v>9</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
@@ -41901,16 +41901,16 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="K577" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L577" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M577" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q577" t="n">
         <v>15</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E578" t="n">
         <v>9</v>
@@ -41973,7 +41973,7 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K578" t="n">
         <v>7000</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E579" t="n">
         <v>9</v>
@@ -42045,16 +42045,16 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>155</v>
+        <v>650</v>
       </c>
       <c r="K579" t="n">
         <v>10000</v>
       </c>
       <c r="L579" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M579" t="n">
-        <v>10000</v>
+        <v>10769</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>667</v>
+        <v>718</v>
       </c>
       <c r="Q579" t="n">
         <v>15</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E580" t="n">
         <v>9</v>
@@ -42108,7 +42108,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -42117,7 +42117,7 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K580" t="n">
         <v>7000</v>
@@ -42135,7 +42135,7 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P580" t="n">
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E581" t="n">
         <v>9</v>
@@ -42180,7 +42180,7 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K581" t="n">
         <v>7000</v>
       </c>
       <c r="L581" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M581" t="n">
-        <v>7406</v>
+        <v>7000</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="Q581" t="n">
         <v>15</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E582" t="n">
         <v>9</v>
@@ -42252,7 +42252,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -42261,32 +42261,32 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K582" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L582" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M582" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q582" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R582" t="inlineStr">
         <is>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E583" t="n">
         <v>9</v>
@@ -42333,16 +42333,16 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="K583" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L583" t="n">
         <v>10000</v>
       </c>
       <c r="M583" t="n">
-        <v>9114</v>
+        <v>10000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>608</v>
+        <v>667</v>
       </c>
       <c r="Q583" t="n">
         <v>15</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E584" t="n">
         <v>9</v>
@@ -42396,7 +42396,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
@@ -42405,16 +42405,16 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="K584" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L584" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M584" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q584" t="n">
         <v>15</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E585" t="n">
         <v>9</v>
@@ -42468,7 +42468,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -42477,20 +42477,20 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K585" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L585" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M585" t="n">
-        <v>6429</v>
+        <v>7406</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
@@ -42499,10 +42499,10 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>536</v>
+        <v>494</v>
       </c>
       <c r="Q585" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R585" t="inlineStr">
         <is>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E586" t="n">
         <v>9</v>
@@ -42540,7 +42540,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
@@ -42549,32 +42549,32 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="K586" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L586" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M586" t="n">
-        <v>8455</v>
+        <v>6000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>564</v>
+        <v>500</v>
       </c>
       <c r="Q586" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R586" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E587" t="n">
         <v>9</v>
@@ -42621,16 +42621,16 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="K587" t="n">
         <v>8000</v>
       </c>
       <c r="L587" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M587" t="n">
-        <v>8000</v>
+        <v>9114</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>533</v>
+        <v>608</v>
       </c>
       <c r="Q587" t="n">
         <v>15</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E588" t="n">
         <v>9</v>
@@ -42684,7 +42684,7 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
@@ -42693,32 +42693,32 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="K588" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L588" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M588" t="n">
-        <v>6545</v>
+        <v>8000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="Q588" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R588" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -42765,7 +42765,7 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="K589" t="n">
         <v>6000</v>
@@ -42774,7 +42774,7 @@
         <v>7000</v>
       </c>
       <c r="M589" t="n">
-        <v>6583</v>
+        <v>6429</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="Q589" t="n">
         <v>12</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E590" t="n">
         <v>9</v>
@@ -42828,7 +42828,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
@@ -42837,32 +42837,32 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K590" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L590" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M590" t="n">
-        <v>7667</v>
+        <v>8455</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>767</v>
+        <v>564</v>
       </c>
       <c r="Q590" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R590" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E591" t="n">
         <v>9</v>
@@ -42909,16 +42909,16 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K591" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L591" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M591" t="n">
-        <v>11455</v>
+        <v>8000</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>764</v>
+        <v>533</v>
       </c>
       <c r="Q591" t="n">
         <v>15</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E592" t="n">
         <v>9</v>
@@ -42981,32 +42981,32 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="K592" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L592" t="n">
         <v>7000</v>
       </c>
       <c r="M592" t="n">
-        <v>7000</v>
+        <v>6545</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="Q592" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R592" t="inlineStr">
         <is>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E593" t="n">
         <v>9</v>
@@ -43053,32 +43053,32 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K593" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L593" t="n">
         <v>7000</v>
       </c>
       <c r="M593" t="n">
-        <v>7000</v>
+        <v>6583</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>467</v>
+        <v>549</v>
       </c>
       <c r="Q593" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -43125,7 +43125,7 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K594" t="n">
         <v>7000</v>
@@ -43134,11 +43134,11 @@
         <v>8000</v>
       </c>
       <c r="M594" t="n">
-        <v>7400</v>
+        <v>7667</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
@@ -43147,10 +43147,10 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>411</v>
+        <v>767</v>
       </c>
       <c r="Q594" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R594" t="inlineStr">
         <is>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E595" t="n">
         <v>9</v>
@@ -43188,7 +43188,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
@@ -43197,20 +43197,20 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K595" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L595" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M595" t="n">
-        <v>7000</v>
+        <v>11455</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -43219,10 +43219,10 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>700</v>
+        <v>764</v>
       </c>
       <c r="Q595" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R595" t="inlineStr">
         <is>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E596" t="n">
         <v>9</v>
@@ -43260,7 +43260,7 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
@@ -43269,16 +43269,16 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K596" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L596" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M596" t="n">
-        <v>10571</v>
+        <v>7000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>705</v>
+        <v>467</v>
       </c>
       <c r="Q596" t="n">
         <v>15</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E597" t="n">
         <v>9</v>
@@ -43341,7 +43341,7 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K597" t="n">
         <v>7000</v>
@@ -43359,7 +43359,7 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P597" t="n">
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E598" t="n">
         <v>9</v>
@@ -43404,7 +43404,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -43413,32 +43413,32 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K598" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L598" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M598" t="n">
-        <v>9500</v>
+        <v>7400</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>633</v>
+        <v>411</v>
       </c>
       <c r="Q598" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E599" t="n">
         <v>9</v>
@@ -43476,7 +43476,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
@@ -43485,32 +43485,32 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K599" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L599" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M599" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q599" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R599" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E600" t="n">
         <v>9</v>
@@ -43557,16 +43557,16 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K600" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L600" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M600" t="n">
-        <v>8500</v>
+        <v>10571</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43575,11 +43575,11 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>567</v>
+        <v>705</v>
       </c>
       <c r="Q600" t="n">
         <v>15</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E601" t="n">
         <v>9</v>
@@ -43620,7 +43620,7 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
@@ -43629,16 +43629,16 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K601" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L601" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M601" t="n">
-        <v>5583</v>
+        <v>7000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>372</v>
+        <v>467</v>
       </c>
       <c r="Q601" t="n">
         <v>15</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E602" t="n">
         <v>9</v>
@@ -43692,7 +43692,7 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
@@ -43701,32 +43701,32 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K602" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L602" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M602" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>333</v>
+        <v>633</v>
       </c>
       <c r="Q602" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E603" t="n">
         <v>9</v>
@@ -43764,7 +43764,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -43773,20 +43773,20 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K603" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L603" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M603" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -43795,10 +43795,10 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q603" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R603" t="inlineStr">
         <is>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E604" t="n">
         <v>9</v>
@@ -43836,7 +43836,7 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -43845,32 +43845,32 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K604" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L604" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M604" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>700</v>
+        <v>567</v>
       </c>
       <c r="Q604" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R604" t="inlineStr">
         <is>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E605" t="n">
         <v>9</v>
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K605" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L605" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M605" t="n">
-        <v>9000</v>
+        <v>5583</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>600</v>
+        <v>372</v>
       </c>
       <c r="Q605" t="n">
         <v>15</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E606" t="n">
         <v>9</v>
@@ -43989,32 +43989,32 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K606" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L606" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M606" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="Q606" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R606" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E607" t="n">
         <v>9</v>
@@ -44061,32 +44061,32 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K607" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L607" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M607" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="Q607" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R607" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E608" t="n">
         <v>9</v>
@@ -44133,16 +44133,16 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K608" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L608" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M608" t="n">
-        <v>4750</v>
+        <v>7000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="Q608" t="n">
         <v>10</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E609" t="n">
         <v>9</v>
@@ -44205,16 +44205,16 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K609" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L609" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M609" t="n">
-        <v>3727</v>
+        <v>9000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44223,11 +44223,11 @@
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>248</v>
+        <v>600</v>
       </c>
       <c r="Q609" t="n">
         <v>15</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E610" t="n">
         <v>9</v>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K610" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L610" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M610" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>267</v>
+        <v>467</v>
       </c>
       <c r="Q610" t="n">
         <v>15</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E611" t="n">
         <v>9</v>
@@ -44349,16 +44349,16 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K611" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L611" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M611" t="n">
-        <v>4727</v>
+        <v>7000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>315</v>
+        <v>467</v>
       </c>
       <c r="Q611" t="n">
         <v>15</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E612" t="n">
         <v>9</v>
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K612" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L612" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M612" t="n">
-        <v>8406</v>
+        <v>4750</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>841</v>
+        <v>475</v>
       </c>
       <c r="Q612" t="n">
         <v>10</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E613" t="n">
         <v>9</v>
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K613" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L613" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M613" t="n">
-        <v>10000</v>
+        <v>3727</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>667</v>
+        <v>248</v>
       </c>
       <c r="Q613" t="n">
         <v>15</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E614" t="n">
         <v>9</v>
@@ -44556,7 +44556,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -44565,32 +44565,32 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K614" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L614" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M614" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>750</v>
+        <v>267</v>
       </c>
       <c r="Q614" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E615" t="n">
         <v>9</v>
@@ -44628,7 +44628,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -44637,32 +44637,32 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K615" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L615" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M615" t="n">
-        <v>8000</v>
+        <v>4727</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>800</v>
+        <v>315</v>
       </c>
       <c r="Q615" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E616" t="n">
         <v>9</v>
@@ -44700,7 +44700,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -44709,32 +44709,32 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="K616" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L616" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M616" t="n">
-        <v>11000</v>
+        <v>8406</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>733</v>
+        <v>841</v>
       </c>
       <c r="Q616" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E617" t="n">
         <v>9</v>
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -44781,32 +44781,32 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K617" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L617" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M617" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q617" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E618" t="n">
         <v>9</v>
@@ -44844,7 +44844,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -44853,20 +44853,20 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="K618" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L618" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M618" t="n">
-        <v>8629</v>
+        <v>7500</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
@@ -44875,10 +44875,10 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q618" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R618" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E619" t="n">
         <v>9</v>
@@ -44916,7 +44916,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -44925,7 +44925,7 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="K619" t="n">
         <v>8000</v>
@@ -44938,19 +44938,19 @@
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q619" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E620" t="n">
         <v>9</v>
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="K620" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L620" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M620" t="n">
-        <v>5385</v>
+        <v>11000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>359</v>
+        <v>733</v>
       </c>
       <c r="Q620" t="n">
         <v>15</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E621" t="n">
         <v>9</v>
@@ -45069,16 +45069,16 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K621" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L621" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M621" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q621" t="n">
         <v>10</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E622" t="n">
         <v>9</v>
@@ -45141,16 +45141,16 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="K622" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L622" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M622" t="n">
-        <v>3750</v>
+        <v>8629</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>250</v>
+        <v>575</v>
       </c>
       <c r="Q622" t="n">
         <v>15</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E623" t="n">
         <v>9</v>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -45213,16 +45213,16 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>100</v>
+        <v>950</v>
       </c>
       <c r="K623" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L623" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M623" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>300</v>
+        <v>533</v>
       </c>
       <c r="Q623" t="n">
         <v>15</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E624" t="n">
         <v>9</v>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,20 +45285,20 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="K624" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L624" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M624" t="n">
-        <v>3722</v>
+        <v>5385</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -45307,10 +45307,10 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="Q624" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45348,7 +45348,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -45357,32 +45357,32 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K625" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L625" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M625" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="Q625" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R625" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E626" t="n">
         <v>9</v>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45429,32 +45429,32 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K626" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L626" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M626" t="n">
-        <v>8500</v>
+        <v>3750</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="Q626" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E627" t="n">
         <v>9</v>
@@ -45492,7 +45492,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K627" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L627" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M627" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="Q627" t="n">
         <v>15</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E628" t="n">
         <v>9</v>
@@ -45573,32 +45573,32 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K628" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L628" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M628" t="n">
-        <v>8000</v>
+        <v>3722</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>533</v>
+        <v>310</v>
       </c>
       <c r="Q628" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E629" t="n">
         <v>9</v>
@@ -45645,32 +45645,32 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K629" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L629" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M629" t="n">
-        <v>8000</v>
+        <v>3750</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>533</v>
+        <v>312</v>
       </c>
       <c r="Q629" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E630" t="n">
         <v>9</v>
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K630" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L630" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M630" t="n">
-        <v>7292</v>
+        <v>8500</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>729</v>
+        <v>850</v>
       </c>
       <c r="Q630" t="n">
         <v>10</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E631" t="n">
         <v>9</v>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -45789,32 +45789,32 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K631" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L631" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M631" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q631" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E632" t="n">
         <v>9</v>
@@ -45852,7 +45852,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K632" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L632" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M632" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="Q632" t="n">
         <v>15</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E633" t="n">
         <v>9</v>
@@ -45924,7 +45924,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K633" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L633" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M633" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q633" t="n">
         <v>15</v>
@@ -45996,7 +45996,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -46005,32 +46005,32 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K634" t="n">
         <v>7000</v>
       </c>
       <c r="L634" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M634" t="n">
-        <v>7000</v>
+        <v>7292</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>467</v>
+        <v>729</v>
       </c>
       <c r="Q634" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E635" t="n">
         <v>9</v>
@@ -46077,32 +46077,32 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K635" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L635" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M635" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="Q635" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R635" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E636" t="n">
         <v>9</v>
@@ -46149,16 +46149,16 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="K636" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L636" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M636" t="n">
-        <v>5444</v>
+        <v>9000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>363</v>
+        <v>600</v>
       </c>
       <c r="Q636" t="n">
         <v>15</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E637" t="n">
         <v>9</v>
@@ -46221,32 +46221,32 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K637" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L637" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M637" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q637" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E638" t="n">
         <v>9</v>
@@ -46293,32 +46293,32 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K638" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L638" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M638" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q638" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E639" t="n">
         <v>9</v>
@@ -46365,7 +46365,7 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K639" t="n">
         <v>4000</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E640" t="n">
         <v>9</v>
@@ -46437,16 +46437,16 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K640" t="n">
         <v>5000</v>
       </c>
       <c r="L640" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M640" t="n">
-        <v>5000</v>
+        <v>5444</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="Q640" t="n">
         <v>15</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E641" t="n">
         <v>9</v>
@@ -46500,7 +46500,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -46509,7 +46509,7 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K641" t="n">
         <v>4000</v>
@@ -46522,19 +46522,19 @@
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="Q641" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E642" t="n">
         <v>9</v>
@@ -46572,7 +46572,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -46581,16 +46581,16 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K642" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L642" t="n">
         <v>4000</v>
       </c>
       <c r="M642" t="n">
-        <v>3444</v>
+        <v>4000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="Q642" t="n">
         <v>12</v>
@@ -46644,7 +46644,7 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -46653,16 +46653,16 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="K643" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L643" t="n">
         <v>4000</v>
       </c>
       <c r="M643" t="n">
-        <v>3455</v>
+        <v>4000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="Q643" t="n">
         <v>12</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E644" t="n">
         <v>9</v>
@@ -46716,7 +46716,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
@@ -46725,32 +46725,32 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K644" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L644" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M644" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>725</v>
+        <v>333</v>
       </c>
       <c r="Q644" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E645" t="n">
         <v>9</v>
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K645" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L645" t="n">
-        <v>11500</v>
+        <v>4000</v>
       </c>
       <c r="M645" t="n">
-        <v>10750</v>
+        <v>4000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>717</v>
+        <v>267</v>
       </c>
       <c r="Q645" t="n">
         <v>15</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E646" t="n">
         <v>9</v>
@@ -46860,7 +46860,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -46869,32 +46869,32 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K646" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L646" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M646" t="n">
-        <v>7250</v>
+        <v>3444</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>483</v>
+        <v>287</v>
       </c>
       <c r="Q646" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R646" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E647" t="n">
         <v>9</v>
@@ -46932,7 +46932,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -46941,32 +46941,32 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="K647" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L647" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M647" t="n">
-        <v>7250</v>
+        <v>3455</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q647" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -47004,7 +47004,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -47013,7 +47013,7 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>650</v>
+        <v>1600</v>
       </c>
       <c r="K648" t="n">
         <v>7000</v>
@@ -47022,11 +47022,11 @@
         <v>7500</v>
       </c>
       <c r="M648" t="n">
-        <v>7269</v>
+        <v>7250</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
@@ -47035,10 +47035,10 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>485</v>
+        <v>725</v>
       </c>
       <c r="Q648" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -47076,7 +47076,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -47085,32 +47085,32 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K649" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L649" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="M649" t="n">
-        <v>7000</v>
+        <v>10750</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>389</v>
+        <v>717</v>
       </c>
       <c r="Q649" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E650" t="n">
         <v>9</v>
@@ -47148,7 +47148,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -47163,14 +47163,14 @@
         <v>7000</v>
       </c>
       <c r="L650" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M650" t="n">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -47179,10 +47179,10 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>700</v>
+        <v>483</v>
       </c>
       <c r="Q650" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E651" t="n">
         <v>9</v>
@@ -47220,29 +47220,29 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K651" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L651" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M651" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -47251,10 +47251,10 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="Q651" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E652" t="n">
         <v>9</v>
@@ -47292,7 +47292,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="K652" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L652" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M652" t="n">
-        <v>12000</v>
+        <v>7269</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>800</v>
+        <v>485</v>
       </c>
       <c r="Q652" t="n">
         <v>15</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E653" t="n">
         <v>9</v>
@@ -47364,7 +47364,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -47373,7 +47373,7 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K653" t="n">
         <v>7000</v>
@@ -47386,7 +47386,7 @@
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
@@ -47395,10 +47395,10 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="Q653" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
@@ -47436,7 +47436,7 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
@@ -47458,7 +47458,7 @@
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -47467,10 +47467,10 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q654" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R654" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E655" t="n">
         <v>9</v>
@@ -47513,36 +47513,36 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K655" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L655" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M655" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="Q655" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E656" t="n">
         <v>9</v>
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="K656" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L656" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M656" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q656" t="n">
         <v>15</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E657" t="n">
         <v>9</v>
@@ -47661,32 +47661,32 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K657" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L657" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M657" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q657" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E658" t="n">
         <v>9</v>
@@ -47733,32 +47733,32 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K658" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L658" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M658" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q658" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R658" t="inlineStr">
         <is>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E659" t="n">
         <v>9</v>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -47805,7 +47805,7 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="K659" t="n">
         <v>7000</v>
@@ -47818,7 +47818,7 @@
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
@@ -47827,10 +47827,10 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>467</v>
+        <v>583</v>
       </c>
       <c r="Q659" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E660" t="n">
         <v>9</v>
@@ -47868,7 +47868,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
@@ -47877,20 +47877,20 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K660" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L660" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M660" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
@@ -47899,10 +47899,10 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q660" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E661" t="n">
         <v>9</v>
@@ -47940,7 +47940,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
@@ -47949,20 +47949,20 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K661" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L661" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M661" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
@@ -47971,10 +47971,10 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q661" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E662" t="n">
         <v>9</v>
@@ -48012,29 +48012,29 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J662" t="n">
         <v>50</v>
       </c>
       <c r="K662" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L662" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M662" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
@@ -48043,10 +48043,10 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q662" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E663" t="n">
         <v>9</v>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -48093,20 +48093,20 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="K663" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L663" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M663" t="n">
-        <v>3750</v>
+        <v>7000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
@@ -48115,10 +48115,10 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="Q663" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,16 +48165,16 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="K664" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L664" t="n">
         <v>4000</v>
       </c>
       <c r="M664" t="n">
-        <v>3727</v>
+        <v>4000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="Q664" t="n">
         <v>12</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E665" t="n">
         <v>9</v>
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="K665" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L665" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M665" t="n">
-        <v>7458</v>
+        <v>3750</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="Q665" t="n">
         <v>15</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E666" t="n">
         <v>9</v>
@@ -48300,29 +48300,29 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="K666" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L666" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M666" t="n">
-        <v>5588</v>
+        <v>3000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -48331,10 +48331,10 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>466</v>
+        <v>200</v>
       </c>
       <c r="Q666" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E667" t="n">
         <v>9</v>
@@ -48372,7 +48372,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K667" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L667" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M667" t="n">
-        <v>5400</v>
+        <v>3750</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="Q667" t="n">
         <v>12</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E668" t="n">
         <v>9</v>
@@ -48444,7 +48444,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -48453,32 +48453,32 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K668" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L668" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M668" t="n">
-        <v>10000</v>
+        <v>3727</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>1000</v>
+        <v>311</v>
       </c>
       <c r="Q668" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E669" t="n">
         <v>9</v>
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>375</v>
+        <v>830</v>
       </c>
       <c r="K669" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L669" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M669" t="n">
-        <v>11333</v>
+        <v>7458</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>756</v>
+        <v>497</v>
       </c>
       <c r="Q669" t="n">
         <v>15</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E670" t="n">
         <v>9</v>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48597,32 +48597,32 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K670" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L670" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M670" t="n">
-        <v>10000</v>
+        <v>5588</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>667</v>
+        <v>466</v>
       </c>
       <c r="Q670" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E671" t="n">
         <v>9</v>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48669,32 +48669,32 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K671" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L671" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M671" t="n">
-        <v>10000</v>
+        <v>5400</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>667</v>
+        <v>450</v>
       </c>
       <c r="Q671" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E672" t="n">
         <v>9</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,32 +48741,32 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K672" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L672" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M672" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q672" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E673" t="n">
         <v>9</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,32 +48813,32 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="K673" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L673" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M673" t="n">
-        <v>7000</v>
+        <v>11333</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>700</v>
+        <v>756</v>
       </c>
       <c r="Q673" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E674" t="n">
         <v>9</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,16 +48885,16 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="K674" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L674" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M674" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q674" t="n">
         <v>15</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E675" t="n">
         <v>9</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,16 +48957,16 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K675" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L675" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M675" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q675" t="n">
         <v>15</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E676" t="n">
         <v>9</v>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -49029,16 +49029,16 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="K676" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L676" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M676" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q676" t="n">
         <v>15</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E677" t="n">
         <v>9</v>
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K677" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L677" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M677" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q677" t="n">
         <v>10</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E678" t="n">
         <v>9</v>
@@ -49173,16 +49173,16 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="K678" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L678" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M678" t="n">
-        <v>5422</v>
+        <v>9000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>361</v>
+        <v>600</v>
       </c>
       <c r="Q678" t="n">
         <v>15</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E679" t="n">
         <v>9</v>
@@ -49245,32 +49245,32 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K679" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L679" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M679" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="Q679" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E680" t="n">
         <v>9</v>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,16 +49317,16 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K680" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L680" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M680" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>933</v>
+        <v>467</v>
       </c>
       <c r="Q680" t="n">
         <v>15</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E681" t="n">
         <v>9</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49389,32 +49389,32 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K681" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L681" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M681" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P681" t="n">
         <v>600</v>
       </c>
       <c r="Q681" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E682" t="n">
         <v>9</v>
@@ -49452,7 +49452,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -49461,16 +49461,16 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="K682" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L682" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M682" t="n">
-        <v>9000</v>
+        <v>5422</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>600</v>
+        <v>361</v>
       </c>
       <c r="Q682" t="n">
         <v>15</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E683" t="n">
         <v>9</v>
@@ -49524,7 +49524,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -49533,32 +49533,32 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="K683" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L683" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M683" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>700</v>
+        <v>417</v>
       </c>
       <c r="Q683" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E684" t="n">
         <v>9</v>
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K684" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L684" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M684" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="Q684" t="n">
         <v>15</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E685" t="n">
         <v>9</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,16 +49677,16 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="K685" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L685" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M685" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49695,16 +49695,304 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q685" t="n">
         <v>15</v>
       </c>
       <c r="R685" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>10</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D686" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E686" t="n">
+        <v>9</v>
+      </c>
+      <c r="F686" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J686" t="n">
+        <v>300</v>
+      </c>
+      <c r="K686" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L686" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M686" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N686" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O686" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P686" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q686" t="n">
+        <v>15</v>
+      </c>
+      <c r="R686" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>10</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D687" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E687" t="n">
+        <v>9</v>
+      </c>
+      <c r="F687" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J687" t="n">
+        <v>45</v>
+      </c>
+      <c r="K687" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L687" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M687" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N687" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O687" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P687" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q687" t="n">
+        <v>10</v>
+      </c>
+      <c r="R687" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>10</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D688" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E688" t="n">
+        <v>9</v>
+      </c>
+      <c r="F688" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J688" t="n">
+        <v>150</v>
+      </c>
+      <c r="K688" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L688" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M688" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N688" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O688" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P688" t="n">
+        <v>533</v>
+      </c>
+      <c r="Q688" t="n">
+        <v>15</v>
+      </c>
+      <c r="R688" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>10</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D689" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E689" t="n">
+        <v>9</v>
+      </c>
+      <c r="F689" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J689" t="n">
+        <v>55</v>
+      </c>
+      <c r="K689" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L689" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M689" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N689" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O689" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P689" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q689" t="n">
+        <v>15</v>
+      </c>
+      <c r="R689" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R700"/>
+  <dimension ref="A1:R701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E522" t="n">
         <v>9</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37944,29 +37944,29 @@
         <v>500</v>
       </c>
       <c r="K522" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L522" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M522" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q522" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R522" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38013,32 +38013,32 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K523" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L523" t="n">
         <v>8000</v>
       </c>
       <c r="M523" t="n">
-        <v>7556</v>
+        <v>8000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>504</v>
+        <v>800</v>
       </c>
       <c r="Q523" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R523" t="inlineStr">
         <is>
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K524" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L524" t="n">
         <v>8000</v>
       </c>
       <c r="M524" t="n">
-        <v>8000</v>
+        <v>7556</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38103,11 +38103,11 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="Q524" t="n">
         <v>15</v>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K525" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L525" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M525" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q525" t="n">
         <v>15</v>
@@ -38220,7 +38220,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E527" t="n">
         <v>9</v>
@@ -38292,7 +38292,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -38301,32 +38301,32 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K527" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L527" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M527" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q527" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -38373,7 +38373,7 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K528" t="n">
         <v>4000</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E529" t="n">
         <v>9</v>
@@ -38436,7 +38436,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -38445,32 +38445,32 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="K529" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L529" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M529" t="n">
-        <v>6581</v>
+        <v>4000</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>658</v>
+        <v>333</v>
       </c>
       <c r="Q529" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R529" t="inlineStr">
         <is>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38517,20 +38517,20 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>350</v>
+        <v>155</v>
       </c>
       <c r="K530" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L530" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M530" t="n">
-        <v>10429</v>
+        <v>6581</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -38539,10 +38539,10 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>695</v>
+        <v>658</v>
       </c>
       <c r="Q530" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E531" t="n">
         <v>9</v>
@@ -38580,7 +38580,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -38589,32 +38589,32 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K531" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L531" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M531" t="n">
-        <v>7000</v>
+        <v>10429</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="Q531" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R531" t="inlineStr">
         <is>
@@ -38652,7 +38652,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -38661,20 +38661,20 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K532" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L532" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M532" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
@@ -38683,10 +38683,10 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="Q532" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38724,7 +38724,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K533" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L533" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M533" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q533" t="n">
         <v>15</v>
@@ -38796,7 +38796,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E535" t="n">
         <v>9</v>
@@ -38868,7 +38868,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -38877,20 +38877,20 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K535" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L535" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M535" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
@@ -38899,10 +38899,10 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q535" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
@@ -38940,7 +38940,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -38949,7 +38949,7 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>650</v>
+        <v>185</v>
       </c>
       <c r="K536" t="n">
         <v>8000</v>
@@ -38962,7 +38962,7 @@
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
@@ -38971,10 +38971,10 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q536" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
@@ -39021,7 +39021,7 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>1250</v>
+        <v>650</v>
       </c>
       <c r="K537" t="n">
         <v>8000</v>
@@ -39039,7 +39039,7 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P537" t="n">
@@ -39084,7 +39084,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -39093,16 +39093,16 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>155</v>
+        <v>1250</v>
       </c>
       <c r="K538" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L538" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M538" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q538" t="n">
         <v>15</v>
@@ -39156,7 +39156,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -39168,13 +39168,13 @@
         <v>155</v>
       </c>
       <c r="K539" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L539" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M539" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q539" t="n">
         <v>15</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E540" t="n">
         <v>9</v>
@@ -39228,7 +39228,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -39237,7 +39237,7 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="K540" t="n">
         <v>8000</v>
@@ -39255,7 +39255,7 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P540" t="n">
@@ -39300,7 +39300,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -39309,20 +39309,20 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="K541" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L541" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M541" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
@@ -39331,10 +39331,10 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="Q541" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R541" t="inlineStr">
         <is>
@@ -39372,7 +39372,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="K542" t="n">
         <v>6000</v>
       </c>
       <c r="L542" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M542" t="n">
-        <v>6520</v>
+        <v>6000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="Q542" t="n">
         <v>12</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E543" t="n">
         <v>9</v>
@@ -39444,7 +39444,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -39453,32 +39453,32 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="K543" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L543" t="n">
         <v>7000</v>
       </c>
-      <c r="L543" t="n">
-        <v>8000</v>
-      </c>
       <c r="M543" t="n">
-        <v>7600</v>
+        <v>6520</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>760</v>
+        <v>543</v>
       </c>
       <c r="Q543" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
@@ -39516,7 +39516,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
@@ -39525,32 +39525,32 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K544" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L544" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M544" t="n">
-        <v>9500</v>
+        <v>7600</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>633</v>
+        <v>760</v>
       </c>
       <c r="Q544" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R544" t="inlineStr">
         <is>
@@ -39588,7 +39588,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="K545" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L545" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M545" t="n">
-        <v>7385</v>
+        <v>9500</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>492</v>
+        <v>633</v>
       </c>
       <c r="Q545" t="n">
         <v>15</v>
@@ -39660,7 +39660,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -39669,7 +39669,7 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="K546" t="n">
         <v>7000</v>
@@ -39678,7 +39678,7 @@
         <v>8000</v>
       </c>
       <c r="M546" t="n">
-        <v>7500</v>
+        <v>7385</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="Q546" t="n">
         <v>15</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E547" t="n">
         <v>9</v>
@@ -39732,7 +39732,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K547" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L547" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M547" t="n">
-        <v>3556</v>
+        <v>7500</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>237</v>
+        <v>500</v>
       </c>
       <c r="Q547" t="n">
         <v>15</v>
@@ -39804,7 +39804,7 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
@@ -39813,20 +39813,20 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="K548" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L548" t="n">
         <v>4000</v>
       </c>
       <c r="M548" t="n">
-        <v>4000</v>
+        <v>3556</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -39835,10 +39835,10 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="Q548" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39876,7 +39876,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -39885,7 +39885,7 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K549" t="n">
         <v>4000</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E550" t="n">
         <v>9</v>
@@ -39948,7 +39948,7 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -39957,20 +39957,20 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K550" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L550" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M550" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -39979,10 +39979,10 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="Q550" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R550" t="inlineStr">
         <is>
@@ -40029,16 +40029,16 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="K551" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L551" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M551" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40047,11 +40047,11 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q551" t="n">
         <v>10</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K552" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L552" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M552" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q552" t="n">
         <v>10</v>
@@ -40164,41 +40164,41 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="K553" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L553" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M553" t="n">
-        <v>8400</v>
+        <v>5000</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="Q553" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R553" t="inlineStr">
         <is>
@@ -40245,16 +40245,16 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="K554" t="n">
         <v>8000</v>
       </c>
       <c r="L554" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M554" t="n">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="Q554" t="n">
         <v>15</v>
@@ -40308,7 +40308,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -40317,16 +40317,16 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="K555" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L555" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M555" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40335,11 +40335,11 @@
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q555" t="n">
         <v>15</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E556" t="n">
         <v>9</v>
@@ -40380,7 +40380,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K556" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L556" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M556" t="n">
-        <v>9361</v>
+        <v>7000</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>624</v>
+        <v>467</v>
       </c>
       <c r="Q556" t="n">
         <v>15</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E557" t="n">
         <v>9</v>
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="K557" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L557" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M557" t="n">
-        <v>6737</v>
+        <v>9361</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>449</v>
+        <v>624</v>
       </c>
       <c r="Q557" t="n">
         <v>15</v>
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>325</v>
+        <v>95</v>
       </c>
       <c r="K558" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L558" t="n">
         <v>7000</v>
       </c>
       <c r="M558" t="n">
-        <v>6615</v>
+        <v>6737</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40551,11 +40551,11 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="Q558" t="n">
         <v>15</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E559" t="n">
         <v>9</v>
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="K559" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L559" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M559" t="n">
-        <v>9000</v>
+        <v>6615</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>600</v>
+        <v>441</v>
       </c>
       <c r="Q559" t="n">
         <v>15</v>
@@ -40668,7 +40668,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -40677,20 +40677,20 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="K560" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L560" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M560" t="n">
-        <v>6526</v>
+        <v>9000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
@@ -40699,10 +40699,10 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>544</v>
+        <v>600</v>
       </c>
       <c r="Q560" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R560" t="inlineStr">
         <is>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E561" t="n">
         <v>9</v>
@@ -40740,7 +40740,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -40749,20 +40749,20 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="K561" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L561" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M561" t="n">
-        <v>4000</v>
+        <v>6526</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
@@ -40771,10 +40771,10 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="Q561" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
@@ -40821,7 +40821,7 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="K562" t="n">
         <v>4000</v>
@@ -40839,7 +40839,7 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P562" t="n">
@@ -40884,7 +40884,7 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
@@ -40893,32 +40893,32 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>650</v>
+        <v>85</v>
       </c>
       <c r="K563" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L563" t="n">
         <v>4000</v>
       </c>
       <c r="M563" t="n">
-        <v>3692</v>
+        <v>4000</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Q563" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R563" t="inlineStr">
         <is>
@@ -40956,7 +40956,7 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -40965,20 +40965,20 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>65</v>
+        <v>650</v>
       </c>
       <c r="K564" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L564" t="n">
         <v>4000</v>
       </c>
       <c r="M564" t="n">
-        <v>4000</v>
+        <v>3692</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
@@ -40987,10 +40987,10 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>333</v>
+        <v>246</v>
       </c>
       <c r="Q564" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R564" t="inlineStr">
         <is>
@@ -41028,7 +41028,7 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -41037,7 +41037,7 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K565" t="n">
         <v>4000</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E566" t="n">
         <v>9</v>
@@ -41100,7 +41100,7 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -41109,7 +41109,7 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K566" t="n">
         <v>4000</v>
@@ -41122,7 +41122,7 @@
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
@@ -41131,10 +41131,10 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="Q566" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R566" t="inlineStr">
         <is>
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="K567" t="n">
         <v>4000</v>
       </c>
       <c r="L567" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M567" t="n">
-        <v>4229</v>
+        <v>4000</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="Q567" t="n">
         <v>10</v>
@@ -41244,7 +41244,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -41253,32 +41253,32 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>405</v>
+        <v>120</v>
       </c>
       <c r="K568" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L568" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M568" t="n">
-        <v>3691</v>
+        <v>4229</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>246</v>
+        <v>423</v>
       </c>
       <c r="Q568" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R568" t="inlineStr">
         <is>
@@ -41316,7 +41316,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -41325,20 +41325,20 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>85</v>
+        <v>405</v>
       </c>
       <c r="K569" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L569" t="n">
         <v>4000</v>
       </c>
       <c r="M569" t="n">
-        <v>4000</v>
+        <v>3691</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
@@ -41347,10 +41347,10 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>333</v>
+        <v>246</v>
       </c>
       <c r="Q569" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R569" t="inlineStr">
         <is>
@@ -41388,7 +41388,7 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -41397,7 +41397,7 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K570" t="n">
         <v>4000</v>
@@ -41460,7 +41460,7 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E572" t="n">
         <v>9</v>
@@ -41532,7 +41532,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
@@ -41541,32 +41541,32 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K572" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L572" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M572" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="Q572" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -41613,32 +41613,32 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K573" t="n">
         <v>10000</v>
       </c>
       <c r="L573" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M573" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>693</v>
+        <v>1000</v>
       </c>
       <c r="Q573" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R573" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E574" t="n">
         <v>9</v>
@@ -41685,16 +41685,16 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="K574" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L574" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M574" t="n">
-        <v>12000</v>
+        <v>10400</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>800</v>
+        <v>693</v>
       </c>
       <c r="Q574" t="n">
         <v>15</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="K575" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L575" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M575" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q575" t="n">
         <v>15</v>
@@ -41820,25 +41820,25 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K576" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L576" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M576" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q576" t="n">
         <v>15</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E577" t="n">
         <v>9</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
@@ -41901,32 +41901,32 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K577" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L577" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M577" t="n">
-        <v>4450</v>
+        <v>7000</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>371</v>
+        <v>467</v>
       </c>
       <c r="Q577" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R577" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
@@ -41973,32 +41973,32 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K578" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L578" t="n">
         <v>5000</v>
       </c>
-      <c r="L578" t="n">
-        <v>6000</v>
-      </c>
       <c r="M578" t="n">
-        <v>5444</v>
+        <v>4450</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Q578" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R578" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E579" t="n">
         <v>9</v>
@@ -42036,7 +42036,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
@@ -42045,32 +42045,32 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="K579" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L579" t="n">
         <v>6000</v>
       </c>
-      <c r="L579" t="n">
-        <v>6500</v>
-      </c>
       <c r="M579" t="n">
-        <v>6236</v>
+        <v>5444</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>624</v>
+        <v>363</v>
       </c>
       <c r="Q579" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R579" t="inlineStr">
         <is>
@@ -42108,7 +42108,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -42117,20 +42117,20 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>1200</v>
+        <v>530</v>
       </c>
       <c r="K580" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L580" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M580" t="n">
-        <v>9417</v>
+        <v>6236</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
@@ -42139,10 +42139,10 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="Q580" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R580" t="inlineStr">
         <is>
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K581" t="n">
         <v>9000</v>
       </c>
       <c r="L581" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M581" t="n">
-        <v>9000</v>
+        <v>9417</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="Q581" t="n">
         <v>15</v>
@@ -42252,7 +42252,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -42261,16 +42261,16 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K582" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L582" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M582" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q582" t="n">
         <v>15</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E583" t="n">
         <v>9</v>
@@ -42324,7 +42324,7 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -42333,20 +42333,20 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K583" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L583" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M583" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
@@ -42355,10 +42355,10 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q583" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R583" t="inlineStr">
         <is>
@@ -42396,7 +42396,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
@@ -42405,32 +42405,32 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="K584" t="n">
         <v>7000</v>
       </c>
       <c r="L584" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M584" t="n">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>493</v>
+        <v>700</v>
       </c>
       <c r="Q584" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R584" t="inlineStr">
         <is>
@@ -42468,7 +42468,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -42477,16 +42477,16 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="K585" t="n">
         <v>7000</v>
       </c>
       <c r="L585" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M585" t="n">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="Q585" t="n">
         <v>15</v>
@@ -42540,7 +42540,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
@@ -42549,7 +42549,7 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K586" t="n">
         <v>7000</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E587" t="n">
         <v>9</v>
@@ -42612,7 +42612,7 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -42621,16 +42621,16 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K587" t="n">
         <v>7000</v>
       </c>
       <c r="L587" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M587" t="n">
-        <v>7462</v>
+        <v>7000</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="Q587" t="n">
         <v>15</v>
@@ -42693,16 +42693,16 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K588" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L588" t="n">
         <v>8000</v>
       </c>
       <c r="M588" t="n">
-        <v>8000</v>
+        <v>7462</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="Q588" t="n">
         <v>15</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E589" t="n">
         <v>9</v>
@@ -42756,7 +42756,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -42765,32 +42765,32 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="K589" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L589" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M589" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="Q589" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R589" t="inlineStr">
         <is>
@@ -42828,7 +42828,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
@@ -42837,32 +42837,32 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="K590" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L590" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M590" t="n">
-        <v>10769</v>
+        <v>7000</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="Q590" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R590" t="inlineStr">
         <is>
@@ -42900,7 +42900,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -42909,16 +42909,16 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="K591" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L591" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M591" t="n">
-        <v>7000</v>
+        <v>10769</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>467</v>
+        <v>718</v>
       </c>
       <c r="Q591" t="n">
         <v>15</v>
@@ -42972,7 +42972,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -42981,7 +42981,7 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K592" t="n">
         <v>7000</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E593" t="n">
         <v>9</v>
@@ -43044,7 +43044,7 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
@@ -43053,7 +43053,7 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="K593" t="n">
         <v>7000</v>
@@ -43066,7 +43066,7 @@
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -43075,10 +43075,10 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q593" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -43125,32 +43125,32 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K594" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L594" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M594" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="Q594" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R594" t="inlineStr">
         <is>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E595" t="n">
         <v>9</v>
@@ -43197,16 +43197,16 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="K595" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L595" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M595" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q595" t="n">
         <v>15</v>
@@ -43269,16 +43269,16 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K596" t="n">
         <v>7000</v>
       </c>
       <c r="L596" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M596" t="n">
-        <v>7406</v>
+        <v>7000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="Q596" t="n">
         <v>15</v>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -43341,20 +43341,20 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="K597" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L597" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M597" t="n">
-        <v>6000</v>
+        <v>7406</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
@@ -43363,10 +43363,10 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="Q597" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E598" t="n">
         <v>9</v>
@@ -43404,7 +43404,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -43413,32 +43413,32 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="K598" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L598" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M598" t="n">
-        <v>9114</v>
+        <v>6000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>608</v>
+        <v>500</v>
       </c>
       <c r="Q598" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
@@ -43485,16 +43485,16 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="K599" t="n">
         <v>8000</v>
       </c>
       <c r="L599" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M599" t="n">
-        <v>8000</v>
+        <v>9114</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>533</v>
+        <v>608</v>
       </c>
       <c r="Q599" t="n">
         <v>15</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E600" t="n">
         <v>9</v>
@@ -43548,7 +43548,7 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
@@ -43557,32 +43557,32 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K600" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L600" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M600" t="n">
-        <v>6429</v>
+        <v>8000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Q600" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
@@ -43620,7 +43620,7 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
@@ -43629,32 +43629,32 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="K601" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L601" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M601" t="n">
-        <v>8455</v>
+        <v>6429</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="Q601" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
@@ -43701,16 +43701,16 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K602" t="n">
         <v>8000</v>
       </c>
       <c r="L602" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M602" t="n">
-        <v>8000</v>
+        <v>8455</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="Q602" t="n">
         <v>15</v>
@@ -43764,7 +43764,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -43773,20 +43773,20 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K603" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L603" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M603" t="n">
-        <v>6545</v>
+        <v>8000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -43795,10 +43795,10 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="Q603" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R603" t="inlineStr">
         <is>
@@ -43836,7 +43836,7 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -43845,7 +43845,7 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K604" t="n">
         <v>6000</v>
@@ -43854,7 +43854,7 @@
         <v>7000</v>
       </c>
       <c r="M604" t="n">
-        <v>6583</v>
+        <v>6545</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q604" t="n">
         <v>12</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E605" t="n">
         <v>9</v>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -43917,32 +43917,32 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K605" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L605" t="n">
         <v>7000</v>
       </c>
-      <c r="L605" t="n">
-        <v>8000</v>
-      </c>
       <c r="M605" t="n">
-        <v>7667</v>
+        <v>6583</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>767</v>
+        <v>549</v>
       </c>
       <c r="Q605" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R605" t="inlineStr">
         <is>
@@ -43980,7 +43980,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -43989,32 +43989,32 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K606" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L606" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M606" t="n">
-        <v>11455</v>
+        <v>7667</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="Q606" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R606" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K607" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L607" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M607" t="n">
-        <v>7000</v>
+        <v>11455</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>467</v>
+        <v>764</v>
       </c>
       <c r="Q607" t="n">
         <v>15</v>
@@ -44124,7 +44124,7 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -44133,7 +44133,7 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K608" t="n">
         <v>7000</v>
@@ -44196,7 +44196,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -44205,20 +44205,20 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K609" t="n">
         <v>7000</v>
       </c>
       <c r="L609" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M609" t="n">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
@@ -44227,10 +44227,10 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="Q609" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E610" t="n">
         <v>9</v>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -44277,32 +44277,32 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K610" t="n">
         <v>7000</v>
       </c>
       <c r="L610" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M610" t="n">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>700</v>
+        <v>411</v>
       </c>
       <c r="Q610" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R610" t="inlineStr">
         <is>
@@ -44340,7 +44340,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -44349,32 +44349,32 @@
         </is>
       </c>
       <c r="J611" t="n">
+        <v>200</v>
+      </c>
+      <c r="K611" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L611" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M611" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N611" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O611" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P611" t="n">
         <v>700</v>
       </c>
-      <c r="K611" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L611" t="n">
-        <v>11000</v>
-      </c>
-      <c r="M611" t="n">
-        <v>10571</v>
-      </c>
-      <c r="N611" t="inlineStr">
-        <is>
-          <t>$/caja 15 unidades</t>
-        </is>
-      </c>
-      <c r="O611" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P611" t="n">
-        <v>705</v>
-      </c>
       <c r="Q611" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
@@ -44412,7 +44412,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K612" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L612" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M612" t="n">
-        <v>7000</v>
+        <v>10571</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>467</v>
+        <v>705</v>
       </c>
       <c r="Q612" t="n">
         <v>15</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E613" t="n">
         <v>9</v>
@@ -44484,7 +44484,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K613" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L613" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M613" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>633</v>
+        <v>467</v>
       </c>
       <c r="Q613" t="n">
         <v>15</v>
@@ -44565,16 +44565,16 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K614" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L614" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M614" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>533</v>
+        <v>633</v>
       </c>
       <c r="Q614" t="n">
         <v>15</v>
@@ -44637,16 +44637,16 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K615" t="n">
         <v>8000</v>
       </c>
       <c r="L615" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M615" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="Q615" t="n">
         <v>15</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E616" t="n">
         <v>9</v>
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K616" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L616" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M616" t="n">
-        <v>5583</v>
+        <v>8500</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>372</v>
+        <v>567</v>
       </c>
       <c r="Q616" t="n">
         <v>15</v>
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -44781,20 +44781,20 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K617" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L617" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M617" t="n">
-        <v>4000</v>
+        <v>5583</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -44803,10 +44803,10 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="Q617" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E619" t="n">
         <v>9</v>
@@ -44916,7 +44916,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -44928,29 +44928,29 @@
         <v>200</v>
       </c>
       <c r="K619" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L619" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M619" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="Q619" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44988,7 +44988,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -45000,29 +45000,29 @@
         <v>200</v>
       </c>
       <c r="K620" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L620" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M620" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q620" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -45069,16 +45069,16 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K621" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L621" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M621" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45087,11 +45087,11 @@
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q621" t="n">
         <v>15</v>
@@ -45132,7 +45132,7 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
@@ -45141,7 +45141,7 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K622" t="n">
         <v>7000</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E623" t="n">
         <v>9</v>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -45213,32 +45213,32 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K623" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L623" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M623" t="n">
-        <v>4750</v>
+        <v>7000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="Q623" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,32 +45285,32 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K624" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L624" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M624" t="n">
-        <v>3727</v>
+        <v>4750</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>248</v>
+        <v>475</v>
       </c>
       <c r="Q624" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K625" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L625" t="n">
         <v>4000</v>
       </c>
       <c r="M625" t="n">
-        <v>4000</v>
+        <v>3727</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="Q625" t="n">
         <v>15</v>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K626" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L626" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M626" t="n">
-        <v>4727</v>
+        <v>4000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="Q626" t="n">
         <v>15</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E627" t="n">
         <v>9</v>
@@ -45492,7 +45492,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -45501,32 +45501,32 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K627" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L627" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M627" t="n">
-        <v>8406</v>
+        <v>4727</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>841</v>
+        <v>315</v>
       </c>
       <c r="Q627" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -45573,32 +45573,32 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K628" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L628" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M628" t="n">
-        <v>10000</v>
+        <v>8406</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>667</v>
+        <v>841</v>
       </c>
       <c r="Q628" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E629" t="n">
         <v>9</v>
@@ -45636,7 +45636,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -45645,20 +45645,20 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="K629" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L629" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M629" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -45667,10 +45667,10 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="Q629" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="K630" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L630" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M630" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45735,11 +45735,11 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="Q630" t="n">
         <v>10</v>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -45789,32 +45789,32 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K631" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L631" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M631" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="Q631" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E632" t="n">
         <v>9</v>
@@ -45852,7 +45852,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
@@ -45861,32 +45861,32 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>110</v>
+        <v>450</v>
       </c>
       <c r="K632" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L632" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M632" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="Q632" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45924,7 +45924,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -45933,32 +45933,32 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="K633" t="n">
         <v>8000</v>
       </c>
       <c r="L633" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M633" t="n">
-        <v>8629</v>
+        <v>8000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>575</v>
+        <v>800</v>
       </c>
       <c r="Q633" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -46005,16 +46005,16 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>950</v>
+        <v>175</v>
       </c>
       <c r="K634" t="n">
         <v>8000</v>
       </c>
       <c r="L634" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M634" t="n">
-        <v>8000</v>
+        <v>8629</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="Q634" t="n">
         <v>15</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E635" t="n">
         <v>9</v>
@@ -46077,16 +46077,16 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>130</v>
+        <v>950</v>
       </c>
       <c r="K635" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L635" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M635" t="n">
-        <v>5385</v>
+        <v>8000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>359</v>
+        <v>533</v>
       </c>
       <c r="Q635" t="n">
         <v>15</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E636" t="n">
         <v>9</v>
@@ -46140,7 +46140,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -46149,32 +46149,32 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="K636" t="n">
         <v>5000</v>
       </c>
       <c r="L636" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M636" t="n">
-        <v>5000</v>
+        <v>5385</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>500</v>
+        <v>359</v>
       </c>
       <c r="Q636" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46212,7 +46212,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -46221,32 +46221,32 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K637" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L637" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M637" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q637" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -46284,7 +46284,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -46293,16 +46293,16 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K638" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L638" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M638" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q638" t="n">
         <v>15</v>
@@ -46356,7 +46356,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
@@ -46365,32 +46365,32 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="K639" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L639" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M639" t="n">
-        <v>3722</v>
+        <v>4500</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q639" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -46428,7 +46428,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -46437,7 +46437,7 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K640" t="n">
         <v>3500</v>
@@ -46446,7 +46446,7 @@
         <v>4000</v>
       </c>
       <c r="M640" t="n">
-        <v>3750</v>
+        <v>3722</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q640" t="n">
         <v>12</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E641" t="n">
         <v>9</v>
@@ -46500,7 +46500,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -46512,29 +46512,29 @@
         <v>200</v>
       </c>
       <c r="K641" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L641" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M641" t="n">
-        <v>8500</v>
+        <v>3750</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>850</v>
+        <v>312</v>
       </c>
       <c r="Q641" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46572,7 +46572,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -46581,32 +46581,32 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K642" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L642" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M642" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="Q642" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46644,7 +46644,7 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -46653,16 +46653,16 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K643" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L643" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M643" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q643" t="n">
         <v>15</v>
@@ -46716,7 +46716,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
@@ -46725,7 +46725,7 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K644" t="n">
         <v>8000</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E645" t="n">
         <v>9</v>
@@ -46788,7 +46788,7 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -46797,20 +46797,20 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K645" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L645" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M645" t="n">
-        <v>7292</v>
+        <v>8000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -46819,10 +46819,10 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>729</v>
+        <v>533</v>
       </c>
       <c r="Q645" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46869,16 +46869,16 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K646" t="n">
         <v>7000</v>
       </c>
       <c r="L646" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M646" t="n">
-        <v>7000</v>
+        <v>7292</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>700</v>
+        <v>729</v>
       </c>
       <c r="Q646" t="n">
         <v>10</v>
@@ -46932,7 +46932,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -46941,32 +46941,32 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K647" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L647" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M647" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q647" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -47004,7 +47004,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K648" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L648" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M648" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q648" t="n">
         <v>15</v>
@@ -47076,7 +47076,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -47085,7 +47085,7 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K649" t="n">
         <v>7000</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E650" t="n">
         <v>9</v>
@@ -47148,7 +47148,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -47157,32 +47157,32 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K650" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L650" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M650" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q650" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -47229,20 +47229,20 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K651" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L651" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M651" t="n">
-        <v>5444</v>
+        <v>4000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -47251,10 +47251,10 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="Q651" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47292,7 +47292,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -47301,20 +47301,20 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K652" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L652" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M652" t="n">
-        <v>4000</v>
+        <v>5444</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
@@ -47323,10 +47323,10 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="Q652" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -47373,7 +47373,7 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K653" t="n">
         <v>4000</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E654" t="n">
         <v>9</v>
@@ -47436,7 +47436,7 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
@@ -47445,7 +47445,7 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K654" t="n">
         <v>4000</v>
@@ -47508,7 +47508,7 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
@@ -47517,20 +47517,20 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K655" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L655" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M655" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -47542,7 +47542,7 @@
         <v>333</v>
       </c>
       <c r="Q655" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K656" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L656" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M656" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="Q656" t="n">
         <v>15</v>
@@ -47652,7 +47652,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
@@ -47661,32 +47661,32 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K657" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L657" t="n">
         <v>4000</v>
       </c>
       <c r="M657" t="n">
-        <v>3444</v>
+        <v>4000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="Q657" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
@@ -47724,7 +47724,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -47733,7 +47733,7 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="K658" t="n">
         <v>3000</v>
@@ -47742,7 +47742,7 @@
         <v>4000</v>
       </c>
       <c r="M658" t="n">
-        <v>3455</v>
+        <v>3444</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q658" t="n">
         <v>12</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E659" t="n">
         <v>9</v>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -47805,32 +47805,32 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>1600</v>
+        <v>330</v>
       </c>
       <c r="K659" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L659" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M659" t="n">
-        <v>7250</v>
+        <v>3455</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>725</v>
+        <v>288</v>
       </c>
       <c r="Q659" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47868,7 +47868,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
@@ -47877,32 +47877,32 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K660" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L660" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="M660" t="n">
-        <v>10750</v>
+        <v>7250</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="Q660" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47940,7 +47940,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
@@ -47949,16 +47949,16 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K661" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L661" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="M661" t="n">
-        <v>7250</v>
+        <v>10750</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>483</v>
+        <v>717</v>
       </c>
       <c r="Q661" t="n">
         <v>15</v>
@@ -48012,7 +48012,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -48021,7 +48021,7 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K662" t="n">
         <v>7000</v>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -48093,7 +48093,7 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="K663" t="n">
         <v>7000</v>
@@ -48102,7 +48102,7 @@
         <v>7500</v>
       </c>
       <c r="M663" t="n">
-        <v>7269</v>
+        <v>7250</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Q663" t="n">
         <v>15</v>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,20 +48165,20 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="K664" t="n">
         <v>7000</v>
       </c>
       <c r="L664" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M664" t="n">
-        <v>7000</v>
+        <v>7269</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
@@ -48187,10 +48187,10 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="Q664" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E665" t="n">
         <v>9</v>
@@ -48228,7 +48228,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -48237,7 +48237,7 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K665" t="n">
         <v>7000</v>
@@ -48250,7 +48250,7 @@
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
@@ -48259,10 +48259,10 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>700</v>
+        <v>389</v>
       </c>
       <c r="Q665" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K666" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L666" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M666" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q666" t="n">
         <v>10</v>
@@ -48372,41 +48372,41 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
+        <v>100</v>
+      </c>
+      <c r="K667" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L667" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M667" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N667" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O667" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P667" t="n">
         <v>500</v>
       </c>
-      <c r="K667" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L667" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M667" t="n">
-        <v>12000</v>
-      </c>
-      <c r="N667" t="inlineStr">
-        <is>
-          <t>$/caja 15 unidades</t>
-        </is>
-      </c>
-      <c r="O667" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P667" t="n">
-        <v>800</v>
-      </c>
       <c r="Q667" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R667" t="inlineStr">
         <is>
@@ -48444,7 +48444,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -48453,16 +48453,16 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K668" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L668" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M668" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q668" t="n">
         <v>15</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48525,7 +48525,7 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K669" t="n">
         <v>7000</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E670" t="n">
         <v>9</v>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48597,7 +48597,7 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K670" t="n">
         <v>7000</v>
@@ -48610,19 +48610,19 @@
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>583</v>
+        <v>467</v>
       </c>
       <c r="Q670" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48669,20 +48669,20 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K671" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L671" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M671" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
@@ -48691,10 +48691,10 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="Q671" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,20 +48741,20 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K672" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L672" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M672" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
@@ -48763,10 +48763,10 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="Q672" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E674" t="n">
         <v>9</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,20 +48885,20 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="K674" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L674" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M674" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -48907,10 +48907,10 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q674" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E675" t="n">
         <v>9</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,20 +48957,20 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="K675" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L675" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M675" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -48979,10 +48979,10 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q675" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -49029,20 +49029,20 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="K676" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L676" t="n">
         <v>4000</v>
       </c>
       <c r="M676" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
@@ -49051,10 +49051,10 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q676" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K677" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L677" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M677" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q677" t="n">
         <v>15</v>
@@ -49164,29 +49164,29 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K678" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L678" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M678" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
@@ -49195,10 +49195,10 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="Q678" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49236,7 +49236,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -49245,7 +49245,7 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="K679" t="n">
         <v>3500</v>
@@ -49254,7 +49254,7 @@
         <v>4000</v>
       </c>
       <c r="M679" t="n">
-        <v>3727</v>
+        <v>3750</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q679" t="n">
         <v>12</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E680" t="n">
         <v>9</v>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,20 +49317,20 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>830</v>
+        <v>220</v>
       </c>
       <c r="K680" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L680" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M680" t="n">
-        <v>7458</v>
+        <v>3727</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
@@ -49339,10 +49339,10 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>497</v>
+        <v>311</v>
       </c>
       <c r="Q680" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49389,20 +49389,20 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>85</v>
+        <v>830</v>
       </c>
       <c r="K681" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L681" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M681" t="n">
-        <v>5588</v>
+        <v>7458</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
@@ -49411,10 +49411,10 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="Q681" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -49452,7 +49452,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -49461,7 +49461,7 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K682" t="n">
         <v>5000</v>
@@ -49470,7 +49470,7 @@
         <v>6000</v>
       </c>
       <c r="M682" t="n">
-        <v>5400</v>
+        <v>5588</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="Q682" t="n">
         <v>12</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E683" t="n">
         <v>9</v>
@@ -49524,7 +49524,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -49533,32 +49533,32 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K683" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L683" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M683" t="n">
-        <v>10000</v>
+        <v>5400</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="Q683" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49605,20 +49605,20 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>375</v>
+        <v>95</v>
       </c>
       <c r="K684" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L684" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M684" t="n">
-        <v>11333</v>
+        <v>10000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
@@ -49627,10 +49627,10 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>756</v>
+        <v>1000</v>
       </c>
       <c r="Q684" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,16 +49677,16 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>65</v>
+        <v>375</v>
       </c>
       <c r="K685" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L685" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M685" t="n">
-        <v>10000</v>
+        <v>11333</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>667</v>
+        <v>756</v>
       </c>
       <c r="Q685" t="n">
         <v>15</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E686" t="n">
         <v>9</v>
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49749,7 +49749,7 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K686" t="n">
         <v>10000</v>
@@ -49824,13 +49824,13 @@
         <v>85</v>
       </c>
       <c r="K687" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L687" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M687" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q687" t="n">
         <v>15</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E688" t="n">
         <v>9</v>
@@ -49884,7 +49884,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -49893,20 +49893,20 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="K688" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L688" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M688" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -49915,10 +49915,10 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q688" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -49965,32 +49965,32 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K689" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L689" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M689" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q689" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K690" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L690" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M690" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q690" t="n">
         <v>15</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,7 +50109,7 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K691" t="n">
         <v>7000</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E692" t="n">
         <v>9</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,32 +50181,32 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K692" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L692" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M692" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q692" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,32 +50253,32 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="K693" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L693" t="n">
         <v>6000</v>
       </c>
       <c r="M693" t="n">
-        <v>5422</v>
+        <v>6000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>361</v>
+        <v>600</v>
       </c>
       <c r="Q693" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,20 +50325,20 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="K694" t="n">
         <v>5000</v>
       </c>
       <c r="L694" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M694" t="n">
-        <v>5000</v>
+        <v>5422</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
@@ -50347,10 +50347,10 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="Q694" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E695" t="n">
         <v>9</v>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50397,32 +50397,32 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="K695" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L695" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M695" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>933</v>
+        <v>417</v>
       </c>
       <c r="Q695" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R695" t="inlineStr">
         <is>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,16 +50469,16 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K696" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L696" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M696" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="Q696" t="n">
         <v>15</v>
@@ -50532,7 +50532,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -50541,7 +50541,7 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K697" t="n">
         <v>9000</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E698" t="n">
         <v>9</v>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -50613,32 +50613,32 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="K698" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L698" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M698" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q698" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,32 +50685,32 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="K699" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L699" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M699" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q699" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50748,7 +50748,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K700" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L700" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M700" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,16 +50775,88 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q700" t="n">
         <v>15</v>
       </c>
       <c r="R700" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>10</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D701" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E701" t="n">
+        <v>9</v>
+      </c>
+      <c r="F701" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J701" t="n">
+        <v>55</v>
+      </c>
+      <c r="K701" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L701" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M701" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N701" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O701" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P701" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q701" t="n">
+        <v>15</v>
+      </c>
+      <c r="R701" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R710"/>
+  <dimension ref="A1:R714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E615" t="n">
         <v>9</v>
@@ -44637,16 +44637,16 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K615" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L615" t="n">
         <v>8000</v>
       </c>
       <c r="M615" t="n">
-        <v>7667</v>
+        <v>8000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>767</v>
+        <v>800</v>
       </c>
       <c r="Q615" t="n">
         <v>10</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E616" t="n">
         <v>9</v>
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K616" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L616" t="n">
         <v>11000</v>
       </c>
-      <c r="L616" t="n">
-        <v>12000</v>
-      </c>
       <c r="M616" t="n">
-        <v>11455</v>
+        <v>10600</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>764</v>
+        <v>707</v>
       </c>
       <c r="Q616" t="n">
         <v>15</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E617" t="n">
         <v>9</v>
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K617" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L617" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M617" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q617" t="n">
         <v>15</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E618" t="n">
         <v>9</v>
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K618" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L618" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M618" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q618" t="n">
         <v>15</v>
@@ -44916,7 +44916,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -44925,7 +44925,7 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K619" t="n">
         <v>7000</v>
@@ -44934,11 +44934,11 @@
         <v>8000</v>
       </c>
       <c r="M619" t="n">
-        <v>7400</v>
+        <v>7667</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -44947,10 +44947,10 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>411</v>
+        <v>767</v>
       </c>
       <c r="Q619" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E620" t="n">
         <v>9</v>
@@ -44988,7 +44988,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -44997,20 +44997,20 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K620" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L620" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M620" t="n">
-        <v>7000</v>
+        <v>11455</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
@@ -45019,10 +45019,10 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>700</v>
+        <v>764</v>
       </c>
       <c r="Q620" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E621" t="n">
         <v>9</v>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -45069,16 +45069,16 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K621" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L621" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M621" t="n">
-        <v>10571</v>
+        <v>7000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45087,11 +45087,11 @@
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>705</v>
+        <v>467</v>
       </c>
       <c r="Q621" t="n">
         <v>15</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E622" t="n">
         <v>9</v>
@@ -45141,7 +45141,7 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K622" t="n">
         <v>7000</v>
@@ -45159,7 +45159,7 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P622" t="n">
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E623" t="n">
         <v>9</v>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -45213,32 +45213,32 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K623" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L623" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M623" t="n">
-        <v>9500</v>
+        <v>7400</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>633</v>
+        <v>411</v>
       </c>
       <c r="Q623" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E624" t="n">
         <v>9</v>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,32 +45285,32 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K624" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L624" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M624" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q624" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E625" t="n">
         <v>9</v>
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K625" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L625" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M625" t="n">
-        <v>8500</v>
+        <v>10571</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>567</v>
+        <v>705</v>
       </c>
       <c r="Q625" t="n">
         <v>15</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E626" t="n">
         <v>9</v>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K626" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L626" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M626" t="n">
-        <v>5583</v>
+        <v>7000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>372</v>
+        <v>467</v>
       </c>
       <c r="Q626" t="n">
         <v>15</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E627" t="n">
         <v>9</v>
@@ -45492,7 +45492,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -45501,32 +45501,32 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K627" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L627" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M627" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>333</v>
+        <v>633</v>
       </c>
       <c r="Q627" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E628" t="n">
         <v>9</v>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -45573,20 +45573,20 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K628" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L628" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M628" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
@@ -45595,10 +45595,10 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q628" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E629" t="n">
         <v>9</v>
@@ -45636,7 +45636,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -45645,32 +45645,32 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K629" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L629" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M629" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>700</v>
+        <v>567</v>
       </c>
       <c r="Q629" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E630" t="n">
         <v>9</v>
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K630" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L630" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M630" t="n">
-        <v>9000</v>
+        <v>5583</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45735,11 +45735,11 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>600</v>
+        <v>372</v>
       </c>
       <c r="Q630" t="n">
         <v>15</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E631" t="n">
         <v>9</v>
@@ -45789,32 +45789,32 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K631" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L631" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M631" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="Q631" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E632" t="n">
         <v>9</v>
@@ -45861,32 +45861,32 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K632" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L632" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M632" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="Q632" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E633" t="n">
         <v>9</v>
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K633" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L633" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M633" t="n">
-        <v>4750</v>
+        <v>7000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="Q633" t="n">
         <v>10</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E634" t="n">
         <v>9</v>
@@ -46005,16 +46005,16 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K634" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L634" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M634" t="n">
-        <v>3727</v>
+        <v>9000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>248</v>
+        <v>600</v>
       </c>
       <c r="Q634" t="n">
         <v>15</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E635" t="n">
         <v>9</v>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46077,16 +46077,16 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K635" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L635" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M635" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>267</v>
+        <v>467</v>
       </c>
       <c r="Q635" t="n">
         <v>15</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E636" t="n">
         <v>9</v>
@@ -46149,16 +46149,16 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K636" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L636" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M636" t="n">
-        <v>4727</v>
+        <v>7000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>315</v>
+        <v>467</v>
       </c>
       <c r="Q636" t="n">
         <v>15</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E637" t="n">
         <v>9</v>
@@ -46221,16 +46221,16 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K637" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L637" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M637" t="n">
-        <v>8406</v>
+        <v>4750</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>841</v>
+        <v>475</v>
       </c>
       <c r="Q637" t="n">
         <v>10</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E638" t="n">
         <v>9</v>
@@ -46293,16 +46293,16 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K638" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L638" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M638" t="n">
-        <v>10000</v>
+        <v>3727</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>667</v>
+        <v>248</v>
       </c>
       <c r="Q638" t="n">
         <v>15</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E639" t="n">
         <v>9</v>
@@ -46356,7 +46356,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
@@ -46365,32 +46365,32 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K639" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L639" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M639" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>750</v>
+        <v>267</v>
       </c>
       <c r="Q639" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E640" t="n">
         <v>9</v>
@@ -46428,7 +46428,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -46437,32 +46437,32 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K640" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L640" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M640" t="n">
-        <v>8000</v>
+        <v>4727</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>800</v>
+        <v>315</v>
       </c>
       <c r="Q640" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E641" t="n">
         <v>9</v>
@@ -46500,7 +46500,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -46509,32 +46509,32 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="K641" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L641" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M641" t="n">
-        <v>11000</v>
+        <v>8406</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>733</v>
+        <v>841</v>
       </c>
       <c r="Q641" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E642" t="n">
         <v>9</v>
@@ -46572,7 +46572,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -46581,32 +46581,32 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K642" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L642" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M642" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q642" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E643" t="n">
         <v>9</v>
@@ -46644,7 +46644,7 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -46653,20 +46653,20 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="K643" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L643" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M643" t="n">
-        <v>8629</v>
+        <v>7500</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -46675,10 +46675,10 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="Q643" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E644" t="n">
         <v>9</v>
@@ -46716,7 +46716,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
@@ -46725,7 +46725,7 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="K644" t="n">
         <v>8000</v>
@@ -46738,19 +46738,19 @@
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q644" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E645" t="n">
         <v>9</v>
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="K645" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L645" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M645" t="n">
-        <v>5385</v>
+        <v>11000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>359</v>
+        <v>733</v>
       </c>
       <c r="Q645" t="n">
         <v>15</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E646" t="n">
         <v>9</v>
@@ -46869,16 +46869,16 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K646" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L646" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M646" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q646" t="n">
         <v>10</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E647" t="n">
         <v>9</v>
@@ -46941,16 +46941,16 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="K647" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L647" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M647" t="n">
-        <v>3750</v>
+        <v>8629</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46959,11 +46959,11 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>250</v>
+        <v>575</v>
       </c>
       <c r="Q647" t="n">
         <v>15</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E648" t="n">
         <v>9</v>
@@ -47004,7 +47004,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>100</v>
+        <v>950</v>
       </c>
       <c r="K648" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L648" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M648" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>300</v>
+        <v>533</v>
       </c>
       <c r="Q648" t="n">
         <v>15</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E649" t="n">
         <v>9</v>
@@ -47076,7 +47076,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -47085,20 +47085,20 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="K649" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L649" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M649" t="n">
-        <v>3722</v>
+        <v>5385</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -47107,10 +47107,10 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="Q649" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -47157,32 +47157,32 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K650" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L650" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M650" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="Q650" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E651" t="n">
         <v>9</v>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -47229,32 +47229,32 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K651" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L651" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M651" t="n">
-        <v>8500</v>
+        <v>3750</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="Q651" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E652" t="n">
         <v>9</v>
@@ -47292,7 +47292,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K652" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L652" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M652" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="Q652" t="n">
         <v>15</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E653" t="n">
         <v>9</v>
@@ -47373,32 +47373,32 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K653" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L653" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M653" t="n">
-        <v>8000</v>
+        <v>3722</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>533</v>
+        <v>310</v>
       </c>
       <c r="Q653" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E654" t="n">
         <v>9</v>
@@ -47445,32 +47445,32 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K654" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L654" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M654" t="n">
-        <v>8000</v>
+        <v>3750</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>533</v>
+        <v>312</v>
       </c>
       <c r="Q654" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R654" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E655" t="n">
         <v>9</v>
@@ -47517,16 +47517,16 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K655" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L655" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M655" t="n">
-        <v>7292</v>
+        <v>8500</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>729</v>
+        <v>850</v>
       </c>
       <c r="Q655" t="n">
         <v>10</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E656" t="n">
         <v>9</v>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -47589,32 +47589,32 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K656" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L656" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M656" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q656" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R656" t="inlineStr">
         <is>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E657" t="n">
         <v>9</v>
@@ -47652,7 +47652,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
@@ -47661,16 +47661,16 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K657" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L657" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M657" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="Q657" t="n">
         <v>15</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E658" t="n">
         <v>9</v>
@@ -47724,7 +47724,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -47733,16 +47733,16 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K658" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L658" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M658" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q658" t="n">
         <v>15</v>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -47805,32 +47805,32 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K659" t="n">
         <v>7000</v>
       </c>
       <c r="L659" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M659" t="n">
-        <v>7000</v>
+        <v>7292</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>467</v>
+        <v>729</v>
       </c>
       <c r="Q659" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E660" t="n">
         <v>9</v>
@@ -47877,32 +47877,32 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K660" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L660" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M660" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="Q660" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E661" t="n">
         <v>9</v>
@@ -47949,16 +47949,16 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="K661" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L661" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M661" t="n">
-        <v>5444</v>
+        <v>9000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>363</v>
+        <v>600</v>
       </c>
       <c r="Q661" t="n">
         <v>15</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E662" t="n">
         <v>9</v>
@@ -48021,32 +48021,32 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K662" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L662" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M662" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q662" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E663" t="n">
         <v>9</v>
@@ -48093,32 +48093,32 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K663" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L663" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M663" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q663" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E664" t="n">
         <v>9</v>
@@ -48165,7 +48165,7 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K664" t="n">
         <v>4000</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E665" t="n">
         <v>9</v>
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K665" t="n">
         <v>5000</v>
       </c>
       <c r="L665" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M665" t="n">
-        <v>5000</v>
+        <v>5444</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="Q665" t="n">
         <v>15</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E666" t="n">
         <v>9</v>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48309,7 +48309,7 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K666" t="n">
         <v>4000</v>
@@ -48322,19 +48322,19 @@
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="Q666" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E667" t="n">
         <v>9</v>
@@ -48372,7 +48372,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K667" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L667" t="n">
         <v>4000</v>
       </c>
       <c r="M667" t="n">
-        <v>3444</v>
+        <v>4000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="Q667" t="n">
         <v>12</v>
@@ -48444,7 +48444,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -48453,16 +48453,16 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="K668" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L668" t="n">
         <v>4000</v>
       </c>
       <c r="M668" t="n">
-        <v>3455</v>
+        <v>4000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="Q668" t="n">
         <v>12</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E669" t="n">
         <v>9</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48525,32 +48525,32 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K669" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L669" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M669" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>725</v>
+        <v>333</v>
       </c>
       <c r="Q669" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E670" t="n">
         <v>9</v>
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K670" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L670" t="n">
-        <v>11500</v>
+        <v>4000</v>
       </c>
       <c r="M670" t="n">
-        <v>10750</v>
+        <v>4000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>717</v>
+        <v>267</v>
       </c>
       <c r="Q670" t="n">
         <v>15</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E671" t="n">
         <v>9</v>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48669,32 +48669,32 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K671" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L671" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M671" t="n">
-        <v>7250</v>
+        <v>3444</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>483</v>
+        <v>287</v>
       </c>
       <c r="Q671" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E672" t="n">
         <v>9</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,32 +48741,32 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="K672" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L672" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M672" t="n">
-        <v>7250</v>
+        <v>3455</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q672" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,7 +48813,7 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>650</v>
+        <v>1600</v>
       </c>
       <c r="K673" t="n">
         <v>7000</v>
@@ -48822,11 +48822,11 @@
         <v>7500</v>
       </c>
       <c r="M673" t="n">
-        <v>7269</v>
+        <v>7250</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
@@ -48835,10 +48835,10 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>485</v>
+        <v>725</v>
       </c>
       <c r="Q673" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,32 +48885,32 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K674" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L674" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="M674" t="n">
-        <v>7000</v>
+        <v>10750</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>389</v>
+        <v>717</v>
       </c>
       <c r="Q674" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E675" t="n">
         <v>9</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48963,14 +48963,14 @@
         <v>7000</v>
       </c>
       <c r="L675" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M675" t="n">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -48979,10 +48979,10 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>700</v>
+        <v>483</v>
       </c>
       <c r="Q675" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E676" t="n">
         <v>9</v>
@@ -49020,29 +49020,29 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K676" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L676" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M676" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
@@ -49051,10 +49051,10 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="Q676" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E677" t="n">
         <v>9</v>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="K677" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L677" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M677" t="n">
-        <v>12000</v>
+        <v>7269</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>800</v>
+        <v>485</v>
       </c>
       <c r="Q677" t="n">
         <v>15</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E678" t="n">
         <v>9</v>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -49173,7 +49173,7 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K678" t="n">
         <v>7000</v>
@@ -49186,7 +49186,7 @@
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
@@ -49195,10 +49195,10 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="Q678" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49236,7 +49236,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -49258,7 +49258,7 @@
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -49267,10 +49267,10 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q679" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E680" t="n">
         <v>9</v>
@@ -49313,36 +49313,36 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K680" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L680" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M680" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="Q680" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E681" t="n">
         <v>9</v>
@@ -49389,16 +49389,16 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="K681" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L681" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M681" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q681" t="n">
         <v>15</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E682" t="n">
         <v>9</v>
@@ -49461,32 +49461,32 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K682" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L682" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M682" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q682" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E683" t="n">
         <v>9</v>
@@ -49533,32 +49533,32 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K683" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L683" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M683" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q683" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E684" t="n">
         <v>9</v>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49605,7 +49605,7 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="K684" t="n">
         <v>7000</v>
@@ -49618,7 +49618,7 @@
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
@@ -49627,10 +49627,10 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>467</v>
+        <v>583</v>
       </c>
       <c r="Q684" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E685" t="n">
         <v>9</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,20 +49677,20 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K685" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L685" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M685" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
@@ -49699,10 +49699,10 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q685" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E686" t="n">
         <v>9</v>
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49749,20 +49749,20 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K686" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L686" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M686" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
@@ -49771,10 +49771,10 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q686" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E687" t="n">
         <v>9</v>
@@ -49812,29 +49812,29 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J687" t="n">
         <v>50</v>
       </c>
       <c r="K687" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L687" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M687" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
@@ -49843,10 +49843,10 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q687" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E688" t="n">
         <v>9</v>
@@ -49884,7 +49884,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -49893,20 +49893,20 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="K688" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L688" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M688" t="n">
-        <v>3750</v>
+        <v>7000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -49915,10 +49915,10 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="Q688" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -49965,16 +49965,16 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="K689" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L689" t="n">
         <v>4000</v>
       </c>
       <c r="M689" t="n">
-        <v>3727</v>
+        <v>4000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="Q689" t="n">
         <v>12</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E690" t="n">
         <v>9</v>
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="K690" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L690" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M690" t="n">
-        <v>7458</v>
+        <v>3750</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="Q690" t="n">
         <v>15</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E691" t="n">
         <v>9</v>
@@ -50100,29 +50100,29 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="K691" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L691" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M691" t="n">
-        <v>5588</v>
+        <v>3000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
@@ -50131,10 +50131,10 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>466</v>
+        <v>200</v>
       </c>
       <c r="Q691" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E692" t="n">
         <v>9</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K692" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L692" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M692" t="n">
-        <v>5400</v>
+        <v>3750</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="Q692" t="n">
         <v>12</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E693" t="n">
         <v>9</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,32 +50253,32 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K693" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L693" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M693" t="n">
-        <v>10000</v>
+        <v>3727</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>1000</v>
+        <v>311</v>
       </c>
       <c r="Q693" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E694" t="n">
         <v>9</v>
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>375</v>
+        <v>830</v>
       </c>
       <c r="K694" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L694" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M694" t="n">
-        <v>11333</v>
+        <v>7458</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>756</v>
+        <v>497</v>
       </c>
       <c r="Q694" t="n">
         <v>15</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E695" t="n">
         <v>9</v>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50397,32 +50397,32 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K695" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L695" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M695" t="n">
-        <v>10000</v>
+        <v>5588</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>667</v>
+        <v>466</v>
       </c>
       <c r="Q695" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R695" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E696" t="n">
         <v>9</v>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,32 +50469,32 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K696" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L696" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M696" t="n">
-        <v>10000</v>
+        <v>5400</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>667</v>
+        <v>450</v>
       </c>
       <c r="Q696" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E697" t="n">
         <v>9</v>
@@ -50532,7 +50532,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -50541,32 +50541,32 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K697" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L697" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M697" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q697" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E698" t="n">
         <v>9</v>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -50613,32 +50613,32 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="K698" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L698" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M698" t="n">
-        <v>7000</v>
+        <v>11333</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>700</v>
+        <v>756</v>
       </c>
       <c r="Q698" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E699" t="n">
         <v>9</v>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,16 +50685,16 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="K699" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L699" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M699" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q699" t="n">
         <v>15</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E700" t="n">
         <v>9</v>
@@ -50748,7 +50748,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K700" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L700" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M700" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q700" t="n">
         <v>15</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E701" t="n">
         <v>9</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="K701" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L701" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M701" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q701" t="n">
         <v>15</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E702" t="n">
         <v>9</v>
@@ -50901,16 +50901,16 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K702" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L702" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M702" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q702" t="n">
         <v>10</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E703" t="n">
         <v>9</v>
@@ -50973,16 +50973,16 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="K703" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L703" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M703" t="n">
-        <v>5422</v>
+        <v>9000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>361</v>
+        <v>600</v>
       </c>
       <c r="Q703" t="n">
         <v>15</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E704" t="n">
         <v>9</v>
@@ -51045,32 +51045,32 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K704" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L704" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M704" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="Q704" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E705" t="n">
         <v>9</v>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51117,16 +51117,16 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K705" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L705" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M705" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>933</v>
+        <v>467</v>
       </c>
       <c r="Q705" t="n">
         <v>15</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E706" t="n">
         <v>9</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,32 +51189,32 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K706" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L706" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M706" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P706" t="n">
         <v>600</v>
       </c>
       <c r="Q706" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E707" t="n">
         <v>9</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="K707" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L707" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M707" t="n">
-        <v>9000</v>
+        <v>5422</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>600</v>
+        <v>361</v>
       </c>
       <c r="Q707" t="n">
         <v>15</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E708" t="n">
         <v>9</v>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51333,32 +51333,32 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="K708" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L708" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M708" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>700</v>
+        <v>417</v>
       </c>
       <c r="Q708" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E709" t="n">
         <v>9</v>
@@ -51405,16 +51405,16 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K709" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L709" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M709" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="Q709" t="n">
         <v>15</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E710" t="n">
         <v>9</v>
@@ -51468,7 +51468,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -51477,16 +51477,16 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="K710" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L710" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M710" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,16 +51495,304 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q710" t="n">
         <v>15</v>
       </c>
       <c r="R710" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>10</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D711" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E711" t="n">
+        <v>9</v>
+      </c>
+      <c r="F711" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J711" t="n">
+        <v>300</v>
+      </c>
+      <c r="K711" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L711" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M711" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N711" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O711" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P711" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q711" t="n">
+        <v>15</v>
+      </c>
+      <c r="R711" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>10</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D712" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E712" t="n">
+        <v>9</v>
+      </c>
+      <c r="F712" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J712" t="n">
+        <v>45</v>
+      </c>
+      <c r="K712" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L712" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M712" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N712" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O712" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P712" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q712" t="n">
+        <v>10</v>
+      </c>
+      <c r="R712" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>10</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D713" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E713" t="n">
+        <v>9</v>
+      </c>
+      <c r="F713" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J713" t="n">
+        <v>150</v>
+      </c>
+      <c r="K713" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L713" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M713" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N713" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O713" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P713" t="n">
+        <v>533</v>
+      </c>
+      <c r="Q713" t="n">
+        <v>15</v>
+      </c>
+      <c r="R713" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>10</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D714" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E714" t="n">
+        <v>9</v>
+      </c>
+      <c r="F714" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J714" t="n">
+        <v>55</v>
+      </c>
+      <c r="K714" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L714" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M714" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N714" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O714" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P714" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q714" t="n">
+        <v>15</v>
+      </c>
+      <c r="R714" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R718"/>
+  <dimension ref="A1:R722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E603" t="n">
         <v>9</v>
@@ -43764,7 +43764,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -43773,32 +43773,32 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K603" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L603" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M603" t="n">
-        <v>10000</v>
+        <v>7429</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="Q603" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R603" t="inlineStr">
         <is>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E604" t="n">
         <v>9</v>
@@ -43836,7 +43836,7 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -43845,20 +43845,20 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K604" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L604" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M604" t="n">
-        <v>7000</v>
+        <v>9533</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
@@ -43867,10 +43867,10 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>700</v>
+        <v>636</v>
       </c>
       <c r="Q604" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R604" t="inlineStr">
         <is>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E605" t="n">
         <v>9</v>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K605" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L605" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M605" t="n">
-        <v>10000</v>
+        <v>7429</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>667</v>
+        <v>495</v>
       </c>
       <c r="Q605" t="n">
         <v>15</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E606" t="n">
         <v>9</v>
@@ -43980,7 +43980,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K606" t="n">
         <v>7000</v>
       </c>
       <c r="L606" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M606" t="n">
-        <v>7000</v>
+        <v>7444</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="Q606" t="n">
         <v>15</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E607" t="n">
         <v>9</v>
@@ -44052,7 +44052,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K607" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L607" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M607" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q607" t="n">
         <v>15</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E608" t="n">
         <v>9</v>
@@ -44133,16 +44133,16 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K608" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L608" t="n">
         <v>7000</v>
       </c>
       <c r="M608" t="n">
-        <v>6444</v>
+        <v>7000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>644</v>
+        <v>700</v>
       </c>
       <c r="Q608" t="n">
         <v>10</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E609" t="n">
         <v>9</v>
@@ -44196,7 +44196,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -44205,32 +44205,32 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K609" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L609" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M609" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q609" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E610" t="n">
         <v>9</v>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K610" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L610" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M610" t="n">
-        <v>11556</v>
+        <v>7000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>770</v>
+        <v>467</v>
       </c>
       <c r="Q610" t="n">
         <v>15</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E611" t="n">
         <v>9</v>
@@ -44340,7 +44340,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -44412,7 +44412,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -44421,20 +44421,20 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K612" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L612" t="n">
         <v>7000</v>
       </c>
       <c r="M612" t="n">
-        <v>7000</v>
+        <v>6444</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
@@ -44443,10 +44443,10 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="Q612" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R612" t="inlineStr">
         <is>
@@ -44484,7 +44484,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -44493,7 +44493,7 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K613" t="n">
         <v>7000</v>
@@ -44506,19 +44506,19 @@
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q613" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R613" t="inlineStr">
         <is>
@@ -44556,7 +44556,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -44565,20 +44565,20 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="K614" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L614" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M614" t="n">
-        <v>7000</v>
+        <v>11556</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -44587,10 +44587,10 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>389</v>
+        <v>770</v>
       </c>
       <c r="Q614" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E615" t="n">
         <v>9</v>
@@ -44628,7 +44628,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -44637,16 +44637,16 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="K615" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L615" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M615" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q615" t="n">
         <v>15</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E616" t="n">
         <v>9</v>
@@ -44709,32 +44709,32 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K616" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L616" t="n">
         <v>7000</v>
       </c>
       <c r="M616" t="n">
-        <v>6571</v>
+        <v>7000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>548</v>
+        <v>467</v>
       </c>
       <c r="Q616" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E617" t="n">
         <v>9</v>
@@ -44781,32 +44781,32 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K617" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L617" t="n">
         <v>7000</v>
       </c>
       <c r="M617" t="n">
-        <v>6647</v>
+        <v>7000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="Q617" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E618" t="n">
         <v>9</v>
@@ -44844,7 +44844,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -44853,7 +44853,7 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K618" t="n">
         <v>7000</v>
@@ -44866,19 +44866,19 @@
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>700</v>
+        <v>389</v>
       </c>
       <c r="Q618" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R618" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E619" t="n">
         <v>9</v>
@@ -44928,13 +44928,13 @@
         <v>155</v>
       </c>
       <c r="K619" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L619" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M619" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="Q619" t="n">
         <v>15</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E620" t="n">
         <v>9</v>
@@ -44988,7 +44988,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -44997,32 +44997,32 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="K620" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L620" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M620" t="n">
-        <v>8000</v>
+        <v>6571</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>800</v>
+        <v>548</v>
       </c>
       <c r="Q620" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E621" t="n">
         <v>9</v>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -45069,32 +45069,32 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K621" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L621" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M621" t="n">
-        <v>8629</v>
+        <v>6647</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="Q621" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E622" t="n">
         <v>9</v>
@@ -45132,7 +45132,7 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
@@ -45141,32 +45141,32 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>950</v>
+        <v>95</v>
       </c>
       <c r="K622" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L622" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M622" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q622" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E623" t="n">
         <v>9</v>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -45213,7 +45213,7 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K623" t="n">
         <v>10000</v>
@@ -45226,19 +45226,19 @@
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q623" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E624" t="n">
         <v>9</v>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,32 +45285,32 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="K624" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L624" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M624" t="n">
-        <v>10400</v>
+        <v>8000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>693</v>
+        <v>800</v>
       </c>
       <c r="Q624" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E625" t="n">
         <v>9</v>
@@ -45348,7 +45348,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -45357,32 +45357,32 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="K625" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L625" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M625" t="n">
-        <v>4241</v>
+        <v>8629</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>424</v>
+        <v>575</v>
       </c>
       <c r="Q625" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R625" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E626" t="n">
         <v>9</v>
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>830</v>
+        <v>950</v>
       </c>
       <c r="K626" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L626" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M626" t="n">
-        <v>3771</v>
+        <v>8000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>251</v>
+        <v>533</v>
       </c>
       <c r="Q626" t="n">
         <v>15</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E627" t="n">
         <v>9</v>
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K627" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L627" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M627" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q627" t="n">
         <v>10</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E628" t="n">
         <v>9</v>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -45573,32 +45573,32 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K628" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L628" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M628" t="n">
-        <v>8000</v>
+        <v>10400</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>800</v>
+        <v>693</v>
       </c>
       <c r="Q628" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E629" t="n">
         <v>9</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="K629" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L629" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M629" t="n">
-        <v>5000</v>
+        <v>4241</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>500</v>
+        <v>424</v>
       </c>
       <c r="Q629" t="n">
         <v>10</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E630" t="n">
         <v>9</v>
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>2000</v>
+        <v>830</v>
       </c>
       <c r="K630" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L630" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M630" t="n">
-        <v>8400</v>
+        <v>3771</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45735,11 +45735,11 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>560</v>
+        <v>251</v>
       </c>
       <c r="Q630" t="n">
         <v>15</v>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -45789,32 +45789,32 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="K631" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L631" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M631" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q631" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45852,7 +45852,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
@@ -45861,32 +45861,32 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K632" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L632" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M632" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q632" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E633" t="n">
         <v>9</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K633" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L633" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M633" t="n">
-        <v>7292</v>
+        <v>5000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>729</v>
+        <v>500</v>
       </c>
       <c r="Q633" t="n">
         <v>10</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E634" t="n">
         <v>9</v>
@@ -45996,7 +45996,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -46005,32 +46005,32 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K634" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L634" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M634" t="n">
-        <v>7000</v>
+        <v>8400</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="Q634" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E635" t="n">
         <v>9</v>
@@ -46077,16 +46077,16 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K635" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L635" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M635" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="Q635" t="n">
         <v>15</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E636" t="n">
         <v>9</v>
@@ -46149,7 +46149,7 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K636" t="n">
         <v>7000</v>
@@ -46167,7 +46167,7 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P636" t="n">
@@ -46212,7 +46212,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -46221,32 +46221,32 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K637" t="n">
         <v>7000</v>
       </c>
       <c r="L637" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M637" t="n">
-        <v>7000</v>
+        <v>7292</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>467</v>
+        <v>729</v>
       </c>
       <c r="Q637" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E638" t="n">
         <v>9</v>
@@ -46293,7 +46293,7 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K638" t="n">
         <v>7000</v>
@@ -46311,7 +46311,7 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P638" t="n">
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E639" t="n">
         <v>9</v>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>185</v>
+        <v>1000</v>
       </c>
       <c r="K639" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L639" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M639" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="Q639" t="n">
         <v>15</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E640" t="n">
         <v>9</v>
@@ -46428,7 +46428,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -46437,7 +46437,7 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="K640" t="n">
         <v>7000</v>
@@ -46450,7 +46450,7 @@
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -46459,10 +46459,10 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q640" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E641" t="n">
         <v>9</v>
@@ -46500,7 +46500,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -46509,16 +46509,16 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>905</v>
+        <v>400</v>
       </c>
       <c r="K641" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L641" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M641" t="n">
-        <v>8282</v>
+        <v>7000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>552</v>
+        <v>467</v>
       </c>
       <c r="Q641" t="n">
         <v>15</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E642" t="n">
         <v>9</v>
@@ -46581,32 +46581,32 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K642" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L642" t="n">
         <v>7000</v>
       </c>
       <c r="M642" t="n">
-        <v>6526</v>
+        <v>7000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>544</v>
+        <v>700</v>
       </c>
       <c r="Q642" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E643" t="n">
         <v>9</v>
@@ -46653,16 +46653,16 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="K643" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L643" t="n">
         <v>8000</v>
       </c>
       <c r="M643" t="n">
-        <v>7793</v>
+        <v>8000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="Q643" t="n">
         <v>15</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E644" t="n">
         <v>9</v>
@@ -46716,7 +46716,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
@@ -46725,20 +46725,20 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>800</v>
+        <v>55</v>
       </c>
       <c r="K644" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L644" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M644" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -46747,10 +46747,10 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q644" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E645" t="n">
         <v>9</v>
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>200</v>
+        <v>905</v>
       </c>
       <c r="K645" t="n">
         <v>8000</v>
       </c>
       <c r="L645" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M645" t="n">
-        <v>8000</v>
+        <v>8282</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="Q645" t="n">
         <v>15</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E646" t="n">
         <v>9</v>
@@ -46860,7 +46860,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -46869,32 +46869,32 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>600</v>
+        <v>95</v>
       </c>
       <c r="K646" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L646" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M646" t="n">
-        <v>8000</v>
+        <v>6526</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="Q646" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R646" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E647" t="n">
         <v>9</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="K647" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L647" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M647" t="n">
-        <v>5000</v>
+        <v>7793</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46959,11 +46959,11 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>333</v>
+        <v>520</v>
       </c>
       <c r="Q647" t="n">
         <v>15</v>
@@ -47004,7 +47004,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K648" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L648" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M648" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="Q648" t="n">
         <v>15</v>
@@ -47076,7 +47076,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -47085,16 +47085,16 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K649" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L649" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M649" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47103,11 +47103,11 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="Q649" t="n">
         <v>15</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E650" t="n">
         <v>9</v>
@@ -47148,7 +47148,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -47157,32 +47157,32 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K650" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L650" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M650" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="Q650" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E651" t="n">
         <v>9</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>650</v>
+        <v>30</v>
       </c>
       <c r="K651" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L651" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M651" t="n">
-        <v>10769</v>
+        <v>5000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>718</v>
+        <v>333</v>
       </c>
       <c r="Q651" t="n">
         <v>15</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E652" t="n">
         <v>9</v>
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K652" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L652" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M652" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q652" t="n">
         <v>15</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E653" t="n">
         <v>9</v>
@@ -47373,16 +47373,16 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K653" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L653" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M653" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q653" t="n">
         <v>15</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E654" t="n">
         <v>9</v>
@@ -47436,7 +47436,7 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
@@ -47445,20 +47445,20 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K654" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L654" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M654" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -47467,10 +47467,10 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q654" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R654" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E655" t="n">
         <v>9</v>
@@ -47508,7 +47508,7 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
@@ -47517,32 +47517,32 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>75</v>
+        <v>650</v>
       </c>
       <c r="K655" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L655" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M655" t="n">
-        <v>7500</v>
+        <v>10769</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>750</v>
+        <v>718</v>
       </c>
       <c r="Q655" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E656" t="n">
         <v>9</v>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K656" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L656" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M656" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="Q656" t="n">
         <v>15</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E657" t="n">
         <v>9</v>
@@ -47652,7 +47652,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
@@ -47661,7 +47661,7 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K657" t="n">
         <v>7000</v>
@@ -47679,7 +47679,7 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P657" t="n">
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E658" t="n">
         <v>9</v>
@@ -47736,13 +47736,13 @@
         <v>400</v>
       </c>
       <c r="K658" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L658" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M658" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q658" t="n">
         <v>15</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E659" t="n">
         <v>9</v>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -47805,32 +47805,32 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="K659" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L659" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M659" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>567</v>
+        <v>750</v>
       </c>
       <c r="Q659" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E660" t="n">
         <v>9</v>
@@ -47868,7 +47868,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
@@ -47877,32 +47877,32 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>125</v>
+        <v>550</v>
       </c>
       <c r="K660" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L660" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M660" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q660" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E661" t="n">
         <v>9</v>
@@ -47940,7 +47940,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
@@ -47949,16 +47949,16 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>750</v>
+        <v>110</v>
       </c>
       <c r="K661" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L661" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M661" t="n">
-        <v>10467</v>
+        <v>7000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>698</v>
+        <v>467</v>
       </c>
       <c r="Q661" t="n">
         <v>15</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E662" t="n">
         <v>9</v>
@@ -48012,7 +48012,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -48021,16 +48021,16 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>185</v>
+        <v>400</v>
       </c>
       <c r="K662" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L662" t="n">
         <v>7000</v>
       </c>
       <c r="M662" t="n">
-        <v>6757</v>
+        <v>7000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="Q662" t="n">
         <v>15</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E663" t="n">
         <v>9</v>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -48093,16 +48093,16 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="K663" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L663" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M663" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>467</v>
+        <v>567</v>
       </c>
       <c r="Q663" t="n">
         <v>15</v>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,7 +48165,7 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K664" t="n">
         <v>7000</v>
@@ -48178,7 +48178,7 @@
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
@@ -48187,10 +48187,10 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q664" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E665" t="n">
         <v>9</v>
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K665" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L665" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M665" t="n">
-        <v>14000</v>
+        <v>10467</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>933</v>
+        <v>698</v>
       </c>
       <c r="Q665" t="n">
         <v>15</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E666" t="n">
         <v>9</v>
@@ -48309,16 +48309,16 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="K666" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L666" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M666" t="n">
-        <v>9000</v>
+        <v>6757</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="Q666" t="n">
         <v>15</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E667" t="n">
         <v>9</v>
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K667" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L667" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M667" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q667" t="n">
         <v>15</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E668" t="n">
         <v>9</v>
@@ -48444,7 +48444,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -48456,17 +48456,17 @@
         <v>155</v>
       </c>
       <c r="K668" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L668" t="n">
         <v>7000</v>
       </c>
       <c r="M668" t="n">
-        <v>6581</v>
+        <v>7000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -48475,10 +48475,10 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>658</v>
+        <v>467</v>
       </c>
       <c r="Q668" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E669" t="n">
         <v>9</v>
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K669" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L669" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M669" t="n">
-        <v>10429</v>
+        <v>14000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>695</v>
+        <v>933</v>
       </c>
       <c r="Q669" t="n">
         <v>15</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E670" t="n">
         <v>9</v>
@@ -48597,32 +48597,32 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K670" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L670" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M670" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="Q670" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E671" t="n">
         <v>9</v>
@@ -48669,32 +48669,32 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K671" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L671" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M671" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="Q671" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E672" t="n">
         <v>9</v>
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>350</v>
+        <v>155</v>
       </c>
       <c r="K672" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L672" t="n">
         <v>7000</v>
       </c>
-      <c r="L672" t="n">
-        <v>8000</v>
-      </c>
       <c r="M672" t="n">
-        <v>7429</v>
+        <v>6581</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>743</v>
+        <v>658</v>
       </c>
       <c r="Q672" t="n">
         <v>10</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E673" t="n">
         <v>9</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,32 +48813,32 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K673" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L673" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M673" t="n">
-        <v>7583</v>
+        <v>10429</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>758</v>
+        <v>695</v>
       </c>
       <c r="Q673" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E674" t="n">
         <v>9</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,32 +48885,32 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>1800</v>
+        <v>80</v>
       </c>
       <c r="K674" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L674" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M674" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>633</v>
+        <v>333</v>
       </c>
       <c r="Q674" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E675" t="n">
         <v>9</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,32 +48957,32 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K675" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L675" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M675" t="n">
-        <v>7600</v>
+        <v>4000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>507</v>
+        <v>333</v>
       </c>
       <c r="Q675" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -49029,7 +49029,7 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="K676" t="n">
         <v>7000</v>
@@ -49038,23 +49038,23 @@
         <v>8000</v>
       </c>
       <c r="M676" t="n">
-        <v>7500</v>
+        <v>7429</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>500</v>
+        <v>743</v>
       </c>
       <c r="Q676" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,7 +49101,7 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K677" t="n">
         <v>7000</v>
@@ -49110,23 +49110,23 @@
         <v>8000</v>
       </c>
       <c r="M677" t="n">
-        <v>7400</v>
+        <v>7583</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>493</v>
+        <v>758</v>
       </c>
       <c r="Q677" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R677" t="inlineStr">
         <is>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -49173,16 +49173,16 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K678" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L678" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M678" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>500</v>
+        <v>633</v>
       </c>
       <c r="Q678" t="n">
         <v>15</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E679" t="n">
         <v>9</v>
@@ -49245,32 +49245,32 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K679" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L679" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M679" t="n">
-        <v>6500</v>
+        <v>7600</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="Q679" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E680" t="n">
         <v>9</v>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,32 +49317,32 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="K680" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L680" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M680" t="n">
-        <v>6417</v>
+        <v>7500</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="Q680" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E681" t="n">
         <v>9</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49389,16 +49389,16 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="K681" t="n">
         <v>7000</v>
       </c>
       <c r="L681" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M681" t="n">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="Q681" t="n">
         <v>15</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E682" t="n">
         <v>9</v>
@@ -49452,7 +49452,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -49461,7 +49461,7 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K682" t="n">
         <v>7000</v>
@@ -49470,23 +49470,23 @@
         <v>8000</v>
       </c>
       <c r="M682" t="n">
-        <v>7667</v>
+        <v>7500</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>767</v>
+        <v>500</v>
       </c>
       <c r="Q682" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E683" t="n">
         <v>9</v>
@@ -49524,7 +49524,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -49533,32 +49533,32 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K683" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L683" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M683" t="n">
-        <v>11455</v>
+        <v>6500</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>764</v>
+        <v>542</v>
       </c>
       <c r="Q683" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E684" t="n">
         <v>9</v>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49605,32 +49605,32 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K684" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L684" t="n">
         <v>7000</v>
       </c>
       <c r="M684" t="n">
-        <v>7000</v>
+        <v>6417</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>467</v>
+        <v>535</v>
       </c>
       <c r="Q684" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E685" t="n">
         <v>9</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,7 +49677,7 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K685" t="n">
         <v>7000</v>
@@ -49695,7 +49695,7 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P685" t="n">
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49749,7 +49749,7 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K686" t="n">
         <v>7000</v>
@@ -49758,11 +49758,11 @@
         <v>8000</v>
       </c>
       <c r="M686" t="n">
-        <v>7400</v>
+        <v>7667</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
@@ -49771,10 +49771,10 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>411</v>
+        <v>767</v>
       </c>
       <c r="Q686" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E687" t="n">
         <v>9</v>
@@ -49821,16 +49821,16 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K687" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L687" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M687" t="n">
-        <v>5000</v>
+        <v>11455</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>333</v>
+        <v>764</v>
       </c>
       <c r="Q687" t="n">
         <v>15</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E688" t="n">
         <v>9</v>
@@ -49893,32 +49893,32 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K688" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L688" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M688" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q688" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E689" t="n">
         <v>9</v>
@@ -49965,32 +49965,32 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="K689" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L689" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M689" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q689" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E690" t="n">
         <v>9</v>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -50037,20 +50037,20 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K690" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L690" t="n">
         <v>8000</v>
       </c>
-      <c r="L690" t="n">
-        <v>9000</v>
-      </c>
       <c r="M690" t="n">
-        <v>8500</v>
+        <v>7400</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
@@ -50059,10 +50059,10 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>850</v>
+        <v>411</v>
       </c>
       <c r="Q690" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R690" t="inlineStr">
         <is>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E691" t="n">
         <v>9</v>
@@ -50109,16 +50109,16 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K691" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L691" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M691" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="Q691" t="n">
         <v>15</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E692" t="n">
         <v>9</v>
@@ -50181,32 +50181,32 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K692" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L692" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M692" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="Q692" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E693" t="n">
         <v>9</v>
@@ -50253,32 +50253,32 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K693" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L693" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M693" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="Q693" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E694" t="n">
         <v>9</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,32 +50325,32 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K694" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L694" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M694" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>333</v>
+        <v>850</v>
       </c>
       <c r="Q694" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E695" t="n">
         <v>9</v>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50397,32 +50397,32 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K695" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L695" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M695" t="n">
-        <v>4611</v>
+        <v>12000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>384</v>
+        <v>800</v>
       </c>
       <c r="Q695" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R695" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E696" t="n">
         <v>9</v>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,16 +50469,16 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K696" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L696" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M696" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>633</v>
+        <v>533</v>
       </c>
       <c r="Q696" t="n">
         <v>15</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E697" t="n">
         <v>9</v>
@@ -50532,7 +50532,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -50541,7 +50541,7 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K697" t="n">
         <v>8000</v>
@@ -50559,7 +50559,7 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P697" t="n">
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E698" t="n">
         <v>9</v>
@@ -50613,16 +50613,16 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K698" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L698" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M698" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>567</v>
+        <v>333</v>
       </c>
       <c r="Q698" t="n">
         <v>15</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E699" t="n">
         <v>9</v>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,32 +50685,32 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K699" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L699" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M699" t="n">
-        <v>7217</v>
+        <v>4611</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>722</v>
+        <v>384</v>
       </c>
       <c r="Q699" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E700" t="n">
         <v>9</v>
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>755</v>
+        <v>400</v>
       </c>
       <c r="K700" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L700" t="n">
         <v>10000</v>
       </c>
-      <c r="L700" t="n">
-        <v>11000</v>
-      </c>
       <c r="M700" t="n">
-        <v>10331</v>
+        <v>9500</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>689</v>
+        <v>633</v>
       </c>
       <c r="Q700" t="n">
         <v>15</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E701" t="n">
         <v>9</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,32 +50829,32 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="K701" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L701" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M701" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>417</v>
+        <v>533</v>
       </c>
       <c r="Q701" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E702" t="n">
         <v>9</v>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50901,16 +50901,16 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>145</v>
+        <v>400</v>
       </c>
       <c r="K702" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L702" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M702" t="n">
-        <v>7224</v>
+        <v>8500</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>482</v>
+        <v>567</v>
       </c>
       <c r="Q702" t="n">
         <v>15</v>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,32 +50973,32 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K703" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L703" t="n">
         <v>7500</v>
       </c>
       <c r="M703" t="n">
-        <v>7500</v>
+        <v>7217</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q703" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E704" t="n">
         <v>9</v>
@@ -51036,7 +51036,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -51045,32 +51045,32 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>500</v>
+        <v>755</v>
       </c>
       <c r="K704" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L704" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M704" t="n">
-        <v>8000</v>
+        <v>10331</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>800</v>
+        <v>689</v>
       </c>
       <c r="Q704" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E705" t="n">
         <v>9</v>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51117,20 +51117,20 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="K705" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L705" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M705" t="n">
-        <v>7556</v>
+        <v>7500</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
@@ -51139,10 +51139,10 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>504</v>
+        <v>417</v>
       </c>
       <c r="Q705" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E706" t="n">
         <v>9</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,16 +51189,16 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>700</v>
+        <v>145</v>
       </c>
       <c r="K706" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L706" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M706" t="n">
-        <v>8000</v>
+        <v>7224</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51207,11 +51207,11 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>533</v>
+        <v>482</v>
       </c>
       <c r="Q706" t="n">
         <v>15</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E707" t="n">
         <v>9</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="K707" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L707" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M707" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q707" t="n">
         <v>15</v>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51333,20 +51333,20 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K708" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L708" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M708" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
@@ -51355,10 +51355,10 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q708" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E709" t="n">
         <v>9</v>
@@ -51396,7 +51396,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -51405,32 +51405,32 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="K709" t="n">
         <v>7000</v>
       </c>
       <c r="L709" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M709" t="n">
-        <v>7000</v>
+        <v>7556</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>700</v>
+        <v>504</v>
       </c>
       <c r="Q709" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E710" t="n">
         <v>9</v>
@@ -51477,7 +51477,7 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K710" t="n">
         <v>8000</v>
@@ -51495,7 +51495,7 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P710" t="n">
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E711" t="n">
         <v>9</v>
@@ -51540,7 +51540,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
@@ -51549,16 +51549,16 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K711" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L711" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M711" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q711" t="n">
         <v>15</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E712" t="n">
         <v>9</v>
@@ -51612,25 +51612,25 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K712" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L712" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M712" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="Q712" t="n">
         <v>15</v>
@@ -51684,7 +51684,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -51693,7 +51693,7 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="K713" t="n">
         <v>7000</v>
@@ -51706,7 +51706,7 @@
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
@@ -51715,10 +51715,10 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q713" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R713" t="inlineStr">
         <is>
@@ -51756,7 +51756,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="K714" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L714" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M714" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q714" t="n">
         <v>15</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E715" t="n">
         <v>9</v>
@@ -51828,7 +51828,7 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
@@ -51837,32 +51837,32 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>125</v>
+        <v>700</v>
       </c>
       <c r="K715" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L715" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M715" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>900</v>
+        <v>533</v>
       </c>
       <c r="Q715" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E716" t="n">
         <v>9</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="K716" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L716" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M716" t="n">
-        <v>12581</v>
+        <v>6000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>839</v>
+        <v>400</v>
       </c>
       <c r="Q716" t="n">
         <v>15</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E717" t="n">
         <v>9</v>
@@ -51972,7 +51972,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -51981,16 +51981,16 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="K717" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L717" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M717" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q717" t="n">
         <v>15</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E718" t="n">
         <v>9</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K718" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L718" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M718" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,16 +52071,304 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q718" t="n">
         <v>15</v>
       </c>
       <c r="R718" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>10</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D719" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E719" t="n">
+        <v>9</v>
+      </c>
+      <c r="F719" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J719" t="n">
+        <v>125</v>
+      </c>
+      <c r="K719" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L719" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M719" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N719" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O719" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P719" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q719" t="n">
+        <v>10</v>
+      </c>
+      <c r="R719" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>10</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D720" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E720" t="n">
+        <v>9</v>
+      </c>
+      <c r="F720" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J720" t="n">
+        <v>430</v>
+      </c>
+      <c r="K720" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L720" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M720" t="n">
+        <v>12581</v>
+      </c>
+      <c r="N720" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O720" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P720" t="n">
+        <v>839</v>
+      </c>
+      <c r="Q720" t="n">
+        <v>15</v>
+      </c>
+      <c r="R720" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>10</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D721" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E721" t="n">
+        <v>9</v>
+      </c>
+      <c r="F721" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J721" t="n">
+        <v>125</v>
+      </c>
+      <c r="K721" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L721" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M721" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N721" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O721" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P721" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q721" t="n">
+        <v>15</v>
+      </c>
+      <c r="R721" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>10</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D722" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E722" t="n">
+        <v>9</v>
+      </c>
+      <c r="F722" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J722" t="n">
+        <v>85</v>
+      </c>
+      <c r="K722" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L722" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M722" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N722" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O722" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P722" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q722" t="n">
+        <v>15</v>
+      </c>
+      <c r="R722" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R754"/>
+  <dimension ref="A1:R756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E661" t="n">
         <v>9</v>
@@ -47949,16 +47949,16 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>135</v>
+        <v>365</v>
       </c>
       <c r="K661" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L661" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M661" t="n">
-        <v>4241</v>
+        <v>7575</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>424</v>
+        <v>758</v>
       </c>
       <c r="Q661" t="n">
         <v>10</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E662" t="n">
         <v>9</v>
@@ -48021,16 +48021,16 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>830</v>
+        <v>650</v>
       </c>
       <c r="K662" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L662" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M662" t="n">
-        <v>3771</v>
+        <v>7462</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>251</v>
+        <v>497</v>
       </c>
       <c r="Q662" t="n">
         <v>15</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E663" t="n">
         <v>9</v>
@@ -48093,16 +48093,16 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="K663" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L663" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M663" t="n">
-        <v>7000</v>
+        <v>4241</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>700</v>
+        <v>424</v>
       </c>
       <c r="Q663" t="n">
         <v>10</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E664" t="n">
         <v>9</v>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,32 +48165,32 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>300</v>
+        <v>830</v>
       </c>
       <c r="K664" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L664" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M664" t="n">
-        <v>8000</v>
+        <v>3771</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>800</v>
+        <v>251</v>
       </c>
       <c r="Q664" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K665" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L665" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M665" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q665" t="n">
         <v>10</v>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48309,32 +48309,32 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="K666" t="n">
         <v>8000</v>
       </c>
       <c r="L666" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M666" t="n">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="Q666" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48372,29 +48372,29 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="K667" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L667" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M667" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
@@ -48403,10 +48403,10 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="Q667" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R667" t="inlineStr">
         <is>
@@ -48444,7 +48444,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -48453,16 +48453,16 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="K668" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L668" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M668" t="n">
-        <v>7000</v>
+        <v>8400</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>467</v>
+        <v>560</v>
       </c>
       <c r="Q668" t="n">
         <v>15</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E669" t="n">
         <v>9</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48525,32 +48525,32 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K669" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L669" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M669" t="n">
-        <v>7292</v>
+        <v>8000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>729</v>
+        <v>533</v>
       </c>
       <c r="Q669" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E670" t="n">
         <v>9</v>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48597,7 +48597,7 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K670" t="n">
         <v>7000</v>
@@ -48610,19 +48610,19 @@
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q670" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48669,32 +48669,32 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K671" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L671" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M671" t="n">
-        <v>9000</v>
+        <v>7292</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>600</v>
+        <v>729</v>
       </c>
       <c r="Q671" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48754,19 +48754,19 @@
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q672" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,16 +48813,16 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K673" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L673" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M673" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q673" t="n">
         <v>15</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E674" t="n">
         <v>9</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,7 +48885,7 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K674" t="n">
         <v>7000</v>
@@ -48898,7 +48898,7 @@
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -48907,10 +48907,10 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q674" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E675" t="n">
         <v>9</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,16 +48957,16 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>185</v>
+        <v>400</v>
       </c>
       <c r="K675" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L675" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M675" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q675" t="n">
         <v>15</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E676" t="n">
         <v>9</v>
@@ -49029,7 +49029,7 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K676" t="n">
         <v>7000</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E677" t="n">
         <v>9</v>
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>905</v>
+        <v>185</v>
       </c>
       <c r="K677" t="n">
         <v>8000</v>
       </c>
       <c r="L677" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M677" t="n">
-        <v>8282</v>
+        <v>8000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="Q677" t="n">
         <v>15</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E678" t="n">
         <v>9</v>
@@ -49173,32 +49173,32 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K678" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L678" t="n">
         <v>7000</v>
       </c>
       <c r="M678" t="n">
-        <v>6526</v>
+        <v>7000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>544</v>
+        <v>700</v>
       </c>
       <c r="Q678" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E679" t="n">
         <v>9</v>
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>145</v>
+        <v>905</v>
       </c>
       <c r="K679" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L679" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M679" t="n">
-        <v>7793</v>
+        <v>8282</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="Q679" t="n">
         <v>15</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E680" t="n">
         <v>9</v>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,32 +49317,32 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>800</v>
+        <v>95</v>
       </c>
       <c r="K680" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L680" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M680" t="n">
-        <v>8000</v>
+        <v>6526</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="Q680" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E681" t="n">
         <v>9</v>
@@ -49389,16 +49389,16 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="K681" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L681" t="n">
         <v>8000</v>
       </c>
       <c r="M681" t="n">
-        <v>8000</v>
+        <v>7793</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="Q681" t="n">
         <v>15</v>
@@ -49461,7 +49461,7 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K682" t="n">
         <v>8000</v>
@@ -49479,7 +49479,7 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P682" t="n">
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="K683" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L683" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M683" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q683" t="n">
         <v>15</v>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K684" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L684" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M684" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="Q684" t="n">
         <v>15</v>
@@ -49668,25 +49668,25 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="K685" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L685" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M685" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49695,11 +49695,11 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q685" t="n">
         <v>15</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E686" t="n">
         <v>9</v>
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49752,29 +49752,29 @@
         <v>200</v>
       </c>
       <c r="K686" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L686" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M686" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q686" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E687" t="n">
         <v>9</v>
@@ -49812,7 +49812,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
@@ -49821,16 +49821,16 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K687" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L687" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M687" t="n">
-        <v>10769</v>
+        <v>7500</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>718</v>
+        <v>500</v>
       </c>
       <c r="Q687" t="n">
         <v>15</v>
@@ -49884,7 +49884,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -49893,7 +49893,7 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K688" t="n">
         <v>7000</v>
@@ -49906,7 +49906,7 @@
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -49915,10 +49915,10 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q688" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -49965,16 +49965,16 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="K689" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L689" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M689" t="n">
-        <v>7000</v>
+        <v>10769</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>467</v>
+        <v>718</v>
       </c>
       <c r="Q689" t="n">
         <v>15</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E690" t="n">
         <v>9</v>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K690" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L690" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M690" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q690" t="n">
         <v>15</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E691" t="n">
         <v>9</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,32 +50109,32 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="K691" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L691" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M691" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>750</v>
+        <v>467</v>
       </c>
       <c r="Q691" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E692" t="n">
         <v>9</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K692" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L692" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M692" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50199,11 +50199,11 @@
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="Q692" t="n">
         <v>15</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,20 +50253,20 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="K693" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L693" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M693" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
@@ -50275,10 +50275,10 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>467</v>
+        <v>750</v>
       </c>
       <c r="Q693" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K694" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L694" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M694" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q694" t="n">
         <v>15</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E695" t="n">
         <v>9</v>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="K695" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L695" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M695" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="Q695" t="n">
         <v>15</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E696" t="n">
         <v>9</v>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,7 +50469,7 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="K696" t="n">
         <v>7000</v>
@@ -50482,19 +50482,19 @@
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q696" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E697" t="n">
         <v>9</v>
@@ -50541,16 +50541,16 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="K697" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L697" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M697" t="n">
-        <v>10467</v>
+        <v>8500</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>698</v>
+        <v>567</v>
       </c>
       <c r="Q697" t="n">
         <v>15</v>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -50613,20 +50613,20 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="K698" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L698" t="n">
         <v>7000</v>
       </c>
       <c r="M698" t="n">
-        <v>6757</v>
+        <v>7000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
@@ -50635,10 +50635,10 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="Q698" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,16 +50685,16 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>110</v>
+        <v>750</v>
       </c>
       <c r="K699" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L699" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M699" t="n">
-        <v>7000</v>
+        <v>10467</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>467</v>
+        <v>698</v>
       </c>
       <c r="Q699" t="n">
         <v>15</v>
@@ -50748,7 +50748,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="K700" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L700" t="n">
         <v>7000</v>
       </c>
       <c r="M700" t="n">
-        <v>7000</v>
+        <v>6757</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="Q700" t="n">
         <v>15</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E701" t="n">
         <v>9</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K701" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L701" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M701" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>933</v>
+        <v>467</v>
       </c>
       <c r="Q701" t="n">
         <v>15</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E702" t="n">
         <v>9</v>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50901,16 +50901,16 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="K702" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L702" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M702" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q702" t="n">
         <v>15</v>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,16 +50973,16 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K703" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L703" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M703" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="Q703" t="n">
         <v>15</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E704" t="n">
         <v>9</v>
@@ -51036,7 +51036,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -51045,20 +51045,20 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="K704" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L704" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M704" t="n">
-        <v>6581</v>
+        <v>9000</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
@@ -51067,10 +51067,10 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>658</v>
+        <v>600</v>
       </c>
       <c r="Q704" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E705" t="n">
         <v>9</v>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51117,16 +51117,16 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K705" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L705" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M705" t="n">
-        <v>10429</v>
+        <v>9000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>695</v>
+        <v>600</v>
       </c>
       <c r="Q705" t="n">
         <v>15</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E706" t="n">
         <v>9</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,32 +51189,32 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K706" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L706" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M706" t="n">
-        <v>4000</v>
+        <v>6581</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>333</v>
+        <v>658</v>
       </c>
       <c r="Q706" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E707" t="n">
         <v>9</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,32 +51261,32 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K707" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L707" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M707" t="n">
-        <v>4000</v>
+        <v>10429</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>333</v>
+        <v>695</v>
       </c>
       <c r="Q707" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E708" t="n">
         <v>9</v>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51333,32 +51333,32 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="K708" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L708" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M708" t="n">
-        <v>7429</v>
+        <v>4000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>743</v>
+        <v>333</v>
       </c>
       <c r="Q708" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E709" t="n">
         <v>9</v>
@@ -51396,7 +51396,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -51405,32 +51405,32 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K709" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L709" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M709" t="n">
-        <v>7583</v>
+        <v>4000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>758</v>
+        <v>333</v>
       </c>
       <c r="Q709" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51468,7 +51468,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -51477,32 +51477,32 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>1800</v>
+        <v>350</v>
       </c>
       <c r="K710" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L710" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M710" t="n">
-        <v>9500</v>
+        <v>7429</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>633</v>
+        <v>743</v>
       </c>
       <c r="Q710" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51540,7 +51540,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
@@ -51549,7 +51549,7 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K711" t="n">
         <v>7000</v>
@@ -51558,23 +51558,23 @@
         <v>8000</v>
       </c>
       <c r="M711" t="n">
-        <v>7600</v>
+        <v>7583</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>507</v>
+        <v>758</v>
       </c>
       <c r="Q711" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51612,7 +51612,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
@@ -51621,16 +51621,16 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K712" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L712" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M712" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>500</v>
+        <v>633</v>
       </c>
       <c r="Q712" t="n">
         <v>15</v>
@@ -51684,7 +51684,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -51693,7 +51693,7 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K713" t="n">
         <v>7000</v>
@@ -51702,7 +51702,7 @@
         <v>8000</v>
       </c>
       <c r="M713" t="n">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="Q713" t="n">
         <v>15</v>
@@ -51756,7 +51756,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
@@ -51765,7 +51765,7 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K714" t="n">
         <v>7000</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E715" t="n">
         <v>9</v>
@@ -51828,7 +51828,7 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
@@ -51837,32 +51837,32 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K715" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L715" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M715" t="n">
-        <v>6500</v>
+        <v>7400</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="Q715" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E716" t="n">
         <v>9</v>
@@ -51909,32 +51909,32 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="K716" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L716" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M716" t="n">
-        <v>6417</v>
+        <v>7500</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="Q716" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E717" t="n">
         <v>9</v>
@@ -51972,7 +51972,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -51981,20 +51981,20 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K717" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L717" t="n">
         <v>7000</v>
       </c>
       <c r="M717" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
@@ -52003,10 +52003,10 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>467</v>
+        <v>542</v>
       </c>
       <c r="Q717" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E718" t="n">
         <v>9</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52053,32 +52053,32 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K718" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L718" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M718" t="n">
-        <v>7667</v>
+        <v>6417</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>767</v>
+        <v>535</v>
       </c>
       <c r="Q718" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
@@ -52125,16 +52125,16 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>1100</v>
+        <v>180</v>
       </c>
       <c r="K719" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L719" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M719" t="n">
-        <v>11455</v>
+        <v>7000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>764</v>
+        <v>467</v>
       </c>
       <c r="Q719" t="n">
         <v>15</v>
@@ -52188,7 +52188,7 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
@@ -52203,14 +52203,14 @@
         <v>7000</v>
       </c>
       <c r="L720" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M720" t="n">
-        <v>7000</v>
+        <v>7667</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O720" t="inlineStr">
@@ -52219,10 +52219,10 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>467</v>
+        <v>767</v>
       </c>
       <c r="Q720" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R720" t="inlineStr">
         <is>
@@ -52260,7 +52260,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -52269,16 +52269,16 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K721" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L721" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M721" t="n">
-        <v>7000</v>
+        <v>11455</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>467</v>
+        <v>764</v>
       </c>
       <c r="Q721" t="n">
         <v>15</v>
@@ -52332,7 +52332,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -52341,20 +52341,20 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K722" t="n">
         <v>7000</v>
       </c>
       <c r="L722" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M722" t="n">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
@@ -52363,10 +52363,10 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="Q722" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E723" t="n">
         <v>9</v>
@@ -52404,7 +52404,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
@@ -52413,16 +52413,16 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K723" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L723" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M723" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q723" t="n">
         <v>15</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E724" t="n">
         <v>9</v>
@@ -52476,7 +52476,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -52485,32 +52485,32 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K724" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L724" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M724" t="n">
-        <v>4000</v>
+        <v>7400</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="Q724" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R724" t="inlineStr">
         <is>
@@ -52548,7 +52548,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -52557,20 +52557,20 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K725" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L725" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M725" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
@@ -52582,7 +52582,7 @@
         <v>333</v>
       </c>
       <c r="Q725" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R725" t="inlineStr">
         <is>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E726" t="n">
         <v>9</v>
@@ -52620,7 +52620,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -52629,32 +52629,32 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K726" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L726" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M726" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>850</v>
+        <v>333</v>
       </c>
       <c r="Q726" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E727" t="n">
         <v>9</v>
@@ -52692,7 +52692,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
@@ -52701,32 +52701,32 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K727" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L727" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M727" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="Q727" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52764,7 +52764,7 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
@@ -52773,20 +52773,20 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K728" t="n">
         <v>8000</v>
       </c>
       <c r="L728" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M728" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O728" t="inlineStr">
@@ -52795,10 +52795,10 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>533</v>
+        <v>850</v>
       </c>
       <c r="Q728" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R728" t="inlineStr">
         <is>
@@ -52836,7 +52836,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -52845,16 +52845,16 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K729" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L729" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M729" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q729" t="n">
         <v>15</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E730" t="n">
         <v>9</v>
@@ -52908,7 +52908,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -52920,13 +52920,13 @@
         <v>250</v>
       </c>
       <c r="K730" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L730" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M730" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q730" t="n">
         <v>15</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E731" t="n">
         <v>9</v>
@@ -52980,7 +52980,7 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -52989,32 +52989,32 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K731" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L731" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M731" t="n">
-        <v>4611</v>
+        <v>8000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>384</v>
+        <v>533</v>
       </c>
       <c r="Q731" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R731" t="inlineStr">
         <is>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E732" t="n">
         <v>9</v>
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K732" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L732" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M732" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>633</v>
+        <v>333</v>
       </c>
       <c r="Q732" t="n">
         <v>15</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E733" t="n">
         <v>9</v>
@@ -53124,7 +53124,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -53133,20 +53133,20 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K733" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L733" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M733" t="n">
-        <v>8000</v>
+        <v>4611</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O733" t="inlineStr">
@@ -53155,10 +53155,10 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>533</v>
+        <v>384</v>
       </c>
       <c r="Q733" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R733" t="inlineStr">
         <is>
@@ -53208,13 +53208,13 @@
         <v>400</v>
       </c>
       <c r="K734" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L734" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M734" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="Q734" t="n">
         <v>15</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E735" t="n">
         <v>9</v>
@@ -53268,7 +53268,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -53277,32 +53277,32 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="K735" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L735" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M735" t="n">
-        <v>7217</v>
+        <v>8000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>722</v>
+        <v>533</v>
       </c>
       <c r="Q735" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E736" t="n">
         <v>9</v>
@@ -53349,16 +53349,16 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>755</v>
+        <v>400</v>
       </c>
       <c r="K736" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L736" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M736" t="n">
-        <v>10331</v>
+        <v>8500</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>689</v>
+        <v>567</v>
       </c>
       <c r="Q736" t="n">
         <v>15</v>
@@ -53412,7 +53412,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -53421,32 +53421,32 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K737" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L737" t="n">
         <v>7500</v>
       </c>
       <c r="M737" t="n">
-        <v>7500</v>
+        <v>7217</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>417</v>
+        <v>722</v>
       </c>
       <c r="Q737" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R737" t="inlineStr">
         <is>
@@ -53484,7 +53484,7 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
@@ -53493,16 +53493,16 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>145</v>
+        <v>755</v>
       </c>
       <c r="K738" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L738" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M738" t="n">
-        <v>7224</v>
+        <v>10331</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>482</v>
+        <v>689</v>
       </c>
       <c r="Q738" t="n">
         <v>15</v>
@@ -53556,7 +53556,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -53565,7 +53565,7 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K739" t="n">
         <v>7500</v>
@@ -53578,7 +53578,7 @@
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O739" t="inlineStr">
@@ -53587,10 +53587,10 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q739" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R739" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E740" t="n">
         <v>9</v>
@@ -53628,7 +53628,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -53637,32 +53637,32 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>500</v>
+        <v>145</v>
       </c>
       <c r="K740" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L740" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M740" t="n">
-        <v>8000</v>
+        <v>7224</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>800</v>
+        <v>482</v>
       </c>
       <c r="Q740" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E741" t="n">
         <v>9</v>
@@ -53700,7 +53700,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="K741" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L741" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M741" t="n">
-        <v>7556</v>
+        <v>7500</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="Q741" t="n">
         <v>15</v>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -53781,7 +53781,7 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K742" t="n">
         <v>8000</v>
@@ -53794,7 +53794,7 @@
       </c>
       <c r="N742" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O742" t="inlineStr">
@@ -53803,10 +53803,10 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q742" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R742" t="inlineStr">
         <is>
@@ -53844,7 +53844,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -53853,16 +53853,16 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K743" t="n">
         <v>7000</v>
       </c>
       <c r="L743" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M743" t="n">
-        <v>7000</v>
+        <v>7556</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="Q743" t="n">
         <v>15</v>
@@ -53916,7 +53916,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -53925,16 +53925,16 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K744" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L744" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M744" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q744" t="n">
         <v>15</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E745" t="n">
         <v>9</v>
@@ -53988,7 +53988,7 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
@@ -53997,7 +53997,7 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="K745" t="n">
         <v>7000</v>
@@ -54010,7 +54010,7 @@
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
@@ -54019,10 +54019,10 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q745" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E746" t="n">
         <v>9</v>
@@ -54060,7 +54060,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -54069,16 +54069,16 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K746" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L746" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M746" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54087,11 +54087,11 @@
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q746" t="n">
         <v>15</v>
@@ -54132,7 +54132,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -54141,32 +54141,32 @@
         </is>
       </c>
       <c r="J747" t="n">
+        <v>140</v>
+      </c>
+      <c r="K747" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L747" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M747" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N747" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O747" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P747" t="n">
         <v>700</v>
       </c>
-      <c r="K747" t="n">
-        <v>8000</v>
-      </c>
-      <c r="L747" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M747" t="n">
-        <v>8000</v>
-      </c>
-      <c r="N747" t="inlineStr">
-        <is>
-          <t>$/caja 15 unidades</t>
-        </is>
-      </c>
-      <c r="O747" t="inlineStr">
-        <is>
-          <t>Región del Maule</t>
-        </is>
-      </c>
-      <c r="P747" t="n">
-        <v>533</v>
-      </c>
       <c r="Q747" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R747" t="inlineStr">
         <is>
@@ -54209,20 +54209,20 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K748" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L748" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M748" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54235,7 +54235,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="Q748" t="n">
         <v>15</v>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54285,16 +54285,16 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K749" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L749" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M749" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q749" t="n">
         <v>15</v>
@@ -54348,25 +54348,25 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K750" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L750" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M750" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54375,11 +54375,11 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q750" t="n">
         <v>15</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E751" t="n">
         <v>9</v>
@@ -54420,7 +54420,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -54429,32 +54429,32 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="K751" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L751" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M751" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>900</v>
+        <v>467</v>
       </c>
       <c r="Q751" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E752" t="n">
         <v>9</v>
@@ -54492,7 +54492,7 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -54501,16 +54501,16 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="K752" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L752" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M752" t="n">
-        <v>12581</v>
+        <v>7000</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>839</v>
+        <v>467</v>
       </c>
       <c r="Q752" t="n">
         <v>15</v>
@@ -54564,7 +54564,7 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -54586,7 +54586,7 @@
       </c>
       <c r="N753" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O753" t="inlineStr">
@@ -54595,10 +54595,10 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="Q753" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R753" t="inlineStr">
         <is>
@@ -54636,7 +54636,7 @@
       </c>
       <c r="H754" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
@@ -54645,16 +54645,16 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>85</v>
+        <v>430</v>
       </c>
       <c r="K754" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L754" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M754" t="n">
-        <v>9000</v>
+        <v>12581</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54663,16 +54663,160 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>600</v>
+        <v>839</v>
       </c>
       <c r="Q754" t="n">
         <v>15</v>
       </c>
       <c r="R754" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>10</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D755" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E755" t="n">
+        <v>9</v>
+      </c>
+      <c r="F755" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J755" t="n">
+        <v>125</v>
+      </c>
+      <c r="K755" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L755" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M755" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N755" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O755" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P755" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q755" t="n">
+        <v>15</v>
+      </c>
+      <c r="R755" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>10</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D756" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E756" t="n">
+        <v>9</v>
+      </c>
+      <c r="F756" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J756" t="n">
+        <v>85</v>
+      </c>
+      <c r="K756" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L756" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M756" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N756" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O756" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P756" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q756" t="n">
+        <v>15</v>
+      </c>
+      <c r="R756" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R774"/>
+  <dimension ref="A1:R778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E655" t="n">
         <v>9</v>
@@ -47508,7 +47508,7 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
@@ -47517,32 +47517,32 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>90</v>
+        <v>550</v>
       </c>
       <c r="K655" t="n">
         <v>6000</v>
       </c>
       <c r="L655" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M655" t="n">
-        <v>6444</v>
+        <v>6000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>644</v>
+        <v>400</v>
       </c>
       <c r="Q655" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E656" t="n">
         <v>9</v>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -47589,32 +47589,32 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K656" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L656" t="n">
         <v>7000</v>
       </c>
       <c r="M656" t="n">
-        <v>7000</v>
+        <v>6455</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="Q656" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R656" t="inlineStr">
         <is>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E657" t="n">
         <v>9</v>
@@ -47652,7 +47652,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
@@ -47661,16 +47661,16 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>450</v>
+        <v>145</v>
       </c>
       <c r="K657" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L657" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M657" t="n">
-        <v>11556</v>
+        <v>6448</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>770</v>
+        <v>430</v>
       </c>
       <c r="Q657" t="n">
         <v>15</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E658" t="n">
         <v>9</v>
@@ -47724,7 +47724,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -47733,7 +47733,7 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="K658" t="n">
         <v>7000</v>
@@ -47746,19 +47746,19 @@
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>467</v>
+        <v>583</v>
       </c>
       <c r="Q658" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R658" t="inlineStr">
         <is>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -47805,20 +47805,20 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K659" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L659" t="n">
         <v>7000</v>
       </c>
       <c r="M659" t="n">
-        <v>7000</v>
+        <v>6444</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
@@ -47827,10 +47827,10 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="Q659" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47868,7 +47868,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
@@ -47877,7 +47877,7 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K660" t="n">
         <v>7000</v>
@@ -47890,19 +47890,19 @@
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q660" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47940,7 +47940,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
@@ -47949,20 +47949,20 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="K661" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L661" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M661" t="n">
-        <v>7000</v>
+        <v>11556</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
@@ -47971,10 +47971,10 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>389</v>
+        <v>770</v>
       </c>
       <c r="Q661" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E662" t="n">
         <v>9</v>
@@ -48012,7 +48012,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -48021,16 +48021,16 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K662" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L662" t="n">
         <v>7000</v>
       </c>
       <c r="M662" t="n">
-        <v>6364</v>
+        <v>7000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="Q662" t="n">
         <v>15</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E663" t="n">
         <v>9</v>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -48093,7 +48093,7 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="K663" t="n">
         <v>7000</v>
@@ -48106,19 +48106,19 @@
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q663" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E664" t="n">
         <v>9</v>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,16 +48165,16 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K664" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L664" t="n">
         <v>7000</v>
       </c>
       <c r="M664" t="n">
-        <v>6545</v>
+        <v>7000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="Q664" t="n">
         <v>15</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E665" t="n">
         <v>9</v>
@@ -48228,7 +48228,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -48237,7 +48237,7 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K665" t="n">
         <v>7000</v>
@@ -48250,19 +48250,19 @@
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="Q665" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E666" t="n">
         <v>9</v>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48309,16 +48309,16 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="K666" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L666" t="n">
         <v>7000</v>
       </c>
       <c r="M666" t="n">
-        <v>7000</v>
+        <v>6364</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="Q666" t="n">
         <v>15</v>
@@ -48372,7 +48372,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -48381,7 +48381,7 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K667" t="n">
         <v>7000</v>
@@ -48394,7 +48394,7 @@
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
@@ -48403,10 +48403,10 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q667" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R667" t="inlineStr">
         <is>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E668" t="n">
         <v>9</v>
@@ -48453,16 +48453,16 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K668" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L668" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M668" t="n">
-        <v>14000</v>
+        <v>6545</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>933</v>
+        <v>436</v>
       </c>
       <c r="Q668" t="n">
         <v>15</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E669" t="n">
         <v>9</v>
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K669" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L669" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M669" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q669" t="n">
         <v>15</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E670" t="n">
         <v>9</v>
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K670" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L670" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M670" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q670" t="n">
         <v>15</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E671" t="n">
         <v>9</v>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48669,20 +48669,20 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K671" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L671" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M671" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
@@ -48691,10 +48691,10 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q671" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E672" t="n">
         <v>9</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,32 +48741,32 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K672" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L672" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M672" t="n">
-        <v>7773</v>
+        <v>14000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>777</v>
+        <v>933</v>
       </c>
       <c r="Q672" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E673" t="n">
         <v>9</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,16 +48813,16 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="K673" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L673" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M673" t="n">
-        <v>10559</v>
+        <v>9000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>704</v>
+        <v>600</v>
       </c>
       <c r="Q673" t="n">
         <v>15</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E674" t="n">
         <v>9</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,16 +48885,16 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K674" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L674" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M674" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="Q674" t="n">
         <v>15</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,32 +48957,32 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K675" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L675" t="n">
         <v>8000</v>
       </c>
       <c r="M675" t="n">
-        <v>7708</v>
+        <v>8000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>514</v>
+        <v>800</v>
       </c>
       <c r="Q675" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -49029,20 +49029,20 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>60</v>
+        <v>550</v>
       </c>
       <c r="K676" t="n">
         <v>7500</v>
       </c>
       <c r="L676" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M676" t="n">
-        <v>7500</v>
+        <v>7773</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
@@ -49051,10 +49051,10 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="Q676" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="K677" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L677" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M677" t="n">
-        <v>7786</v>
+        <v>10559</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>519</v>
+        <v>704</v>
       </c>
       <c r="Q677" t="n">
         <v>15</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E678" t="n">
         <v>9</v>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -49173,32 +49173,32 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="K678" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L678" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M678" t="n">
-        <v>8417</v>
+        <v>10000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>842</v>
+        <v>667</v>
       </c>
       <c r="Q678" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E679" t="n">
         <v>9</v>
@@ -49236,7 +49236,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="K679" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L679" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M679" t="n">
-        <v>11545</v>
+        <v>7708</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>770</v>
+        <v>514</v>
       </c>
       <c r="Q679" t="n">
         <v>15</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E680" t="n">
         <v>9</v>
@@ -49317,16 +49317,16 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K680" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L680" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M680" t="n">
-        <v>8571</v>
+        <v>7500</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="Q680" t="n">
         <v>15</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E681" t="n">
         <v>9</v>
@@ -49389,16 +49389,16 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="K681" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L681" t="n">
         <v>8000</v>
       </c>
-      <c r="L681" t="n">
-        <v>9000</v>
-      </c>
       <c r="M681" t="n">
-        <v>8667</v>
+        <v>7786</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>578</v>
+        <v>519</v>
       </c>
       <c r="Q681" t="n">
         <v>15</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E682" t="n">
         <v>9</v>
@@ -49461,16 +49461,16 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K682" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L682" t="n">
         <v>9000</v>
       </c>
       <c r="M682" t="n">
-        <v>7864</v>
+        <v>8417</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>786</v>
+        <v>842</v>
       </c>
       <c r="Q682" t="n">
         <v>10</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E683" t="n">
         <v>9</v>
@@ -49533,16 +49533,16 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="K683" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L683" t="n">
         <v>12000</v>
       </c>
       <c r="M683" t="n">
-        <v>10909</v>
+        <v>11545</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>727</v>
+        <v>770</v>
       </c>
       <c r="Q683" t="n">
         <v>15</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E684" t="n">
         <v>9</v>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49605,32 +49605,32 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K684" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L684" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M684" t="n">
-        <v>4000</v>
+        <v>8571</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>400</v>
+        <v>571</v>
       </c>
       <c r="Q684" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E685" t="n">
         <v>9</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,32 +49677,32 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K685" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L685" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M685" t="n">
-        <v>4229</v>
+        <v>8667</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>423</v>
+        <v>578</v>
       </c>
       <c r="Q685" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E686" t="n">
         <v>9</v>
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49749,32 +49749,32 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>405</v>
+        <v>220</v>
       </c>
       <c r="K686" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L686" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M686" t="n">
-        <v>3691</v>
+        <v>7864</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>246</v>
+        <v>786</v>
       </c>
       <c r="Q686" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E687" t="n">
         <v>9</v>
@@ -49812,7 +49812,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
@@ -49821,32 +49821,32 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>85</v>
+        <v>550</v>
       </c>
       <c r="K687" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L687" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M687" t="n">
-        <v>4000</v>
+        <v>10909</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>333</v>
+        <v>727</v>
       </c>
       <c r="Q687" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49884,7 +49884,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -49893,7 +49893,7 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K688" t="n">
         <v>4000</v>
@@ -49906,7 +49906,7 @@
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -49915,10 +49915,10 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q688" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49956,7 +49956,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -49965,32 +49965,32 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="K689" t="n">
         <v>4000</v>
       </c>
       <c r="L689" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M689" t="n">
-        <v>4000</v>
+        <v>4229</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="Q689" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E690" t="n">
         <v>9</v>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -50037,32 +50037,32 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="K690" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L690" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M690" t="n">
-        <v>5000</v>
+        <v>3691</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>500</v>
+        <v>246</v>
       </c>
       <c r="Q690" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R690" t="inlineStr">
         <is>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E691" t="n">
         <v>9</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,20 +50109,20 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="K691" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L691" t="n">
         <v>4000</v>
       </c>
       <c r="M691" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
@@ -50131,10 +50131,10 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q691" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E692" t="n">
         <v>9</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,32 +50181,32 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K692" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L692" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M692" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Q692" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E693" t="n">
         <v>9</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,16 +50253,16 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="K693" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L693" t="n">
         <v>4000</v>
       </c>
       <c r="M693" t="n">
-        <v>3722</v>
+        <v>4000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="Q693" t="n">
         <v>12</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,32 +50325,32 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K694" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L694" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M694" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="Q694" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E695" t="n">
         <v>9</v>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50397,32 +50397,32 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="K695" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L695" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M695" t="n">
-        <v>7000</v>
+        <v>3750</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="Q695" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R695" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E696" t="n">
         <v>9</v>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,16 +50469,16 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="K696" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L696" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="M696" t="n">
-        <v>10467</v>
+        <v>4500</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>698</v>
+        <v>300</v>
       </c>
       <c r="Q696" t="n">
         <v>15</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E697" t="n">
         <v>9</v>
@@ -50541,32 +50541,32 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="K697" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L697" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M697" t="n">
-        <v>6757</v>
+        <v>3722</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="Q697" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E698" t="n">
         <v>9</v>
@@ -50613,32 +50613,32 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K698" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L698" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M698" t="n">
-        <v>7000</v>
+        <v>3750</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>467</v>
+        <v>312</v>
       </c>
       <c r="Q698" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,7 +50685,7 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K699" t="n">
         <v>7000</v>
@@ -50698,7 +50698,7 @@
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
@@ -50707,10 +50707,10 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q699" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E700" t="n">
         <v>9</v>
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K700" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L700" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M700" t="n">
-        <v>9500</v>
+        <v>10467</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>633</v>
+        <v>698</v>
       </c>
       <c r="Q700" t="n">
         <v>15</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E701" t="n">
         <v>9</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="K701" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L701" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M701" t="n">
-        <v>8000</v>
+        <v>6757</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="Q701" t="n">
         <v>15</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E702" t="n">
         <v>9</v>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50901,16 +50901,16 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K702" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L702" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M702" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="Q702" t="n">
         <v>15</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E703" t="n">
         <v>9</v>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,20 +50973,20 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>500</v>
+        <v>155</v>
       </c>
       <c r="K703" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L703" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M703" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
@@ -50995,10 +50995,10 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q703" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E704" t="n">
         <v>9</v>
@@ -51045,16 +51045,16 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K704" t="n">
         <v>9000</v>
       </c>
       <c r="L704" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M704" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="Q704" t="n">
         <v>15</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E705" t="n">
         <v>9</v>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51135,7 +51135,7 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P705" t="n">
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E706" t="n">
         <v>9</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,16 +51189,16 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K706" t="n">
         <v>8000</v>
       </c>
       <c r="L706" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M706" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="Q706" t="n">
         <v>15</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E707" t="n">
         <v>9</v>
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="K707" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L707" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M707" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q707" t="n">
         <v>10</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E708" t="n">
         <v>9</v>
@@ -51333,16 +51333,16 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>270</v>
+        <v>1200</v>
       </c>
       <c r="K708" t="n">
         <v>9000</v>
       </c>
       <c r="L708" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M708" t="n">
-        <v>9556</v>
+        <v>9000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="Q708" t="n">
         <v>15</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E709" t="n">
         <v>9</v>
@@ -51396,7 +51396,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -51405,32 +51405,32 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K709" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L709" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M709" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="Q709" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E710" t="n">
         <v>9</v>
@@ -51468,7 +51468,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -51480,13 +51480,13 @@
         <v>300</v>
       </c>
       <c r="K710" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L710" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M710" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,11 +51495,11 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="Q710" t="n">
         <v>15</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E711" t="n">
         <v>9</v>
@@ -51540,7 +51540,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
@@ -51549,32 +51549,32 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K711" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L711" t="n">
         <v>7000</v>
       </c>
       <c r="M711" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>467</v>
+        <v>650</v>
       </c>
       <c r="Q711" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E712" t="n">
         <v>9</v>
@@ -51612,7 +51612,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
@@ -51621,16 +51621,16 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K712" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L712" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M712" t="n">
-        <v>7000</v>
+        <v>9556</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>467</v>
+        <v>637</v>
       </c>
       <c r="Q712" t="n">
         <v>15</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E713" t="n">
         <v>9</v>
@@ -51693,16 +51693,16 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K713" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L713" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M713" t="n">
-        <v>4240</v>
+        <v>7000</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>424</v>
+        <v>700</v>
       </c>
       <c r="Q713" t="n">
         <v>10</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E714" t="n">
         <v>9</v>
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="K714" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L714" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M714" t="n">
-        <v>3742</v>
+        <v>9000</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>249</v>
+        <v>600</v>
       </c>
       <c r="Q714" t="n">
         <v>15</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E715" t="n">
         <v>9</v>
@@ -51837,32 +51837,32 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="K715" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L715" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M715" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q715" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E716" t="n">
         <v>9</v>
@@ -51900,7 +51900,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
@@ -51909,32 +51909,32 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K716" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L716" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M716" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q716" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E717" t="n">
         <v>9</v>
@@ -51972,7 +51972,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -51981,32 +51981,32 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="K717" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L717" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M717" t="n">
-        <v>7000</v>
+        <v>4240</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="Q717" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E718" t="n">
         <v>9</v>
@@ -52053,32 +52053,32 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>800</v>
+        <v>155</v>
       </c>
       <c r="K718" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L718" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M718" t="n">
-        <v>8000</v>
+        <v>3742</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="Q718" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
@@ -52125,32 +52125,32 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="K719" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L719" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M719" t="n">
-        <v>7750</v>
+        <v>4000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>517</v>
+        <v>333</v>
       </c>
       <c r="Q719" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52188,7 +52188,7 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
@@ -52197,7 +52197,7 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="K720" t="n">
         <v>6000</v>
@@ -52210,7 +52210,7 @@
       </c>
       <c r="N720" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O720" t="inlineStr">
@@ -52219,10 +52219,10 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q720" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R720" t="inlineStr">
         <is>
@@ -52260,7 +52260,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -52269,16 +52269,16 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K721" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L721" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M721" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>517</v>
+        <v>467</v>
       </c>
       <c r="Q721" t="n">
         <v>15</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E722" t="n">
         <v>9</v>
@@ -52332,7 +52332,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -52341,20 +52341,20 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="K722" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L722" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M722" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
@@ -52363,10 +52363,10 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>700</v>
+        <v>444</v>
       </c>
       <c r="Q722" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E723" t="n">
         <v>9</v>
@@ -52404,7 +52404,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
@@ -52413,16 +52413,16 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K723" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L723" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M723" t="n">
-        <v>10000</v>
+        <v>7750</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>667</v>
+        <v>517</v>
       </c>
       <c r="Q723" t="n">
         <v>15</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E724" t="n">
         <v>9</v>
@@ -52476,7 +52476,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -52485,16 +52485,16 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K724" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L724" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M724" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="Q724" t="n">
         <v>15</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E725" t="n">
         <v>9</v>
@@ -52548,7 +52548,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -52557,16 +52557,16 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K725" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L725" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M725" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="Q725" t="n">
         <v>15</v>
@@ -52620,7 +52620,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -52629,7 +52629,7 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K726" t="n">
         <v>7000</v>
@@ -52642,7 +52642,7 @@
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
@@ -52651,10 +52651,10 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q726" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E727" t="n">
         <v>9</v>
@@ -52692,7 +52692,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
@@ -52701,20 +52701,20 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K727" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L727" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M727" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
@@ -52723,10 +52723,10 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q727" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E728" t="n">
         <v>9</v>
@@ -52773,16 +52773,16 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="K728" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L728" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M728" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="Q728" t="n">
         <v>15</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E729" t="n">
         <v>9</v>
@@ -52836,7 +52836,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -52845,7 +52845,7 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K729" t="n">
         <v>7000</v>
@@ -52858,19 +52858,19 @@
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q729" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E730" t="n">
         <v>9</v>
@@ -52908,7 +52908,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -52917,20 +52917,20 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K730" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L730" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M730" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O730" t="inlineStr">
@@ -52939,10 +52939,10 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q730" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R730" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E731" t="n">
         <v>9</v>
@@ -52985,20 +52985,20 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K731" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L731" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M731" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q731" t="n">
         <v>10</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E732" t="n">
         <v>9</v>
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>2000</v>
+        <v>185</v>
       </c>
       <c r="K732" t="n">
         <v>8000</v>
       </c>
       <c r="L732" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M732" t="n">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="Q732" t="n">
         <v>15</v>
@@ -53124,7 +53124,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -53133,32 +53133,32 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="K733" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L733" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M733" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q733" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R733" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -53205,32 +53205,32 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K734" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L734" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M734" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q734" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E735" t="n">
         <v>9</v>
@@ -53273,20 +53273,20 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K735" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L735" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M735" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q735" t="n">
         <v>10</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E736" t="n">
         <v>9</v>
@@ -53349,16 +53349,16 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>40</v>
+        <v>2000</v>
       </c>
       <c r="K736" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L736" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M736" t="n">
-        <v>10000</v>
+        <v>8400</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>667</v>
+        <v>560</v>
       </c>
       <c r="Q736" t="n">
         <v>15</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E737" t="n">
         <v>9</v>
@@ -53412,7 +53412,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -53421,16 +53421,16 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="K737" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L737" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M737" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q737" t="n">
         <v>15</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E738" t="n">
         <v>9</v>
@@ -53493,20 +53493,20 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K738" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L738" t="n">
         <v>7000</v>
       </c>
       <c r="M738" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O738" t="inlineStr">
@@ -53515,10 +53515,10 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>542</v>
+        <v>467</v>
       </c>
       <c r="Q738" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R738" t="inlineStr">
         <is>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E739" t="n">
         <v>9</v>
@@ -53556,7 +53556,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -53565,32 +53565,32 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K739" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L739" t="n">
         <v>7000</v>
       </c>
       <c r="M739" t="n">
-        <v>6417</v>
+        <v>7000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>535</v>
+        <v>700</v>
       </c>
       <c r="Q739" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R739" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E740" t="n">
         <v>9</v>
@@ -53637,16 +53637,16 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K740" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L740" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M740" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="Q740" t="n">
         <v>15</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E741" t="n">
         <v>9</v>
@@ -53700,7 +53700,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="K741" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L741" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M741" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q741" t="n">
         <v>15</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E742" t="n">
         <v>9</v>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K742" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L742" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M742" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q742" t="n">
         <v>12</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E743" t="n">
         <v>9</v>
@@ -53844,7 +53844,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -53853,20 +53853,20 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K743" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L743" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M743" t="n">
-        <v>5429</v>
+        <v>6417</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O743" t="inlineStr">
@@ -53875,10 +53875,10 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>362</v>
+        <v>535</v>
       </c>
       <c r="Q743" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R743" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E744" t="n">
         <v>9</v>
@@ -53916,7 +53916,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -53925,32 +53925,32 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K744" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L744" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M744" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q744" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R744" t="inlineStr">
         <is>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E745" t="n">
         <v>9</v>
@@ -53988,7 +53988,7 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
@@ -53997,32 +53997,32 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K745" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L745" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M745" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q745" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E746" t="n">
         <v>9</v>
@@ -54069,32 +54069,32 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K746" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L746" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M746" t="n">
-        <v>7216</v>
+        <v>4500</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>722</v>
+        <v>375</v>
       </c>
       <c r="Q746" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R746" t="inlineStr">
         <is>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E747" t="n">
         <v>9</v>
@@ -54141,16 +54141,16 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="K747" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L747" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M747" t="n">
-        <v>11472</v>
+        <v>5429</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>765</v>
+        <v>362</v>
       </c>
       <c r="Q747" t="n">
         <v>15</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E748" t="n">
         <v>9</v>
@@ -54204,7 +54204,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -54213,32 +54213,32 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K748" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L748" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M748" t="n">
-        <v>7214</v>
+        <v>4000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="Q748" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R748" t="inlineStr">
         <is>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E749" t="n">
         <v>9</v>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54285,32 +54285,32 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K749" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L749" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M749" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="Q749" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R749" t="inlineStr">
         <is>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E750" t="n">
         <v>9</v>
@@ -54348,7 +54348,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -54357,32 +54357,32 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>700</v>
+        <v>220</v>
       </c>
       <c r="K750" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L750" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M750" t="n">
-        <v>10571</v>
+        <v>7216</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="Q750" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R750" t="inlineStr">
         <is>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E751" t="n">
         <v>9</v>
@@ -54420,7 +54420,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -54429,16 +54429,16 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>50</v>
+        <v>530</v>
       </c>
       <c r="K751" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L751" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M751" t="n">
-        <v>8000</v>
+        <v>11472</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>533</v>
+        <v>765</v>
       </c>
       <c r="Q751" t="n">
         <v>15</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E752" t="n">
         <v>9</v>
@@ -54492,7 +54492,7 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -54501,16 +54501,16 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K752" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L752" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M752" t="n">
-        <v>8000</v>
+        <v>7214</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="Q752" t="n">
         <v>15</v>
@@ -54564,7 +54564,7 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -54573,7 +54573,7 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K753" t="n">
         <v>8000</v>
@@ -54586,7 +54586,7 @@
       </c>
       <c r="N753" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O753" t="inlineStr">
@@ -54595,10 +54595,10 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q753" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R753" t="inlineStr">
         <is>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E754" t="n">
         <v>9</v>
@@ -54645,16 +54645,16 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>255</v>
+        <v>700</v>
       </c>
       <c r="K754" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L754" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M754" t="n">
-        <v>7000</v>
+        <v>10571</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54663,11 +54663,11 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>467</v>
+        <v>705</v>
       </c>
       <c r="Q754" t="n">
         <v>15</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E755" t="n">
         <v>9</v>
@@ -54708,7 +54708,7 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
@@ -54717,7 +54717,7 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K755" t="n">
         <v>8000</v>
@@ -54730,19 +54730,19 @@
       </c>
       <c r="N755" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q755" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R755" t="inlineStr">
         <is>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E756" t="n">
         <v>9</v>
@@ -54780,7 +54780,7 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -54789,7 +54789,7 @@
         </is>
       </c>
       <c r="J756" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K756" t="n">
         <v>8000</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E757" t="n">
         <v>9</v>
@@ -54852,7 +54852,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
@@ -54861,7 +54861,7 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K757" t="n">
         <v>8000</v>
@@ -54879,7 +54879,7 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P757" t="n">
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E758" t="n">
         <v>9</v>
@@ -54924,7 +54924,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -54933,20 +54933,20 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="K758" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L758" t="n">
         <v>7000</v>
       </c>
       <c r="M758" t="n">
-        <v>6429</v>
+        <v>7000</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O758" t="inlineStr">
@@ -54955,10 +54955,10 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="Q758" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R758" t="inlineStr">
         <is>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E759" t="n">
         <v>9</v>
@@ -54996,7 +54996,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -55005,32 +55005,32 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="K759" t="n">
         <v>8000</v>
       </c>
       <c r="L759" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M759" t="n">
-        <v>8455</v>
+        <v>8000</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>564</v>
+        <v>800</v>
       </c>
       <c r="Q759" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E760" t="n">
         <v>9</v>
@@ -55077,7 +55077,7 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K760" t="n">
         <v>8000</v>
@@ -55095,7 +55095,7 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P760" t="n">
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E761" t="n">
         <v>9</v>
@@ -55140,7 +55140,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
@@ -55149,32 +55149,32 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="K761" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L761" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M761" t="n">
-        <v>6545</v>
+        <v>8000</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="Q761" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55212,7 +55212,7 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
@@ -55221,7 +55221,7 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="K762" t="n">
         <v>6000</v>
@@ -55230,7 +55230,7 @@
         <v>7000</v>
       </c>
       <c r="M762" t="n">
-        <v>6583</v>
+        <v>6429</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55243,7 +55243,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="Q762" t="n">
         <v>12</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E763" t="n">
         <v>9</v>
@@ -55293,16 +55293,16 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>125</v>
+        <v>330</v>
       </c>
       <c r="K763" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L763" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M763" t="n">
-        <v>12000</v>
+        <v>8455</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55315,7 +55315,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>800</v>
+        <v>564</v>
       </c>
       <c r="Q763" t="n">
         <v>15</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
@@ -55361,20 +55361,20 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="K764" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L764" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M764" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="Q764" t="n">
         <v>15</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E765" t="n">
         <v>9</v>
@@ -55437,32 +55437,32 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K765" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L765" t="n">
         <v>7000</v>
       </c>
       <c r="M765" t="n">
-        <v>7000</v>
+        <v>6545</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="Q765" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R765" t="inlineStr">
         <is>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E766" t="n">
         <v>9</v>
@@ -55500,7 +55500,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -55509,32 +55509,32 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K766" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L766" t="n">
         <v>7000</v>
       </c>
       <c r="M766" t="n">
-        <v>7000</v>
+        <v>6583</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>700</v>
+        <v>549</v>
       </c>
       <c r="Q766" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -55581,16 +55581,16 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="K767" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L767" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M767" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q767" t="n">
         <v>15</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E768" t="n">
         <v>9</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="K768" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L768" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M768" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="Q768" t="n">
         <v>15</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E769" t="n">
         <v>9</v>
@@ -55716,7 +55716,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -55725,16 +55725,16 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>550</v>
+        <v>95</v>
       </c>
       <c r="K769" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L769" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M769" t="n">
-        <v>4545</v>
+        <v>7000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>303</v>
+        <v>467</v>
       </c>
       <c r="Q769" t="n">
         <v>15</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -55788,41 +55788,41 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K770" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L770" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M770" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="Q770" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E771" t="n">
         <v>9</v>
@@ -55860,7 +55860,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -55869,32 +55869,32 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K771" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L771" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M771" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q771" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R771" t="inlineStr">
         <is>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -55932,7 +55932,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -55941,32 +55941,32 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K772" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L772" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M772" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q772" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -56004,7 +56004,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -56013,32 +56013,32 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>365</v>
+        <v>550</v>
       </c>
       <c r="K773" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L773" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M773" t="n">
-        <v>7575</v>
+        <v>4545</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>758</v>
+        <v>303</v>
       </c>
       <c r="Q773" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -56081,20 +56081,20 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="K774" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L774" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M774" t="n">
-        <v>7462</v>
+        <v>3000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,16 +56103,304 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>497</v>
+        <v>200</v>
       </c>
       <c r="Q774" t="n">
         <v>15</v>
       </c>
       <c r="R774" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>10</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D775" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E775" t="n">
+        <v>9</v>
+      </c>
+      <c r="F775" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I775" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J775" t="n">
+        <v>50</v>
+      </c>
+      <c r="K775" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L775" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M775" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N775" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O775" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P775" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q775" t="n">
+        <v>12</v>
+      </c>
+      <c r="R775" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>10</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D776" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E776" t="n">
+        <v>9</v>
+      </c>
+      <c r="F776" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I776" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J776" t="n">
+        <v>100</v>
+      </c>
+      <c r="K776" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L776" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M776" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N776" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O776" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P776" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q776" t="n">
+        <v>12</v>
+      </c>
+      <c r="R776" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>10</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D777" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E777" t="n">
+        <v>9</v>
+      </c>
+      <c r="F777" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I777" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J777" t="n">
+        <v>365</v>
+      </c>
+      <c r="K777" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L777" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M777" t="n">
+        <v>7575</v>
+      </c>
+      <c r="N777" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O777" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P777" t="n">
+        <v>758</v>
+      </c>
+      <c r="Q777" t="n">
+        <v>10</v>
+      </c>
+      <c r="R777" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>10</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D778" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E778" t="n">
+        <v>9</v>
+      </c>
+      <c r="F778" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J778" t="n">
+        <v>650</v>
+      </c>
+      <c r="K778" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L778" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M778" t="n">
+        <v>7462</v>
+      </c>
+      <c r="N778" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O778" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P778" t="n">
+        <v>497</v>
+      </c>
+      <c r="Q778" t="n">
+        <v>15</v>
+      </c>
+      <c r="R778" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R778"/>
+  <dimension ref="A1:R781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E667" t="n">
         <v>9</v>
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>450</v>
+        <v>65</v>
       </c>
       <c r="K667" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L667" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M667" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q667" t="n">
         <v>10</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E668" t="n">
         <v>9</v>
@@ -48453,7 +48453,7 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="K668" t="n">
         <v>6000</v>
@@ -48462,7 +48462,7 @@
         <v>7000</v>
       </c>
       <c r="M668" t="n">
-        <v>6545</v>
+        <v>6217</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="Q668" t="n">
         <v>15</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E669" t="n">
         <v>9</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48525,7 +48525,7 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K669" t="n">
         <v>7000</v>
@@ -48538,19 +48538,19 @@
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>467</v>
+        <v>583</v>
       </c>
       <c r="Q669" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48610,7 +48610,7 @@
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -48619,10 +48619,10 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q670" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48669,16 +48669,16 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K671" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L671" t="n">
         <v>7000</v>
       </c>
       <c r="M671" t="n">
-        <v>7000</v>
+        <v>6545</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="Q671" t="n">
         <v>15</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E672" t="n">
         <v>9</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48744,13 +48744,13 @@
         <v>400</v>
       </c>
       <c r="K672" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L672" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M672" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>933</v>
+        <v>467</v>
       </c>
       <c r="Q672" t="n">
         <v>15</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E673" t="n">
         <v>9</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,16 +48813,16 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K673" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L673" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M673" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q673" t="n">
         <v>15</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E674" t="n">
         <v>9</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,16 +48885,16 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K674" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L674" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M674" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q674" t="n">
         <v>15</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E675" t="n">
         <v>9</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,32 +48957,32 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K675" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L675" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M675" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="Q675" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E676" t="n">
         <v>9</v>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -49029,32 +49029,32 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K676" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L676" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M676" t="n">
-        <v>7773</v>
+        <v>9000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>777</v>
+        <v>600</v>
       </c>
       <c r="Q676" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E677" t="n">
         <v>9</v>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>680</v>
+        <v>300</v>
       </c>
       <c r="K677" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L677" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M677" t="n">
-        <v>10559</v>
+        <v>9000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>704</v>
+        <v>600</v>
       </c>
       <c r="Q677" t="n">
         <v>15</v>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -49173,32 +49173,32 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K678" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L678" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M678" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q678" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49236,7 +49236,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -49245,7 +49245,7 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="K679" t="n">
         <v>7500</v>
@@ -49254,11 +49254,11 @@
         <v>8000</v>
       </c>
       <c r="M679" t="n">
-        <v>7708</v>
+        <v>7773</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -49267,10 +49267,10 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>514</v>
+        <v>777</v>
       </c>
       <c r="Q679" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,16 +49317,16 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>60</v>
+        <v>680</v>
       </c>
       <c r="K680" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L680" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M680" t="n">
-        <v>7500</v>
+        <v>10559</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>500</v>
+        <v>704</v>
       </c>
       <c r="Q680" t="n">
         <v>15</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49392,13 +49392,13 @@
         <v>700</v>
       </c>
       <c r="K681" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L681" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M681" t="n">
-        <v>7786</v>
+        <v>10000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>519</v>
+        <v>667</v>
       </c>
       <c r="Q681" t="n">
         <v>15</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E682" t="n">
         <v>9</v>
@@ -49452,7 +49452,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -49461,32 +49461,32 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K682" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L682" t="n">
         <v>8000</v>
       </c>
-      <c r="L682" t="n">
-        <v>9000</v>
-      </c>
       <c r="M682" t="n">
-        <v>8417</v>
+        <v>7708</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>842</v>
+        <v>514</v>
       </c>
       <c r="Q682" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E683" t="n">
         <v>9</v>
@@ -49524,7 +49524,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -49533,16 +49533,16 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="K683" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L683" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M683" t="n">
-        <v>11545</v>
+        <v>7500</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>770</v>
+        <v>500</v>
       </c>
       <c r="Q683" t="n">
         <v>15</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E684" t="n">
         <v>9</v>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="K684" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L684" t="n">
         <v>8000</v>
       </c>
-      <c r="L684" t="n">
-        <v>9000</v>
-      </c>
       <c r="M684" t="n">
-        <v>8571</v>
+        <v>7786</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>571</v>
+        <v>519</v>
       </c>
       <c r="Q684" t="n">
         <v>15</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,7 +49677,7 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K685" t="n">
         <v>8000</v>
@@ -49686,11 +49686,11 @@
         <v>9000</v>
       </c>
       <c r="M685" t="n">
-        <v>8667</v>
+        <v>8417</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
@@ -49699,10 +49699,10 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>578</v>
+        <v>842</v>
       </c>
       <c r="Q685" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E686" t="n">
         <v>9</v>
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49749,32 +49749,32 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="K686" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L686" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M686" t="n">
-        <v>7864</v>
+        <v>11545</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="Q686" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E687" t="n">
         <v>9</v>
@@ -49812,7 +49812,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
@@ -49821,16 +49821,16 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>550</v>
+        <v>70</v>
       </c>
       <c r="K687" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L687" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M687" t="n">
-        <v>10909</v>
+        <v>8571</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>727</v>
+        <v>571</v>
       </c>
       <c r="Q687" t="n">
         <v>15</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E688" t="n">
         <v>9</v>
@@ -49884,7 +49884,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -49893,32 +49893,32 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="K688" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L688" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M688" t="n">
-        <v>4000</v>
+        <v>8667</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="Q688" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E689" t="n">
         <v>9</v>
@@ -49965,16 +49965,16 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="K689" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L689" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M689" t="n">
-        <v>4229</v>
+        <v>7864</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>423</v>
+        <v>786</v>
       </c>
       <c r="Q689" t="n">
         <v>10</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E690" t="n">
         <v>9</v>
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>405</v>
+        <v>550</v>
       </c>
       <c r="K690" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="L690" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M690" t="n">
-        <v>3691</v>
+        <v>10909</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50055,11 +50055,11 @@
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>246</v>
+        <v>727</v>
       </c>
       <c r="Q690" t="n">
         <v>15</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,7 +50109,7 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K691" t="n">
         <v>4000</v>
@@ -50122,7 +50122,7 @@
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
@@ -50131,10 +50131,10 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q691" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,32 +50181,32 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="K692" t="n">
         <v>4000</v>
       </c>
       <c r="L692" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M692" t="n">
-        <v>4000</v>
+        <v>4229</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="Q692" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,20 +50253,20 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>65</v>
+        <v>405</v>
       </c>
       <c r="K693" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L693" t="n">
         <v>4000</v>
       </c>
       <c r="M693" t="n">
-        <v>4000</v>
+        <v>3691</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
@@ -50275,10 +50275,10 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>333</v>
+        <v>246</v>
       </c>
       <c r="Q693" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E694" t="n">
         <v>9</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,32 +50325,32 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="K694" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L694" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M694" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q694" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E695" t="n">
         <v>9</v>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50397,20 +50397,20 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="K695" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L695" t="n">
         <v>4000</v>
       </c>
       <c r="M695" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
@@ -50419,10 +50419,10 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q695" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R695" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E696" t="n">
         <v>9</v>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,32 +50469,32 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K696" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L696" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M696" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Q696" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50532,7 +50532,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -50541,32 +50541,32 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K697" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L697" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M697" t="n">
-        <v>3722</v>
+        <v>5000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="Q697" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -50613,7 +50613,7 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K698" t="n">
         <v>3500</v>
@@ -50626,7 +50626,7 @@
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
@@ -50635,10 +50635,10 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="Q698" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E699" t="n">
         <v>9</v>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,32 +50685,32 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K699" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L699" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M699" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q699" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E700" t="n">
         <v>9</v>
@@ -50748,7 +50748,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -50757,32 +50757,32 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>750</v>
+        <v>270</v>
       </c>
       <c r="K700" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L700" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M700" t="n">
-        <v>10467</v>
+        <v>3722</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>698</v>
+        <v>310</v>
       </c>
       <c r="Q700" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R700" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E701" t="n">
         <v>9</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,32 +50829,32 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K701" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L701" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M701" t="n">
-        <v>6757</v>
+        <v>3750</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="Q701" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50901,7 +50901,7 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K702" t="n">
         <v>7000</v>
@@ -50914,7 +50914,7 @@
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
@@ -50923,10 +50923,10 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q702" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,16 +50973,16 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>155</v>
+        <v>750</v>
       </c>
       <c r="K703" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L703" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M703" t="n">
-        <v>7000</v>
+        <v>10467</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>467</v>
+        <v>698</v>
       </c>
       <c r="Q703" t="n">
         <v>15</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E704" t="n">
         <v>9</v>
@@ -51036,7 +51036,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -51045,16 +51045,16 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>400</v>
+        <v>185</v>
       </c>
       <c r="K704" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L704" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M704" t="n">
-        <v>9500</v>
+        <v>6757</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>633</v>
+        <v>450</v>
       </c>
       <c r="Q704" t="n">
         <v>15</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E705" t="n">
         <v>9</v>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51117,16 +51117,16 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K705" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L705" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M705" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q705" t="n">
         <v>15</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E706" t="n">
         <v>9</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,16 +51189,16 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="K706" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L706" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M706" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51207,11 +51207,11 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="Q706" t="n">
         <v>15</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E707" t="n">
         <v>9</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,32 +51261,32 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K707" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L707" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M707" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>800</v>
+        <v>633</v>
       </c>
       <c r="Q707" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E708" t="n">
         <v>9</v>
@@ -51333,16 +51333,16 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K708" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L708" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M708" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="Q708" t="n">
         <v>15</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E709" t="n">
         <v>9</v>
@@ -51396,7 +51396,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -51405,16 +51405,16 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K709" t="n">
         <v>8000</v>
       </c>
       <c r="L709" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M709" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="Q709" t="n">
         <v>15</v>
@@ -51468,7 +51468,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -51477,7 +51477,7 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K710" t="n">
         <v>8000</v>
@@ -51490,19 +51490,19 @@
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q710" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E711" t="n">
         <v>9</v>
@@ -51540,7 +51540,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
@@ -51549,32 +51549,32 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>180</v>
+        <v>1200</v>
       </c>
       <c r="K711" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L711" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M711" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q711" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E712" t="n">
         <v>9</v>
@@ -51612,7 +51612,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
@@ -51621,16 +51621,16 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K712" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L712" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M712" t="n">
-        <v>9556</v>
+        <v>8000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>637</v>
+        <v>533</v>
       </c>
       <c r="Q712" t="n">
         <v>15</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E713" t="n">
         <v>9</v>
@@ -51684,7 +51684,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -51693,32 +51693,32 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K713" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L713" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M713" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="Q713" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R713" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E714" t="n">
         <v>9</v>
@@ -51756,7 +51756,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
@@ -51765,32 +51765,32 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K714" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L714" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M714" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q714" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E715" t="n">
         <v>9</v>
@@ -51828,7 +51828,7 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
@@ -51837,16 +51837,16 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="K715" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L715" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M715" t="n">
-        <v>7000</v>
+        <v>9556</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>467</v>
+        <v>637</v>
       </c>
       <c r="Q715" t="n">
         <v>15</v>
@@ -51900,7 +51900,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
@@ -51909,7 +51909,7 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K716" t="n">
         <v>7000</v>
@@ -51922,7 +51922,7 @@
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
@@ -51931,10 +51931,10 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q716" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E717" t="n">
         <v>9</v>
@@ -51972,7 +51972,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -51981,32 +51981,32 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="K717" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L717" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M717" t="n">
-        <v>4240</v>
+        <v>9000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>424</v>
+        <v>600</v>
       </c>
       <c r="Q717" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E718" t="n">
         <v>9</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="K718" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L718" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M718" t="n">
-        <v>3742</v>
+        <v>7000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>249</v>
+        <v>467</v>
       </c>
       <c r="Q718" t="n">
         <v>15</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
@@ -52116,7 +52116,7 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
@@ -52125,32 +52125,32 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="K719" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L719" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M719" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q719" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E720" t="n">
         <v>9</v>
@@ -52197,16 +52197,16 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>700</v>
+        <v>125</v>
       </c>
       <c r="K720" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L720" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M720" t="n">
-        <v>6000</v>
+        <v>4240</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>600</v>
+        <v>424</v>
       </c>
       <c r="Q720" t="n">
         <v>10</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E721" t="n">
         <v>9</v>
@@ -52269,16 +52269,16 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="K721" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L721" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M721" t="n">
-        <v>7000</v>
+        <v>3742</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>467</v>
+        <v>249</v>
       </c>
       <c r="Q721" t="n">
         <v>15</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E722" t="n">
         <v>9</v>
@@ -52332,7 +52332,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -52341,32 +52341,32 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>800</v>
+        <v>35</v>
       </c>
       <c r="K722" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L722" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M722" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="Q722" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52404,7 +52404,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
@@ -52413,32 +52413,32 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K723" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L723" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M723" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>517</v>
+        <v>600</v>
       </c>
       <c r="Q723" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52476,7 +52476,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -52485,16 +52485,16 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K724" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L724" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M724" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="Q724" t="n">
         <v>15</v>
@@ -52548,7 +52548,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -52557,20 +52557,20 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K725" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L725" t="n">
         <v>8000</v>
       </c>
       <c r="M725" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
@@ -52579,10 +52579,10 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>517</v>
+        <v>444</v>
       </c>
       <c r="Q725" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R725" t="inlineStr">
         <is>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E726" t="n">
         <v>9</v>
@@ -52620,7 +52620,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -52629,20 +52629,20 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K726" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L726" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M726" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
@@ -52651,10 +52651,10 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>700</v>
+        <v>517</v>
       </c>
       <c r="Q726" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E727" t="n">
         <v>9</v>
@@ -52692,7 +52692,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
@@ -52701,16 +52701,16 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K727" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L727" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M727" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="Q727" t="n">
         <v>15</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E728" t="n">
         <v>9</v>
@@ -52764,7 +52764,7 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
@@ -52773,16 +52773,16 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K728" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L728" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M728" t="n">
-        <v>10000</v>
+        <v>7750</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>667</v>
+        <v>517</v>
       </c>
       <c r="Q728" t="n">
         <v>15</v>
@@ -52836,7 +52836,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -52845,7 +52845,7 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K729" t="n">
         <v>7000</v>
@@ -52858,7 +52858,7 @@
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
@@ -52867,10 +52867,10 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q729" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52908,7 +52908,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K730" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L730" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M730" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q730" t="n">
         <v>15</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E731" t="n">
         <v>9</v>
@@ -52980,7 +52980,7 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -52989,32 +52989,32 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K731" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L731" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M731" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q731" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R731" t="inlineStr">
         <is>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E732" t="n">
         <v>9</v>
@@ -53052,7 +53052,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="K732" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L732" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M732" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q732" t="n">
         <v>15</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E733" t="n">
         <v>9</v>
@@ -53124,7 +53124,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -53133,7 +53133,7 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="K733" t="n">
         <v>7000</v>
@@ -53146,19 +53146,19 @@
       </c>
       <c r="N733" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q733" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R733" t="inlineStr">
         <is>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E734" t="n">
         <v>9</v>
@@ -53205,16 +53205,16 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K734" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L734" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M734" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q734" t="n">
         <v>10</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E735" t="n">
         <v>9</v>
@@ -53268,41 +53268,41 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="K735" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L735" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M735" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="Q735" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53340,7 +53340,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
@@ -53349,32 +53349,32 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="K736" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L736" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M736" t="n">
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="Q736" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R736" t="inlineStr">
         <is>
@@ -53412,7 +53412,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -53421,7 +53421,7 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K737" t="n">
         <v>8000</v>
@@ -53434,7 +53434,7 @@
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
@@ -53443,10 +53443,10 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q737" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R737" t="inlineStr">
         <is>
@@ -53484,41 +53484,41 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K738" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L738" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M738" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q738" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R738" t="inlineStr">
         <is>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E739" t="n">
         <v>9</v>
@@ -53556,7 +53556,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -53565,32 +53565,32 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="K739" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L739" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M739" t="n">
-        <v>7000</v>
+        <v>8400</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="Q739" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R739" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E740" t="n">
         <v>9</v>
@@ -53637,16 +53637,16 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="K740" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L740" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M740" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53655,11 +53655,11 @@
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="Q740" t="n">
         <v>15</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E741" t="n">
         <v>9</v>
@@ -53700,7 +53700,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -53709,7 +53709,7 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K741" t="n">
         <v>7000</v>
@@ -53727,7 +53727,7 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P741" t="n">
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E742" t="n">
         <v>9</v>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -53781,32 +53781,32 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K742" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L742" t="n">
         <v>7000</v>
       </c>
       <c r="M742" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>542</v>
+        <v>700</v>
       </c>
       <c r="Q742" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R742" t="inlineStr">
         <is>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E743" t="n">
         <v>9</v>
@@ -53844,7 +53844,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -53853,32 +53853,32 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K743" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L743" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M743" t="n">
-        <v>6417</v>
+        <v>10000</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>535</v>
+        <v>667</v>
       </c>
       <c r="Q743" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R743" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E744" t="n">
         <v>9</v>
@@ -53916,7 +53916,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -53925,16 +53925,16 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K744" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L744" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M744" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q744" t="n">
         <v>15</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E745" t="n">
         <v>9</v>
@@ -53988,7 +53988,7 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
@@ -53997,32 +53997,32 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K745" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L745" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M745" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="Q745" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E746" t="n">
         <v>9</v>
@@ -54060,7 +54060,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -54069,16 +54069,16 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K746" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L746" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M746" t="n">
-        <v>4500</v>
+        <v>6417</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>375</v>
+        <v>535</v>
       </c>
       <c r="Q746" t="n">
         <v>12</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E747" t="n">
         <v>9</v>
@@ -54141,16 +54141,16 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="K747" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L747" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M747" t="n">
-        <v>5429</v>
+        <v>8000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>362</v>
+        <v>533</v>
       </c>
       <c r="Q747" t="n">
         <v>15</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E748" t="n">
         <v>9</v>
@@ -54204,7 +54204,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -54213,32 +54213,32 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K748" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L748" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M748" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q748" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R748" t="inlineStr">
         <is>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54291,10 +54291,10 @@
         <v>4000</v>
       </c>
       <c r="L749" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M749" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="Q749" t="n">
         <v>12</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E750" t="n">
         <v>9</v>
@@ -54348,7 +54348,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -54357,32 +54357,32 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="K750" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L750" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M750" t="n">
-        <v>7216</v>
+        <v>5429</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>722</v>
+        <v>362</v>
       </c>
       <c r="Q750" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R750" t="inlineStr">
         <is>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E751" t="n">
         <v>9</v>
@@ -54420,7 +54420,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -54429,32 +54429,32 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="K751" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L751" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M751" t="n">
-        <v>11472</v>
+        <v>4000</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>765</v>
+        <v>333</v>
       </c>
       <c r="Q751" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E752" t="n">
         <v>9</v>
@@ -54501,32 +54501,32 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K752" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L752" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M752" t="n">
-        <v>7214</v>
+        <v>4000</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="Q752" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R752" t="inlineStr">
         <is>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E753" t="n">
         <v>9</v>
@@ -54573,16 +54573,16 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K753" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L753" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M753" t="n">
-        <v>8000</v>
+        <v>7216</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="Q753" t="n">
         <v>10</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E754" t="n">
         <v>9</v>
@@ -54645,16 +54645,16 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>700</v>
+        <v>530</v>
       </c>
       <c r="K754" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L754" t="n">
         <v>12000</v>
       </c>
       <c r="M754" t="n">
-        <v>10571</v>
+        <v>11472</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="Q754" t="n">
         <v>15</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E755" t="n">
         <v>9</v>
@@ -54708,7 +54708,7 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
@@ -54717,16 +54717,16 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="K755" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L755" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M755" t="n">
-        <v>8000</v>
+        <v>7214</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="Q755" t="n">
         <v>15</v>
@@ -54780,7 +54780,7 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -54802,7 +54802,7 @@
       </c>
       <c r="N756" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O756" t="inlineStr">
@@ -54811,10 +54811,10 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q756" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R756" t="inlineStr">
         <is>
@@ -54852,7 +54852,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
@@ -54861,16 +54861,16 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K757" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L757" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M757" t="n">
-        <v>8000</v>
+        <v>10571</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54883,7 +54883,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>533</v>
+        <v>705</v>
       </c>
       <c r="Q757" t="n">
         <v>15</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E758" t="n">
         <v>9</v>
@@ -54924,7 +54924,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -54933,16 +54933,16 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="K758" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L758" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M758" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q758" t="n">
         <v>15</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E759" t="n">
         <v>9</v>
@@ -54996,7 +54996,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -55005,7 +55005,7 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="K759" t="n">
         <v>8000</v>
@@ -55018,19 +55018,19 @@
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q759" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E760" t="n">
         <v>9</v>
@@ -55068,7 +55068,7 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -55077,7 +55077,7 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K760" t="n">
         <v>8000</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E761" t="n">
         <v>9</v>
@@ -55149,16 +55149,16 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>600</v>
+        <v>255</v>
       </c>
       <c r="K761" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L761" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M761" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q761" t="n">
         <v>15</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E762" t="n">
         <v>9</v>
@@ -55221,32 +55221,32 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K762" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L762" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M762" t="n">
-        <v>6429</v>
+        <v>8000</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>536</v>
+        <v>800</v>
       </c>
       <c r="Q762" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R762" t="inlineStr">
         <is>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E763" t="n">
         <v>9</v>
@@ -55293,16 +55293,16 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="K763" t="n">
         <v>8000</v>
       </c>
       <c r="L763" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M763" t="n">
-        <v>8455</v>
+        <v>8000</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55315,7 +55315,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="Q763" t="n">
         <v>15</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
@@ -55365,7 +55365,7 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K764" t="n">
         <v>8000</v>
@@ -55383,7 +55383,7 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P764" t="n">
@@ -55428,7 +55428,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -55437,7 +55437,7 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K765" t="n">
         <v>6000</v>
@@ -55446,7 +55446,7 @@
         <v>7000</v>
       </c>
       <c r="M765" t="n">
-        <v>6545</v>
+        <v>6429</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="Q765" t="n">
         <v>12</v>
@@ -55500,7 +55500,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -55509,32 +55509,32 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="K766" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L766" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M766" t="n">
-        <v>6583</v>
+        <v>8455</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="Q766" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -55581,16 +55581,16 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="K767" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L767" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M767" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q767" t="n">
         <v>15</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E768" t="n">
         <v>9</v>
@@ -55644,41 +55644,41 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="K768" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L768" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M768" t="n">
-        <v>10000</v>
+        <v>6545</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>667</v>
+        <v>545</v>
       </c>
       <c r="Q768" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R768" t="inlineStr">
         <is>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E769" t="n">
         <v>9</v>
@@ -55716,7 +55716,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -55725,32 +55725,32 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="K769" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L769" t="n">
         <v>7000</v>
       </c>
       <c r="M769" t="n">
-        <v>7000</v>
+        <v>6583</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>467</v>
+        <v>549</v>
       </c>
       <c r="Q769" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -55788,7 +55788,7 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
@@ -55797,32 +55797,32 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="K770" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L770" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M770" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q770" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E771" t="n">
         <v>9</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="K771" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L771" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M771" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="Q771" t="n">
         <v>15</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -55932,7 +55932,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -55941,16 +55941,16 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="K772" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L772" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M772" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q772" t="n">
         <v>15</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -56004,7 +56004,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -56013,32 +56013,32 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K773" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L773" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M773" t="n">
-        <v>4545</v>
+        <v>7000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>303</v>
+        <v>700</v>
       </c>
       <c r="Q773" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -56081,20 +56081,20 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="K774" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L774" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M774" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>200</v>
+        <v>533</v>
       </c>
       <c r="Q774" t="n">
         <v>15</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -56148,7 +56148,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -56157,32 +56157,32 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K775" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L775" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M775" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q775" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R775" t="inlineStr">
         <is>
@@ -56220,7 +56220,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -56229,20 +56229,20 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K776" t="n">
         <v>4000</v>
       </c>
       <c r="L776" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M776" t="n">
-        <v>4000</v>
+        <v>4545</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O776" t="inlineStr">
@@ -56251,10 +56251,10 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="Q776" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R776" t="inlineStr">
         <is>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -56292,41 +56292,41 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="K777" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L777" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M777" t="n">
-        <v>7575</v>
+        <v>3000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>758</v>
+        <v>200</v>
       </c>
       <c r="Q777" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56349,58 +56349,274 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E778" t="n">
+        <v>9</v>
+      </c>
+      <c r="F778" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J778" t="n">
+        <v>50</v>
+      </c>
+      <c r="K778" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L778" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M778" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N778" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O778" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P778" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q778" t="n">
+        <v>12</v>
+      </c>
+      <c r="R778" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>10</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D779" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E779" t="n">
+        <v>9</v>
+      </c>
+      <c r="F779" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I779" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J779" t="n">
+        <v>100</v>
+      </c>
+      <c r="K779" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L779" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M779" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N779" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O779" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P779" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q779" t="n">
+        <v>12</v>
+      </c>
+      <c r="R779" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>10</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D780" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E778" t="n">
-        <v>9</v>
-      </c>
-      <c r="F778" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G778" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H778" t="inlineStr">
+      <c r="E780" t="n">
+        <v>9</v>
+      </c>
+      <c r="F780" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J780" t="n">
+        <v>365</v>
+      </c>
+      <c r="K780" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L780" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M780" t="n">
+        <v>7575</v>
+      </c>
+      <c r="N780" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O780" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P780" t="n">
+        <v>758</v>
+      </c>
+      <c r="Q780" t="n">
+        <v>10</v>
+      </c>
+      <c r="R780" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>10</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D781" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E781" t="n">
+        <v>9</v>
+      </c>
+      <c r="F781" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H781" t="inlineStr">
         <is>
           <t>Escarola</t>
         </is>
       </c>
-      <c r="I778" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J778" t="n">
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J781" t="n">
         <v>650</v>
       </c>
-      <c r="K778" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L778" t="n">
+      <c r="K781" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L781" t="n">
         <v>8000</v>
       </c>
-      <c r="M778" t="n">
+      <c r="M781" t="n">
         <v>7462</v>
       </c>
-      <c r="N778" t="inlineStr">
+      <c r="N781" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O778" t="inlineStr">
+      <c r="O781" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P778" t="n">
+      <c r="P781" t="n">
         <v>497</v>
       </c>
-      <c r="Q778" t="n">
+      <c r="Q781" t="n">
         <v>15</v>
       </c>
-      <c r="R778" t="inlineStr">
+      <c r="R781" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R781"/>
+  <dimension ref="A1:R785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E628" t="n">
         <v>9</v>
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="K628" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L628" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M628" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="Q628" t="n">
         <v>10</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E629" t="n">
         <v>9</v>
@@ -45645,16 +45645,16 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>550</v>
+        <v>1900</v>
       </c>
       <c r="K629" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L629" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M629" t="n">
-        <v>10000</v>
+        <v>6474</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>667</v>
+        <v>432</v>
       </c>
       <c r="Q629" t="n">
         <v>15</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E630" t="n">
         <v>9</v>
@@ -45708,7 +45708,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -45717,7 +45717,7 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K630" t="n">
         <v>7000</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E631" t="n">
         <v>9</v>
@@ -45789,7 +45789,7 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K631" t="n">
         <v>7000</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E632" t="n">
         <v>9</v>
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="K632" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L632" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M632" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="Q632" t="n">
         <v>10</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E633" t="n">
         <v>9</v>
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K633" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L633" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M633" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q633" t="n">
         <v>15</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E634" t="n">
         <v>9</v>
@@ -45996,7 +45996,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -46005,7 +46005,7 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K634" t="n">
         <v>7000</v>
@@ -46023,7 +46023,7 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P634" t="n">
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E635" t="n">
         <v>9</v>
@@ -46077,7 +46077,7 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K635" t="n">
         <v>7000</v>
@@ -46095,7 +46095,7 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P635" t="n">
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E636" t="n">
         <v>9</v>
@@ -46149,7 +46149,7 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="K636" t="n">
         <v>7000</v>
@@ -46167,7 +46167,7 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P636" t="n">
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E637" t="n">
         <v>9</v>
@@ -46221,16 +46221,16 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K637" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L637" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M637" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="Q637" t="n">
         <v>15</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E638" t="n">
         <v>9</v>
@@ -46284,7 +46284,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -46293,7 +46293,7 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K638" t="n">
         <v>7000</v>
@@ -46311,7 +46311,7 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P638" t="n">
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44306</v>
+        <v>44356</v>
       </c>
       <c r="E639" t="n">
         <v>9</v>
@@ -46356,7 +46356,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
@@ -46365,32 +46365,32 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="K639" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L639" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M639" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q639" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E640" t="n">
         <v>9</v>
@@ -46428,7 +46428,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -46437,32 +46437,32 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="K640" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L640" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M640" t="n">
-        <v>8629</v>
+        <v>7000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="Q640" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E641" t="n">
         <v>9</v>
@@ -46509,7 +46509,7 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>950</v>
+        <v>150</v>
       </c>
       <c r="K641" t="n">
         <v>8000</v>
@@ -46527,7 +46527,7 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P641" t="n">
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E642" t="n">
         <v>9</v>
@@ -46572,7 +46572,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -46581,20 +46581,20 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K642" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L642" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M642" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -46603,10 +46603,10 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q642" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E643" t="n">
         <v>9</v>
@@ -46644,7 +46644,7 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -46653,32 +46653,32 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="K643" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L643" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M643" t="n">
-        <v>5422</v>
+        <v>8000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>361</v>
+        <v>800</v>
       </c>
       <c r="Q643" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E644" t="n">
         <v>9</v>
@@ -46716,7 +46716,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
@@ -46725,32 +46725,32 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="K644" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L644" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M644" t="n">
-        <v>5000</v>
+        <v>8629</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>417</v>
+        <v>575</v>
       </c>
       <c r="Q644" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E645" t="n">
         <v>9</v>
@@ -46788,7 +46788,7 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -46797,20 +46797,20 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="K645" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L645" t="n">
         <v>8000</v>
       </c>
       <c r="M645" t="n">
-        <v>7429</v>
+        <v>8000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -46819,10 +46819,10 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>743</v>
+        <v>533</v>
       </c>
       <c r="Q645" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E646" t="n">
         <v>9</v>
@@ -46860,7 +46860,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -46869,32 +46869,32 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>1800</v>
+        <v>95</v>
       </c>
       <c r="K646" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L646" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M646" t="n">
-        <v>9556</v>
+        <v>6000</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="Q646" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R646" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E647" t="n">
         <v>9</v>
@@ -46932,7 +46932,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -46941,16 +46941,16 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>650</v>
+        <v>225</v>
       </c>
       <c r="K647" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L647" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M647" t="n">
-        <v>7462</v>
+        <v>5422</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46959,11 +46959,11 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>497</v>
+        <v>361</v>
       </c>
       <c r="Q647" t="n">
         <v>15</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E648" t="n">
         <v>9</v>
@@ -47004,7 +47004,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="K648" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L648" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M648" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>833</v>
+        <v>417</v>
       </c>
       <c r="Q648" t="n">
         <v>12</v>
@@ -47076,7 +47076,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -47085,7 +47085,7 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K649" t="n">
         <v>7000</v>
@@ -47094,11 +47094,11 @@
         <v>8000</v>
       </c>
       <c r="M649" t="n">
-        <v>7500</v>
+        <v>7429</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -47107,10 +47107,10 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>500</v>
+        <v>743</v>
       </c>
       <c r="Q649" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E650" t="n">
         <v>9</v>
@@ -47157,16 +47157,16 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>130</v>
+        <v>1800</v>
       </c>
       <c r="K650" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L650" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M650" t="n">
-        <v>5385</v>
+        <v>9556</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47175,11 +47175,11 @@
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>359</v>
+        <v>637</v>
       </c>
       <c r="Q650" t="n">
         <v>15</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44186</v>
+        <v>44469</v>
       </c>
       <c r="E651" t="n">
         <v>9</v>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -47229,32 +47229,32 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="K651" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L651" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M651" t="n">
-        <v>4500</v>
+        <v>7462</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>375</v>
+        <v>497</v>
       </c>
       <c r="Q651" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44186</v>
+        <v>44469</v>
       </c>
       <c r="E652" t="n">
         <v>9</v>
@@ -47292,7 +47292,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="K652" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L652" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M652" t="n">
-        <v>4750</v>
+        <v>10000</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>396</v>
+        <v>833</v>
       </c>
       <c r="Q652" t="n">
         <v>12</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44186</v>
+        <v>44469</v>
       </c>
       <c r="E653" t="n">
         <v>9</v>
@@ -47364,7 +47364,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -47373,32 +47373,32 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K653" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L653" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M653" t="n">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q653" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E654" t="n">
         <v>9</v>
@@ -47436,7 +47436,7 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
@@ -47445,20 +47445,20 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K654" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L654" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M654" t="n">
-        <v>4750</v>
+        <v>5385</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -47467,10 +47467,10 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="Q654" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R654" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E655" t="n">
         <v>9</v>
@@ -47508,7 +47508,7 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
@@ -47517,32 +47517,32 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K655" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L655" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M655" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="Q655" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E656" t="n">
         <v>9</v>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -47589,32 +47589,32 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="K656" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L656" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M656" t="n">
-        <v>6455</v>
+        <v>4750</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="Q656" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R656" t="inlineStr">
         <is>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E657" t="n">
         <v>9</v>
@@ -47652,7 +47652,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
@@ -47661,32 +47661,32 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="K657" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L657" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M657" t="n">
-        <v>6448</v>
+        <v>4800</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="Q657" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E658" t="n">
         <v>9</v>
@@ -47724,7 +47724,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -47733,16 +47733,16 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="K658" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L658" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M658" t="n">
-        <v>7000</v>
+        <v>4750</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>583</v>
+        <v>396</v>
       </c>
       <c r="Q658" t="n">
         <v>12</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E659" t="n">
         <v>9</v>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -47805,32 +47805,32 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>90</v>
+        <v>550</v>
       </c>
       <c r="K659" t="n">
         <v>6000</v>
       </c>
       <c r="L659" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M659" t="n">
-        <v>6444</v>
+        <v>6000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>644</v>
+        <v>400</v>
       </c>
       <c r="Q659" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E660" t="n">
         <v>9</v>
@@ -47868,7 +47868,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
@@ -47877,32 +47877,32 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K660" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L660" t="n">
         <v>7000</v>
       </c>
       <c r="M660" t="n">
-        <v>7000</v>
+        <v>6455</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="Q660" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E661" t="n">
         <v>9</v>
@@ -47940,7 +47940,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
@@ -47949,16 +47949,16 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>450</v>
+        <v>145</v>
       </c>
       <c r="K661" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L661" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M661" t="n">
-        <v>11556</v>
+        <v>6448</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>770</v>
+        <v>430</v>
       </c>
       <c r="Q661" t="n">
         <v>15</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E662" t="n">
         <v>9</v>
@@ -48012,7 +48012,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -48021,7 +48021,7 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="K662" t="n">
         <v>7000</v>
@@ -48034,19 +48034,19 @@
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>467</v>
+        <v>583</v>
       </c>
       <c r="Q662" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -48093,20 +48093,20 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K663" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L663" t="n">
         <v>7000</v>
       </c>
       <c r="M663" t="n">
-        <v>7000</v>
+        <v>6444</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
@@ -48115,10 +48115,10 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="Q663" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,7 +48165,7 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K664" t="n">
         <v>7000</v>
@@ -48178,19 +48178,19 @@
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q664" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -48237,20 +48237,20 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="K665" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L665" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M665" t="n">
-        <v>7000</v>
+        <v>11556</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
@@ -48259,10 +48259,10 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>389</v>
+        <v>770</v>
       </c>
       <c r="Q665" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E666" t="n">
         <v>9</v>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48309,16 +48309,16 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K666" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L666" t="n">
         <v>7000</v>
       </c>
       <c r="M666" t="n">
-        <v>6364</v>
+        <v>7000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="Q666" t="n">
         <v>15</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E667" t="n">
         <v>9</v>
@@ -48372,7 +48372,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -48381,32 +48381,32 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K667" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L667" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M667" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q667" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R667" t="inlineStr">
         <is>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E668" t="n">
         <v>9</v>
@@ -48444,7 +48444,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -48453,16 +48453,16 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>575</v>
+        <v>250</v>
       </c>
       <c r="K668" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L668" t="n">
         <v>7000</v>
       </c>
       <c r="M668" t="n">
-        <v>6217</v>
+        <v>7000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="Q668" t="n">
         <v>15</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E669" t="n">
         <v>9</v>
@@ -48525,7 +48525,7 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K669" t="n">
         <v>7000</v>
@@ -48538,19 +48538,19 @@
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>583</v>
+        <v>389</v>
       </c>
       <c r="Q669" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E670" t="n">
         <v>9</v>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48597,32 +48597,32 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="K670" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L670" t="n">
         <v>7000</v>
       </c>
       <c r="M670" t="n">
-        <v>7000</v>
+        <v>6364</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>700</v>
+        <v>424</v>
       </c>
       <c r="Q670" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E671" t="n">
         <v>9</v>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48669,32 +48669,32 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="K671" t="n">
         <v>6000</v>
       </c>
       <c r="L671" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M671" t="n">
-        <v>6545</v>
+        <v>6000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>436</v>
+        <v>600</v>
       </c>
       <c r="Q671" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E672" t="n">
         <v>9</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>400</v>
+        <v>575</v>
       </c>
       <c r="K672" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L672" t="n">
         <v>7000</v>
       </c>
       <c r="M672" t="n">
-        <v>7000</v>
+        <v>6217</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="Q672" t="n">
         <v>15</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E673" t="n">
         <v>9</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,7 +48813,7 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="K673" t="n">
         <v>7000</v>
@@ -48826,19 +48826,19 @@
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>467</v>
+        <v>583</v>
       </c>
       <c r="Q673" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,7 +48885,7 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K674" t="n">
         <v>7000</v>
@@ -48898,7 +48898,7 @@
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -48907,10 +48907,10 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q674" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E675" t="n">
         <v>9</v>
@@ -48957,16 +48957,16 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K675" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L675" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M675" t="n">
-        <v>14000</v>
+        <v>6545</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>933</v>
+        <v>436</v>
       </c>
       <c r="Q675" t="n">
         <v>15</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E676" t="n">
         <v>9</v>
@@ -49029,16 +49029,16 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K676" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L676" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M676" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q676" t="n">
         <v>15</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E677" t="n">
         <v>9</v>
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K677" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L677" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M677" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q677" t="n">
         <v>15</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E678" t="n">
         <v>9</v>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -49173,20 +49173,20 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K678" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L678" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M678" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
@@ -49195,10 +49195,10 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q678" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E679" t="n">
         <v>9</v>
@@ -49236,7 +49236,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -49245,32 +49245,32 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K679" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L679" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M679" t="n">
-        <v>7773</v>
+        <v>14000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>777</v>
+        <v>933</v>
       </c>
       <c r="Q679" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E680" t="n">
         <v>9</v>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,16 +49317,16 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="K680" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L680" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M680" t="n">
-        <v>10559</v>
+        <v>9000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>704</v>
+        <v>600</v>
       </c>
       <c r="Q680" t="n">
         <v>15</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E681" t="n">
         <v>9</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49389,16 +49389,16 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K681" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L681" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M681" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="Q681" t="n">
         <v>15</v>
@@ -49452,7 +49452,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -49461,32 +49461,32 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K682" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L682" t="n">
         <v>8000</v>
       </c>
       <c r="M682" t="n">
-        <v>7708</v>
+        <v>8000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>514</v>
+        <v>800</v>
       </c>
       <c r="Q682" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49524,7 +49524,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -49533,20 +49533,20 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>60</v>
+        <v>550</v>
       </c>
       <c r="K683" t="n">
         <v>7500</v>
       </c>
       <c r="L683" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M683" t="n">
-        <v>7500</v>
+        <v>7773</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
@@ -49555,10 +49555,10 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="Q683" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="K684" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L684" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M684" t="n">
-        <v>7786</v>
+        <v>10559</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>519</v>
+        <v>704</v>
       </c>
       <c r="Q684" t="n">
         <v>15</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E685" t="n">
         <v>9</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,32 +49677,32 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="K685" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L685" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M685" t="n">
-        <v>8417</v>
+        <v>10000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>842</v>
+        <v>667</v>
       </c>
       <c r="Q685" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E686" t="n">
         <v>9</v>
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="K686" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L686" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M686" t="n">
-        <v>11545</v>
+        <v>7708</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>770</v>
+        <v>514</v>
       </c>
       <c r="Q686" t="n">
         <v>15</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E687" t="n">
         <v>9</v>
@@ -49821,16 +49821,16 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K687" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L687" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M687" t="n">
-        <v>8571</v>
+        <v>7500</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="Q687" t="n">
         <v>15</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E688" t="n">
         <v>9</v>
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="K688" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L688" t="n">
         <v>8000</v>
       </c>
-      <c r="L688" t="n">
-        <v>9000</v>
-      </c>
       <c r="M688" t="n">
-        <v>8667</v>
+        <v>7786</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49911,11 +49911,11 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>578</v>
+        <v>519</v>
       </c>
       <c r="Q688" t="n">
         <v>15</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E689" t="n">
         <v>9</v>
@@ -49965,16 +49965,16 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K689" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L689" t="n">
         <v>9000</v>
       </c>
       <c r="M689" t="n">
-        <v>7864</v>
+        <v>8417</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>786</v>
+        <v>842</v>
       </c>
       <c r="Q689" t="n">
         <v>10</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E690" t="n">
         <v>9</v>
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="K690" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L690" t="n">
         <v>12000</v>
       </c>
       <c r="M690" t="n">
-        <v>10909</v>
+        <v>11545</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>727</v>
+        <v>770</v>
       </c>
       <c r="Q690" t="n">
         <v>15</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E691" t="n">
         <v>9</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,32 +50109,32 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K691" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L691" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M691" t="n">
-        <v>4000</v>
+        <v>8571</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>400</v>
+        <v>571</v>
       </c>
       <c r="Q691" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E692" t="n">
         <v>9</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,32 +50181,32 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K692" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L692" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M692" t="n">
-        <v>4229</v>
+        <v>8667</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>423</v>
+        <v>578</v>
       </c>
       <c r="Q692" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E693" t="n">
         <v>9</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,32 +50253,32 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>405</v>
+        <v>220</v>
       </c>
       <c r="K693" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L693" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M693" t="n">
-        <v>3691</v>
+        <v>7864</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>246</v>
+        <v>786</v>
       </c>
       <c r="Q693" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E694" t="n">
         <v>9</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,32 +50325,32 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>85</v>
+        <v>550</v>
       </c>
       <c r="K694" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L694" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M694" t="n">
-        <v>4000</v>
+        <v>10909</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>333</v>
+        <v>727</v>
       </c>
       <c r="Q694" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50397,7 +50397,7 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K695" t="n">
         <v>4000</v>
@@ -50410,7 +50410,7 @@
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
@@ -50419,10 +50419,10 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q695" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R695" t="inlineStr">
         <is>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,32 +50469,32 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="K696" t="n">
         <v>4000</v>
       </c>
       <c r="L696" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M696" t="n">
-        <v>4000</v>
+        <v>4229</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="Q696" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E697" t="n">
         <v>9</v>
@@ -50532,7 +50532,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -50541,32 +50541,32 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="K697" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L697" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M697" t="n">
-        <v>5000</v>
+        <v>3691</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>500</v>
+        <v>246</v>
       </c>
       <c r="Q697" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E698" t="n">
         <v>9</v>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -50613,20 +50613,20 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="K698" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L698" t="n">
         <v>4000</v>
       </c>
       <c r="M698" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
@@ -50635,10 +50635,10 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q698" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E699" t="n">
         <v>9</v>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,32 +50685,32 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K699" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L699" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M699" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Q699" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E700" t="n">
         <v>9</v>
@@ -50748,7 +50748,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="K700" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L700" t="n">
         <v>4000</v>
       </c>
       <c r="M700" t="n">
-        <v>3722</v>
+        <v>4000</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="Q700" t="n">
         <v>12</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,32 +50829,32 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K701" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L701" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M701" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="Q701" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E702" t="n">
         <v>9</v>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50901,32 +50901,32 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="K702" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L702" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M702" t="n">
-        <v>7000</v>
+        <v>3750</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="Q702" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E703" t="n">
         <v>9</v>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,16 +50973,16 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="K703" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L703" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="M703" t="n">
-        <v>10467</v>
+        <v>4500</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>698</v>
+        <v>300</v>
       </c>
       <c r="Q703" t="n">
         <v>15</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E704" t="n">
         <v>9</v>
@@ -51045,32 +51045,32 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="K704" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L704" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M704" t="n">
-        <v>6757</v>
+        <v>3722</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="Q704" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E705" t="n">
         <v>9</v>
@@ -51117,32 +51117,32 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K705" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L705" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M705" t="n">
-        <v>7000</v>
+        <v>3750</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>467</v>
+        <v>312</v>
       </c>
       <c r="Q705" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,7 +51189,7 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K706" t="n">
         <v>7000</v>
@@ -51202,7 +51202,7 @@
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
@@ -51211,10 +51211,10 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q706" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E707" t="n">
         <v>9</v>
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K707" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L707" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M707" t="n">
-        <v>9500</v>
+        <v>10467</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>633</v>
+        <v>698</v>
       </c>
       <c r="Q707" t="n">
         <v>15</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E708" t="n">
         <v>9</v>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51333,16 +51333,16 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="K708" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L708" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M708" t="n">
-        <v>8000</v>
+        <v>6757</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="Q708" t="n">
         <v>15</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E709" t="n">
         <v>9</v>
@@ -51396,7 +51396,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -51405,16 +51405,16 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K709" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L709" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M709" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="Q709" t="n">
         <v>15</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E710" t="n">
         <v>9</v>
@@ -51468,7 +51468,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -51477,20 +51477,20 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>500</v>
+        <v>155</v>
       </c>
       <c r="K710" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L710" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M710" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
@@ -51499,10 +51499,10 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q710" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E711" t="n">
         <v>9</v>
@@ -51549,16 +51549,16 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K711" t="n">
         <v>9000</v>
       </c>
       <c r="L711" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M711" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="Q711" t="n">
         <v>15</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E712" t="n">
         <v>9</v>
@@ -51612,7 +51612,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
@@ -51639,7 +51639,7 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P712" t="n">
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E713" t="n">
         <v>9</v>
@@ -51684,7 +51684,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -51693,16 +51693,16 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K713" t="n">
         <v>8000</v>
       </c>
       <c r="L713" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M713" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="Q713" t="n">
         <v>15</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E714" t="n">
         <v>9</v>
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="K714" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L714" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M714" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q714" t="n">
         <v>10</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E715" t="n">
         <v>9</v>
@@ -51837,16 +51837,16 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>270</v>
+        <v>1200</v>
       </c>
       <c r="K715" t="n">
         <v>9000</v>
       </c>
       <c r="L715" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M715" t="n">
-        <v>9556</v>
+        <v>9000</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="Q715" t="n">
         <v>15</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E716" t="n">
         <v>9</v>
@@ -51900,7 +51900,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
@@ -51909,32 +51909,32 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K716" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L716" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M716" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="Q716" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E717" t="n">
         <v>9</v>
@@ -51972,7 +51972,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -51984,13 +51984,13 @@
         <v>300</v>
       </c>
       <c r="K717" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L717" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M717" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="Q717" t="n">
         <v>15</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E718" t="n">
         <v>9</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52053,32 +52053,32 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K718" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L718" t="n">
         <v>7000</v>
       </c>
       <c r="M718" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>467</v>
+        <v>650</v>
       </c>
       <c r="Q718" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
@@ -52116,7 +52116,7 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
@@ -52125,16 +52125,16 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K719" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L719" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M719" t="n">
-        <v>7000</v>
+        <v>9556</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>467</v>
+        <v>637</v>
       </c>
       <c r="Q719" t="n">
         <v>15</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E720" t="n">
         <v>9</v>
@@ -52197,16 +52197,16 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K720" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L720" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M720" t="n">
-        <v>4240</v>
+        <v>7000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>424</v>
+        <v>700</v>
       </c>
       <c r="Q720" t="n">
         <v>10</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E721" t="n">
         <v>9</v>
@@ -52269,16 +52269,16 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="K721" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L721" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M721" t="n">
-        <v>3742</v>
+        <v>9000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>249</v>
+        <v>600</v>
       </c>
       <c r="Q721" t="n">
         <v>15</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E722" t="n">
         <v>9</v>
@@ -52341,32 +52341,32 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="K722" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L722" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M722" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q722" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E723" t="n">
         <v>9</v>
@@ -52404,7 +52404,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
@@ -52413,32 +52413,32 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K723" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L723" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M723" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q723" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E724" t="n">
         <v>9</v>
@@ -52476,7 +52476,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -52485,32 +52485,32 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="K724" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L724" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M724" t="n">
-        <v>7000</v>
+        <v>4240</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="Q724" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R724" t="inlineStr">
         <is>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E725" t="n">
         <v>9</v>
@@ -52557,32 +52557,32 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>800</v>
+        <v>155</v>
       </c>
       <c r="K725" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L725" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M725" t="n">
-        <v>8000</v>
+        <v>3742</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="Q725" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R725" t="inlineStr">
         <is>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E726" t="n">
         <v>9</v>
@@ -52629,32 +52629,32 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="K726" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L726" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M726" t="n">
-        <v>7750</v>
+        <v>4000</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>517</v>
+        <v>333</v>
       </c>
       <c r="Q726" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52692,7 +52692,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
@@ -52701,7 +52701,7 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="K727" t="n">
         <v>6000</v>
@@ -52714,7 +52714,7 @@
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
@@ -52723,10 +52723,10 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q727" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52764,7 +52764,7 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
@@ -52773,16 +52773,16 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K728" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L728" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M728" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>517</v>
+        <v>467</v>
       </c>
       <c r="Q728" t="n">
         <v>15</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E729" t="n">
         <v>9</v>
@@ -52836,7 +52836,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -52845,20 +52845,20 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="K729" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L729" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M729" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
@@ -52867,10 +52867,10 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>700</v>
+        <v>444</v>
       </c>
       <c r="Q729" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E730" t="n">
         <v>9</v>
@@ -52908,7 +52908,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K730" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L730" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M730" t="n">
-        <v>10000</v>
+        <v>7750</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>667</v>
+        <v>517</v>
       </c>
       <c r="Q730" t="n">
         <v>15</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E731" t="n">
         <v>9</v>
@@ -52980,7 +52980,7 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -52989,16 +52989,16 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K731" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L731" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M731" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="Q731" t="n">
         <v>15</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E732" t="n">
         <v>9</v>
@@ -53052,7 +53052,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K732" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L732" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M732" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="Q732" t="n">
         <v>15</v>
@@ -53124,7 +53124,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -53133,7 +53133,7 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K733" t="n">
         <v>7000</v>
@@ -53146,7 +53146,7 @@
       </c>
       <c r="N733" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O733" t="inlineStr">
@@ -53155,10 +53155,10 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q733" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R733" t="inlineStr">
         <is>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E734" t="n">
         <v>9</v>
@@ -53196,7 +53196,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -53205,20 +53205,20 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K734" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L734" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M734" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
@@ -53227,10 +53227,10 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q734" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E735" t="n">
         <v>9</v>
@@ -53277,16 +53277,16 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="K735" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L735" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M735" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="Q735" t="n">
         <v>15</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E736" t="n">
         <v>9</v>
@@ -53340,7 +53340,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
@@ -53349,7 +53349,7 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K736" t="n">
         <v>7000</v>
@@ -53362,19 +53362,19 @@
       </c>
       <c r="N736" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q736" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R736" t="inlineStr">
         <is>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E737" t="n">
         <v>9</v>
@@ -53412,7 +53412,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -53421,20 +53421,20 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K737" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L737" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M737" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
@@ -53443,10 +53443,10 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q737" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R737" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E738" t="n">
         <v>9</v>
@@ -53489,20 +53489,20 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K738" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L738" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M738" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53511,11 +53511,11 @@
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q738" t="n">
         <v>10</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E739" t="n">
         <v>9</v>
@@ -53565,16 +53565,16 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>2000</v>
+        <v>185</v>
       </c>
       <c r="K739" t="n">
         <v>8000</v>
       </c>
       <c r="L739" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M739" t="n">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="Q739" t="n">
         <v>15</v>
@@ -53628,7 +53628,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -53637,32 +53637,32 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="K740" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L740" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M740" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q740" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53700,7 +53700,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -53709,32 +53709,32 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K741" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L741" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M741" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q741" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R741" t="inlineStr">
         <is>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E742" t="n">
         <v>9</v>
@@ -53777,20 +53777,20 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K742" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L742" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M742" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q742" t="n">
         <v>10</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E743" t="n">
         <v>9</v>
@@ -53853,16 +53853,16 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>40</v>
+        <v>2000</v>
       </c>
       <c r="K743" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L743" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M743" t="n">
-        <v>10000</v>
+        <v>8400</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>667</v>
+        <v>560</v>
       </c>
       <c r="Q743" t="n">
         <v>15</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E744" t="n">
         <v>9</v>
@@ -53916,7 +53916,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -53925,16 +53925,16 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="K744" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L744" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M744" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q744" t="n">
         <v>15</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E745" t="n">
         <v>9</v>
@@ -53997,20 +53997,20 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K745" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L745" t="n">
         <v>7000</v>
       </c>
       <c r="M745" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
@@ -54019,10 +54019,10 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>542</v>
+        <v>467</v>
       </c>
       <c r="Q745" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E746" t="n">
         <v>9</v>
@@ -54060,7 +54060,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -54069,32 +54069,32 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K746" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L746" t="n">
         <v>7000</v>
       </c>
       <c r="M746" t="n">
-        <v>6417</v>
+        <v>7000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>535</v>
+        <v>700</v>
       </c>
       <c r="Q746" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R746" t="inlineStr">
         <is>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E747" t="n">
         <v>9</v>
@@ -54141,16 +54141,16 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K747" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L747" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M747" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="Q747" t="n">
         <v>15</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E748" t="n">
         <v>9</v>
@@ -54204,7 +54204,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -54213,16 +54213,16 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="K748" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L748" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M748" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54235,7 +54235,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q748" t="n">
         <v>15</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E749" t="n">
         <v>9</v>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54285,16 +54285,16 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K749" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L749" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M749" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q749" t="n">
         <v>12</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E750" t="n">
         <v>9</v>
@@ -54348,7 +54348,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -54357,20 +54357,20 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K750" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L750" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M750" t="n">
-        <v>5429</v>
+        <v>6417</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
@@ -54379,10 +54379,10 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>362</v>
+        <v>535</v>
       </c>
       <c r="Q750" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R750" t="inlineStr">
         <is>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E751" t="n">
         <v>9</v>
@@ -54420,7 +54420,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -54429,32 +54429,32 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K751" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L751" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M751" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q751" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E752" t="n">
         <v>9</v>
@@ -54492,7 +54492,7 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -54501,32 +54501,32 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K752" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L752" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M752" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q752" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R752" t="inlineStr">
         <is>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E753" t="n">
         <v>9</v>
@@ -54573,32 +54573,32 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K753" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L753" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M753" t="n">
-        <v>7216</v>
+        <v>4500</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>722</v>
+        <v>375</v>
       </c>
       <c r="Q753" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R753" t="inlineStr">
         <is>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E754" t="n">
         <v>9</v>
@@ -54645,16 +54645,16 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="K754" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L754" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M754" t="n">
-        <v>11472</v>
+        <v>5429</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54663,11 +54663,11 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>765</v>
+        <v>362</v>
       </c>
       <c r="Q754" t="n">
         <v>15</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E755" t="n">
         <v>9</v>
@@ -54708,7 +54708,7 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
@@ -54717,32 +54717,32 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K755" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L755" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M755" t="n">
-        <v>7214</v>
+        <v>4000</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="Q755" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R755" t="inlineStr">
         <is>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E756" t="n">
         <v>9</v>
@@ -54780,7 +54780,7 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -54789,32 +54789,32 @@
         </is>
       </c>
       <c r="J756" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K756" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L756" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M756" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="Q756" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R756" t="inlineStr">
         <is>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E757" t="n">
         <v>9</v>
@@ -54852,7 +54852,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
@@ -54861,32 +54861,32 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>700</v>
+        <v>220</v>
       </c>
       <c r="K757" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L757" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M757" t="n">
-        <v>10571</v>
+        <v>7216</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="Q757" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E758" t="n">
         <v>9</v>
@@ -54924,7 +54924,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -54933,16 +54933,16 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>50</v>
+        <v>530</v>
       </c>
       <c r="K758" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L758" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M758" t="n">
-        <v>8000</v>
+        <v>11472</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>533</v>
+        <v>765</v>
       </c>
       <c r="Q758" t="n">
         <v>15</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E759" t="n">
         <v>9</v>
@@ -54996,7 +54996,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -55005,16 +55005,16 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K759" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L759" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M759" t="n">
-        <v>8000</v>
+        <v>7214</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="Q759" t="n">
         <v>15</v>
@@ -55068,7 +55068,7 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -55077,7 +55077,7 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K760" t="n">
         <v>8000</v>
@@ -55090,7 +55090,7 @@
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
@@ -55099,10 +55099,10 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q760" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E761" t="n">
         <v>9</v>
@@ -55149,16 +55149,16 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>255</v>
+        <v>700</v>
       </c>
       <c r="K761" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L761" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M761" t="n">
-        <v>7000</v>
+        <v>10571</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>467</v>
+        <v>705</v>
       </c>
       <c r="Q761" t="n">
         <v>15</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E762" t="n">
         <v>9</v>
@@ -55212,7 +55212,7 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
@@ -55221,7 +55221,7 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K762" t="n">
         <v>8000</v>
@@ -55234,19 +55234,19 @@
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q762" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R762" t="inlineStr">
         <is>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E763" t="n">
         <v>9</v>
@@ -55284,7 +55284,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
@@ -55293,7 +55293,7 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K763" t="n">
         <v>8000</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
@@ -55356,7 +55356,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -55365,7 +55365,7 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K764" t="n">
         <v>8000</v>
@@ -55383,7 +55383,7 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P764" t="n">
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E765" t="n">
         <v>9</v>
@@ -55428,7 +55428,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -55437,20 +55437,20 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="K765" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L765" t="n">
         <v>7000</v>
       </c>
       <c r="M765" t="n">
-        <v>6429</v>
+        <v>7000</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
@@ -55459,10 +55459,10 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="Q765" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R765" t="inlineStr">
         <is>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E766" t="n">
         <v>9</v>
@@ -55500,7 +55500,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -55509,32 +55509,32 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="K766" t="n">
         <v>8000</v>
       </c>
       <c r="L766" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M766" t="n">
-        <v>8455</v>
+        <v>8000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>564</v>
+        <v>800</v>
       </c>
       <c r="Q766" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -55581,7 +55581,7 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K767" t="n">
         <v>8000</v>
@@ -55599,7 +55599,7 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P767" t="n">
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E768" t="n">
         <v>9</v>
@@ -55644,7 +55644,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -55653,32 +55653,32 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="K768" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L768" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M768" t="n">
-        <v>6545</v>
+        <v>8000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="Q768" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R768" t="inlineStr">
         <is>
@@ -55716,7 +55716,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -55725,7 +55725,7 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="K769" t="n">
         <v>6000</v>
@@ -55734,7 +55734,7 @@
         <v>7000</v>
       </c>
       <c r="M769" t="n">
-        <v>6583</v>
+        <v>6429</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55747,7 +55747,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="Q769" t="n">
         <v>12</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -55797,16 +55797,16 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>125</v>
+        <v>330</v>
       </c>
       <c r="K770" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L770" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M770" t="n">
-        <v>12000</v>
+        <v>8455</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>800</v>
+        <v>564</v>
       </c>
       <c r="Q770" t="n">
         <v>15</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E771" t="n">
         <v>9</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="K771" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L771" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M771" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="Q771" t="n">
         <v>15</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -55941,32 +55941,32 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K772" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L772" t="n">
         <v>7000</v>
       </c>
       <c r="M772" t="n">
-        <v>7000</v>
+        <v>6545</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="Q772" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -56004,7 +56004,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -56013,32 +56013,32 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K773" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L773" t="n">
         <v>7000</v>
       </c>
       <c r="M773" t="n">
-        <v>7000</v>
+        <v>6583</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>700</v>
+        <v>549</v>
       </c>
       <c r="Q773" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -56085,16 +56085,16 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="K774" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L774" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M774" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56107,7 +56107,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q774" t="n">
         <v>15</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="K775" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L775" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M775" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56175,11 +56175,11 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="Q775" t="n">
         <v>15</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -56220,7 +56220,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -56229,16 +56229,16 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>550</v>
+        <v>95</v>
       </c>
       <c r="K776" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L776" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M776" t="n">
-        <v>4545</v>
+        <v>7000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>303</v>
+        <v>467</v>
       </c>
       <c r="Q776" t="n">
         <v>15</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -56292,41 +56292,41 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K777" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L777" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M777" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="Q777" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -56364,7 +56364,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -56373,32 +56373,32 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K778" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L778" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M778" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q778" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -56436,7 +56436,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -56445,32 +56445,32 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K779" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L779" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M779" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q779" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -56508,7 +56508,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -56517,32 +56517,32 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>365</v>
+        <v>550</v>
       </c>
       <c r="K780" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L780" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M780" t="n">
-        <v>7575</v>
+        <v>4545</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>758</v>
+        <v>303</v>
       </c>
       <c r="Q780" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R780" t="inlineStr">
         <is>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -56585,20 +56585,20 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="K781" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L781" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M781" t="n">
-        <v>7462</v>
+        <v>3000</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,16 +56607,304 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>497</v>
+        <v>200</v>
       </c>
       <c r="Q781" t="n">
         <v>15</v>
       </c>
       <c r="R781" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>10</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D782" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E782" t="n">
+        <v>9</v>
+      </c>
+      <c r="F782" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J782" t="n">
+        <v>50</v>
+      </c>
+      <c r="K782" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L782" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M782" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N782" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O782" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P782" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q782" t="n">
+        <v>12</v>
+      </c>
+      <c r="R782" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>10</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D783" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E783" t="n">
+        <v>9</v>
+      </c>
+      <c r="F783" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J783" t="n">
+        <v>100</v>
+      </c>
+      <c r="K783" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L783" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M783" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N783" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O783" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P783" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q783" t="n">
+        <v>12</v>
+      </c>
+      <c r="R783" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>10</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D784" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E784" t="n">
+        <v>9</v>
+      </c>
+      <c r="F784" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J784" t="n">
+        <v>365</v>
+      </c>
+      <c r="K784" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L784" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M784" t="n">
+        <v>7575</v>
+      </c>
+      <c r="N784" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O784" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P784" t="n">
+        <v>758</v>
+      </c>
+      <c r="Q784" t="n">
+        <v>10</v>
+      </c>
+      <c r="R784" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>10</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D785" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E785" t="n">
+        <v>9</v>
+      </c>
+      <c r="F785" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J785" t="n">
+        <v>650</v>
+      </c>
+      <c r="K785" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L785" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M785" t="n">
+        <v>7462</v>
+      </c>
+      <c r="N785" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O785" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P785" t="n">
+        <v>497</v>
+      </c>
+      <c r="Q785" t="n">
+        <v>15</v>
+      </c>
+      <c r="R785" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R785"/>
+  <dimension ref="A1:R786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E757" t="n">
         <v>9</v>
@@ -54852,7 +54852,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
@@ -54861,32 +54861,32 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="K757" t="n">
         <v>7000</v>
       </c>
       <c r="L757" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M757" t="n">
-        <v>7216</v>
+        <v>7000</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>722</v>
+        <v>467</v>
       </c>
       <c r="Q757" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54924,7 +54924,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -54933,32 +54933,32 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>530</v>
+        <v>220</v>
       </c>
       <c r="K758" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L758" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M758" t="n">
-        <v>11472</v>
+        <v>7216</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>765</v>
+        <v>722</v>
       </c>
       <c r="Q758" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R758" t="inlineStr">
         <is>
@@ -54996,7 +54996,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -55005,16 +55005,16 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="K759" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L759" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M759" t="n">
-        <v>7214</v>
+        <v>11472</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>481</v>
+        <v>765</v>
       </c>
       <c r="Q759" t="n">
         <v>15</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E760" t="n">
         <v>9</v>
@@ -55068,7 +55068,7 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -55077,32 +55077,32 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K760" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L760" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M760" t="n">
-        <v>8000</v>
+        <v>7214</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>800</v>
+        <v>481</v>
       </c>
       <c r="Q760" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
@@ -55149,20 +55149,20 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K761" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L761" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M761" t="n">
-        <v>10571</v>
+        <v>8000</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
@@ -55171,10 +55171,10 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>705</v>
+        <v>800</v>
       </c>
       <c r="Q761" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55212,7 +55212,7 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
@@ -55221,16 +55221,16 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="K762" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L762" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M762" t="n">
-        <v>8000</v>
+        <v>10571</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55243,7 +55243,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>533</v>
+        <v>705</v>
       </c>
       <c r="Q762" t="n">
         <v>15</v>
@@ -55284,7 +55284,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
@@ -55293,7 +55293,7 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K763" t="n">
         <v>8000</v>
@@ -55356,7 +55356,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -55365,7 +55365,7 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K764" t="n">
         <v>8000</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E765" t="n">
         <v>9</v>
@@ -55428,7 +55428,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -55437,16 +55437,16 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K765" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L765" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M765" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q765" t="n">
         <v>15</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E766" t="n">
         <v>9</v>
@@ -55500,7 +55500,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -55509,32 +55509,32 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="K766" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L766" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M766" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q766" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55572,7 +55572,7 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
@@ -55581,7 +55581,7 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>550</v>
+        <v>125</v>
       </c>
       <c r="K767" t="n">
         <v>8000</v>
@@ -55594,19 +55594,19 @@
       </c>
       <c r="N767" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q767" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R767" t="inlineStr">
         <is>
@@ -55653,7 +55653,7 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K768" t="n">
         <v>8000</v>
@@ -55671,7 +55671,7 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P768" t="n">
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E769" t="n">
         <v>9</v>
@@ -55716,7 +55716,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -55725,32 +55725,32 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="K769" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L769" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M769" t="n">
-        <v>6429</v>
+        <v>8000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Q769" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55788,7 +55788,7 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
@@ -55797,32 +55797,32 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="K770" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L770" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M770" t="n">
-        <v>8455</v>
+        <v>6429</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="Q770" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K771" t="n">
         <v>8000</v>
       </c>
       <c r="L771" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M771" t="n">
-        <v>8000</v>
+        <v>8455</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="Q771" t="n">
         <v>15</v>
@@ -55932,7 +55932,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -55941,20 +55941,20 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K772" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L772" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M772" t="n">
-        <v>6545</v>
+        <v>8000</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
@@ -55963,10 +55963,10 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="Q772" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -56004,7 +56004,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -56013,7 +56013,7 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K773" t="n">
         <v>6000</v>
@@ -56022,7 +56022,7 @@
         <v>7000</v>
       </c>
       <c r="M773" t="n">
-        <v>6583</v>
+        <v>6545</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q773" t="n">
         <v>12</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -56076,7 +56076,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -56085,32 +56085,32 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="K774" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L774" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M774" t="n">
-        <v>12000</v>
+        <v>6583</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>800</v>
+        <v>549</v>
       </c>
       <c r="Q774" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R774" t="inlineStr">
         <is>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="K775" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L775" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M775" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q775" t="n">
         <v>15</v>
@@ -56220,25 +56220,25 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K776" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L776" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M776" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q776" t="n">
         <v>15</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -56292,7 +56292,7 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
@@ -56301,7 +56301,7 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K777" t="n">
         <v>7000</v>
@@ -56314,7 +56314,7 @@
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
@@ -56323,10 +56323,10 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q777" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56364,7 +56364,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -56373,32 +56373,32 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K778" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L778" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M778" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q778" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56445,7 +56445,7 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K779" t="n">
         <v>8000</v>
@@ -56463,7 +56463,7 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P779" t="n">
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -56517,16 +56517,16 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K780" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L780" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M780" t="n">
-        <v>4545</v>
+        <v>8000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>303</v>
+        <v>533</v>
       </c>
       <c r="Q780" t="n">
         <v>15</v>
@@ -56585,20 +56585,20 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="K781" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L781" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M781" t="n">
-        <v>3000</v>
+        <v>4545</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="Q781" t="n">
         <v>15</v>
@@ -56652,29 +56652,29 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K782" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L782" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M782" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O782" t="inlineStr">
@@ -56683,10 +56683,10 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="Q782" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R782" t="inlineStr">
         <is>
@@ -56724,7 +56724,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -56733,7 +56733,7 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K783" t="n">
         <v>4000</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -56796,7 +56796,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -56805,32 +56805,32 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>365</v>
+        <v>100</v>
       </c>
       <c r="K784" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L784" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M784" t="n">
-        <v>7575</v>
+        <v>4000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>758</v>
+        <v>333</v>
       </c>
       <c r="Q784" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R784" t="inlineStr">
         <is>
@@ -56868,7 +56868,7 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -56877,7 +56877,7 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>650</v>
+        <v>365</v>
       </c>
       <c r="K785" t="n">
         <v>7000</v>
@@ -56886,25 +56886,97 @@
         <v>8000</v>
       </c>
       <c r="M785" t="n">
+        <v>7575</v>
+      </c>
+      <c r="N785" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O785" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P785" t="n">
+        <v>758</v>
+      </c>
+      <c r="Q785" t="n">
+        <v>10</v>
+      </c>
+      <c r="R785" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>10</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D786" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E786" t="n">
+        <v>9</v>
+      </c>
+      <c r="F786" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J786" t="n">
+        <v>650</v>
+      </c>
+      <c r="K786" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L786" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M786" t="n">
         <v>7462</v>
       </c>
-      <c r="N785" t="inlineStr">
+      <c r="N786" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O785" t="inlineStr">
+      <c r="O786" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P785" t="n">
+      <c r="P786" t="n">
         <v>497</v>
       </c>
-      <c r="Q785" t="n">
+      <c r="Q786" t="n">
         <v>15</v>
       </c>
-      <c r="R785" t="inlineStr">
+      <c r="R786" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R791"/>
+  <dimension ref="A1:R797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E648" t="n">
         <v>9</v>
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="K648" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L648" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M648" t="n">
-        <v>8000</v>
+        <v>6556</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>800</v>
+        <v>656</v>
       </c>
       <c r="Q648" t="n">
         <v>10</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E649" t="n">
         <v>9</v>
@@ -47085,7 +47085,7 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="K649" t="n">
         <v>8000</v>
@@ -47094,7 +47094,7 @@
         <v>9000</v>
       </c>
       <c r="M649" t="n">
-        <v>8629</v>
+        <v>8500</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="Q649" t="n">
         <v>15</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E650" t="n">
         <v>9</v>
@@ -47157,16 +47157,16 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>950</v>
+        <v>2400</v>
       </c>
       <c r="K650" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L650" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M650" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>533</v>
+        <v>433</v>
       </c>
       <c r="Q650" t="n">
         <v>15</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E651" t="n">
         <v>9</v>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -47229,20 +47229,20 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="K651" t="n">
         <v>6000</v>
       </c>
       <c r="L651" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M651" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -47251,10 +47251,10 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="Q651" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E652" t="n">
         <v>9</v>
@@ -47292,7 +47292,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -47301,20 +47301,20 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="K652" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L652" t="n">
         <v>6000</v>
       </c>
       <c r="M652" t="n">
-        <v>5422</v>
+        <v>6000</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
@@ -47323,10 +47323,10 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>361</v>
+        <v>500</v>
       </c>
       <c r="Q652" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E653" t="n">
         <v>9</v>
@@ -47364,7 +47364,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -47373,32 +47373,32 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="K653" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L653" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M653" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="Q653" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E654" t="n">
         <v>9</v>
@@ -47445,16 +47445,16 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="K654" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L654" t="n">
         <v>8000</v>
       </c>
       <c r="M654" t="n">
-        <v>7429</v>
+        <v>8000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>743</v>
+        <v>800</v>
       </c>
       <c r="Q654" t="n">
         <v>10</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E655" t="n">
         <v>9</v>
@@ -47517,16 +47517,16 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>1800</v>
+        <v>175</v>
       </c>
       <c r="K655" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L655" t="n">
         <v>9000</v>
       </c>
-      <c r="L655" t="n">
-        <v>10000</v>
-      </c>
       <c r="M655" t="n">
-        <v>9556</v>
+        <v>8629</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="Q655" t="n">
         <v>15</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E656" t="n">
         <v>9</v>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="K656" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L656" t="n">
         <v>8000</v>
       </c>
       <c r="M656" t="n">
-        <v>7462</v>
+        <v>8000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="Q656" t="n">
         <v>15</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E657" t="n">
         <v>9</v>
@@ -47652,7 +47652,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
@@ -47661,32 +47661,32 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="K657" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L657" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M657" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="Q657" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E658" t="n">
         <v>9</v>
@@ -47724,7 +47724,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -47733,16 +47733,16 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>800</v>
+        <v>225</v>
       </c>
       <c r="K658" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L658" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M658" t="n">
-        <v>7500</v>
+        <v>5422</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="Q658" t="n">
         <v>15</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E659" t="n">
         <v>9</v>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -47805,20 +47805,20 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K659" t="n">
         <v>5000</v>
       </c>
       <c r="L659" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M659" t="n">
-        <v>5385</v>
+        <v>5000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
@@ -47827,10 +47827,10 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="Q659" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44186</v>
+        <v>44469</v>
       </c>
       <c r="E660" t="n">
         <v>9</v>
@@ -47877,32 +47877,32 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K660" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L660" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M660" t="n">
-        <v>4500</v>
+        <v>7429</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>375</v>
+        <v>743</v>
       </c>
       <c r="Q660" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44186</v>
+        <v>44469</v>
       </c>
       <c r="E661" t="n">
         <v>9</v>
@@ -47949,32 +47949,32 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K661" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L661" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M661" t="n">
-        <v>4750</v>
+        <v>9556</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>396</v>
+        <v>637</v>
       </c>
       <c r="Q661" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44186</v>
+        <v>44469</v>
       </c>
       <c r="E662" t="n">
         <v>9</v>
@@ -48021,32 +48021,32 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="K662" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L662" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M662" t="n">
-        <v>4800</v>
+        <v>7462</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="Q662" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44186</v>
+        <v>44469</v>
       </c>
       <c r="E663" t="n">
         <v>9</v>
@@ -48093,16 +48093,16 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K663" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L663" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M663" t="n">
-        <v>4750</v>
+        <v>10000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>396</v>
+        <v>833</v>
       </c>
       <c r="Q663" t="n">
         <v>12</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E664" t="n">
         <v>9</v>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,16 +48165,16 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="K664" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L664" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M664" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q664" t="n">
         <v>15</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44504</v>
+        <v>44215</v>
       </c>
       <c r="E665" t="n">
         <v>9</v>
@@ -48228,7 +48228,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="K665" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L665" t="n">
         <v>6000</v>
       </c>
-      <c r="L665" t="n">
-        <v>7000</v>
-      </c>
       <c r="M665" t="n">
-        <v>6455</v>
+        <v>5385</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>430</v>
+        <v>359</v>
       </c>
       <c r="Q665" t="n">
         <v>15</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E666" t="n">
         <v>9</v>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48309,32 +48309,32 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="K666" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L666" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M666" t="n">
-        <v>6448</v>
+        <v>4500</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="Q666" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E667" t="n">
         <v>9</v>
@@ -48372,7 +48372,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K667" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L667" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M667" t="n">
-        <v>7000</v>
+        <v>4750</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>583</v>
+        <v>396</v>
       </c>
       <c r="Q667" t="n">
         <v>12</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44384</v>
+        <v>44186</v>
       </c>
       <c r="E668" t="n">
         <v>9</v>
@@ -48444,7 +48444,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -48453,32 +48453,32 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K668" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L668" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M668" t="n">
-        <v>6444</v>
+        <v>4800</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>644</v>
+        <v>400</v>
       </c>
       <c r="Q668" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44384</v>
+        <v>44186</v>
       </c>
       <c r="E669" t="n">
         <v>9</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48525,32 +48525,32 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K669" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L669" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M669" t="n">
-        <v>7000</v>
+        <v>4750</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>700</v>
+        <v>396</v>
       </c>
       <c r="Q669" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E670" t="n">
         <v>9</v>
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K670" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L670" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M670" t="n">
-        <v>11556</v>
+        <v>6000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>770</v>
+        <v>400</v>
       </c>
       <c r="Q670" t="n">
         <v>15</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E671" t="n">
         <v>9</v>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48669,16 +48669,16 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K671" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L671" t="n">
         <v>7000</v>
       </c>
       <c r="M671" t="n">
-        <v>7000</v>
+        <v>6455</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="Q671" t="n">
         <v>15</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E672" t="n">
         <v>9</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K672" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L672" t="n">
         <v>7000</v>
       </c>
       <c r="M672" t="n">
-        <v>7000</v>
+        <v>6448</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="Q672" t="n">
         <v>15</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E673" t="n">
         <v>9</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,7 +48813,7 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="K673" t="n">
         <v>7000</v>
@@ -48826,19 +48826,19 @@
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>467</v>
+        <v>583</v>
       </c>
       <c r="Q673" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,20 +48885,20 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K674" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L674" t="n">
         <v>7000</v>
       </c>
       <c r="M674" t="n">
-        <v>7000</v>
+        <v>6444</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -48907,10 +48907,10 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>389</v>
+        <v>644</v>
       </c>
       <c r="Q674" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E675" t="n">
         <v>9</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,32 +48957,32 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K675" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L675" t="n">
         <v>7000</v>
       </c>
       <c r="M675" t="n">
-        <v>6364</v>
+        <v>7000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>424</v>
+        <v>700</v>
       </c>
       <c r="Q675" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E676" t="n">
         <v>9</v>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -49029,32 +49029,32 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="K676" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L676" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M676" t="n">
-        <v>6000</v>
+        <v>11556</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>600</v>
+        <v>770</v>
       </c>
       <c r="Q676" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E677" t="n">
         <v>9</v>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>575</v>
+        <v>200</v>
       </c>
       <c r="K677" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L677" t="n">
         <v>7000</v>
       </c>
       <c r="M677" t="n">
-        <v>6217</v>
+        <v>7000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="Q677" t="n">
         <v>15</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E678" t="n">
         <v>9</v>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -49173,7 +49173,7 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K678" t="n">
         <v>7000</v>
@@ -49186,19 +49186,19 @@
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>583</v>
+        <v>467</v>
       </c>
       <c r="Q678" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E679" t="n">
         <v>9</v>
@@ -49236,7 +49236,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -49245,7 +49245,7 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K679" t="n">
         <v>7000</v>
@@ -49258,19 +49258,19 @@
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q679" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E680" t="n">
         <v>9</v>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,20 +49317,20 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="K680" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L680" t="n">
         <v>7000</v>
       </c>
       <c r="M680" t="n">
-        <v>6545</v>
+        <v>7000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
@@ -49339,10 +49339,10 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="Q680" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E681" t="n">
         <v>9</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49389,16 +49389,16 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="K681" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L681" t="n">
         <v>7000</v>
       </c>
       <c r="M681" t="n">
-        <v>7000</v>
+        <v>6364</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="Q681" t="n">
         <v>15</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E682" t="n">
         <v>9</v>
@@ -49452,7 +49452,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -49461,20 +49461,20 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>450</v>
+        <v>65</v>
       </c>
       <c r="K682" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L682" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M682" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
@@ -49483,10 +49483,10 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q682" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E683" t="n">
         <v>9</v>
@@ -49524,7 +49524,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -49533,16 +49533,16 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>250</v>
+        <v>575</v>
       </c>
       <c r="K683" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L683" t="n">
         <v>7000</v>
       </c>
       <c r="M683" t="n">
-        <v>7000</v>
+        <v>6217</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="Q683" t="n">
         <v>15</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E684" t="n">
         <v>9</v>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49605,32 +49605,32 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K684" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L684" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M684" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>933</v>
+        <v>583</v>
       </c>
       <c r="Q684" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E685" t="n">
         <v>9</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,20 +49677,20 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K685" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L685" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M685" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
@@ -49699,10 +49699,10 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q685" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E686" t="n">
         <v>9</v>
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K686" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L686" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M686" t="n">
-        <v>9000</v>
+        <v>6545</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>600</v>
+        <v>436</v>
       </c>
       <c r="Q686" t="n">
         <v>15</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E687" t="n">
         <v>9</v>
@@ -49812,7 +49812,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
@@ -49821,20 +49821,20 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K687" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L687" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M687" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
@@ -49843,10 +49843,10 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q687" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E688" t="n">
         <v>9</v>
@@ -49884,7 +49884,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -49893,32 +49893,32 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="K688" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L688" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M688" t="n">
-        <v>7773</v>
+        <v>7000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>777</v>
+        <v>467</v>
       </c>
       <c r="Q688" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E689" t="n">
         <v>9</v>
@@ -49956,7 +49956,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -49965,16 +49965,16 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>680</v>
+        <v>250</v>
       </c>
       <c r="K689" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L689" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M689" t="n">
-        <v>10559</v>
+        <v>7000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>704</v>
+        <v>467</v>
       </c>
       <c r="Q689" t="n">
         <v>15</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E690" t="n">
         <v>9</v>
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K690" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L690" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M690" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50055,11 +50055,11 @@
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="Q690" t="n">
         <v>15</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E691" t="n">
         <v>9</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,16 +50109,16 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K691" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L691" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M691" t="n">
-        <v>7708</v>
+        <v>9000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>514</v>
+        <v>600</v>
       </c>
       <c r="Q691" t="n">
         <v>15</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E692" t="n">
         <v>9</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="K692" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L692" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M692" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50199,11 +50199,11 @@
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q692" t="n">
         <v>15</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,32 +50253,32 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K693" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L693" t="n">
         <v>8000</v>
       </c>
       <c r="M693" t="n">
-        <v>7786</v>
+        <v>8000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>519</v>
+        <v>800</v>
       </c>
       <c r="Q693" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E694" t="n">
         <v>9</v>
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="K694" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L694" t="n">
         <v>8000</v>
       </c>
-      <c r="L694" t="n">
-        <v>9000</v>
-      </c>
       <c r="M694" t="n">
-        <v>8417</v>
+        <v>7773</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>842</v>
+        <v>777</v>
       </c>
       <c r="Q694" t="n">
         <v>10</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E695" t="n">
         <v>9</v>
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="K695" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L695" t="n">
         <v>11000</v>
       </c>
-      <c r="L695" t="n">
-        <v>12000</v>
-      </c>
       <c r="M695" t="n">
-        <v>11545</v>
+        <v>10559</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>770</v>
+        <v>704</v>
       </c>
       <c r="Q695" t="n">
         <v>15</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E696" t="n">
         <v>9</v>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,16 +50469,16 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="K696" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L696" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M696" t="n">
-        <v>8571</v>
+        <v>10000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>571</v>
+        <v>667</v>
       </c>
       <c r="Q696" t="n">
         <v>15</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E697" t="n">
         <v>9</v>
@@ -50532,7 +50532,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -50541,16 +50541,16 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K697" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L697" t="n">
         <v>8000</v>
       </c>
-      <c r="L697" t="n">
-        <v>9000</v>
-      </c>
       <c r="M697" t="n">
-        <v>8667</v>
+        <v>7708</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>578</v>
+        <v>514</v>
       </c>
       <c r="Q697" t="n">
         <v>15</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E698" t="n">
         <v>9</v>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -50613,32 +50613,32 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="K698" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L698" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M698" t="n">
-        <v>7864</v>
+        <v>7500</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>786</v>
+        <v>500</v>
       </c>
       <c r="Q698" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E699" t="n">
         <v>9</v>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,16 +50685,16 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="K699" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L699" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M699" t="n">
-        <v>10909</v>
+        <v>7786</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>727</v>
+        <v>519</v>
       </c>
       <c r="Q699" t="n">
         <v>15</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E700" t="n">
         <v>9</v>
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="K700" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L700" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M700" t="n">
-        <v>4000</v>
+        <v>8417</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>400</v>
+        <v>842</v>
       </c>
       <c r="Q700" t="n">
         <v>10</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E701" t="n">
         <v>9</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,32 +50829,32 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K701" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L701" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M701" t="n">
-        <v>4229</v>
+        <v>11545</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>423</v>
+        <v>770</v>
       </c>
       <c r="Q701" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E702" t="n">
         <v>9</v>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50901,16 +50901,16 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>405</v>
+        <v>70</v>
       </c>
       <c r="K702" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L702" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M702" t="n">
-        <v>3691</v>
+        <v>8571</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>246</v>
+        <v>571</v>
       </c>
       <c r="Q702" t="n">
         <v>15</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E703" t="n">
         <v>9</v>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,32 +50973,32 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="K703" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L703" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M703" t="n">
-        <v>4000</v>
+        <v>8667</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>333</v>
+        <v>578</v>
       </c>
       <c r="Q703" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E704" t="n">
         <v>9</v>
@@ -51036,7 +51036,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -51045,32 +51045,32 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="K704" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L704" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M704" t="n">
-        <v>4000</v>
+        <v>7864</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>333</v>
+        <v>786</v>
       </c>
       <c r="Q704" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E705" t="n">
         <v>9</v>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51117,32 +51117,32 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>65</v>
+        <v>550</v>
       </c>
       <c r="K705" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L705" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M705" t="n">
-        <v>4000</v>
+        <v>10909</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>333</v>
+        <v>727</v>
       </c>
       <c r="Q705" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E706" t="n">
         <v>9</v>
@@ -51189,16 +51189,16 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="K706" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L706" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M706" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51207,11 +51207,11 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q706" t="n">
         <v>10</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E707" t="n">
         <v>9</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,32 +51261,32 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K707" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L707" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M707" t="n">
-        <v>3750</v>
+        <v>4229</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>250</v>
+        <v>423</v>
       </c>
       <c r="Q707" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E708" t="n">
         <v>9</v>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51333,16 +51333,16 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="K708" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L708" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M708" t="n">
-        <v>4500</v>
+        <v>3691</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="Q708" t="n">
         <v>15</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E709" t="n">
         <v>9</v>
@@ -51405,16 +51405,16 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="K709" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L709" t="n">
         <v>4000</v>
       </c>
       <c r="M709" t="n">
-        <v>3722</v>
+        <v>4000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="Q709" t="n">
         <v>12</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E710" t="n">
         <v>9</v>
@@ -51477,16 +51477,16 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="K710" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L710" t="n">
         <v>4000</v>
       </c>
       <c r="M710" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="Q710" t="n">
         <v>12</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E711" t="n">
         <v>9</v>
@@ -51540,7 +51540,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
@@ -51549,32 +51549,32 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="K711" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L711" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M711" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="Q711" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E712" t="n">
         <v>9</v>
@@ -51612,7 +51612,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
@@ -51621,32 +51621,32 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K712" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L712" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M712" t="n">
-        <v>10467</v>
+        <v>5000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>698</v>
+        <v>500</v>
       </c>
       <c r="Q712" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R712" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E713" t="n">
         <v>9</v>
@@ -51684,7 +51684,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -51693,16 +51693,16 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>185</v>
+        <v>400</v>
       </c>
       <c r="K713" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L713" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M713" t="n">
-        <v>6757</v>
+        <v>3750</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="Q713" t="n">
         <v>15</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E714" t="n">
         <v>9</v>
@@ -51756,7 +51756,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K714" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L714" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M714" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="Q714" t="n">
         <v>15</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E715" t="n">
         <v>9</v>
@@ -51828,7 +51828,7 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
@@ -51837,32 +51837,32 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="K715" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L715" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M715" t="n">
-        <v>7000</v>
+        <v>3722</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>467</v>
+        <v>310</v>
       </c>
       <c r="Q715" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E716" t="n">
         <v>9</v>
@@ -51900,7 +51900,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
@@ -51909,32 +51909,32 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K716" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L716" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M716" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>633</v>
+        <v>312</v>
       </c>
       <c r="Q716" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E717" t="n">
         <v>9</v>
@@ -51972,7 +51972,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -51981,32 +51981,32 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="K717" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L717" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M717" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q717" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E718" t="n">
         <v>9</v>
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K718" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L718" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M718" t="n">
-        <v>8500</v>
+        <v>10467</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>567</v>
+        <v>698</v>
       </c>
       <c r="Q718" t="n">
         <v>15</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
@@ -52116,7 +52116,7 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
@@ -52125,20 +52125,20 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>500</v>
+        <v>185</v>
       </c>
       <c r="K719" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L719" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M719" t="n">
-        <v>8000</v>
+        <v>6757</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
@@ -52147,10 +52147,10 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q719" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E720" t="n">
         <v>9</v>
@@ -52188,7 +52188,7 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
@@ -52197,16 +52197,16 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>1200</v>
+        <v>110</v>
       </c>
       <c r="K720" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L720" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M720" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q720" t="n">
         <v>15</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E721" t="n">
         <v>9</v>
@@ -52260,7 +52260,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -52269,16 +52269,16 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="K721" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L721" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M721" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q721" t="n">
         <v>15</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E722" t="n">
         <v>9</v>
@@ -52332,7 +52332,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -52341,16 +52341,16 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K722" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L722" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M722" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>533</v>
+        <v>633</v>
       </c>
       <c r="Q722" t="n">
         <v>15</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E723" t="n">
         <v>9</v>
@@ -52404,7 +52404,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
@@ -52413,32 +52413,32 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K723" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L723" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M723" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>650</v>
+        <v>533</v>
       </c>
       <c r="Q723" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E724" t="n">
         <v>9</v>
@@ -52485,16 +52485,16 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="K724" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L724" t="n">
         <v>9000</v>
       </c>
-      <c r="L724" t="n">
-        <v>10000</v>
-      </c>
       <c r="M724" t="n">
-        <v>9556</v>
+        <v>8500</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>637</v>
+        <v>567</v>
       </c>
       <c r="Q724" t="n">
         <v>15</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E725" t="n">
         <v>9</v>
@@ -52557,16 +52557,16 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K725" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L725" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M725" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q725" t="n">
         <v>10</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E726" t="n">
         <v>9</v>
@@ -52629,7 +52629,7 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K726" t="n">
         <v>9000</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E727" t="n">
         <v>9</v>
@@ -52701,16 +52701,16 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K727" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L727" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M727" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q727" t="n">
         <v>15</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E728" t="n">
         <v>9</v>
@@ -52773,16 +52773,16 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K728" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L728" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M728" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q728" t="n">
         <v>15</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E729" t="n">
         <v>9</v>
@@ -52845,16 +52845,16 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="K729" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L729" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M729" t="n">
-        <v>4240</v>
+        <v>6500</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>424</v>
+        <v>650</v>
       </c>
       <c r="Q729" t="n">
         <v>10</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E730" t="n">
         <v>9</v>
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="K730" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L730" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M730" t="n">
-        <v>3742</v>
+        <v>9556</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>249</v>
+        <v>637</v>
       </c>
       <c r="Q730" t="n">
         <v>15</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E731" t="n">
         <v>9</v>
@@ -52980,7 +52980,7 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -52989,32 +52989,32 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="K731" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L731" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M731" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="Q731" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R731" t="inlineStr">
         <is>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E732" t="n">
         <v>9</v>
@@ -53052,7 +53052,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -53061,32 +53061,32 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K732" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L732" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M732" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P732" t="n">
         <v>600</v>
       </c>
       <c r="Q732" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R732" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E733" t="n">
         <v>9</v>
@@ -53124,7 +53124,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -53133,7 +53133,7 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K733" t="n">
         <v>7000</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E734" t="n">
         <v>9</v>
@@ -53196,7 +53196,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -53205,32 +53205,32 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K734" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L734" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M734" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="Q734" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E735" t="n">
         <v>9</v>
@@ -53268,7 +53268,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -53277,20 +53277,20 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="K735" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L735" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M735" t="n">
-        <v>7750</v>
+        <v>4240</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
@@ -53299,10 +53299,10 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>517</v>
+        <v>424</v>
       </c>
       <c r="Q735" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E736" t="n">
         <v>9</v>
@@ -53340,7 +53340,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
@@ -53349,16 +53349,16 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K736" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L736" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M736" t="n">
-        <v>6000</v>
+        <v>3742</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>400</v>
+        <v>249</v>
       </c>
       <c r="Q736" t="n">
         <v>15</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E737" t="n">
         <v>9</v>
@@ -53412,7 +53412,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -53421,32 +53421,32 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="K737" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L737" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M737" t="n">
-        <v>7750</v>
+        <v>4000</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>517</v>
+        <v>333</v>
       </c>
       <c r="Q737" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R737" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E738" t="n">
         <v>9</v>
@@ -53493,16 +53493,16 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="K738" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L738" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M738" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53511,11 +53511,11 @@
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q738" t="n">
         <v>10</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E739" t="n">
         <v>9</v>
@@ -53565,16 +53565,16 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K739" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L739" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M739" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="Q739" t="n">
         <v>15</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E740" t="n">
         <v>9</v>
@@ -53637,20 +53637,20 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K740" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L740" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M740" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
@@ -53659,10 +53659,10 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q740" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E741" t="n">
         <v>9</v>
@@ -53700,7 +53700,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K741" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L741" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M741" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="Q741" t="n">
         <v>15</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E742" t="n">
         <v>9</v>
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K742" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L742" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M742" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q742" t="n">
         <v>15</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E743" t="n">
         <v>9</v>
@@ -53844,7 +53844,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -53853,32 +53853,32 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K743" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L743" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M743" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>700</v>
+        <v>517</v>
       </c>
       <c r="Q743" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R743" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E744" t="n">
         <v>9</v>
@@ -53916,7 +53916,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -53925,32 +53925,32 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K744" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L744" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M744" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q744" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R744" t="inlineStr">
         <is>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E745" t="n">
         <v>9</v>
@@ -53988,7 +53988,7 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
@@ -53997,32 +53997,32 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K745" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L745" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M745" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q745" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E746" t="n">
         <v>9</v>
@@ -54060,7 +54060,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -54069,20 +54069,20 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K746" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L746" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M746" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O746" t="inlineStr">
@@ -54091,10 +54091,10 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q746" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R746" t="inlineStr">
         <is>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E747" t="n">
         <v>9</v>
@@ -54132,29 +54132,29 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K747" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L747" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M747" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O747" t="inlineStr">
@@ -54163,10 +54163,10 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q747" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R747" t="inlineStr">
         <is>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E748" t="n">
         <v>9</v>
@@ -54204,7 +54204,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -54213,16 +54213,16 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="K748" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L748" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M748" t="n">
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>560</v>
+        <v>467</v>
       </c>
       <c r="Q748" t="n">
         <v>15</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E749" t="n">
         <v>9</v>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54285,32 +54285,32 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>1200</v>
+        <v>50</v>
       </c>
       <c r="K749" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L749" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M749" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q749" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R749" t="inlineStr">
         <is>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E750" t="n">
         <v>9</v>
@@ -54348,7 +54348,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -54357,16 +54357,16 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="K750" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L750" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M750" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54375,11 +54375,11 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q750" t="n">
         <v>15</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E751" t="n">
         <v>9</v>
@@ -54429,7 +54429,7 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K751" t="n">
         <v>7000</v>
@@ -54447,7 +54447,7 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P751" t="n">
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E752" t="n">
         <v>9</v>
@@ -54492,7 +54492,7 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -54501,32 +54501,32 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="K752" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L752" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M752" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q752" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R752" t="inlineStr">
         <is>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E753" t="n">
         <v>9</v>
@@ -54564,29 +54564,29 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J753" t="n">
         <v>100</v>
       </c>
       <c r="K753" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L753" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M753" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O753" t="inlineStr">
@@ -54595,10 +54595,10 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q753" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R753" t="inlineStr">
         <is>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E754" t="n">
         <v>9</v>
@@ -54636,7 +54636,7 @@
       </c>
       <c r="H754" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
@@ -54645,32 +54645,32 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="K754" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L754" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M754" t="n">
-        <v>6500</v>
+        <v>8400</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="Q754" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R754" t="inlineStr">
         <is>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E755" t="n">
         <v>9</v>
@@ -54708,7 +54708,7 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
@@ -54717,32 +54717,32 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="K755" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L755" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M755" t="n">
-        <v>6417</v>
+        <v>8000</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Q755" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R755" t="inlineStr">
         <is>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E756" t="n">
         <v>9</v>
@@ -54780,7 +54780,7 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -54789,16 +54789,16 @@
         </is>
       </c>
       <c r="J756" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K756" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L756" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M756" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54807,11 +54807,11 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q756" t="n">
         <v>15</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E757" t="n">
         <v>9</v>
@@ -54852,7 +54852,7 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
@@ -54861,20 +54861,20 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K757" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L757" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M757" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
@@ -54883,10 +54883,10 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q757" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E758" t="n">
         <v>9</v>
@@ -54924,7 +54924,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -54933,32 +54933,32 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K758" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L758" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M758" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>375</v>
+        <v>667</v>
       </c>
       <c r="Q758" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R758" t="inlineStr">
         <is>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E759" t="n">
         <v>9</v>
@@ -54996,7 +54996,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -55005,16 +55005,16 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K759" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L759" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M759" t="n">
-        <v>5429</v>
+        <v>7000</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>362</v>
+        <v>467</v>
       </c>
       <c r="Q759" t="n">
         <v>15</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E760" t="n">
         <v>9</v>
@@ -55077,16 +55077,16 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K760" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L760" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M760" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55099,7 +55099,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>333</v>
+        <v>542</v>
       </c>
       <c r="Q760" t="n">
         <v>12</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E761" t="n">
         <v>9</v>
@@ -55149,16 +55149,16 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K761" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L761" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M761" t="n">
-        <v>4000</v>
+        <v>6417</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55171,7 +55171,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>333</v>
+        <v>535</v>
       </c>
       <c r="Q761" t="n">
         <v>12</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E762" t="n">
         <v>9</v>
@@ -55221,16 +55221,16 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>800</v>
+        <v>65</v>
       </c>
       <c r="K762" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L762" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M762" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q762" t="n">
         <v>15</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E763" t="n">
         <v>9</v>
@@ -55284,7 +55284,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
@@ -55293,32 +55293,32 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="K763" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L763" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M763" t="n">
-        <v>7216</v>
+        <v>8000</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>722</v>
+        <v>533</v>
       </c>
       <c r="Q763" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R763" t="inlineStr">
         <is>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
@@ -55356,7 +55356,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -55365,32 +55365,32 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="K764" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L764" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M764" t="n">
-        <v>11472</v>
+        <v>4500</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>765</v>
+        <v>375</v>
       </c>
       <c r="Q764" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R764" t="inlineStr">
         <is>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E765" t="n">
         <v>9</v>
@@ -55428,7 +55428,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -55440,13 +55440,13 @@
         <v>350</v>
       </c>
       <c r="K765" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L765" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M765" t="n">
-        <v>7214</v>
+        <v>5429</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>481</v>
+        <v>362</v>
       </c>
       <c r="Q765" t="n">
         <v>15</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E766" t="n">
         <v>9</v>
@@ -55500,7 +55500,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -55509,32 +55509,32 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K766" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L766" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M766" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="Q766" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -55572,7 +55572,7 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
@@ -55581,32 +55581,32 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="K767" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L767" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M767" t="n">
-        <v>10571</v>
+        <v>4000</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>705</v>
+        <v>333</v>
       </c>
       <c r="Q767" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R767" t="inlineStr">
         <is>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E768" t="n">
         <v>9</v>
@@ -55644,7 +55644,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -55653,16 +55653,16 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="K768" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L768" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M768" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q768" t="n">
         <v>15</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E769" t="n">
         <v>9</v>
@@ -55716,7 +55716,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -55725,32 +55725,32 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K769" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L769" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M769" t="n">
-        <v>8000</v>
+        <v>7216</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>533</v>
+        <v>722</v>
       </c>
       <c r="Q769" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -55788,7 +55788,7 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
@@ -55797,16 +55797,16 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="K770" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L770" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M770" t="n">
-        <v>8000</v>
+        <v>11472</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>533</v>
+        <v>765</v>
       </c>
       <c r="Q770" t="n">
         <v>15</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E771" t="n">
         <v>9</v>
@@ -55860,7 +55860,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="K771" t="n">
         <v>7000</v>
       </c>
       <c r="L771" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M771" t="n">
-        <v>7000</v>
+        <v>7214</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="Q771" t="n">
         <v>15</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -55941,7 +55941,7 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="K772" t="n">
         <v>8000</v>
@@ -55959,7 +55959,7 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P772" t="n">
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -56013,16 +56013,16 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="K773" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L773" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M773" t="n">
-        <v>8000</v>
+        <v>10571</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>533</v>
+        <v>705</v>
       </c>
       <c r="Q773" t="n">
         <v>15</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -56076,7 +56076,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -56085,7 +56085,7 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="K774" t="n">
         <v>8000</v>
@@ -56103,7 +56103,7 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P774" t="n">
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -56148,7 +56148,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -56157,32 +56157,32 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K775" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L775" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M775" t="n">
-        <v>6429</v>
+        <v>8000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Q775" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R775" t="inlineStr">
         <is>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -56220,7 +56220,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -56229,16 +56229,16 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K776" t="n">
         <v>8000</v>
       </c>
       <c r="L776" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M776" t="n">
-        <v>8455</v>
+        <v>8000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="Q776" t="n">
         <v>15</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -56301,16 +56301,16 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="K777" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L777" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M777" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56323,7 +56323,7 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q777" t="n">
         <v>15</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -56364,7 +56364,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -56373,32 +56373,32 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="K778" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L778" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M778" t="n">
-        <v>6545</v>
+        <v>8000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>545</v>
+        <v>800</v>
       </c>
       <c r="Q778" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -56436,7 +56436,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -56445,32 +56445,32 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="K779" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L779" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M779" t="n">
-        <v>6583</v>
+        <v>8000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="Q779" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -56517,16 +56517,16 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>125</v>
+        <v>600</v>
       </c>
       <c r="K780" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L780" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M780" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q780" t="n">
         <v>15</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -56580,41 +56580,41 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K781" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L781" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M781" t="n">
-        <v>10000</v>
+        <v>6429</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>667</v>
+        <v>536</v>
       </c>
       <c r="Q781" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R781" t="inlineStr">
         <is>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E782" t="n">
         <v>9</v>
@@ -56652,7 +56652,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -56661,16 +56661,16 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="K782" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L782" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M782" t="n">
-        <v>7000</v>
+        <v>8455</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>467</v>
+        <v>564</v>
       </c>
       <c r="Q782" t="n">
         <v>15</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E783" t="n">
         <v>9</v>
@@ -56724,7 +56724,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -56733,32 +56733,32 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K783" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L783" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M783" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="Q783" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R783" t="inlineStr">
         <is>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -56796,7 +56796,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -56805,32 +56805,32 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="K784" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L784" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M784" t="n">
-        <v>8000</v>
+        <v>6545</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="Q784" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R784" t="inlineStr">
         <is>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -56868,7 +56868,7 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -56877,32 +56877,32 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K785" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L785" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M785" t="n">
-        <v>8000</v>
+        <v>6583</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="Q785" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R785" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E786" t="n">
         <v>9</v>
@@ -56949,16 +56949,16 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>550</v>
+        <v>125</v>
       </c>
       <c r="K786" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L786" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M786" t="n">
-        <v>4545</v>
+        <v>12000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>303</v>
+        <v>800</v>
       </c>
       <c r="Q786" t="n">
         <v>15</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E787" t="n">
         <v>9</v>
@@ -57021,16 +57021,16 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K787" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="L787" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M787" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>200</v>
+        <v>667</v>
       </c>
       <c r="Q787" t="n">
         <v>15</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E788" t="n">
         <v>9</v>
@@ -57093,32 +57093,32 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K788" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L788" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M788" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q788" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E789" t="n">
         <v>9</v>
@@ -57156,7 +57156,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -57165,32 +57165,32 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K789" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L789" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M789" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="Q789" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E790" t="n">
         <v>9</v>
@@ -57228,7 +57228,7 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
@@ -57237,32 +57237,32 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>365</v>
+        <v>500</v>
       </c>
       <c r="K790" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L790" t="n">
         <v>8000</v>
       </c>
       <c r="M790" t="n">
-        <v>7575</v>
+        <v>8000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>758</v>
+        <v>533</v>
       </c>
       <c r="Q790" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R790" t="inlineStr">
         <is>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E791" t="n">
         <v>9</v>
@@ -57309,16 +57309,16 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K791" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L791" t="n">
         <v>8000</v>
       </c>
       <c r="M791" t="n">
-        <v>7462</v>
+        <v>8000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,16 +57327,448 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="Q791" t="n">
         <v>15</v>
       </c>
       <c r="R791" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>10</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D792" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E792" t="n">
+        <v>9</v>
+      </c>
+      <c r="F792" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G792" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J792" t="n">
+        <v>550</v>
+      </c>
+      <c r="K792" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L792" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M792" t="n">
+        <v>4545</v>
+      </c>
+      <c r="N792" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O792" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P792" t="n">
+        <v>303</v>
+      </c>
+      <c r="Q792" t="n">
+        <v>15</v>
+      </c>
+      <c r="R792" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>10</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D793" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E793" t="n">
+        <v>9</v>
+      </c>
+      <c r="F793" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G793" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J793" t="n">
+        <v>80</v>
+      </c>
+      <c r="K793" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L793" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M793" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N793" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O793" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P793" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q793" t="n">
+        <v>15</v>
+      </c>
+      <c r="R793" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>10</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D794" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E794" t="n">
+        <v>9</v>
+      </c>
+      <c r="F794" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J794" t="n">
+        <v>50</v>
+      </c>
+      <c r="K794" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L794" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M794" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N794" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O794" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P794" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q794" t="n">
+        <v>12</v>
+      </c>
+      <c r="R794" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>10</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D795" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E795" t="n">
+        <v>9</v>
+      </c>
+      <c r="F795" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J795" t="n">
+        <v>100</v>
+      </c>
+      <c r="K795" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L795" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M795" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N795" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O795" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P795" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q795" t="n">
+        <v>12</v>
+      </c>
+      <c r="R795" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>10</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D796" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E796" t="n">
+        <v>9</v>
+      </c>
+      <c r="F796" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G796" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J796" t="n">
+        <v>365</v>
+      </c>
+      <c r="K796" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L796" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M796" t="n">
+        <v>7575</v>
+      </c>
+      <c r="N796" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O796" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P796" t="n">
+        <v>758</v>
+      </c>
+      <c r="Q796" t="n">
+        <v>10</v>
+      </c>
+      <c r="R796" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>10</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D797" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E797" t="n">
+        <v>9</v>
+      </c>
+      <c r="F797" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G797" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J797" t="n">
+        <v>650</v>
+      </c>
+      <c r="K797" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L797" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M797" t="n">
+        <v>7462</v>
+      </c>
+      <c r="N797" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O797" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P797" t="n">
+        <v>497</v>
+      </c>
+      <c r="Q797" t="n">
+        <v>15</v>
+      </c>
+      <c r="R797" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R804"/>
+  <dimension ref="A1:R805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -55572,7 +55572,7 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
@@ -55581,32 +55581,32 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>160</v>
+        <v>750</v>
       </c>
       <c r="K767" t="n">
         <v>6000</v>
       </c>
       <c r="L767" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M767" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>542</v>
+        <v>400</v>
       </c>
       <c r="Q767" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R767" t="inlineStr">
         <is>
@@ -55644,7 +55644,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -55653,7 +55653,7 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K768" t="n">
         <v>6000</v>
@@ -55662,7 +55662,7 @@
         <v>7000</v>
       </c>
       <c r="M768" t="n">
-        <v>6417</v>
+        <v>6500</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55675,7 +55675,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="Q768" t="n">
         <v>12</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E769" t="n">
         <v>9</v>
@@ -55716,7 +55716,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -55725,32 +55725,32 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="K769" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L769" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M769" t="n">
-        <v>8000</v>
+        <v>6417</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Q769" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55797,7 +55797,7 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="K770" t="n">
         <v>8000</v>
@@ -55815,7 +55815,7 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P770" t="n">
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E771" t="n">
         <v>9</v>
@@ -55860,7 +55860,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -55869,32 +55869,32 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K771" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L771" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M771" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>375</v>
+        <v>533</v>
       </c>
       <c r="Q771" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R771" t="inlineStr">
         <is>
@@ -55932,7 +55932,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -55941,20 +55941,20 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K772" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L772" t="n">
         <v>5000</v>
       </c>
-      <c r="L772" t="n">
-        <v>6000</v>
-      </c>
       <c r="M772" t="n">
-        <v>5429</v>
+        <v>4500</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
@@ -55963,10 +55963,10 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="Q772" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -56004,7 +56004,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -56013,20 +56013,20 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K773" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L773" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M773" t="n">
-        <v>4000</v>
+        <v>5429</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
@@ -56035,10 +56035,10 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="Q773" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56076,7 +56076,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -56148,7 +56148,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -56157,32 +56157,32 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="K775" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L775" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M775" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="Q775" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R775" t="inlineStr">
         <is>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -56220,7 +56220,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -56229,32 +56229,32 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="K776" t="n">
         <v>7000</v>
       </c>
       <c r="L776" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M776" t="n">
-        <v>7216</v>
+        <v>7000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>722</v>
+        <v>467</v>
       </c>
       <c r="Q776" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R776" t="inlineStr">
         <is>
@@ -56292,7 +56292,7 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
@@ -56301,32 +56301,32 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>530</v>
+        <v>220</v>
       </c>
       <c r="K777" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L777" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M777" t="n">
-        <v>11472</v>
+        <v>7216</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>765</v>
+        <v>722</v>
       </c>
       <c r="Q777" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56364,7 +56364,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -56373,16 +56373,16 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="K778" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L778" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M778" t="n">
-        <v>7214</v>
+        <v>11472</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56391,11 +56391,11 @@
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>481</v>
+        <v>765</v>
       </c>
       <c r="Q778" t="n">
         <v>15</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -56436,7 +56436,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -56445,32 +56445,32 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K779" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L779" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M779" t="n">
-        <v>8000</v>
+        <v>7214</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>800</v>
+        <v>481</v>
       </c>
       <c r="Q779" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56508,7 +56508,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -56517,20 +56517,20 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K780" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L780" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M780" t="n">
-        <v>10571</v>
+        <v>8000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
@@ -56539,10 +56539,10 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>705</v>
+        <v>800</v>
       </c>
       <c r="Q780" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R780" t="inlineStr">
         <is>
@@ -56580,7 +56580,7 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
@@ -56589,16 +56589,16 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="K781" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L781" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M781" t="n">
-        <v>8000</v>
+        <v>10571</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>533</v>
+        <v>705</v>
       </c>
       <c r="Q781" t="n">
         <v>15</v>
@@ -56652,7 +56652,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -56661,7 +56661,7 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K782" t="n">
         <v>8000</v>
@@ -56724,7 +56724,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -56733,7 +56733,7 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K783" t="n">
         <v>8000</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -56796,7 +56796,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -56805,16 +56805,16 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K784" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L784" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M784" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q784" t="n">
         <v>15</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -56868,7 +56868,7 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -56877,32 +56877,32 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="K785" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L785" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M785" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q785" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R785" t="inlineStr">
         <is>
@@ -56940,7 +56940,7 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
@@ -56949,7 +56949,7 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>550</v>
+        <v>125</v>
       </c>
       <c r="K786" t="n">
         <v>8000</v>
@@ -56962,19 +56962,19 @@
       </c>
       <c r="N786" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q786" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R786" t="inlineStr">
         <is>
@@ -57021,7 +57021,7 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K787" t="n">
         <v>8000</v>
@@ -57039,7 +57039,7 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P787" t="n">
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E788" t="n">
         <v>9</v>
@@ -57084,7 +57084,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -57093,32 +57093,32 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="K788" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L788" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M788" t="n">
-        <v>6429</v>
+        <v>8000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Q788" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57156,7 +57156,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -57165,32 +57165,32 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="K789" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L789" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M789" t="n">
-        <v>8455</v>
+        <v>6429</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="Q789" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57237,16 +57237,16 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K790" t="n">
         <v>8000</v>
       </c>
       <c r="L790" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M790" t="n">
-        <v>8000</v>
+        <v>8455</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57255,11 +57255,11 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="Q790" t="n">
         <v>15</v>
@@ -57300,7 +57300,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -57309,20 +57309,20 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K791" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L791" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M791" t="n">
-        <v>6545</v>
+        <v>8000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O791" t="inlineStr">
@@ -57331,10 +57331,10 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="Q791" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R791" t="inlineStr">
         <is>
@@ -57372,7 +57372,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -57381,7 +57381,7 @@
         </is>
       </c>
       <c r="J792" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K792" t="n">
         <v>6000</v>
@@ -57390,7 +57390,7 @@
         <v>7000</v>
       </c>
       <c r="M792" t="n">
-        <v>6583</v>
+        <v>6545</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q792" t="n">
         <v>12</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E793" t="n">
         <v>9</v>
@@ -57444,7 +57444,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -57453,32 +57453,32 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="K793" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L793" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M793" t="n">
-        <v>12000</v>
+        <v>6583</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>800</v>
+        <v>549</v>
       </c>
       <c r="Q793" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="K794" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L794" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M794" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q794" t="n">
         <v>15</v>
@@ -57588,25 +57588,25 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K795" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L795" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M795" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q795" t="n">
         <v>15</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -57660,7 +57660,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -57669,7 +57669,7 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K796" t="n">
         <v>7000</v>
@@ -57682,7 +57682,7 @@
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
@@ -57691,10 +57691,10 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q796" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R796" t="inlineStr">
         <is>
@@ -57732,7 +57732,7 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -57741,32 +57741,32 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K797" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L797" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M797" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q797" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57813,7 +57813,7 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K798" t="n">
         <v>8000</v>
@@ -57831,7 +57831,7 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P798" t="n">
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -57885,16 +57885,16 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K799" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L799" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M799" t="n">
-        <v>4545</v>
+        <v>8000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>303</v>
+        <v>533</v>
       </c>
       <c r="Q799" t="n">
         <v>15</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="K800" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L800" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M800" t="n">
-        <v>3000</v>
+        <v>4545</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="Q800" t="n">
         <v>15</v>
@@ -58020,29 +58020,29 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K801" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L801" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M801" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
@@ -58051,10 +58051,10 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="Q801" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R801" t="inlineStr">
         <is>
@@ -58092,7 +58092,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -58101,7 +58101,7 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K802" t="n">
         <v>4000</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E803" t="n">
         <v>9</v>
@@ -58164,7 +58164,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -58173,32 +58173,32 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>365</v>
+        <v>100</v>
       </c>
       <c r="K803" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L803" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M803" t="n">
-        <v>7575</v>
+        <v>4000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>758</v>
+        <v>333</v>
       </c>
       <c r="Q803" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R803" t="inlineStr">
         <is>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -58245,7 +58245,7 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>650</v>
+        <v>365</v>
       </c>
       <c r="K804" t="n">
         <v>7000</v>
@@ -58254,25 +58254,97 @@
         <v>8000</v>
       </c>
       <c r="M804" t="n">
+        <v>7575</v>
+      </c>
+      <c r="N804" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O804" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P804" t="n">
+        <v>758</v>
+      </c>
+      <c r="Q804" t="n">
+        <v>10</v>
+      </c>
+      <c r="R804" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>10</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D805" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E805" t="n">
+        <v>9</v>
+      </c>
+      <c r="F805" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J805" t="n">
+        <v>650</v>
+      </c>
+      <c r="K805" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L805" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M805" t="n">
         <v>7462</v>
       </c>
-      <c r="N804" t="inlineStr">
+      <c r="N805" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O804" t="inlineStr">
+      <c r="O805" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P804" t="n">
+      <c r="P805" t="n">
         <v>497</v>
       </c>
-      <c r="Q804" t="n">
+      <c r="Q805" t="n">
         <v>15</v>
       </c>
-      <c r="R804" t="inlineStr">
+      <c r="R805" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R813"/>
+  <dimension ref="A1:R818"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E693" t="n">
         <v>9</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,32 +50253,32 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K693" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L693" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M693" t="n">
-        <v>6364</v>
+        <v>4500</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="Q693" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E694" t="n">
         <v>9</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,32 +50325,32 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>365</v>
+        <v>100</v>
       </c>
       <c r="K694" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L694" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M694" t="n">
-        <v>7575</v>
+        <v>6000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>758</v>
+        <v>400</v>
       </c>
       <c r="Q694" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E695" t="n">
         <v>9</v>
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="K695" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L695" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M695" t="n">
-        <v>7462</v>
+        <v>6000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>497</v>
+        <v>400</v>
       </c>
       <c r="Q695" t="n">
         <v>15</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44272</v>
+        <v>44522</v>
       </c>
       <c r="E696" t="n">
         <v>9</v>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,16 +50469,16 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K696" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L696" t="n">
         <v>6000</v>
       </c>
       <c r="M696" t="n">
-        <v>6000</v>
+        <v>5556</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="Q696" t="n">
         <v>12</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44272</v>
+        <v>44522</v>
       </c>
       <c r="E697" t="n">
         <v>9</v>
@@ -50541,32 +50541,32 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K697" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L697" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M697" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q697" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44305</v>
+        <v>44246</v>
       </c>
       <c r="E698" t="n">
         <v>9</v>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -50613,32 +50613,32 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>125</v>
+        <v>330</v>
       </c>
       <c r="K698" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L698" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M698" t="n">
-        <v>8000</v>
+        <v>6364</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>800</v>
+        <v>424</v>
       </c>
       <c r="Q698" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E699" t="n">
         <v>9</v>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,32 +50685,32 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>125</v>
+        <v>365</v>
       </c>
       <c r="K699" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L699" t="n">
         <v>8000</v>
       </c>
       <c r="M699" t="n">
-        <v>8000</v>
+        <v>7575</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>533</v>
+        <v>758</v>
       </c>
       <c r="Q699" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E700" t="n">
         <v>9</v>
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="K700" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L700" t="n">
         <v>8000</v>
       </c>
       <c r="M700" t="n">
-        <v>8000</v>
+        <v>7462</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="Q700" t="n">
         <v>15</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E701" t="n">
         <v>9</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,20 +50829,20 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K701" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L701" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M701" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
@@ -50851,10 +50851,10 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q701" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E702" t="n">
         <v>9</v>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50901,32 +50901,32 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K702" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L702" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M702" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q702" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E703" t="n">
         <v>9</v>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,32 +50973,32 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>650</v>
+        <v>125</v>
       </c>
       <c r="K703" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L703" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M703" t="n">
-        <v>3692</v>
+        <v>8000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>246</v>
+        <v>800</v>
       </c>
       <c r="Q703" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E704" t="n">
         <v>9</v>
@@ -51036,7 +51036,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -51045,20 +51045,20 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K704" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L704" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M704" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
@@ -51067,10 +51067,10 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q704" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E705" t="n">
         <v>9</v>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51117,32 +51117,32 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>85</v>
+        <v>750</v>
       </c>
       <c r="K705" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L705" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M705" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q705" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E706" t="n">
         <v>9</v>
@@ -51189,20 +51189,20 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="K706" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L706" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M706" t="n">
-        <v>6533</v>
+        <v>4000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
@@ -51211,10 +51211,10 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="Q706" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E707" t="n">
         <v>9</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,32 +51261,32 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="K707" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L707" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M707" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q707" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E708" t="n">
         <v>9</v>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51333,20 +51333,20 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>45</v>
+        <v>650</v>
       </c>
       <c r="K708" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L708" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M708" t="n">
-        <v>6000</v>
+        <v>3692</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
@@ -51355,10 +51355,10 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>500</v>
+        <v>246</v>
       </c>
       <c r="Q708" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E709" t="n">
         <v>9</v>
@@ -51396,7 +51396,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -51405,16 +51405,16 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K709" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L709" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M709" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q709" t="n">
         <v>12</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E710" t="n">
         <v>9</v>
@@ -51468,7 +51468,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -51477,32 +51477,32 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K710" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L710" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M710" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="Q710" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E711" t="n">
         <v>9</v>
@@ -51545,36 +51545,36 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K711" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L711" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M711" t="n">
-        <v>5000</v>
+        <v>6533</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="Q711" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E712" t="n">
         <v>9</v>
@@ -51621,16 +51621,16 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>735</v>
+        <v>250</v>
       </c>
       <c r="K712" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L712" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M712" t="n">
-        <v>11476</v>
+        <v>8000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>765</v>
+        <v>533</v>
       </c>
       <c r="Q712" t="n">
         <v>15</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E713" t="n">
         <v>9</v>
@@ -51693,32 +51693,32 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="K713" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L713" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M713" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q713" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R713" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E714" t="n">
         <v>9</v>
@@ -51756,41 +51756,41 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K714" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L714" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M714" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q714" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E715" t="n">
         <v>9</v>
@@ -51828,7 +51828,7 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
@@ -51837,32 +51837,32 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K715" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L715" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M715" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="Q715" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E716" t="n">
         <v>9</v>
@@ -51900,29 +51900,29 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="K716" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L716" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M716" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
@@ -51931,10 +51931,10 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q716" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E717" t="n">
         <v>9</v>
@@ -51972,7 +51972,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -51981,16 +51981,16 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>300</v>
+        <v>735</v>
       </c>
       <c r="K717" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L717" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M717" t="n">
-        <v>9000</v>
+        <v>11476</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>600</v>
+        <v>765</v>
       </c>
       <c r="Q717" t="n">
         <v>15</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E718" t="n">
         <v>9</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52053,32 +52053,32 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K718" t="n">
         <v>7000</v>
       </c>
       <c r="L718" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M718" t="n">
-        <v>7471</v>
+        <v>7000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>747</v>
+        <v>467</v>
       </c>
       <c r="Q718" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
@@ -52116,41 +52116,41 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="K719" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L719" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M719" t="n">
-        <v>7483</v>
+        <v>5000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>748</v>
+        <v>333</v>
       </c>
       <c r="Q719" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E720" t="n">
         <v>9</v>
@@ -52197,16 +52197,16 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K720" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L720" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M720" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="Q720" t="n">
         <v>15</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E721" t="n">
         <v>9</v>
@@ -52260,7 +52260,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -52269,16 +52269,16 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K721" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L721" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M721" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="Q721" t="n">
         <v>15</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E722" t="n">
         <v>9</v>
@@ -52332,7 +52332,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -52341,16 +52341,16 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K722" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L722" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M722" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q722" t="n">
         <v>15</v>
@@ -52404,7 +52404,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
@@ -52413,32 +52413,32 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="K723" t="n">
         <v>7000</v>
       </c>
       <c r="L723" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M723" t="n">
-        <v>7000</v>
+        <v>7471</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>467</v>
+        <v>747</v>
       </c>
       <c r="Q723" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52476,7 +52476,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -52485,20 +52485,20 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="K724" t="n">
         <v>7000</v>
       </c>
       <c r="L724" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M724" t="n">
-        <v>7227</v>
+        <v>7483</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
@@ -52507,10 +52507,10 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>482</v>
+        <v>748</v>
       </c>
       <c r="Q724" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R724" t="inlineStr">
         <is>
@@ -52548,7 +52548,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -52557,16 +52557,16 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K725" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L725" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M725" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="Q725" t="n">
         <v>15</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E726" t="n">
         <v>9</v>
@@ -52620,7 +52620,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -52629,7 +52629,7 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="K726" t="n">
         <v>8000</v>
@@ -52642,19 +52642,19 @@
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q726" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E727" t="n">
         <v>9</v>
@@ -52692,7 +52692,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
@@ -52701,16 +52701,16 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K727" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L727" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M727" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="Q727" t="n">
         <v>15</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E728" t="n">
         <v>9</v>
@@ -52773,16 +52773,16 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K728" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L728" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M728" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q728" t="n">
         <v>15</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E729" t="n">
         <v>9</v>
@@ -52845,16 +52845,16 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K729" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L729" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M729" t="n">
-        <v>8000</v>
+        <v>7227</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52867,7 +52867,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>533</v>
+        <v>482</v>
       </c>
       <c r="Q729" t="n">
         <v>15</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E730" t="n">
         <v>9</v>
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="K730" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L730" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M730" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="Q730" t="n">
         <v>15</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E731" t="n">
         <v>9</v>
@@ -52989,16 +52989,16 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K731" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L731" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M731" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q731" t="n">
         <v>10</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E732" t="n">
         <v>9</v>
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>650</v>
+        <v>155</v>
       </c>
       <c r="K732" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L732" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M732" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="Q732" t="n">
         <v>15</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E733" t="n">
         <v>9</v>
@@ -53124,7 +53124,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -53133,16 +53133,16 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c r="K733" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L733" t="n">
         <v>8000</v>
       </c>
       <c r="M733" t="n">
-        <v>7735</v>
+        <v>8000</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="Q733" t="n">
         <v>15</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E734" t="n">
         <v>9</v>
@@ -53196,7 +53196,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -53205,7 +53205,7 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>750</v>
+        <v>95</v>
       </c>
       <c r="K734" t="n">
         <v>8000</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E735" t="n">
         <v>9</v>
@@ -53277,20 +53277,20 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="K735" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L735" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M735" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
@@ -53299,10 +53299,10 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="Q735" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E736" t="n">
         <v>9</v>
@@ -53349,7 +53349,7 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K736" t="n">
         <v>7000</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E737" t="n">
         <v>9</v>
@@ -53421,16 +53421,16 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="K737" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L737" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M737" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53439,11 +53439,11 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q737" t="n">
         <v>15</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E738" t="n">
         <v>9</v>
@@ -53493,16 +53493,16 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K738" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L738" t="n">
         <v>8000</v>
       </c>
-      <c r="L738" t="n">
-        <v>9500</v>
-      </c>
       <c r="M738" t="n">
-        <v>8523</v>
+        <v>7735</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>568</v>
+        <v>516</v>
       </c>
       <c r="Q738" t="n">
         <v>15</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="E739" t="n">
         <v>9</v>
@@ -53556,7 +53556,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -53565,32 +53565,32 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K739" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L739" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M739" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="Q739" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R739" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="E740" t="n">
         <v>9</v>
@@ -53628,7 +53628,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -53637,32 +53637,32 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="K740" t="n">
         <v>7000</v>
       </c>
       <c r="L740" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M740" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q740" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44327</v>
+        <v>44495</v>
       </c>
       <c r="E741" t="n">
         <v>9</v>
@@ -53700,7 +53700,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -53709,32 +53709,32 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="K741" t="n">
         <v>7000</v>
       </c>
       <c r="L741" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M741" t="n">
-        <v>7238</v>
+        <v>7000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>483</v>
+        <v>700</v>
       </c>
       <c r="Q741" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R741" t="inlineStr">
         <is>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44327</v>
+        <v>44495</v>
       </c>
       <c r="E742" t="n">
         <v>9</v>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K742" t="n">
         <v>7000</v>
       </c>
       <c r="L742" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M742" t="n">
-        <v>7222</v>
+        <v>7000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="Q742" t="n">
         <v>15</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E743" t="n">
         <v>9</v>
@@ -53844,7 +53844,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -53853,32 +53853,32 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="K743" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L743" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M743" t="n">
-        <v>6444</v>
+        <v>8523</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>644</v>
+        <v>568</v>
       </c>
       <c r="Q743" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R743" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E744" t="n">
         <v>9</v>
@@ -53921,20 +53921,20 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K744" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L744" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M744" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q744" t="n">
         <v>10</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E745" t="n">
         <v>9</v>
@@ -53988,7 +53988,7 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
@@ -53997,16 +53997,16 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="K745" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L745" t="n">
         <v>8000</v>
       </c>
       <c r="M745" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54015,11 +54015,11 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="Q745" t="n">
         <v>15</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E746" t="n">
         <v>9</v>
@@ -54060,7 +54060,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -54069,16 +54069,16 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="K746" t="n">
         <v>7000</v>
       </c>
       <c r="L746" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M746" t="n">
-        <v>7000</v>
+        <v>7238</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54087,11 +54087,11 @@
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="Q746" t="n">
         <v>15</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E747" t="n">
         <v>9</v>
@@ -54132,25 +54132,25 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="K747" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L747" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M747" t="n">
-        <v>4556</v>
+        <v>7222</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>304</v>
+        <v>481</v>
       </c>
       <c r="Q747" t="n">
         <v>15</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E748" t="n">
         <v>9</v>
@@ -54213,16 +54213,16 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="K748" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L748" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M748" t="n">
-        <v>4417</v>
+        <v>6444</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54235,7 +54235,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>442</v>
+        <v>644</v>
       </c>
       <c r="Q748" t="n">
         <v>10</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E749" t="n">
         <v>9</v>
@@ -54281,36 +54281,36 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K749" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L749" t="n">
         <v>5000</v>
       </c>
       <c r="M749" t="n">
-        <v>4444</v>
+        <v>5000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="Q749" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R749" t="inlineStr">
         <is>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E750" t="n">
         <v>9</v>
@@ -54357,16 +54357,16 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K750" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L750" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M750" t="n">
-        <v>3727</v>
+        <v>8000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54375,11 +54375,11 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>248</v>
+        <v>533</v>
       </c>
       <c r="Q750" t="n">
         <v>15</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E751" t="n">
         <v>9</v>
@@ -54429,16 +54429,16 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K751" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L751" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M751" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>300</v>
+        <v>467</v>
       </c>
       <c r="Q751" t="n">
         <v>15</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E752" t="n">
         <v>9</v>
@@ -54492,41 +54492,41 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K752" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L752" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M752" t="n">
-        <v>3400</v>
+        <v>4556</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="Q752" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R752" t="inlineStr">
         <is>
@@ -54564,7 +54564,7 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -54573,32 +54573,32 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K753" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L753" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M753" t="n">
-        <v>3500</v>
+        <v>4417</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="Q753" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R753" t="inlineStr">
         <is>
@@ -54636,7 +54636,7 @@
       </c>
       <c r="H754" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
@@ -54645,32 +54645,32 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K754" t="n">
         <v>4000</v>
       </c>
       <c r="L754" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M754" t="n">
-        <v>4000</v>
+        <v>4444</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>267</v>
+        <v>370</v>
       </c>
       <c r="Q754" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R754" t="inlineStr">
         <is>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E755" t="n">
         <v>9</v>
@@ -54717,16 +54717,16 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="K755" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L755" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M755" t="n">
-        <v>10000</v>
+        <v>3727</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>667</v>
+        <v>248</v>
       </c>
       <c r="Q755" t="n">
         <v>15</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E756" t="n">
         <v>9</v>
@@ -54789,16 +54789,16 @@
         </is>
       </c>
       <c r="J756" t="n">
-        <v>155</v>
+        <v>1600</v>
       </c>
       <c r="K756" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L756" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M756" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54807,11 +54807,11 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q756" t="n">
         <v>15</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E757" t="n">
         <v>9</v>
@@ -54861,16 +54861,16 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="K757" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L757" t="n">
         <v>4000</v>
       </c>
       <c r="M757" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54883,7 +54883,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="Q757" t="n">
         <v>12</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E758" t="n">
         <v>9</v>
@@ -54933,16 +54933,16 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="K758" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L758" t="n">
         <v>4000</v>
       </c>
       <c r="M758" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Q758" t="n">
         <v>12</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E759" t="n">
         <v>9</v>
@@ -54996,7 +54996,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -55005,7 +55005,7 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="K759" t="n">
         <v>4000</v>
@@ -55018,19 +55018,19 @@
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="Q759" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44391</v>
+        <v>44468</v>
       </c>
       <c r="E760" t="n">
         <v>9</v>
@@ -55068,7 +55068,7 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -55077,32 +55077,32 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="K760" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L760" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M760" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q760" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E761" t="n">
         <v>9</v>
@@ -55149,16 +55149,16 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="K761" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L761" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M761" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="Q761" t="n">
         <v>15</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E762" t="n">
         <v>9</v>
@@ -55212,7 +55212,7 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
@@ -55221,20 +55221,20 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="K762" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L762" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M762" t="n">
-        <v>6273</v>
+        <v>4000</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
@@ -55243,10 +55243,10 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>418</v>
+        <v>333</v>
       </c>
       <c r="Q762" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R762" t="inlineStr">
         <is>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E763" t="n">
         <v>9</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
@@ -55365,7 +55365,7 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="K764" t="n">
         <v>4000</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E765" t="n">
         <v>9</v>
@@ -55437,16 +55437,16 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K765" t="n">
         <v>7000</v>
       </c>
       <c r="L765" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M765" t="n">
-        <v>7217</v>
+        <v>7000</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="Q765" t="n">
         <v>10</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E766" t="n">
         <v>9</v>
@@ -55509,16 +55509,16 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>755</v>
+        <v>250</v>
       </c>
       <c r="K766" t="n">
         <v>10000</v>
       </c>
       <c r="L766" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M766" t="n">
-        <v>10331</v>
+        <v>10000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="Q766" t="n">
         <v>15</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -55572,7 +55572,7 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
@@ -55581,32 +55581,32 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>65</v>
+        <v>550</v>
       </c>
       <c r="K767" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L767" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M767" t="n">
-        <v>7500</v>
+        <v>6273</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q767" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R767" t="inlineStr">
         <is>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E768" t="n">
         <v>9</v>
@@ -55644,7 +55644,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -55653,32 +55653,32 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="K768" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L768" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M768" t="n">
-        <v>7224</v>
+        <v>4000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>482</v>
+        <v>333</v>
       </c>
       <c r="Q768" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R768" t="inlineStr">
         <is>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E769" t="n">
         <v>9</v>
@@ -55716,7 +55716,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -55725,32 +55725,32 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K769" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L769" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M769" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q769" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -55788,7 +55788,7 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
@@ -55797,32 +55797,32 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="K770" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L770" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M770" t="n">
-        <v>9361</v>
+        <v>7217</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>624</v>
+        <v>722</v>
       </c>
       <c r="Q770" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E771" t="n">
         <v>9</v>
@@ -55860,7 +55860,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -55869,32 +55869,32 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>500</v>
+        <v>755</v>
       </c>
       <c r="K771" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L771" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M771" t="n">
-        <v>7200</v>
+        <v>10331</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>720</v>
+        <v>689</v>
       </c>
       <c r="Q771" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R771" t="inlineStr">
         <is>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -55932,7 +55932,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -55941,20 +55941,20 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>450</v>
+        <v>65</v>
       </c>
       <c r="K772" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L772" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M772" t="n">
-        <v>10556</v>
+        <v>7500</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
@@ -55963,10 +55963,10 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>704</v>
+        <v>417</v>
       </c>
       <c r="Q772" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -56004,7 +56004,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -56013,16 +56013,16 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>1300</v>
+        <v>145</v>
       </c>
       <c r="K773" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L773" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M773" t="n">
-        <v>9615</v>
+        <v>7224</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>641</v>
+        <v>482</v>
       </c>
       <c r="Q773" t="n">
         <v>15</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -56076,7 +56076,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -56085,16 +56085,16 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="K774" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L774" t="n">
         <v>7500</v>
       </c>
       <c r="M774" t="n">
-        <v>7222</v>
+        <v>7500</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="Q774" t="n">
         <v>15</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -56148,7 +56148,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -56157,16 +56157,16 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K775" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L775" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M775" t="n">
-        <v>7250</v>
+        <v>9361</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56175,11 +56175,11 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>483</v>
+        <v>624</v>
       </c>
       <c r="Q775" t="n">
         <v>15</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -56229,16 +56229,16 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="K776" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L776" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M776" t="n">
-        <v>6471</v>
+        <v>7200</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>647</v>
+        <v>720</v>
       </c>
       <c r="Q776" t="n">
         <v>10</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -56292,7 +56292,7 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
@@ -56301,32 +56301,32 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K777" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L777" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M777" t="n">
-        <v>6000</v>
+        <v>10556</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>600</v>
+        <v>704</v>
       </c>
       <c r="Q777" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -56373,16 +56373,16 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="K778" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L778" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M778" t="n">
-        <v>6000</v>
+        <v>9615</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>400</v>
+        <v>641</v>
       </c>
       <c r="Q778" t="n">
         <v>15</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -56436,7 +56436,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -56445,32 +56445,32 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="K779" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L779" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M779" t="n">
-        <v>6000</v>
+        <v>7222</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="Q779" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -56517,16 +56517,16 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="K780" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L780" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M780" t="n">
-        <v>6435</v>
+        <v>7250</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56539,7 +56539,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="Q780" t="n">
         <v>15</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -56589,16 +56589,16 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="K781" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L781" t="n">
         <v>7000</v>
       </c>
       <c r="M781" t="n">
-        <v>7000</v>
+        <v>6471</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>700</v>
+        <v>647</v>
       </c>
       <c r="Q781" t="n">
         <v>10</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E782" t="n">
         <v>9</v>
@@ -56652,7 +56652,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -56661,32 +56661,32 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="K782" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L782" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M782" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="Q782" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R782" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E783" t="n">
         <v>9</v>
@@ -56724,7 +56724,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="K783" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L783" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M783" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q783" t="n">
         <v>15</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -56796,7 +56796,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -56808,29 +56808,29 @@
         <v>125</v>
       </c>
       <c r="K784" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L784" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M784" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="Q784" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R784" t="inlineStr">
         <is>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -56868,7 +56868,7 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -56877,16 +56877,16 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>430</v>
+        <v>115</v>
       </c>
       <c r="K785" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L785" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M785" t="n">
-        <v>12581</v>
+        <v>6435</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56895,11 +56895,11 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>839</v>
+        <v>429</v>
       </c>
       <c r="Q785" t="n">
         <v>15</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E786" t="n">
         <v>9</v>
@@ -56940,7 +56940,7 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
@@ -56949,32 +56949,32 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K786" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L786" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M786" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q786" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R786" t="inlineStr">
         <is>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E787" t="n">
         <v>9</v>
@@ -57012,7 +57012,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -57021,16 +57021,16 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="K787" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L787" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M787" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="Q787" t="n">
         <v>15</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44181</v>
+        <v>44330</v>
       </c>
       <c r="E788" t="n">
         <v>9</v>
@@ -57084,7 +57084,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -57093,20 +57093,20 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K788" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L788" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M788" t="n">
-        <v>4240</v>
+        <v>7000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
@@ -57115,10 +57115,10 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="Q788" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E789" t="n">
         <v>9</v>
@@ -57156,7 +57156,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -57165,32 +57165,32 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K789" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L789" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M789" t="n">
-        <v>3742</v>
+        <v>9000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>249</v>
+        <v>900</v>
       </c>
       <c r="Q789" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E790" t="n">
         <v>9</v>
@@ -57228,7 +57228,7 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
@@ -57237,32 +57237,32 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>35</v>
+        <v>430</v>
       </c>
       <c r="K790" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L790" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M790" t="n">
-        <v>4000</v>
+        <v>12581</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>333</v>
+        <v>839</v>
       </c>
       <c r="Q790" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R790" t="inlineStr">
         <is>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E791" t="n">
         <v>9</v>
@@ -57300,7 +57300,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -57309,16 +57309,16 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>740</v>
+        <v>125</v>
       </c>
       <c r="K791" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L791" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M791" t="n">
-        <v>5753</v>
+        <v>9000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>384</v>
+        <v>600</v>
       </c>
       <c r="Q791" t="n">
         <v>15</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E792" t="n">
         <v>9</v>
@@ -57372,7 +57372,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -57381,32 +57381,32 @@
         </is>
       </c>
       <c r="J792" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K792" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L792" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M792" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q792" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R792" t="inlineStr">
         <is>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E793" t="n">
         <v>9</v>
@@ -57453,32 +57453,32 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="K793" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L793" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M793" t="n">
-        <v>6000</v>
+        <v>4240</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>500</v>
+        <v>424</v>
       </c>
       <c r="Q793" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E794" t="n">
         <v>9</v>
@@ -57525,16 +57525,16 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K794" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L794" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M794" t="n">
-        <v>6000</v>
+        <v>3742</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>400</v>
+        <v>249</v>
       </c>
       <c r="Q794" t="n">
         <v>15</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E795" t="n">
         <v>9</v>
@@ -57588,7 +57588,7 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -57597,20 +57597,20 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K795" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L795" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M795" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O795" t="inlineStr">
@@ -57619,10 +57619,10 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="Q795" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R795" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -57660,7 +57660,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -57669,20 +57669,20 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>80</v>
+        <v>740</v>
       </c>
       <c r="K796" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L796" t="n">
         <v>6000</v>
       </c>
       <c r="M796" t="n">
-        <v>6000</v>
+        <v>5753</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
@@ -57691,10 +57691,10 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>500</v>
+        <v>384</v>
       </c>
       <c r="Q796" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R796" t="inlineStr">
         <is>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E797" t="n">
         <v>9</v>
@@ -57732,7 +57732,7 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -57741,7 +57741,7 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K797" t="n">
         <v>6000</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -57813,32 +57813,32 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="K798" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L798" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M798" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q798" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R798" t="inlineStr">
         <is>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -57885,16 +57885,16 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K799" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L799" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M799" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q799" t="n">
         <v>15</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E800" t="n">
         <v>9</v>
@@ -57957,16 +57957,16 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="K800" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L800" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M800" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q800" t="n">
         <v>15</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E801" t="n">
         <v>9</v>
@@ -58020,7 +58020,7 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -58029,32 +58029,32 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K801" t="n">
         <v>6000</v>
       </c>
       <c r="L801" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M801" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q801" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R801" t="inlineStr">
         <is>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E802" t="n">
         <v>9</v>
@@ -58092,7 +58092,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -58101,32 +58101,32 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K802" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L802" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M802" t="n">
-        <v>9556</v>
+        <v>6000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>637</v>
+        <v>500</v>
       </c>
       <c r="Q802" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R802" t="inlineStr">
         <is>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E803" t="n">
         <v>9</v>
@@ -58173,7 +58173,7 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="K803" t="n">
         <v>8000</v>
@@ -58191,7 +58191,7 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P803" t="n">
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -58245,7 +58245,7 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="K804" t="n">
         <v>8000</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -58317,7 +58317,7 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>255</v>
+        <v>600</v>
       </c>
       <c r="K805" t="n">
         <v>8000</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -58380,7 +58380,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -58389,32 +58389,32 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="K806" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L806" t="n">
         <v>7000</v>
       </c>
       <c r="M806" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>467</v>
+        <v>650</v>
       </c>
       <c r="Q806" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R806" t="inlineStr">
         <is>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E807" t="n">
         <v>9</v>
@@ -58452,7 +58452,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -58461,32 +58461,32 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K807" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L807" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M807" t="n">
-        <v>7000</v>
+        <v>9556</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>700</v>
+        <v>637</v>
       </c>
       <c r="Q807" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E808" t="n">
         <v>9</v>
@@ -58524,7 +58524,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
@@ -58533,32 +58533,32 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>1900</v>
+        <v>450</v>
       </c>
       <c r="K808" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L808" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M808" t="n">
-        <v>6474</v>
+        <v>8000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>432</v>
+        <v>800</v>
       </c>
       <c r="Q808" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R808" t="inlineStr">
         <is>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E809" t="n">
         <v>9</v>
@@ -58596,7 +58596,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -58605,16 +58605,16 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="K809" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L809" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M809" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q809" t="n">
         <v>15</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E810" t="n">
         <v>9</v>
@@ -58668,7 +58668,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -58677,16 +58677,16 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="K810" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L810" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M810" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q810" t="n">
         <v>15</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E811" t="n">
         <v>9</v>
@@ -58740,7 +58740,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -58749,16 +58749,16 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="K811" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L811" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M811" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q811" t="n">
         <v>15</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E812" t="n">
         <v>9</v>
@@ -58812,7 +58812,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -58821,32 +58821,32 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K812" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L812" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M812" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="Q812" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R812" t="inlineStr">
         <is>
@@ -58869,58 +58869,418 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E813" t="n">
+        <v>9</v>
+      </c>
+      <c r="F813" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G813" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J813" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K813" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L813" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M813" t="n">
+        <v>6474</v>
+      </c>
+      <c r="N813" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O813" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P813" t="n">
+        <v>432</v>
+      </c>
+      <c r="Q813" t="n">
+        <v>15</v>
+      </c>
+      <c r="R813" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>10</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D814" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E814" t="n">
+        <v>9</v>
+      </c>
+      <c r="F814" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I814" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J814" t="n">
+        <v>150</v>
+      </c>
+      <c r="K814" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L814" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M814" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N814" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O814" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P814" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q814" t="n">
+        <v>15</v>
+      </c>
+      <c r="R814" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>10</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D815" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E815" t="n">
+        <v>9</v>
+      </c>
+      <c r="F815" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J815" t="n">
+        <v>200</v>
+      </c>
+      <c r="K815" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L815" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M815" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N815" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O815" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P815" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q815" t="n">
+        <v>15</v>
+      </c>
+      <c r="R815" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>10</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D816" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E813" t="n">
-        <v>9</v>
-      </c>
-      <c r="F813" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G813" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H813" t="inlineStr">
+      <c r="E816" t="n">
+        <v>9</v>
+      </c>
+      <c r="F816" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J816" t="n">
+        <v>200</v>
+      </c>
+      <c r="K816" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L816" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M816" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N816" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O816" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P816" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q816" t="n">
+        <v>15</v>
+      </c>
+      <c r="R816" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>10</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D817" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E817" t="n">
+        <v>9</v>
+      </c>
+      <c r="F817" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G817" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J817" t="n">
+        <v>150</v>
+      </c>
+      <c r="K817" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L817" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M817" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N817" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O817" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P817" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q817" t="n">
+        <v>12</v>
+      </c>
+      <c r="R817" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>10</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D818" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E818" t="n">
+        <v>9</v>
+      </c>
+      <c r="F818" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H818" t="inlineStr">
         <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I813" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J813" t="n">
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J818" t="n">
         <v>150</v>
       </c>
-      <c r="K813" t="n">
+      <c r="K818" t="n">
         <v>4000</v>
       </c>
-      <c r="L813" t="n">
+      <c r="L818" t="n">
         <v>4000</v>
       </c>
-      <c r="M813" t="n">
+      <c r="M818" t="n">
         <v>4000</v>
       </c>
-      <c r="N813" t="inlineStr">
+      <c r="N818" t="inlineStr">
         <is>
           <t>$/caja 12 unidades</t>
         </is>
       </c>
-      <c r="O813" t="inlineStr">
+      <c r="O818" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P813" t="n">
+      <c r="P818" t="n">
         <v>333</v>
       </c>
-      <c r="Q813" t="n">
+      <c r="Q818" t="n">
         <v>12</v>
       </c>
-      <c r="R813" t="inlineStr">
+      <c r="R818" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R821"/>
+  <dimension ref="A1:R822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E608" t="n">
         <v>9</v>
@@ -44124,7 +44124,7 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -44133,20 +44133,20 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>135</v>
+        <v>700</v>
       </c>
       <c r="K608" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L608" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M608" t="n">
-        <v>4241</v>
+        <v>5000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
@@ -44155,10 +44155,10 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="Q608" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R608" t="inlineStr">
         <is>
@@ -44196,7 +44196,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -44205,32 +44205,32 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>830</v>
+        <v>135</v>
       </c>
       <c r="K609" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L609" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M609" t="n">
-        <v>3771</v>
+        <v>4241</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>251</v>
+        <v>424</v>
       </c>
       <c r="Q609" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E610" t="n">
         <v>9</v>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -44277,32 +44277,32 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>220</v>
+        <v>830</v>
       </c>
       <c r="K610" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L610" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M610" t="n">
-        <v>7216</v>
+        <v>3771</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>722</v>
+        <v>251</v>
       </c>
       <c r="Q610" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R610" t="inlineStr">
         <is>
@@ -44340,7 +44340,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -44349,32 +44349,32 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>530</v>
+        <v>220</v>
       </c>
       <c r="K611" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L611" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M611" t="n">
-        <v>11472</v>
+        <v>7216</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>765</v>
+        <v>722</v>
       </c>
       <c r="Q611" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
@@ -44412,7 +44412,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="K612" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L612" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M612" t="n">
-        <v>7214</v>
+        <v>11472</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>481</v>
+        <v>765</v>
       </c>
       <c r="Q612" t="n">
         <v>15</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E613" t="n">
         <v>9</v>
@@ -44484,7 +44484,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="K613" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L613" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M613" t="n">
-        <v>6723</v>
+        <v>7214</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="Q613" t="n">
         <v>15</v>
@@ -44556,7 +44556,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -44565,16 +44565,16 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="K614" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L614" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M614" t="n">
-        <v>5000</v>
+        <v>6723</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>333</v>
+        <v>448</v>
       </c>
       <c r="Q614" t="n">
         <v>15</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44431</v>
+        <v>44242</v>
       </c>
       <c r="E615" t="n">
         <v>9</v>
@@ -44628,7 +44628,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -44637,32 +44637,32 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="K615" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L615" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M615" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>900</v>
+        <v>333</v>
       </c>
       <c r="Q615" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -44709,32 +44709,32 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>1000</v>
+        <v>185</v>
       </c>
       <c r="K616" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L616" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M616" t="n">
-        <v>12550</v>
+        <v>9000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>837</v>
+        <v>900</v>
       </c>
       <c r="Q616" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="K617" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L617" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M617" t="n">
-        <v>7000</v>
+        <v>12550</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>467</v>
+        <v>837</v>
       </c>
       <c r="Q617" t="n">
         <v>15</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E618" t="n">
         <v>9</v>
@@ -44844,7 +44844,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>830</v>
+        <v>110</v>
       </c>
       <c r="K618" t="n">
         <v>7000</v>
       </c>
       <c r="L618" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M618" t="n">
-        <v>7458</v>
+        <v>7000</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="Q618" t="n">
         <v>15</v>
@@ -44916,7 +44916,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -44925,20 +44925,20 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>85</v>
+        <v>830</v>
       </c>
       <c r="K619" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L619" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M619" t="n">
-        <v>5588</v>
+        <v>7458</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -44947,10 +44947,10 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="Q619" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44988,7 +44988,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -44997,7 +44997,7 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K620" t="n">
         <v>5000</v>
@@ -45006,7 +45006,7 @@
         <v>6000</v>
       </c>
       <c r="M620" t="n">
-        <v>5400</v>
+        <v>5588</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="Q620" t="n">
         <v>12</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44426</v>
+        <v>44239</v>
       </c>
       <c r="E621" t="n">
         <v>9</v>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -45069,32 +45069,32 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="K621" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L621" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M621" t="n">
-        <v>13000</v>
+        <v>5400</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>867</v>
+        <v>450</v>
       </c>
       <c r="Q621" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E622" t="n">
         <v>9</v>
@@ -45132,7 +45132,7 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
@@ -45141,32 +45141,32 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>185</v>
+        <v>800</v>
       </c>
       <c r="K622" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L622" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M622" t="n">
-        <v>8351</v>
+        <v>13000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>835</v>
+        <v>867</v>
       </c>
       <c r="Q622" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -45213,32 +45213,32 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>1580</v>
+        <v>185</v>
       </c>
       <c r="K623" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L623" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M623" t="n">
-        <v>11620</v>
+        <v>8351</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>775</v>
+        <v>835</v>
       </c>
       <c r="Q623" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>125</v>
+        <v>1580</v>
       </c>
       <c r="K624" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L624" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M624" t="n">
-        <v>7000</v>
+        <v>11620</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>467</v>
+        <v>775</v>
       </c>
       <c r="Q624" t="n">
         <v>15</v>
@@ -45348,7 +45348,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -45357,7 +45357,7 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="K625" t="n">
         <v>7000</v>
@@ -45375,7 +45375,7 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P625" t="n">
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E626" t="n">
         <v>9</v>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>305</v>
+        <v>75</v>
       </c>
       <c r="K626" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L626" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M626" t="n">
-        <v>10590</v>
+        <v>7000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>706</v>
+        <v>467</v>
       </c>
       <c r="Q626" t="n">
         <v>15</v>
@@ -45492,7 +45492,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="K627" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L627" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M627" t="n">
-        <v>8000</v>
+        <v>10590</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>533</v>
+        <v>706</v>
       </c>
       <c r="Q627" t="n">
         <v>15</v>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -45573,7 +45573,7 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K628" t="n">
         <v>8000</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E629" t="n">
         <v>9</v>
@@ -45636,7 +45636,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -45645,16 +45645,16 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="K629" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L629" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M629" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="Q629" t="n">
         <v>15</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E630" t="n">
         <v>9</v>
@@ -45708,7 +45708,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -45717,20 +45717,20 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="K630" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L630" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M630" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
@@ -45739,10 +45739,10 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q630" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -45789,20 +45789,20 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="K631" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L631" t="n">
         <v>4000</v>
       </c>
       <c r="M631" t="n">
-        <v>3750</v>
+        <v>4000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -45811,10 +45811,10 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q631" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K632" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L632" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M632" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q632" t="n">
         <v>15</v>
@@ -45924,29 +45924,29 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K633" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L633" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M633" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -45955,10 +45955,10 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="Q633" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -46005,7 +46005,7 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="K634" t="n">
         <v>3500</v>
@@ -46014,7 +46014,7 @@
         <v>4000</v>
       </c>
       <c r="M634" t="n">
-        <v>3727</v>
+        <v>3750</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q634" t="n">
         <v>12</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E635" t="n">
         <v>9</v>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46077,20 +46077,20 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="K635" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L635" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M635" t="n">
-        <v>7000</v>
+        <v>3727</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
@@ -46099,10 +46099,10 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>700</v>
+        <v>311</v>
       </c>
       <c r="Q635" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R635" t="inlineStr">
         <is>
@@ -46149,16 +46149,16 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="K636" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L636" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M636" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q636" t="n">
         <v>10</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K637" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L637" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M637" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q637" t="n">
         <v>10</v>
@@ -46284,41 +46284,41 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="K638" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L638" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M638" t="n">
-        <v>8400</v>
+        <v>5000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="Q638" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="K639" t="n">
         <v>8000</v>
       </c>
       <c r="L639" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M639" t="n">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="Q639" t="n">
         <v>15</v>
@@ -46428,7 +46428,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -46437,16 +46437,16 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="K640" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L640" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M640" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46455,11 +46455,11 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q640" t="n">
         <v>15</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44284</v>
+        <v>44301</v>
       </c>
       <c r="E641" t="n">
         <v>9</v>
@@ -46500,7 +46500,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -46509,16 +46509,16 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K641" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L641" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M641" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46527,11 +46527,11 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q641" t="n">
         <v>15</v>
@@ -46572,7 +46572,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -46581,16 +46581,16 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K642" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L642" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M642" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q642" t="n">
         <v>15</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44441</v>
+        <v>44284</v>
       </c>
       <c r="E643" t="n">
         <v>9</v>
@@ -46644,7 +46644,7 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -46653,32 +46653,32 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="K643" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L643" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M643" t="n">
-        <v>8727</v>
+        <v>7000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>873</v>
+        <v>467</v>
       </c>
       <c r="Q643" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46716,7 +46716,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
@@ -46725,32 +46725,32 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>1600</v>
+        <v>550</v>
       </c>
       <c r="K644" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L644" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M644" t="n">
-        <v>11500</v>
+        <v>8727</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>767</v>
+        <v>873</v>
       </c>
       <c r="Q644" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46788,7 +46788,7 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>240</v>
+        <v>1600</v>
       </c>
       <c r="K645" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L645" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M645" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>550</v>
+        <v>767</v>
       </c>
       <c r="Q645" t="n">
         <v>15</v>
@@ -46860,7 +46860,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -46869,16 +46869,16 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K646" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L646" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M646" t="n">
-        <v>7500</v>
+        <v>8250</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q646" t="n">
         <v>15</v>
@@ -46932,7 +46932,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -46941,7 +46941,7 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K647" t="n">
         <v>7000</v>
@@ -46950,7 +46950,7 @@
         <v>8000</v>
       </c>
       <c r="M647" t="n">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Q647" t="n">
         <v>15</v>
@@ -47004,7 +47004,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -47013,20 +47013,20 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="K648" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L648" t="n">
         <v>8000</v>
       </c>
       <c r="M648" t="n">
-        <v>8000</v>
+        <v>7400</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
@@ -47035,10 +47035,10 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="Q648" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E649" t="n">
         <v>9</v>
@@ -47076,7 +47076,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -47085,32 +47085,32 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K649" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L649" t="n">
         <v>8000</v>
       </c>
       <c r="M649" t="n">
-        <v>7462</v>
+        <v>8000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>497</v>
+        <v>444</v>
       </c>
       <c r="Q649" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47157,16 +47157,16 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K650" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L650" t="n">
         <v>8000</v>
       </c>
       <c r="M650" t="n">
-        <v>8000</v>
+        <v>7462</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47175,11 +47175,11 @@
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="Q650" t="n">
         <v>15</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E651" t="n">
         <v>9</v>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -47229,7 +47229,7 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K651" t="n">
         <v>8000</v>
@@ -47242,19 +47242,19 @@
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q651" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K652" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L652" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M652" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="Q652" t="n">
         <v>10</v>
@@ -47364,7 +47364,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -47373,32 +47373,32 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K653" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L653" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M653" t="n">
-        <v>11500</v>
+        <v>7250</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>767</v>
+        <v>725</v>
       </c>
       <c r="Q653" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
@@ -47445,16 +47445,16 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K654" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L654" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M654" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>667</v>
+        <v>767</v>
       </c>
       <c r="Q654" t="n">
         <v>15</v>
@@ -47508,7 +47508,7 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
@@ -47517,16 +47517,16 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K655" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L655" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M655" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="Q655" t="n">
         <v>15</v>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K656" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L656" t="n">
         <v>8000</v>
       </c>
       <c r="M656" t="n">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="Q656" t="n">
         <v>15</v>
@@ -47661,16 +47661,16 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K657" t="n">
         <v>7500</v>
       </c>
       <c r="L657" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M657" t="n">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="Q657" t="n">
         <v>15</v>
@@ -47724,7 +47724,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -47733,16 +47733,16 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K658" t="n">
         <v>7500</v>
       </c>
       <c r="L658" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M658" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="Q658" t="n">
         <v>15</v>
@@ -47805,16 +47805,16 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="K659" t="n">
         <v>7500</v>
       </c>
       <c r="L659" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M659" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="Q659" t="n">
         <v>15</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E660" t="n">
         <v>9</v>
@@ -47868,7 +47868,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
@@ -47877,16 +47877,16 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>550</v>
+        <v>220</v>
       </c>
       <c r="K660" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L660" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M660" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q660" t="n">
         <v>15</v>
@@ -47940,7 +47940,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
@@ -47949,16 +47949,16 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="K661" t="n">
         <v>6000</v>
       </c>
       <c r="L661" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M661" t="n">
-        <v>6455</v>
+        <v>6000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="Q661" t="n">
         <v>15</v>
@@ -48012,7 +48012,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -48021,7 +48021,7 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="K662" t="n">
         <v>6000</v>
@@ -48030,7 +48030,7 @@
         <v>7000</v>
       </c>
       <c r="M662" t="n">
-        <v>6448</v>
+        <v>6455</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -48093,32 +48093,32 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>650</v>
+        <v>145</v>
       </c>
       <c r="K663" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L663" t="n">
         <v>7000</v>
       </c>
       <c r="M663" t="n">
-        <v>7000</v>
+        <v>6448</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>583</v>
+        <v>430</v>
       </c>
       <c r="Q663" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E664" t="n">
         <v>9</v>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,32 +48165,32 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>355</v>
+        <v>650</v>
       </c>
       <c r="K664" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L664" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M664" t="n">
-        <v>8521</v>
+        <v>7000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>852</v>
+        <v>583</v>
       </c>
       <c r="Q664" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -48237,32 +48237,32 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>650</v>
+        <v>355</v>
       </c>
       <c r="K665" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L665" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M665" t="n">
-        <v>10000</v>
+        <v>8521</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>667</v>
+        <v>852</v>
       </c>
       <c r="Q665" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48309,16 +48309,16 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="K666" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L666" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M666" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="Q666" t="n">
         <v>15</v>
@@ -48372,7 +48372,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -48381,7 +48381,7 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="K667" t="n">
         <v>8000</v>
@@ -48444,7 +48444,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -48453,7 +48453,7 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="K668" t="n">
         <v>8000</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E669" t="n">
         <v>9</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48525,7 +48525,7 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>500</v>
+        <v>185</v>
       </c>
       <c r="K669" t="n">
         <v>8000</v>
@@ -48538,7 +48538,7 @@
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -48547,10 +48547,10 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q669" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48597,32 +48597,32 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K670" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L670" t="n">
         <v>8000</v>
       </c>
       <c r="M670" t="n">
-        <v>7556</v>
+        <v>8000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>504</v>
+        <v>800</v>
       </c>
       <c r="Q670" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48669,16 +48669,16 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K671" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L671" t="n">
         <v>8000</v>
       </c>
       <c r="M671" t="n">
-        <v>8000</v>
+        <v>7556</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="Q671" t="n">
         <v>15</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K672" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L672" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M672" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q672" t="n">
         <v>15</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E674" t="n">
         <v>9</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,32 +48885,32 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K674" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L674" t="n">
         <v>7000</v>
       </c>
       <c r="M674" t="n">
-        <v>6400</v>
+        <v>7000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>640</v>
+        <v>467</v>
       </c>
       <c r="Q674" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,20 +48957,20 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K675" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L675" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M675" t="n">
-        <v>10600</v>
+        <v>6400</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -48979,10 +48979,10 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>707</v>
+        <v>640</v>
       </c>
       <c r="Q675" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K676" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L676" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M676" t="n">
-        <v>7000</v>
+        <v>10600</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>467</v>
+        <v>707</v>
       </c>
       <c r="Q676" t="n">
         <v>15</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K677" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L677" t="n">
         <v>7000</v>
       </c>
       <c r="M677" t="n">
-        <v>6556</v>
+        <v>7000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="Q677" t="n">
         <v>15</v>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -49173,7 +49173,7 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="K678" t="n">
         <v>6000</v>
@@ -49182,11 +49182,11 @@
         <v>7000</v>
       </c>
       <c r="M678" t="n">
-        <v>6455</v>
+        <v>6556</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
@@ -49195,10 +49195,10 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="Q678" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49236,7 +49236,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -49245,7 +49245,7 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="K679" t="n">
         <v>6000</v>
@@ -49254,11 +49254,11 @@
         <v>7000</v>
       </c>
       <c r="M679" t="n">
-        <v>6571</v>
+        <v>6455</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -49267,10 +49267,10 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>438</v>
+        <v>359</v>
       </c>
       <c r="Q679" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,7 +49317,7 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="K680" t="n">
         <v>6000</v>
@@ -49326,11 +49326,11 @@
         <v>7000</v>
       </c>
       <c r="M680" t="n">
-        <v>6455</v>
+        <v>6571</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
@@ -49339,10 +49339,10 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="Q680" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="E681" t="n">
         <v>9</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49389,7 +49389,7 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K681" t="n">
         <v>6000</v>
@@ -49398,11 +49398,11 @@
         <v>7000</v>
       </c>
       <c r="M681" t="n">
-        <v>6444</v>
+        <v>6455</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
@@ -49411,10 +49411,10 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>644</v>
+        <v>359</v>
       </c>
       <c r="Q681" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -49461,16 +49461,16 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K682" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L682" t="n">
         <v>7000</v>
       </c>
       <c r="M682" t="n">
-        <v>7000</v>
+        <v>6444</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>700</v>
+        <v>644</v>
       </c>
       <c r="Q682" t="n">
         <v>10</v>
@@ -49524,7 +49524,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -49533,32 +49533,32 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K683" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L683" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M683" t="n">
-        <v>11556</v>
+        <v>7000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>770</v>
+        <v>700</v>
       </c>
       <c r="Q683" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K684" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L684" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M684" t="n">
-        <v>7000</v>
+        <v>11556</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>467</v>
+        <v>770</v>
       </c>
       <c r="Q684" t="n">
         <v>15</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,7 +49677,7 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K685" t="n">
         <v>7000</v>
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49749,7 +49749,7 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K686" t="n">
         <v>7000</v>
@@ -49812,7 +49812,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
@@ -49821,7 +49821,7 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K687" t="n">
         <v>7000</v>
@@ -49834,7 +49834,7 @@
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
@@ -49843,10 +49843,10 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="Q687" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E688" t="n">
         <v>9</v>
@@ -49884,7 +49884,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -49893,20 +49893,20 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K688" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L688" t="n">
         <v>7000</v>
       </c>
       <c r="M688" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -49915,10 +49915,10 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>650</v>
+        <v>389</v>
       </c>
       <c r="Q688" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49965,16 +49965,16 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K689" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L689" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M689" t="n">
-        <v>7273</v>
+        <v>6500</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>727</v>
+        <v>650</v>
       </c>
       <c r="Q689" t="n">
         <v>10</v>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -50037,32 +50037,32 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="K690" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L690" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M690" t="n">
-        <v>9000</v>
+        <v>7273</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>600</v>
+        <v>727</v>
       </c>
       <c r="Q690" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R690" t="inlineStr">
         <is>
@@ -50109,16 +50109,16 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K691" t="n">
         <v>9000</v>
       </c>
       <c r="L691" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M691" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="Q691" t="n">
         <v>15</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="K692" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L692" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M692" t="n">
-        <v>6556</v>
+        <v>9500</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>437</v>
+        <v>633</v>
       </c>
       <c r="Q692" t="n">
         <v>15</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,16 +50253,16 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K693" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L693" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M693" t="n">
-        <v>7250</v>
+        <v>6556</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>483</v>
+        <v>437</v>
       </c>
       <c r="Q693" t="n">
         <v>15</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K694" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L694" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M694" t="n">
-        <v>6333</v>
+        <v>7250</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="Q694" t="n">
         <v>15</v>
@@ -50397,7 +50397,7 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K695" t="n">
         <v>6000</v>
@@ -50406,7 +50406,7 @@
         <v>7000</v>
       </c>
       <c r="M695" t="n">
-        <v>6500</v>
+        <v>6333</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="Q695" t="n">
         <v>15</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E696" t="n">
         <v>9</v>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,20 +50469,20 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K696" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L696" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M696" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
@@ -50491,10 +50491,10 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="Q696" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50532,7 +50532,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -50541,32 +50541,32 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K697" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L697" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M697" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q697" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50613,7 +50613,7 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="K698" t="n">
         <v>6000</v>
@@ -50631,7 +50631,7 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P698" t="n">
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,32 +50685,32 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="K699" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L699" t="n">
         <v>6000</v>
       </c>
       <c r="M699" t="n">
-        <v>5556</v>
+        <v>6000</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>463</v>
+        <v>400</v>
       </c>
       <c r="Q699" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50757,32 +50757,32 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K700" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L700" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M700" t="n">
-        <v>4500</v>
+        <v>5556</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>300</v>
+        <v>463</v>
       </c>
       <c r="Q700" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R700" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E701" t="n">
         <v>9</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K701" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L701" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M701" t="n">
-        <v>6364</v>
+        <v>4500</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>424</v>
+        <v>300</v>
       </c>
       <c r="Q701" t="n">
         <v>15</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E702" t="n">
         <v>9</v>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50901,32 +50901,32 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="K702" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L702" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M702" t="n">
-        <v>7575</v>
+        <v>6364</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>758</v>
+        <v>424</v>
       </c>
       <c r="Q702" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,7 +50973,7 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>650</v>
+        <v>365</v>
       </c>
       <c r="K703" t="n">
         <v>7000</v>
@@ -50982,11 +50982,11 @@
         <v>8000</v>
       </c>
       <c r="M703" t="n">
-        <v>7462</v>
+        <v>7575</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
@@ -50995,10 +50995,10 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>497</v>
+        <v>758</v>
       </c>
       <c r="Q703" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E704" t="n">
         <v>9</v>
@@ -51036,7 +51036,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -51045,32 +51045,32 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>50</v>
+        <v>650</v>
       </c>
       <c r="K704" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L704" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M704" t="n">
-        <v>6000</v>
+        <v>7462</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q704" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51117,7 +51117,7 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K705" t="n">
         <v>6000</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E706" t="n">
         <v>9</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,32 +51189,32 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K706" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L706" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M706" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q706" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51274,19 +51274,19 @@
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q707" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51333,7 +51333,7 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>750</v>
+        <v>125</v>
       </c>
       <c r="K708" t="n">
         <v>8000</v>
@@ -51351,7 +51351,7 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P708" t="n">
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E709" t="n">
         <v>9</v>
@@ -51396,7 +51396,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -51405,32 +51405,32 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>55</v>
+        <v>750</v>
       </c>
       <c r="K709" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L709" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M709" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="Q709" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51477,7 +51477,7 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="K710" t="n">
         <v>4000</v>
@@ -51495,7 +51495,7 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P710" t="n">
@@ -51540,7 +51540,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
@@ -51549,32 +51549,32 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>650</v>
+        <v>85</v>
       </c>
       <c r="K711" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L711" t="n">
         <v>4000</v>
       </c>
       <c r="M711" t="n">
-        <v>3692</v>
+        <v>4000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="Q711" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51612,7 +51612,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
@@ -51621,20 +51621,20 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>65</v>
+        <v>650</v>
       </c>
       <c r="K712" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L712" t="n">
         <v>4000</v>
       </c>
       <c r="M712" t="n">
-        <v>4000</v>
+        <v>3692</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
@@ -51643,10 +51643,10 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>333</v>
+        <v>246</v>
       </c>
       <c r="Q712" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R712" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -51693,7 +51693,7 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K713" t="n">
         <v>4000</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E714" t="n">
         <v>9</v>
@@ -51756,7 +51756,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K714" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L714" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M714" t="n">
-        <v>6533</v>
+        <v>4000</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>544</v>
+        <v>333</v>
       </c>
       <c r="Q714" t="n">
         <v>12</v>
@@ -51828,7 +51828,7 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
@@ -51837,20 +51837,20 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="K715" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L715" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M715" t="n">
-        <v>8000</v>
+        <v>6533</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
@@ -51859,10 +51859,10 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="Q715" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51900,7 +51900,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
@@ -51909,20 +51909,20 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="K716" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L716" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M716" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
@@ -51931,10 +51931,10 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="Q716" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E718" t="n">
         <v>9</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52053,32 +52053,32 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K718" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L718" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M718" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q718" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K719" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L719" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M719" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q719" t="n">
         <v>10</v>
@@ -52188,41 +52188,41 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>735</v>
+        <v>45</v>
       </c>
       <c r="K720" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L720" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M720" t="n">
-        <v>11476</v>
+        <v>5000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>765</v>
+        <v>500</v>
       </c>
       <c r="Q720" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R720" t="inlineStr">
         <is>
@@ -52260,7 +52260,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -52269,16 +52269,16 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>125</v>
+        <v>735</v>
       </c>
       <c r="K721" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L721" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M721" t="n">
-        <v>7000</v>
+        <v>11476</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>467</v>
+        <v>765</v>
       </c>
       <c r="Q721" t="n">
         <v>15</v>
@@ -52337,20 +52337,20 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K722" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L722" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M722" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q722" t="n">
         <v>15</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E723" t="n">
         <v>9</v>
@@ -52404,25 +52404,25 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="K723" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L723" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M723" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52435,7 +52435,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>933</v>
+        <v>333</v>
       </c>
       <c r="Q723" t="n">
         <v>15</v>
@@ -52476,7 +52476,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -52485,16 +52485,16 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K724" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L724" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M724" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="Q724" t="n">
         <v>15</v>
@@ -52548,7 +52548,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -52557,7 +52557,7 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K725" t="n">
         <v>9000</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E726" t="n">
         <v>9</v>
@@ -52620,7 +52620,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -52629,20 +52629,20 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="K726" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L726" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M726" t="n">
-        <v>7471</v>
+        <v>9000</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
@@ -52651,10 +52651,10 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>747</v>
+        <v>600</v>
       </c>
       <c r="Q726" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52701,7 +52701,7 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="K727" t="n">
         <v>7000</v>
@@ -52710,7 +52710,7 @@
         <v>8000</v>
       </c>
       <c r="M727" t="n">
-        <v>7483</v>
+        <v>7471</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Q727" t="n">
         <v>10</v>
@@ -52764,7 +52764,7 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
@@ -52773,32 +52773,32 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>1500</v>
+        <v>290</v>
       </c>
       <c r="K728" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L728" t="n">
         <v>8000</v>
       </c>
       <c r="M728" t="n">
-        <v>8000</v>
+        <v>7483</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>533</v>
+        <v>748</v>
       </c>
       <c r="Q728" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R728" t="inlineStr">
         <is>
@@ -52845,7 +52845,7 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K729" t="n">
         <v>8000</v>
@@ -52863,7 +52863,7 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P729" t="n">
@@ -52908,7 +52908,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K730" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L730" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M730" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q730" t="n">
         <v>15</v>
@@ -52989,7 +52989,7 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K731" t="n">
         <v>7000</v>
@@ -53007,7 +53007,7 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P731" t="n">
@@ -53052,7 +53052,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K732" t="n">
         <v>7000</v>
       </c>
       <c r="L732" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M732" t="n">
-        <v>7227</v>
+        <v>7000</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="Q732" t="n">
         <v>15</v>
@@ -53124,7 +53124,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -53133,7 +53133,7 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="K733" t="n">
         <v>7000</v>
@@ -53142,7 +53142,7 @@
         <v>7500</v>
       </c>
       <c r="M733" t="n">
-        <v>7250</v>
+        <v>7227</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q733" t="n">
         <v>15</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E734" t="n">
         <v>9</v>
@@ -53196,7 +53196,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -53205,32 +53205,32 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="K734" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L734" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M734" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>800</v>
+        <v>483</v>
       </c>
       <c r="Q734" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53268,7 +53268,7 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -53277,20 +53277,20 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K735" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L735" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M735" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
@@ -53299,10 +53299,10 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q735" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53340,7 +53340,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
@@ -53349,16 +53349,16 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K736" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L736" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M736" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="Q736" t="n">
         <v>15</v>
@@ -53412,7 +53412,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -53421,7 +53421,7 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K737" t="n">
         <v>8000</v>
@@ -53484,7 +53484,7 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
@@ -53493,7 +53493,7 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K738" t="n">
         <v>8000</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E739" t="n">
         <v>9</v>
@@ -53556,7 +53556,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -53565,20 +53565,20 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="K739" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L739" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M739" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O739" t="inlineStr">
@@ -53587,10 +53587,10 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="Q739" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R739" t="inlineStr">
         <is>
@@ -53628,7 +53628,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -53637,32 +53637,32 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>650</v>
+        <v>155</v>
       </c>
       <c r="K740" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L740" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M740" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q740" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>340</v>
+        <v>650</v>
       </c>
       <c r="K741" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L741" t="n">
         <v>8000</v>
       </c>
       <c r="M741" t="n">
-        <v>7735</v>
+        <v>8000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53727,11 +53727,11 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="Q741" t="n">
         <v>15</v>
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>750</v>
+        <v>340</v>
       </c>
       <c r="K742" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L742" t="n">
         <v>8000</v>
       </c>
       <c r="M742" t="n">
-        <v>8000</v>
+        <v>7735</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="Q742" t="n">
         <v>15</v>
@@ -53844,7 +53844,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -53853,20 +53853,20 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>155</v>
+        <v>750</v>
       </c>
       <c r="K743" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L743" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M743" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O743" t="inlineStr">
@@ -53875,10 +53875,10 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="Q743" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R743" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E744" t="n">
         <v>9</v>
@@ -53916,7 +53916,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -53925,7 +53925,7 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K744" t="n">
         <v>7000</v>
@@ -53988,7 +53988,7 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
@@ -53997,7 +53997,7 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="K745" t="n">
         <v>7000</v>
@@ -54010,7 +54010,7 @@
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
@@ -54019,10 +54019,10 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q745" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E746" t="n">
         <v>9</v>
@@ -54069,16 +54069,16 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="K746" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L746" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M746" t="n">
-        <v>8523</v>
+        <v>7000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54087,11 +54087,11 @@
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>568</v>
+        <v>467</v>
       </c>
       <c r="Q746" t="n">
         <v>15</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E747" t="n">
         <v>9</v>
@@ -54132,7 +54132,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -54141,32 +54141,32 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K747" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L747" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M747" t="n">
-        <v>7000</v>
+        <v>8523</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>700</v>
+        <v>568</v>
       </c>
       <c r="Q747" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R747" t="inlineStr">
         <is>
@@ -54204,7 +54204,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -54213,32 +54213,32 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K748" t="n">
         <v>7000</v>
       </c>
       <c r="L748" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M748" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q748" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R748" t="inlineStr">
         <is>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54285,17 +54285,17 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="K749" t="n">
         <v>7000</v>
       </c>
       <c r="L749" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M749" t="n">
         <v>7500</v>
       </c>
-      <c r="M749" t="n">
-        <v>7238</v>
-      </c>
       <c r="N749" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="Q749" t="n">
         <v>15</v>
@@ -54348,7 +54348,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -54357,7 +54357,7 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="K750" t="n">
         <v>7000</v>
@@ -54366,7 +54366,7 @@
         <v>7500</v>
       </c>
       <c r="M750" t="n">
-        <v>7222</v>
+        <v>7238</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q750" t="n">
         <v>15</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E751" t="n">
         <v>9</v>
@@ -54420,7 +54420,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -54429,32 +54429,32 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="K751" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L751" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M751" t="n">
-        <v>6444</v>
+        <v>7222</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>644</v>
+        <v>481</v>
       </c>
       <c r="Q751" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54497,20 +54497,20 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K752" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L752" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M752" t="n">
-        <v>5000</v>
+        <v>6444</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>500</v>
+        <v>644</v>
       </c>
       <c r="Q752" t="n">
         <v>10</v>
@@ -54564,41 +54564,41 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K753" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L753" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M753" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="Q753" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R753" t="inlineStr">
         <is>
@@ -54645,16 +54645,16 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K754" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L754" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M754" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54663,11 +54663,11 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q754" t="n">
         <v>15</v>
@@ -54713,20 +54713,20 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K755" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L755" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M755" t="n">
-        <v>4556</v>
+        <v>7000</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>304</v>
+        <v>467</v>
       </c>
       <c r="Q755" t="n">
         <v>15</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E756" t="n">
         <v>9</v>
@@ -54780,16 +54780,16 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="K756" t="n">
         <v>4000</v>
@@ -54798,11 +54798,11 @@
         <v>5000</v>
       </c>
       <c r="M756" t="n">
-        <v>4417</v>
+        <v>4556</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O756" t="inlineStr">
@@ -54811,10 +54811,10 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>442</v>
+        <v>304</v>
       </c>
       <c r="Q756" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R756" t="inlineStr">
         <is>
@@ -54861,7 +54861,7 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="K757" t="n">
         <v>4000</v>
@@ -54870,23 +54870,23 @@
         <v>5000</v>
       </c>
       <c r="M757" t="n">
-        <v>4444</v>
+        <v>4417</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>370</v>
+        <v>442</v>
       </c>
       <c r="Q757" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54924,7 +54924,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -54933,20 +54933,20 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="K758" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L758" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M758" t="n">
-        <v>3727</v>
+        <v>4444</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O758" t="inlineStr">
@@ -54955,10 +54955,10 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>248</v>
+        <v>370</v>
       </c>
       <c r="Q758" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R758" t="inlineStr">
         <is>
@@ -55005,16 +55005,16 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>1600</v>
+        <v>220</v>
       </c>
       <c r="K759" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L759" t="n">
         <v>4000</v>
       </c>
-      <c r="L759" t="n">
-        <v>5000</v>
-      </c>
       <c r="M759" t="n">
-        <v>4500</v>
+        <v>3727</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="Q759" t="n">
         <v>15</v>
@@ -55068,7 +55068,7 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -55077,32 +55077,32 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K760" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L760" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M760" t="n">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="Q760" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55140,7 +55140,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
@@ -55149,7 +55149,7 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K761" t="n">
         <v>3000</v>
@@ -55158,7 +55158,7 @@
         <v>4000</v>
       </c>
       <c r="M761" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55171,7 +55171,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Q761" t="n">
         <v>12</v>
@@ -55221,32 +55221,32 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K762" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L762" t="n">
         <v>4000</v>
       </c>
       <c r="M762" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="Q762" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R762" t="inlineStr">
         <is>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E763" t="n">
         <v>9</v>
@@ -55284,7 +55284,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
@@ -55293,16 +55293,16 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K763" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L763" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M763" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>667</v>
+        <v>267</v>
       </c>
       <c r="Q763" t="n">
         <v>15</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
@@ -55365,16 +55365,16 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>155</v>
+        <v>500</v>
       </c>
       <c r="K764" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L764" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M764" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q764" t="n">
         <v>15</v>
@@ -55428,7 +55428,7 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -55437,20 +55437,20 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="K765" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L765" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M765" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
@@ -55459,10 +55459,10 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q765" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R765" t="inlineStr">
         <is>
@@ -55500,7 +55500,7 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -55509,7 +55509,7 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K766" t="n">
         <v>4000</v>
@@ -55572,7 +55572,7 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
@@ -55581,7 +55581,7 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K767" t="n">
         <v>4000</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E768" t="n">
         <v>9</v>
@@ -55644,7 +55644,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -55653,32 +55653,32 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="K768" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L768" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M768" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="Q768" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R768" t="inlineStr">
         <is>
@@ -55716,7 +55716,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -55725,32 +55725,32 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="K769" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L769" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M769" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="Q769" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -55797,16 +55797,16 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K770" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L770" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M770" t="n">
-        <v>6273</v>
+        <v>10000</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>418</v>
+        <v>667</v>
       </c>
       <c r="Q770" t="n">
         <v>15</v>
@@ -55860,7 +55860,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -55869,20 +55869,20 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>95</v>
+        <v>550</v>
       </c>
       <c r="K771" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L771" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M771" t="n">
-        <v>4000</v>
+        <v>6273</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O771" t="inlineStr">
@@ -55891,10 +55891,10 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>333</v>
+        <v>418</v>
       </c>
       <c r="Q771" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R771" t="inlineStr">
         <is>
@@ -55932,7 +55932,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -55941,7 +55941,7 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K772" t="n">
         <v>4000</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -56004,7 +56004,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -56013,32 +56013,32 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K773" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L773" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M773" t="n">
-        <v>7217</v>
+        <v>4000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>722</v>
+        <v>333</v>
       </c>
       <c r="Q773" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56076,7 +56076,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -56085,32 +56085,32 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>755</v>
+        <v>115</v>
       </c>
       <c r="K774" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L774" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M774" t="n">
-        <v>10331</v>
+        <v>7217</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>689</v>
+        <v>722</v>
       </c>
       <c r="Q774" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R774" t="inlineStr">
         <is>
@@ -56148,7 +56148,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -56157,20 +56157,20 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>65</v>
+        <v>755</v>
       </c>
       <c r="K775" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L775" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M775" t="n">
-        <v>7500</v>
+        <v>10331</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O775" t="inlineStr">
@@ -56179,10 +56179,10 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>417</v>
+        <v>689</v>
       </c>
       <c r="Q775" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R775" t="inlineStr">
         <is>
@@ -56220,7 +56220,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -56229,20 +56229,20 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="K776" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L776" t="n">
         <v>7500</v>
       </c>
       <c r="M776" t="n">
-        <v>7224</v>
+        <v>7500</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O776" t="inlineStr">
@@ -56251,10 +56251,10 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>482</v>
+        <v>417</v>
       </c>
       <c r="Q776" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R776" t="inlineStr">
         <is>
@@ -56292,7 +56292,7 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
@@ -56301,16 +56301,16 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="K777" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L777" t="n">
         <v>7500</v>
       </c>
       <c r="M777" t="n">
-        <v>7500</v>
+        <v>7224</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56323,7 +56323,7 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="Q777" t="n">
         <v>15</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -56364,7 +56364,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -56373,16 +56373,16 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="K778" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L778" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M778" t="n">
-        <v>9361</v>
+        <v>7500</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56391,11 +56391,11 @@
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>624</v>
+        <v>500</v>
       </c>
       <c r="Q778" t="n">
         <v>15</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -56436,7 +56436,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -56445,32 +56445,32 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K779" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L779" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M779" t="n">
-        <v>7200</v>
+        <v>9361</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>720</v>
+        <v>624</v>
       </c>
       <c r="Q779" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56508,7 +56508,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -56517,32 +56517,32 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K780" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L780" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M780" t="n">
-        <v>10556</v>
+        <v>7200</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="Q780" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R780" t="inlineStr">
         <is>
@@ -56589,16 +56589,16 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>1300</v>
+        <v>450</v>
       </c>
       <c r="K781" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L781" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M781" t="n">
-        <v>9615</v>
+        <v>10556</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>641</v>
+        <v>704</v>
       </c>
       <c r="Q781" t="n">
         <v>15</v>
@@ -56652,7 +56652,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -56661,16 +56661,16 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>270</v>
+        <v>1300</v>
       </c>
       <c r="K782" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L782" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M782" t="n">
-        <v>7222</v>
+        <v>9615</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>481</v>
+        <v>641</v>
       </c>
       <c r="Q782" t="n">
         <v>15</v>
@@ -56724,7 +56724,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -56733,7 +56733,7 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="K783" t="n">
         <v>7000</v>
@@ -56742,7 +56742,7 @@
         <v>7500</v>
       </c>
       <c r="M783" t="n">
-        <v>7250</v>
+        <v>7222</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Q783" t="n">
         <v>15</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -56796,7 +56796,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -56805,32 +56805,32 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="K784" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L784" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M784" t="n">
-        <v>6471</v>
+        <v>7250</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>647</v>
+        <v>483</v>
       </c>
       <c r="Q784" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R784" t="inlineStr">
         <is>
@@ -56877,16 +56877,16 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K785" t="n">
         <v>6000</v>
       </c>
       <c r="L785" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M785" t="n">
-        <v>6000</v>
+        <v>6471</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56895,11 +56895,11 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="Q785" t="n">
         <v>10</v>
@@ -56940,7 +56940,7 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
@@ -56949,7 +56949,7 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K786" t="n">
         <v>6000</v>
@@ -56962,7 +56962,7 @@
       </c>
       <c r="N786" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O786" t="inlineStr">
@@ -56971,10 +56971,10 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q786" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R786" t="inlineStr">
         <is>
@@ -57012,7 +57012,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -57021,7 +57021,7 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>125</v>
+        <v>650</v>
       </c>
       <c r="K787" t="n">
         <v>6000</v>
@@ -57034,19 +57034,19 @@
       </c>
       <c r="N787" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q787" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R787" t="inlineStr">
         <is>
@@ -57093,32 +57093,32 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K788" t="n">
         <v>6000</v>
       </c>
       <c r="L788" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M788" t="n">
-        <v>6435</v>
+        <v>6000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="Q788" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E789" t="n">
         <v>9</v>
@@ -57156,7 +57156,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -57165,20 +57165,20 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K789" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L789" t="n">
         <v>7000</v>
       </c>
       <c r="M789" t="n">
-        <v>7000</v>
+        <v>6435</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
@@ -57187,10 +57187,10 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>700</v>
+        <v>429</v>
       </c>
       <c r="Q789" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57228,7 +57228,7 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
@@ -57237,32 +57237,32 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K790" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L790" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M790" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="Q790" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R790" t="inlineStr">
         <is>
@@ -57300,7 +57300,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -57309,16 +57309,16 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K791" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L791" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M791" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="Q791" t="n">
         <v>15</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E792" t="n">
         <v>9</v>
@@ -57372,7 +57372,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -57381,32 +57381,32 @@
         </is>
       </c>
       <c r="J792" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K792" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L792" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M792" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>900</v>
+        <v>467</v>
       </c>
       <c r="Q792" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R792" t="inlineStr">
         <is>
@@ -57444,7 +57444,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -57453,32 +57453,32 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>430</v>
+        <v>125</v>
       </c>
       <c r="K793" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L793" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M793" t="n">
-        <v>12581</v>
+        <v>9000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>839</v>
+        <v>900</v>
       </c>
       <c r="Q793" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57516,7 +57516,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -57525,16 +57525,16 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>125</v>
+        <v>430</v>
       </c>
       <c r="K794" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L794" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M794" t="n">
-        <v>9000</v>
+        <v>12581</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>600</v>
+        <v>839</v>
       </c>
       <c r="Q794" t="n">
         <v>15</v>
@@ -57588,7 +57588,7 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -57597,7 +57597,7 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="K795" t="n">
         <v>9000</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -57660,7 +57660,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -57669,32 +57669,32 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="K796" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L796" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M796" t="n">
-        <v>4240</v>
+        <v>9000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>424</v>
+        <v>600</v>
       </c>
       <c r="Q796" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R796" t="inlineStr">
         <is>
@@ -57732,7 +57732,7 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -57741,32 +57741,32 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K797" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L797" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M797" t="n">
-        <v>3742</v>
+        <v>4240</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>249</v>
+        <v>424</v>
       </c>
       <c r="Q797" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57804,7 +57804,7 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
@@ -57813,20 +57813,20 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="K798" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L798" t="n">
         <v>4000</v>
       </c>
       <c r="M798" t="n">
-        <v>4000</v>
+        <v>3742</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O798" t="inlineStr">
@@ -57835,10 +57835,10 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>333</v>
+        <v>249</v>
       </c>
       <c r="Q798" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R798" t="inlineStr">
         <is>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -57876,7 +57876,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
@@ -57885,20 +57885,20 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>740</v>
+        <v>35</v>
       </c>
       <c r="K799" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L799" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M799" t="n">
-        <v>5753</v>
+        <v>4000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O799" t="inlineStr">
@@ -57907,10 +57907,10 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="Q799" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R799" t="inlineStr">
         <is>
@@ -57948,7 +57948,7 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
@@ -57957,20 +57957,20 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>95</v>
+        <v>740</v>
       </c>
       <c r="K800" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L800" t="n">
         <v>6000</v>
       </c>
       <c r="M800" t="n">
-        <v>6000</v>
+        <v>5753</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O800" t="inlineStr">
@@ -57979,10 +57979,10 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>500</v>
+        <v>384</v>
       </c>
       <c r="Q800" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R800" t="inlineStr">
         <is>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E801" t="n">
         <v>9</v>
@@ -58020,7 +58020,7 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -58029,7 +58029,7 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="K801" t="n">
         <v>6000</v>
@@ -58092,7 +58092,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -58101,7 +58101,7 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K802" t="n">
         <v>6000</v>
@@ -58114,19 +58114,19 @@
       </c>
       <c r="N802" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q802" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R802" t="inlineStr">
         <is>
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K803" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L803" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M803" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q803" t="n">
         <v>15</v>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -58245,20 +58245,20 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K804" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L804" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M804" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O804" t="inlineStr">
@@ -58267,10 +58267,10 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q804" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R804" t="inlineStr">
         <is>
@@ -58308,7 +58308,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -58317,7 +58317,7 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K805" t="n">
         <v>6000</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -58380,7 +58380,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -58389,32 +58389,32 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K806" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L806" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M806" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q806" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R806" t="inlineStr">
         <is>
@@ -58452,7 +58452,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -58461,7 +58461,7 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>550</v>
+        <v>125</v>
       </c>
       <c r="K807" t="n">
         <v>8000</v>
@@ -58474,19 +58474,19 @@
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q807" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58533,7 +58533,7 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K808" t="n">
         <v>8000</v>
@@ -58551,7 +58551,7 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P808" t="n">
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E809" t="n">
         <v>9</v>
@@ -58596,7 +58596,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -58605,32 +58605,32 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="K809" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L809" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M809" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>650</v>
+        <v>533</v>
       </c>
       <c r="Q809" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R809" t="inlineStr">
         <is>
@@ -58668,7 +58668,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -58677,32 +58677,32 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="K810" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L810" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M810" t="n">
-        <v>9556</v>
+        <v>6500</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="Q810" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R810" t="inlineStr">
         <is>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E811" t="n">
         <v>9</v>
@@ -58740,7 +58740,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -58749,20 +58749,20 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="K811" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L811" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M811" t="n">
-        <v>8000</v>
+        <v>9556</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O811" t="inlineStr">
@@ -58771,10 +58771,10 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>800</v>
+        <v>637</v>
       </c>
       <c r="Q811" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R811" t="inlineStr">
         <is>
@@ -58812,7 +58812,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -58821,7 +58821,7 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="K812" t="n">
         <v>8000</v>
@@ -58834,7 +58834,7 @@
       </c>
       <c r="N812" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O812" t="inlineStr">
@@ -58843,10 +58843,10 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q812" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R812" t="inlineStr">
         <is>
@@ -58893,7 +58893,7 @@
         </is>
       </c>
       <c r="J813" t="n">
-        <v>255</v>
+        <v>650</v>
       </c>
       <c r="K813" t="n">
         <v>8000</v>
@@ -58911,7 +58911,7 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P813" t="n">
@@ -58956,7 +58956,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
@@ -58965,16 +58965,16 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="K814" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L814" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M814" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q814" t="n">
         <v>15</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E815" t="n">
         <v>9</v>
@@ -59028,7 +59028,7 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
@@ -59037,7 +59037,7 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="K815" t="n">
         <v>7000</v>
@@ -59050,7 +59050,7 @@
       </c>
       <c r="N815" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O815" t="inlineStr">
@@ -59059,10 +59059,10 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q815" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R815" t="inlineStr">
         <is>
@@ -59100,7 +59100,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -59109,20 +59109,20 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="K816" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L816" t="n">
         <v>7000</v>
       </c>
       <c r="M816" t="n">
-        <v>6474</v>
+        <v>7000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O816" t="inlineStr">
@@ -59131,10 +59131,10 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>432</v>
+        <v>700</v>
       </c>
       <c r="Q816" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R816" t="inlineStr">
         <is>
@@ -59172,7 +59172,7 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
@@ -59181,16 +59181,16 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>150</v>
+        <v>1900</v>
       </c>
       <c r="K817" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L817" t="n">
         <v>7000</v>
       </c>
       <c r="M817" t="n">
-        <v>7000</v>
+        <v>6474</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="Q817" t="n">
         <v>15</v>
@@ -59244,7 +59244,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -59253,7 +59253,7 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K818" t="n">
         <v>7000</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E819" t="n">
         <v>9</v>
@@ -59316,7 +59316,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -59328,13 +59328,13 @@
         <v>200</v>
       </c>
       <c r="K819" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L819" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M819" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q819" t="n">
         <v>15</v>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -59397,20 +59397,20 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K820" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L820" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M820" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O820" t="inlineStr">
@@ -59422,7 +59422,7 @@
         <v>333</v>
       </c>
       <c r="Q820" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R820" t="inlineStr">
         <is>
@@ -59460,7 +59460,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -59497,6 +59497,78 @@
         <v>12</v>
       </c>
       <c r="R821" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>10</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D822" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E822" t="n">
+        <v>9</v>
+      </c>
+      <c r="F822" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J822" t="n">
+        <v>150</v>
+      </c>
+      <c r="K822" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L822" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M822" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N822" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O822" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P822" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q822" t="n">
+        <v>12</v>
+      </c>
+      <c r="R822" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R927"/>
+  <dimension ref="A1:R930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E842" t="n">
         <v>9</v>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60981,32 +60981,32 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K842" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L842" t="n">
         <v>8000</v>
       </c>
       <c r="M842" t="n">
-        <v>7625</v>
+        <v>8000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>762</v>
+        <v>533</v>
       </c>
       <c r="Q842" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R842" t="inlineStr">
         <is>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,32 +61053,32 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>605</v>
+        <v>400</v>
       </c>
       <c r="K843" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L843" t="n">
         <v>7000</v>
       </c>
-      <c r="L843" t="n">
-        <v>8000</v>
-      </c>
       <c r="M843" t="n">
-        <v>7421</v>
+        <v>6500</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>495</v>
+        <v>542</v>
       </c>
       <c r="Q843" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R843" t="inlineStr">
         <is>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61125,32 +61125,32 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="K844" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L844" t="n">
         <v>7000</v>
       </c>
       <c r="M844" t="n">
-        <v>7000</v>
+        <v>6385</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="Q844" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R844" t="inlineStr">
         <is>
@@ -61188,7 +61188,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -61197,20 +61197,20 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>185</v>
+        <v>400</v>
       </c>
       <c r="K845" t="n">
         <v>7000</v>
       </c>
       <c r="L845" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M845" t="n">
-        <v>7000</v>
+        <v>7625</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
@@ -61219,10 +61219,10 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>467</v>
+        <v>762</v>
       </c>
       <c r="Q845" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61260,7 +61260,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -61269,7 +61269,7 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>150</v>
+        <v>605</v>
       </c>
       <c r="K846" t="n">
         <v>7000</v>
@@ -61278,23 +61278,23 @@
         <v>8000</v>
       </c>
       <c r="M846" t="n">
-        <v>7633</v>
+        <v>7421</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>636</v>
+        <v>495</v>
       </c>
       <c r="Q846" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61332,7 +61332,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -61341,7 +61341,7 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="K847" t="n">
         <v>7000</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -61404,7 +61404,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
@@ -61413,32 +61413,32 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>700</v>
+        <v>185</v>
       </c>
       <c r="K848" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L848" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M848" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="Q848" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R848" t="inlineStr">
         <is>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61476,7 +61476,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -61485,32 +61485,32 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>1550</v>
+        <v>150</v>
       </c>
       <c r="K849" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L849" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M849" t="n">
-        <v>12742</v>
+        <v>7633</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>849</v>
+        <v>636</v>
       </c>
       <c r="Q849" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61548,25 +61548,25 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K850" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L850" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M850" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>733</v>
+        <v>467</v>
       </c>
       <c r="Q850" t="n">
         <v>15</v>
@@ -61620,7 +61620,7 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -61635,26 +61635,26 @@
         <v>8000</v>
       </c>
       <c r="L851" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M851" t="n">
-        <v>8571</v>
+        <v>8000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>571</v>
+        <v>800</v>
       </c>
       <c r="Q851" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61701,32 +61701,32 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>365</v>
+        <v>1550</v>
       </c>
       <c r="K852" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="L852" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M852" t="n">
-        <v>7575</v>
+        <v>12742</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>758</v>
+        <v>849</v>
       </c>
       <c r="Q852" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R852" t="inlineStr">
         <is>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E853" t="n">
         <v>9</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="K853" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L853" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M853" t="n">
-        <v>7462</v>
+        <v>11000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>497</v>
+        <v>733</v>
       </c>
       <c r="Q853" t="n">
         <v>15</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>155</v>
+        <v>700</v>
       </c>
       <c r="K854" t="n">
         <v>8000</v>
       </c>
       <c r="L854" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M854" t="n">
-        <v>8000</v>
+        <v>8571</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="Q854" t="n">
         <v>15</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44266</v>
+        <v>44491</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -61917,32 +61917,32 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>55</v>
+        <v>365</v>
       </c>
       <c r="K855" t="n">
         <v>7000</v>
       </c>
       <c r="L855" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M855" t="n">
-        <v>7000</v>
+        <v>7575</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>583</v>
+        <v>758</v>
       </c>
       <c r="Q855" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R855" t="inlineStr">
         <is>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44266</v>
+        <v>44491</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>35</v>
+        <v>650</v>
       </c>
       <c r="K856" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L856" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M856" t="n">
-        <v>10000</v>
+        <v>7462</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>667</v>
+        <v>497</v>
       </c>
       <c r="Q856" t="n">
         <v>15</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -62061,16 +62061,16 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="K857" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L857" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M857" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62079,11 +62079,11 @@
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="Q857" t="n">
         <v>15</v>
@@ -62124,7 +62124,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="K858" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L858" t="n">
         <v>7000</v>
       </c>
       <c r="M858" t="n">
-        <v>6556</v>
+        <v>7000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="Q858" t="n">
         <v>12</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,32 +62205,32 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="K859" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L859" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M859" t="n">
-        <v>6522</v>
+        <v>10000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>544</v>
+        <v>667</v>
       </c>
       <c r="Q859" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -62268,7 +62268,7 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
@@ -62277,32 +62277,32 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K860" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L860" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M860" t="n">
-        <v>5271</v>
+        <v>9000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="Q860" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -62340,7 +62340,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -62349,32 +62349,32 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="K861" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L861" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M861" t="n">
-        <v>5000</v>
+        <v>6556</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>333</v>
+        <v>546</v>
       </c>
       <c r="Q861" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R861" t="inlineStr">
         <is>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -62412,7 +62412,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -62424,13 +62424,13 @@
         <v>115</v>
       </c>
       <c r="K862" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L862" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M862" t="n">
-        <v>4783</v>
+        <v>6522</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>399</v>
+        <v>544</v>
       </c>
       <c r="Q862" t="n">
         <v>12</v>
@@ -62484,7 +62484,7 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
@@ -62493,32 +62493,32 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="K863" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L863" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M863" t="n">
-        <v>4702</v>
+        <v>5271</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>392</v>
+        <v>527</v>
       </c>
       <c r="Q863" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R863" t="inlineStr">
         <is>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="K864" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L864" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M864" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="Q864" t="n">
         <v>15</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K865" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L865" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M865" t="n">
-        <v>6000</v>
+        <v>4783</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>500</v>
+        <v>399</v>
       </c>
       <c r="Q865" t="n">
         <v>12</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -62700,7 +62700,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="K866" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L866" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M866" t="n">
-        <v>6520</v>
+        <v>4702</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>543</v>
+        <v>392</v>
       </c>
       <c r="Q866" t="n">
         <v>12</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -62772,7 +62772,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -62781,32 +62781,32 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>700</v>
+        <v>165</v>
       </c>
       <c r="K867" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L867" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M867" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="Q867" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R867" t="inlineStr">
         <is>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -62844,7 +62844,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
@@ -62853,32 +62853,32 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="K868" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L868" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M868" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q868" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R868" t="inlineStr">
         <is>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -62916,7 +62916,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -62925,32 +62925,32 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>800</v>
+        <v>125</v>
       </c>
       <c r="K869" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L869" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M869" t="n">
-        <v>8000</v>
+        <v>6520</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>444</v>
+        <v>543</v>
       </c>
       <c r="Q869" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62988,7 +62988,7 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
@@ -62997,32 +62997,32 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K870" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L870" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M870" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>517</v>
+        <v>600</v>
       </c>
       <c r="Q870" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63060,7 +63060,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K871" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L871" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M871" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="Q871" t="n">
         <v>15</v>
@@ -63132,7 +63132,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -63141,20 +63141,20 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K872" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L872" t="n">
         <v>8000</v>
       </c>
       <c r="M872" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O872" t="inlineStr">
@@ -63163,10 +63163,10 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>517</v>
+        <v>444</v>
       </c>
       <c r="Q872" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R872" t="inlineStr">
         <is>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="K873" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L873" t="n">
         <v>8000</v>
       </c>
       <c r="M873" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="Q873" t="n">
         <v>15</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -63276,7 +63276,7 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
@@ -63285,7 +63285,7 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="K874" t="n">
         <v>6000</v>
@@ -63298,19 +63298,19 @@
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q874" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -63357,32 +63357,32 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K875" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L875" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M875" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="Q875" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R875" t="inlineStr">
         <is>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -63420,7 +63420,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -63429,32 +63429,32 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K876" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L876" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M876" t="n">
-        <v>6581</v>
+        <v>8000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>658</v>
+        <v>533</v>
       </c>
       <c r="Q876" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R876" t="inlineStr">
         <is>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -63492,7 +63492,7 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
@@ -63501,32 +63501,32 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="K877" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L877" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M877" t="n">
-        <v>10429</v>
+        <v>6000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>695</v>
+        <v>500</v>
       </c>
       <c r="Q877" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R877" t="inlineStr">
         <is>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -63564,7 +63564,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -63573,32 +63573,32 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="K878" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L878" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M878" t="n">
-        <v>7462</v>
+        <v>6000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="Q878" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R878" t="inlineStr">
         <is>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -63636,7 +63636,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -63645,32 +63645,32 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="K879" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L879" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M879" t="n">
-        <v>8000</v>
+        <v>6581</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>533</v>
+        <v>658</v>
       </c>
       <c r="Q879" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44277</v>
+        <v>44390</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K880" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L880" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M880" t="n">
-        <v>7000</v>
+        <v>10429</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63735,11 +63735,11 @@
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>467</v>
+        <v>695</v>
       </c>
       <c r="Q880" t="n">
         <v>15</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -63789,7 +63789,7 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="K881" t="n">
         <v>7000</v>
@@ -63798,7 +63798,7 @@
         <v>8000</v>
       </c>
       <c r="M881" t="n">
-        <v>7406</v>
+        <v>7462</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63807,11 +63807,11 @@
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q881" t="n">
         <v>15</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,20 +63861,20 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K882" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L882" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M882" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
@@ -63883,10 +63883,10 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="Q882" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E883" t="n">
         <v>9</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63933,32 +63933,32 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K883" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L883" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M883" t="n">
-        <v>6250</v>
+        <v>7000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="Q883" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K884" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L884" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M884" t="n">
-        <v>6000</v>
+        <v>7406</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="Q884" t="n">
         <v>15</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="K885" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L885" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M885" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q885" t="n">
         <v>12</v>
@@ -64140,7 +64140,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -64149,32 +64149,32 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K886" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L886" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M886" t="n">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>417</v>
+        <v>625</v>
       </c>
       <c r="Q886" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R886" t="inlineStr">
         <is>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E887" t="n">
         <v>9</v>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -64221,32 +64221,32 @@
         </is>
       </c>
       <c r="J887" t="n">
+        <v>200</v>
+      </c>
+      <c r="K887" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L887" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M887" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N887" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O887" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P887" t="n">
         <v>400</v>
       </c>
-      <c r="K887" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L887" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M887" t="n">
-        <v>7000</v>
-      </c>
-      <c r="N887" t="inlineStr">
-        <is>
-          <t>$/caja 10 unidades</t>
-        </is>
-      </c>
-      <c r="O887" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P887" t="n">
-        <v>700</v>
-      </c>
       <c r="Q887" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R887" t="inlineStr">
         <is>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -64284,7 +64284,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -64293,32 +64293,32 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K888" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L888" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M888" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q888" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R888" t="inlineStr">
         <is>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -64356,7 +64356,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -64365,32 +64365,32 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="K889" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L889" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M889" t="n">
-        <v>7238</v>
+        <v>5000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="Q889" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R889" t="inlineStr">
         <is>
@@ -64428,7 +64428,7 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
@@ -64437,20 +64437,20 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K890" t="n">
         <v>7000</v>
       </c>
       <c r="L890" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M890" t="n">
-        <v>7222</v>
+        <v>7000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O890" t="inlineStr">
@@ -64459,10 +64459,10 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>481</v>
+        <v>700</v>
       </c>
       <c r="Q890" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R890" t="inlineStr">
         <is>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,32 +64509,32 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="K891" t="n">
         <v>7000</v>
       </c>
       <c r="L891" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M891" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q891" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R891" t="inlineStr">
         <is>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -64572,7 +64572,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -64581,32 +64581,32 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="K892" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L892" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M892" t="n">
-        <v>6722</v>
+        <v>7238</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>672</v>
+        <v>483</v>
       </c>
       <c r="Q892" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64644,7 +64644,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -64656,29 +64656,29 @@
         <v>450</v>
       </c>
       <c r="K893" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L893" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M893" t="n">
-        <v>6778</v>
+        <v>7222</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>678</v>
+        <v>481</v>
       </c>
       <c r="Q893" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R893" t="inlineStr">
         <is>
@@ -64716,7 +64716,7 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -64725,20 +64725,20 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K894" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L894" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M894" t="n">
-        <v>9400</v>
+        <v>7000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
@@ -64747,10 +64747,10 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="Q894" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64788,7 +64788,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -64797,20 +64797,20 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>1600</v>
+        <v>450</v>
       </c>
       <c r="K895" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L895" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M895" t="n">
-        <v>9500</v>
+        <v>6722</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
@@ -64819,10 +64819,10 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="Q895" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64869,20 +64869,20 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K896" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L896" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M896" t="n">
-        <v>9000</v>
+        <v>6778</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
@@ -64891,10 +64891,10 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>600</v>
+        <v>678</v>
       </c>
       <c r="Q896" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K897" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L897" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M897" t="n">
-        <v>6500</v>
+        <v>9400</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>433</v>
+        <v>627</v>
       </c>
       <c r="Q897" t="n">
         <v>15</v>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K898" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L898" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M898" t="n">
-        <v>6833</v>
+        <v>9500</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>456</v>
+        <v>633</v>
       </c>
       <c r="Q898" t="n">
         <v>15</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65085,32 +65085,32 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K899" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L899" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M899" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="Q899" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="K900" t="n">
         <v>6500</v>
       </c>
       <c r="L900" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M900" t="n">
-        <v>6731</v>
+        <v>6500</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="Q900" t="n">
         <v>15</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,20 +65229,20 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="K901" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L901" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M901" t="n">
-        <v>6000</v>
+        <v>6833</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
@@ -65251,10 +65251,10 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>600</v>
+        <v>456</v>
       </c>
       <c r="Q901" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65301,32 +65301,32 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K902" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L902" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M902" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="Q902" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="K903" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L903" t="n">
         <v>7000</v>
       </c>
       <c r="M903" t="n">
-        <v>6446</v>
+        <v>6731</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="Q903" t="n">
         <v>15</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="K904" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L904" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M904" t="n">
-        <v>7444</v>
+        <v>6000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>744</v>
+        <v>600</v>
       </c>
       <c r="Q904" t="n">
         <v>10</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E905" t="n">
         <v>9</v>
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>1500</v>
+        <v>95</v>
       </c>
       <c r="K905" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L905" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M905" t="n">
-        <v>9533</v>
+        <v>8000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65535,11 +65535,11 @@
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>636</v>
+        <v>533</v>
       </c>
       <c r="Q905" t="n">
         <v>15</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K906" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L906" t="n">
         <v>7000</v>
       </c>
-      <c r="L906" t="n">
-        <v>8000</v>
-      </c>
       <c r="M906" t="n">
-        <v>7556</v>
+        <v>6446</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="Q906" t="n">
         <v>15</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,7 +65661,7 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K907" t="n">
         <v>7000</v>
@@ -65670,11 +65670,11 @@
         <v>8000</v>
       </c>
       <c r="M907" t="n">
-        <v>7600</v>
+        <v>7444</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
@@ -65683,10 +65683,10 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>507</v>
+        <v>744</v>
       </c>
       <c r="Q907" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,32 +65733,32 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>90</v>
+        <v>1500</v>
       </c>
       <c r="K908" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L908" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M908" t="n">
-        <v>6444</v>
+        <v>9533</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="Q908" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -65805,20 +65805,20 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K909" t="n">
         <v>7000</v>
       </c>
       <c r="L909" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M909" t="n">
-        <v>7000</v>
+        <v>7556</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
@@ -65827,10 +65827,10 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>700</v>
+        <v>504</v>
       </c>
       <c r="Q909" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R909" t="inlineStr">
         <is>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K910" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L910" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M910" t="n">
-        <v>11556</v>
+        <v>7600</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>770</v>
+        <v>507</v>
       </c>
       <c r="Q910" t="n">
         <v>15</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,20 +65949,20 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K911" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L911" t="n">
         <v>7000</v>
       </c>
       <c r="M911" t="n">
-        <v>7000</v>
+        <v>6444</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
@@ -65971,10 +65971,10 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="Q911" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,7 +66021,7 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K912" t="n">
         <v>7000</v>
@@ -66034,19 +66034,19 @@
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q912" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K913" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L913" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M913" t="n">
-        <v>7000</v>
+        <v>11556</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>467</v>
+        <v>770</v>
       </c>
       <c r="Q913" t="n">
         <v>15</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66165,7 +66165,7 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K914" t="n">
         <v>7000</v>
@@ -66178,7 +66178,7 @@
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
@@ -66187,10 +66187,10 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="Q914" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -66228,7 +66228,7 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
@@ -66237,7 +66237,7 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="K915" t="n">
         <v>7000</v>
@@ -66255,7 +66255,7 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P915" t="n">
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E916" t="n">
         <v>9</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="K916" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L916" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M916" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="Q916" t="n">
         <v>15</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66381,32 +66381,32 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="K917" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L917" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M917" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="Q917" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E918" t="n">
         <v>9</v>
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K918" t="n">
         <v>7000</v>
       </c>
       <c r="L918" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M918" t="n">
-        <v>7556</v>
+        <v>7000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>504</v>
+        <v>467</v>
       </c>
       <c r="Q918" t="n">
         <v>15</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E919" t="n">
         <v>9</v>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="K919" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L919" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M919" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q919" t="n">
         <v>15</v>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,20 +66597,20 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K920" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L920" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M920" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
@@ -66619,10 +66619,10 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q920" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K921" t="n">
         <v>7000</v>
       </c>
       <c r="L921" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M921" t="n">
-        <v>7000</v>
+        <v>7556</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="Q921" t="n">
         <v>15</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E922" t="n">
         <v>9</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,20 +66741,20 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K922" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L922" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M922" t="n">
-        <v>6556</v>
+        <v>8000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
@@ -66763,10 +66763,10 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>656</v>
+        <v>533</v>
       </c>
       <c r="Q922" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E923" t="n">
         <v>9</v>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K923" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L923" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M923" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="Q923" t="n">
         <v>15</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E924" t="n">
         <v>9</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>2400</v>
+        <v>300</v>
       </c>
       <c r="K924" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L924" t="n">
         <v>7000</v>
       </c>
       <c r="M924" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="Q924" t="n">
         <v>15</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,7 +66957,7 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K925" t="n">
         <v>6000</v>
@@ -66966,11 +66966,11 @@
         <v>7000</v>
       </c>
       <c r="M925" t="n">
-        <v>6500</v>
+        <v>6556</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
@@ -66979,10 +66979,10 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>433</v>
+        <v>656</v>
       </c>
       <c r="Q925" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,32 +67029,32 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K926" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L926" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M926" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="Q926" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,7 +67101,7 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="K927" t="n">
         <v>6000</v>
@@ -67129,6 +67129,222 @@
         <v>15</v>
       </c>
       <c r="R927" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>10</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D928" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E928" t="n">
+        <v>9</v>
+      </c>
+      <c r="F928" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J928" t="n">
+        <v>600</v>
+      </c>
+      <c r="K928" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L928" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M928" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N928" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O928" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P928" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q928" t="n">
+        <v>15</v>
+      </c>
+      <c r="R928" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>10</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D929" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E929" t="n">
+        <v>9</v>
+      </c>
+      <c r="F929" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J929" t="n">
+        <v>80</v>
+      </c>
+      <c r="K929" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L929" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M929" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N929" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O929" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P929" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q929" t="n">
+        <v>12</v>
+      </c>
+      <c r="R929" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>10</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D930" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E930" t="n">
+        <v>9</v>
+      </c>
+      <c r="F930" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J930" t="n">
+        <v>600</v>
+      </c>
+      <c r="K930" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L930" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M930" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N930" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O930" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P930" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q930" t="n">
+        <v>15</v>
+      </c>
+      <c r="R930" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R943"/>
+  <dimension ref="A1:R947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -64356,7 +64356,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -64365,32 +64365,32 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="K889" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L889" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M889" t="n">
-        <v>5716</v>
+        <v>7000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>572</v>
+        <v>467</v>
       </c>
       <c r="Q889" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R889" t="inlineStr">
         <is>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64428,7 +64428,7 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
@@ -64437,32 +64437,32 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="K890" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L890" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M890" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q890" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R890" t="inlineStr">
         <is>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,7 +64509,7 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>550</v>
+        <v>145</v>
       </c>
       <c r="K891" t="n">
         <v>6000</v>
@@ -64518,11 +64518,11 @@
         <v>7000</v>
       </c>
       <c r="M891" t="n">
-        <v>6455</v>
+        <v>6448</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O891" t="inlineStr">
@@ -64531,10 +64531,10 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>430</v>
+        <v>537</v>
       </c>
       <c r="Q891" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R891" t="inlineStr">
         <is>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -64572,7 +64572,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -64581,32 +64581,32 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>430</v>
+        <v>95</v>
       </c>
       <c r="K892" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L892" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M892" t="n">
-        <v>5581</v>
+        <v>6474</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>372</v>
+        <v>540</v>
       </c>
       <c r="Q892" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64644,7 +64644,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -64653,32 +64653,32 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K893" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L893" t="n">
         <v>6000</v>
       </c>
       <c r="M893" t="n">
-        <v>6000</v>
+        <v>5716</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="Q893" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R893" t="inlineStr">
         <is>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -64716,7 +64716,7 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -64725,32 +64725,32 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K894" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L894" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M894" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P894" t="n">
         <v>500</v>
       </c>
       <c r="Q894" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44385</v>
+        <v>44560</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -64788,7 +64788,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -64797,32 +64797,32 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="K895" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L895" t="n">
         <v>7000</v>
       </c>
-      <c r="L895" t="n">
-        <v>8000</v>
-      </c>
       <c r="M895" t="n">
-        <v>7571</v>
+        <v>6455</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>757</v>
+        <v>430</v>
       </c>
       <c r="Q895" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44385</v>
+        <v>44560</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>900</v>
+        <v>430</v>
       </c>
       <c r="K896" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L896" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M896" t="n">
-        <v>10000</v>
+        <v>5581</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64887,11 +64887,11 @@
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>667</v>
+        <v>372</v>
       </c>
       <c r="Q896" t="n">
         <v>15</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -64941,32 +64941,32 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="K897" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L897" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M897" t="n">
-        <v>7455</v>
+        <v>6000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="Q897" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R897" t="inlineStr">
         <is>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -65013,32 +65013,32 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K898" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L898" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M898" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q898" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R898" t="inlineStr">
         <is>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65085,20 +65085,20 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K899" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L899" t="n">
         <v>8000</v>
       </c>
       <c r="M899" t="n">
-        <v>7786</v>
+        <v>7571</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
@@ -65107,10 +65107,10 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>519</v>
+        <v>757</v>
       </c>
       <c r="Q899" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65157,20 +65157,20 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="K900" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L900" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M900" t="n">
-        <v>7588</v>
+        <v>10000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
@@ -65179,10 +65179,10 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>422</v>
+        <v>667</v>
       </c>
       <c r="Q900" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,32 +65229,32 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="K901" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L901" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M901" t="n">
-        <v>4000</v>
+        <v>7455</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>333</v>
+        <v>497</v>
       </c>
       <c r="Q901" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K902" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L902" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M902" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q902" t="n">
         <v>15</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K903" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L903" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M903" t="n">
-        <v>4000</v>
+        <v>7786</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>267</v>
+        <v>519</v>
       </c>
       <c r="Q903" t="n">
         <v>15</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,32 +65445,32 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K904" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L904" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M904" t="n">
-        <v>3444</v>
+        <v>7588</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>287</v>
+        <v>422</v>
       </c>
       <c r="Q904" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="K905" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L905" t="n">
         <v>4000</v>
       </c>
       <c r="M905" t="n">
-        <v>3455</v>
+        <v>4000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="Q905" t="n">
         <v>12</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,32 +65589,32 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="K906" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L906" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M906" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="Q906" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R906" t="inlineStr">
         <is>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E907" t="n">
         <v>9</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,20 +65661,20 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="K907" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L907" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M907" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
@@ -65683,10 +65683,10 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>550</v>
+        <v>267</v>
       </c>
       <c r="Q907" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,32 +65733,32 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>550</v>
+        <v>90</v>
       </c>
       <c r="K908" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L908" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M908" t="n">
-        <v>5000</v>
+        <v>3444</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="Q908" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="K909" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L909" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M909" t="n">
-        <v>5000</v>
+        <v>3455</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>417</v>
+        <v>288</v>
       </c>
       <c r="Q909" t="n">
         <v>12</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,32 +65877,32 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="K910" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L910" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M910" t="n">
-        <v>4766</v>
+        <v>6000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>397</v>
+        <v>600</v>
       </c>
       <c r="Q910" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R910" t="inlineStr">
         <is>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,32 +65949,32 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="K911" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L911" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M911" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="Q911" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44323</v>
+        <v>44529</v>
       </c>
       <c r="E912" t="n">
         <v>9</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,20 +66021,20 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>45</v>
+        <v>550</v>
       </c>
       <c r="K912" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L912" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M912" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
@@ -66043,10 +66043,10 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="Q912" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44323</v>
+        <v>44529</v>
       </c>
       <c r="E913" t="n">
         <v>9</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,32 +66093,32 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="K913" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L913" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M913" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="Q913" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44323</v>
+        <v>44529</v>
       </c>
       <c r="E914" t="n">
         <v>9</v>
@@ -66165,32 +66165,32 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="K914" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L914" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M914" t="n">
-        <v>7000</v>
+        <v>4766</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>467</v>
+        <v>397</v>
       </c>
       <c r="Q914" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44306</v>
+        <v>44414</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -66228,7 +66228,7 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
@@ -66237,7 +66237,7 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="K915" t="n">
         <v>8000</v>
@@ -66250,19 +66250,19 @@
       </c>
       <c r="N915" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q915" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R915" t="inlineStr">
         <is>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E916" t="n">
         <v>9</v>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -66309,32 +66309,32 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="K916" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L916" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M916" t="n">
-        <v>8629</v>
+        <v>7000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="Q916" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R916" t="inlineStr">
         <is>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -66381,7 +66381,7 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>950</v>
+        <v>150</v>
       </c>
       <c r="K917" t="n">
         <v>8000</v>
@@ -66399,7 +66399,7 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P917" t="n">
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44189</v>
+        <v>44323</v>
       </c>
       <c r="E918" t="n">
         <v>9</v>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="K918" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L918" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M918" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q918" t="n">
         <v>15</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E919" t="n">
         <v>9</v>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -66525,32 +66525,32 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="K919" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L919" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M919" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="Q919" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,32 +66597,32 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="K920" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L920" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M920" t="n">
-        <v>4000</v>
+        <v>8629</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>333</v>
+        <v>575</v>
       </c>
       <c r="Q920" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="E921" t="n">
         <v>9</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="K921" t="n">
         <v>8000</v>
       </c>
       <c r="L921" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M921" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="Q921" t="n">
         <v>15</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E922" t="n">
         <v>9</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K922" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L922" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M922" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="Q922" t="n">
         <v>15</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E923" t="n">
         <v>9</v>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,32 +66813,32 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K923" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L923" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M923" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="Q923" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44428</v>
+        <v>44189</v>
       </c>
       <c r="E924" t="n">
         <v>9</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,32 +66885,32 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K924" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L924" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M924" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>933</v>
+        <v>333</v>
       </c>
       <c r="Q924" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E925" t="n">
         <v>9</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,20 +66957,20 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="K925" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L925" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M925" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
@@ -66979,10 +66979,10 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>700</v>
+        <v>567</v>
       </c>
       <c r="Q925" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E926" t="n">
         <v>9</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>905</v>
+        <v>700</v>
       </c>
       <c r="K926" t="n">
         <v>8000</v>
       </c>
       <c r="L926" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M926" t="n">
-        <v>8282</v>
+        <v>8000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="Q926" t="n">
         <v>15</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44302</v>
+        <v>44299</v>
       </c>
       <c r="E927" t="n">
         <v>9</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,7 +67101,7 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K927" t="n">
         <v>7000</v>
@@ -67114,19 +67114,19 @@
       </c>
       <c r="N927" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="Q927" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R927" t="inlineStr">
         <is>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44302</v>
+        <v>44428</v>
       </c>
       <c r="E928" t="n">
         <v>9</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K928" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L928" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M928" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="Q928" t="n">
         <v>15</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E929" t="n">
         <v>9</v>
@@ -67236,7 +67236,7 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
@@ -67245,32 +67245,32 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>400</v>
+        <v>55</v>
       </c>
       <c r="K929" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L929" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M929" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="Q929" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44209</v>
+        <v>44321</v>
       </c>
       <c r="E930" t="n">
         <v>9</v>
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>600</v>
+        <v>905</v>
       </c>
       <c r="K930" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L930" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M930" t="n">
-        <v>5583</v>
+        <v>8282</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>372</v>
+        <v>552</v>
       </c>
       <c r="Q930" t="n">
         <v>15</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E931" t="n">
         <v>9</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67392,29 +67392,29 @@
         <v>200</v>
       </c>
       <c r="K931" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L931" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M931" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="Q931" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E932" t="n">
         <v>9</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,32 +67461,32 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K932" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L932" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M932" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q932" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44274</v>
+        <v>44302</v>
       </c>
       <c r="E933" t="n">
         <v>9</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,32 +67533,32 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K933" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L933" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M933" t="n">
-        <v>6600</v>
+        <v>8000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="Q933" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E934" t="n">
         <v>9</v>
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="K934" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L934" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M934" t="n">
-        <v>8625</v>
+        <v>5583</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>575</v>
+        <v>372</v>
       </c>
       <c r="Q934" t="n">
         <v>15</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E935" t="n">
         <v>9</v>
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K935" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L935" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M935" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q935" t="n">
         <v>12</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E936" t="n">
         <v>9</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K936" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L936" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M936" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q936" t="n">
         <v>12</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E937" t="n">
         <v>9</v>
@@ -67821,32 +67821,32 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K937" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L937" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M937" t="n">
-        <v>5000</v>
+        <v>6600</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q937" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E938" t="n">
         <v>9</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K938" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L938" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M938" t="n">
-        <v>6531</v>
+        <v>8625</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>435</v>
+        <v>575</v>
       </c>
       <c r="Q938" t="n">
         <v>15</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44392</v>
+        <v>44274</v>
       </c>
       <c r="E939" t="n">
         <v>9</v>
@@ -67956,7 +67956,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -67965,32 +67965,32 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K939" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L939" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M939" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q939" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44392</v>
+        <v>44274</v>
       </c>
       <c r="E940" t="n">
         <v>9</v>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,32 +68037,32 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>750</v>
+        <v>120</v>
       </c>
       <c r="K940" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L940" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M940" t="n">
-        <v>10467</v>
+        <v>6000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>698</v>
+        <v>500</v>
       </c>
       <c r="Q940" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E941" t="n">
         <v>9</v>
@@ -68100,7 +68100,7 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
@@ -68109,20 +68109,20 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="K941" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L941" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M941" t="n">
-        <v>6757</v>
+        <v>5000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
@@ -68131,10 +68131,10 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q941" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E942" t="n">
         <v>9</v>
@@ -68172,7 +68172,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K942" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L942" t="n">
         <v>7000</v>
       </c>
       <c r="M942" t="n">
-        <v>7000</v>
+        <v>6531</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="Q942" t="n">
         <v>15</v>
@@ -68244,7 +68244,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -68253,7 +68253,7 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K943" t="n">
         <v>7000</v>
@@ -68266,21 +68266,309 @@
       </c>
       <c r="N943" t="inlineStr">
         <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O943" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P943" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>10</v>
+      </c>
+      <c r="R943" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>10</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D944" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E944" t="n">
+        <v>9</v>
+      </c>
+      <c r="F944" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J944" t="n">
+        <v>750</v>
+      </c>
+      <c r="K944" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L944" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M944" t="n">
+        <v>10467</v>
+      </c>
+      <c r="N944" t="inlineStr">
+        <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O943" t="inlineStr">
+      <c r="O944" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P944" t="n">
+        <v>698</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>15</v>
+      </c>
+      <c r="R944" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>10</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D945" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E945" t="n">
+        <v>9</v>
+      </c>
+      <c r="F945" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J945" t="n">
+        <v>185</v>
+      </c>
+      <c r="K945" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L945" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M945" t="n">
+        <v>6757</v>
+      </c>
+      <c r="N945" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O945" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P943" t="n">
+      <c r="P945" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q945" t="n">
+        <v>15</v>
+      </c>
+      <c r="R945" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>10</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D946" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E946" t="n">
+        <v>9</v>
+      </c>
+      <c r="F946" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J946" t="n">
+        <v>110</v>
+      </c>
+      <c r="K946" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L946" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M946" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N946" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O946" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P946" t="n">
         <v>467</v>
       </c>
-      <c r="Q943" t="n">
+      <c r="Q946" t="n">
         <v>15</v>
       </c>
-      <c r="R943" t="inlineStr">
+      <c r="R946" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>10</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D947" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E947" t="n">
+        <v>9</v>
+      </c>
+      <c r="F947" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J947" t="n">
+        <v>155</v>
+      </c>
+      <c r="K947" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L947" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M947" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N947" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O947" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P947" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q947" t="n">
+        <v>15</v>
+      </c>
+      <c r="R947" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R960"/>
+  <dimension ref="A1:R963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E946" t="n">
         <v>9</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,32 +68469,32 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="K946" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L946" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M946" t="n">
-        <v>7295</v>
+        <v>8471</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>730</v>
+        <v>565</v>
       </c>
       <c r="Q946" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R946" t="inlineStr">
         <is>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E947" t="n">
         <v>9</v>
@@ -68532,7 +68532,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -68541,32 +68541,32 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="K947" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L947" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M947" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>667</v>
+        <v>583</v>
       </c>
       <c r="Q947" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R947" t="inlineStr">
         <is>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E948" t="n">
         <v>9</v>
@@ -68604,7 +68604,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -68613,32 +68613,32 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K948" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L948" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M948" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="Q948" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68676,7 +68676,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
@@ -68685,20 +68685,20 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K949" t="n">
         <v>7000</v>
       </c>
       <c r="L949" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M949" t="n">
-        <v>7000</v>
+        <v>7295</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
@@ -68707,10 +68707,10 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>467</v>
+        <v>730</v>
       </c>
       <c r="Q949" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E950" t="n">
         <v>9</v>
@@ -68748,7 +68748,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -68757,32 +68757,32 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K950" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L950" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M950" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q950" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E951" t="n">
         <v>9</v>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68832,17 +68832,17 @@
         <v>95</v>
       </c>
       <c r="K951" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L951" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M951" t="n">
-        <v>4737</v>
+        <v>7500</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
@@ -68851,10 +68851,10 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="Q951" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E952" t="n">
         <v>9</v>
@@ -68892,7 +68892,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>465</v>
+        <v>90</v>
       </c>
       <c r="K952" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L952" t="n">
         <v>7000</v>
       </c>
       <c r="M952" t="n">
-        <v>6602</v>
+        <v>7000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="Q952" t="n">
         <v>15</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E953" t="n">
         <v>9</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K953" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L953" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M953" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q953" t="n">
         <v>10</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E954" t="n">
         <v>9</v>
@@ -69045,7 +69045,7 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K954" t="n">
         <v>4500</v>
@@ -69054,23 +69054,23 @@
         <v>5000</v>
       </c>
       <c r="M954" t="n">
-        <v>4771</v>
+        <v>4737</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="Q954" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E955" t="n">
         <v>9</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>380</v>
+        <v>465</v>
       </c>
       <c r="K955" t="n">
         <v>6000</v>
       </c>
       <c r="L955" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M955" t="n">
-        <v>6000</v>
+        <v>6602</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="Q955" t="n">
         <v>15</v>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,32 +69189,32 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="K956" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L956" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M956" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q956" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E957" t="n">
         <v>9</v>
@@ -69261,7 +69261,7 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K957" t="n">
         <v>4500</v>
@@ -69270,23 +69270,23 @@
         <v>5000</v>
       </c>
       <c r="M957" t="n">
-        <v>4750</v>
+        <v>4771</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>475</v>
+        <v>398</v>
       </c>
       <c r="Q957" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E958" t="n">
         <v>9</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="K958" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L958" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M958" t="n">
-        <v>3727</v>
+        <v>6000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>248</v>
+        <v>400</v>
       </c>
       <c r="Q958" t="n">
         <v>15</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E959" t="n">
         <v>9</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K959" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L959" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M959" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="Q959" t="n">
         <v>15</v>
@@ -69468,7 +69468,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -69477,7 +69477,7 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K960" t="n">
         <v>4500</v>
@@ -69486,25 +69486,241 @@
         <v>5000</v>
       </c>
       <c r="M960" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N960" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O960" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P960" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q960" t="n">
+        <v>10</v>
+      </c>
+      <c r="R960" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>10</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D961" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E961" t="n">
+        <v>9</v>
+      </c>
+      <c r="F961" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I961" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J961" t="n">
+        <v>220</v>
+      </c>
+      <c r="K961" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L961" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M961" t="n">
+        <v>3727</v>
+      </c>
+      <c r="N961" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O961" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P961" t="n">
+        <v>248</v>
+      </c>
+      <c r="Q961" t="n">
+        <v>15</v>
+      </c>
+      <c r="R961" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>10</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D962" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E962" t="n">
+        <v>9</v>
+      </c>
+      <c r="F962" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I962" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J962" t="n">
+        <v>200</v>
+      </c>
+      <c r="K962" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L962" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M962" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N962" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O962" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P962" t="n">
+        <v>267</v>
+      </c>
+      <c r="Q962" t="n">
+        <v>15</v>
+      </c>
+      <c r="R962" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>10</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D963" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E963" t="n">
+        <v>9</v>
+      </c>
+      <c r="F963" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J963" t="n">
+        <v>220</v>
+      </c>
+      <c r="K963" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L963" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M963" t="n">
         <v>4727</v>
       </c>
-      <c r="N960" t="inlineStr">
+      <c r="N963" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O960" t="inlineStr">
+      <c r="O963" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P960" t="n">
+      <c r="P963" t="n">
         <v>315</v>
       </c>
-      <c r="Q960" t="n">
+      <c r="Q963" t="n">
         <v>15</v>
       </c>
-      <c r="R960" t="inlineStr">
+      <c r="R963" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R986"/>
+  <dimension ref="A1:R989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E930" t="n">
         <v>9</v>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67317,32 +67317,32 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K930" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L930" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M930" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q930" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E931" t="n">
         <v>9</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,32 +67389,32 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K931" t="n">
         <v>7000</v>
       </c>
       <c r="L931" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M931" t="n">
-        <v>7556</v>
+        <v>7000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>504</v>
+        <v>583</v>
       </c>
       <c r="Q931" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E932" t="n">
         <v>9</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,32 +67461,32 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K932" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L932" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M932" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="Q932" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,20 +67533,20 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K933" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L933" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M933" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
@@ -67555,10 +67555,10 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q933" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K934" t="n">
         <v>7000</v>
       </c>
       <c r="L934" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M934" t="n">
-        <v>7000</v>
+        <v>7556</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="Q934" t="n">
         <v>15</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E935" t="n">
         <v>9</v>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,32 +67677,32 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K935" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L935" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M935" t="n">
-        <v>6545</v>
+        <v>8000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>654</v>
+        <v>533</v>
       </c>
       <c r="Q935" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E936" t="n">
         <v>9</v>
@@ -67740,7 +67740,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K936" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L936" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M936" t="n">
-        <v>10529</v>
+        <v>7000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>702</v>
+        <v>467</v>
       </c>
       <c r="Q936" t="n">
         <v>15</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E937" t="n">
         <v>9</v>
@@ -67812,25 +67812,25 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J937" t="n">
         <v>300</v>
       </c>
       <c r="K937" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L937" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M937" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q937" t="n">
         <v>15</v>
@@ -67884,7 +67884,7 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
@@ -67893,7 +67893,7 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="K938" t="n">
         <v>6000</v>
@@ -67902,11 +67902,11 @@
         <v>7000</v>
       </c>
       <c r="M938" t="n">
-        <v>6400</v>
+        <v>6545</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
@@ -67915,10 +67915,10 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>427</v>
+        <v>654</v>
       </c>
       <c r="Q938" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67956,7 +67956,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K939" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L939" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M939" t="n">
-        <v>6417</v>
+        <v>10529</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>428</v>
+        <v>702</v>
       </c>
       <c r="Q939" t="n">
         <v>15</v>
@@ -68028,38 +68028,38 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K940" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L940" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M940" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N940" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O940" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P940" t="n">
         <v>600</v>
-      </c>
-      <c r="L940" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M940" t="n">
-        <v>4091</v>
-      </c>
-      <c r="N940" t="inlineStr">
-        <is>
-          <t>$/caja 15 unidades</t>
-        </is>
-      </c>
-      <c r="O940" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P940" t="n">
-        <v>273</v>
       </c>
       <c r="Q940" t="n">
         <v>15</v>
@@ -68100,7 +68100,7 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
@@ -68109,7 +68109,7 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K941" t="n">
         <v>6000</v>
@@ -68118,11 +68118,11 @@
         <v>7000</v>
       </c>
       <c r="M941" t="n">
-        <v>6385</v>
+        <v>6400</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
@@ -68131,10 +68131,10 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>355</v>
+        <v>427</v>
       </c>
       <c r="Q941" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E942" t="n">
         <v>9</v>
@@ -68172,7 +68172,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -68181,32 +68181,32 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K942" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L942" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M942" t="n">
-        <v>4500</v>
+        <v>6417</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="Q942" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E943" t="n">
         <v>9</v>
@@ -68244,7 +68244,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="K943" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="L943" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M943" t="n">
-        <v>6000</v>
+        <v>4091</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>400</v>
+        <v>273</v>
       </c>
       <c r="Q943" t="n">
         <v>15</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E944" t="n">
         <v>9</v>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,32 +68325,32 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="K944" t="n">
         <v>6000</v>
       </c>
       <c r="L944" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M944" t="n">
-        <v>6000</v>
+        <v>6385</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v